--- a/v4-ASVS-checklist-en.xlsx
+++ b/v4-ASVS-checklist-en.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guicota/Desktop/MEI/desofs-2024/comic-book-store/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF6BB7EA-F751-9240-91F6-3F6AFEA74C5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3D029E0-D2ED-A941-A605-39E78C834605}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16460" tabRatio="500" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,12 +29,14 @@
     <sheet name="API and Web Service" sheetId="14" r:id="rId14"/>
     <sheet name="Configuration" sheetId="15" r:id="rId15"/>
   </sheets>
-  <calcPr calcId="181029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -46,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="996" uniqueCount="691">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="996" uniqueCount="694">
   <si>
     <t>Security Category</t>
   </si>
@@ -2147,10 +2149,19 @@
     <t>Analysis done</t>
   </si>
   <si>
-    <t>Analysis done, Auth0 support</t>
-  </si>
-  <si>
     <t>Non-valid</t>
+  </si>
+  <si>
+    <t>Analysis done, support</t>
+  </si>
+  <si>
+    <t>Analysis done, support, customizable</t>
+  </si>
+  <si>
+    <t>Analysis done, customizable</t>
+  </si>
+  <si>
+    <t>Analysis done, uncertain</t>
   </si>
 </sst>
 </file>
@@ -3507,7 +3518,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>94.73684210526315</c:v>
+                  <c:v>87.719298245614027</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -3546,7 +3557,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>19.424460431654676</c:v>
+                  <c:v>17.985611510791365</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4116,7 +4127,7 @@
       </c>
       <c r="B3" s="9">
         <f>COUNTIF(Authentication!G2:G58,"Valid")</f>
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C3" s="10">
         <f>COUNTIF(Authentication!G2:G58,"&lt;&gt;Not Applicable")</f>
@@ -4124,7 +4135,7 @@
       </c>
       <c r="D3" s="11">
         <f t="shared" si="0"/>
-        <v>94.73684210526315</v>
+        <v>87.719298245614027</v>
       </c>
       <c r="E3" s="12"/>
     </row>
@@ -4351,7 +4362,7 @@
       </c>
       <c r="B16" s="9">
         <f>SUM(B2:B15)</f>
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C16" s="10">
         <f>SUM(C2:C15)</f>
@@ -4359,7 +4370,7 @@
       </c>
       <c r="D16" s="11">
         <f t="shared" si="0"/>
-        <v>19.424460431654676</v>
+        <v>17.985611510791365</v>
       </c>
       <c r="E16" s="12"/>
     </row>
@@ -7429,17 +7440,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="A23:A26"/>
     <mergeCell ref="A40:A45"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="A29:A30"/>
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="A34:A36"/>
     <mergeCell ref="A37:A38"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="A23:A26"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" operator="equal" showErrorMessage="1" sqref="G2:G45" xr:uid="{00000000-0002-0000-0100-000000000000}">
@@ -7460,8 +7471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AMJ58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="97" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="G58" sqref="G58"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="97" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="21"/>
@@ -7534,7 +7545,7 @@
       </c>
       <c r="H2" s="51"/>
       <c r="I2" s="51" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="J2" s="52"/>
     </row>
@@ -7556,11 +7567,11 @@
         <v>135</v>
       </c>
       <c r="G3" s="29" t="s">
-        <v>26</v>
+        <v>689</v>
       </c>
       <c r="H3" s="31"/>
       <c r="I3" s="31" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="J3" s="32"/>
     </row>
@@ -7582,11 +7593,11 @@
         <v>137</v>
       </c>
       <c r="G4" s="29" t="s">
-        <v>26</v>
+        <v>689</v>
       </c>
       <c r="H4" s="31"/>
       <c r="I4" s="31" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="J4" s="32"/>
     </row>
@@ -7612,7 +7623,7 @@
       </c>
       <c r="H5" s="31"/>
       <c r="I5" s="31" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="J5" s="32"/>
     </row>
@@ -7638,7 +7649,7 @@
       </c>
       <c r="H6" s="31"/>
       <c r="I6" s="31" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="J6" s="32"/>
     </row>
@@ -7664,7 +7675,7 @@
       </c>
       <c r="H7" s="31"/>
       <c r="I7" s="31" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="J7" s="32"/>
     </row>
@@ -7686,7 +7697,7 @@
         <v>145</v>
       </c>
       <c r="G8" s="29" t="s">
-        <v>26</v>
+        <v>689</v>
       </c>
       <c r="H8" s="31"/>
       <c r="I8" s="31" t="s">
@@ -7712,7 +7723,7 @@
         <v>147</v>
       </c>
       <c r="G9" s="29" t="s">
-        <v>26</v>
+        <v>689</v>
       </c>
       <c r="H9" s="31"/>
       <c r="I9" s="31" t="s">
@@ -7742,7 +7753,7 @@
       </c>
       <c r="H10" s="31"/>
       <c r="I10" s="31" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="J10" s="32"/>
     </row>
@@ -7768,7 +7779,7 @@
       </c>
       <c r="H11" s="31"/>
       <c r="I11" s="31" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="J11" s="32"/>
     </row>
@@ -7794,7 +7805,7 @@
       </c>
       <c r="H12" s="31"/>
       <c r="I12" s="31" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="J12" s="32"/>
     </row>
@@ -7820,7 +7831,7 @@
       </c>
       <c r="H13" s="31"/>
       <c r="I13" s="31" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
       <c r="J13" s="32"/>
     </row>
@@ -7848,7 +7859,7 @@
       </c>
       <c r="H14" s="31"/>
       <c r="I14" s="31" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="J14" s="32"/>
     </row>
@@ -7874,7 +7885,7 @@
       </c>
       <c r="H15" s="31"/>
       <c r="I15" s="31" t="s">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="J15" s="32"/>
     </row>
@@ -7898,7 +7909,7 @@
       </c>
       <c r="H16" s="31"/>
       <c r="I16" s="31" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="J16" s="32"/>
     </row>
@@ -7924,7 +7935,7 @@
       </c>
       <c r="H17" s="31"/>
       <c r="I17" s="31" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="J17" s="32"/>
     </row>
@@ -7950,7 +7961,7 @@
       </c>
       <c r="H18" s="31"/>
       <c r="I18" s="31" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="J18" s="32"/>
     </row>
@@ -7976,7 +7987,7 @@
       </c>
       <c r="H19" s="31"/>
       <c r="I19" s="31" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="J19" s="32"/>
     </row>
@@ -8002,7 +8013,7 @@
       </c>
       <c r="H20" s="31"/>
       <c r="I20" s="31" t="s">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="J20" s="32"/>
     </row>
@@ -8030,7 +8041,7 @@
       </c>
       <c r="H21" s="31"/>
       <c r="I21" s="31" t="s">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="J21" s="32"/>
     </row>
@@ -8056,7 +8067,7 @@
       </c>
       <c r="H22" s="31"/>
       <c r="I22" s="31" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="J22" s="32"/>
     </row>
@@ -8082,7 +8093,7 @@
       </c>
       <c r="H23" s="31"/>
       <c r="I23" s="31" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="J23" s="32"/>
     </row>
@@ -8110,7 +8121,7 @@
       </c>
       <c r="H24" s="31"/>
       <c r="I24" s="31" t="s">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="J24" s="32"/>
     </row>
@@ -8136,7 +8147,7 @@
       </c>
       <c r="H25" s="31"/>
       <c r="I25" s="31" t="s">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="J25" s="32"/>
     </row>
@@ -8162,7 +8173,7 @@
       </c>
       <c r="H26" s="31"/>
       <c r="I26" s="31" t="s">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="J26" s="32"/>
     </row>
@@ -8188,7 +8199,7 @@
       </c>
       <c r="H27" s="31"/>
       <c r="I27" s="31" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="J27" s="32"/>
     </row>
@@ -8214,7 +8225,7 @@
       </c>
       <c r="H28" s="29"/>
       <c r="I28" s="29" t="s">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="J28" s="33"/>
     </row>
@@ -8242,7 +8253,7 @@
       </c>
       <c r="H29" s="29"/>
       <c r="I29" s="29" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="J29" s="33"/>
     </row>
@@ -8268,7 +8279,7 @@
       </c>
       <c r="H30" s="29"/>
       <c r="I30" s="29" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="J30" s="33"/>
     </row>
@@ -8294,7 +8305,7 @@
       </c>
       <c r="H31" s="29"/>
       <c r="I31" s="29" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="J31" s="33"/>
     </row>
@@ -8320,7 +8331,7 @@
       </c>
       <c r="H32" s="29"/>
       <c r="I32" s="29" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="J32" s="33"/>
     </row>
@@ -8346,7 +8357,7 @@
       </c>
       <c r="H33" s="29"/>
       <c r="I33" s="29" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="J33" s="33"/>
     </row>
@@ -8372,7 +8383,7 @@
       </c>
       <c r="H34" s="29"/>
       <c r="I34" s="29" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="J34" s="33"/>
     </row>
@@ -8398,7 +8409,7 @@
       </c>
       <c r="H35" s="29"/>
       <c r="I35" s="29" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="J35" s="33"/>
     </row>
@@ -8426,7 +8437,7 @@
       </c>
       <c r="H36" s="29"/>
       <c r="I36" s="29" t="s">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="J36" s="33"/>
     </row>
@@ -8452,7 +8463,7 @@
       </c>
       <c r="H37" s="29"/>
       <c r="I37" s="29" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="J37" s="33"/>
     </row>
@@ -8478,7 +8489,7 @@
       </c>
       <c r="H38" s="29"/>
       <c r="I38" s="29" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="J38" s="33"/>
     </row>
@@ -8506,7 +8517,7 @@
       </c>
       <c r="H39" s="29"/>
       <c r="I39" s="29" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="J39" s="33"/>
     </row>
@@ -8532,7 +8543,7 @@
       </c>
       <c r="H40" s="29"/>
       <c r="I40" s="29" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="J40" s="33"/>
     </row>
@@ -8558,7 +8569,7 @@
       </c>
       <c r="H41" s="29"/>
       <c r="I41" s="29" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="J41" s="33"/>
     </row>
@@ -8584,7 +8595,7 @@
       </c>
       <c r="H42" s="29"/>
       <c r="I42" s="29" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="J42" s="33"/>
     </row>
@@ -8610,7 +8621,7 @@
       </c>
       <c r="H43" s="29"/>
       <c r="I43" s="29" t="s">
-        <v>688</v>
+        <v>693</v>
       </c>
       <c r="J43" s="33"/>
     </row>
@@ -8636,7 +8647,7 @@
       </c>
       <c r="H44" s="29"/>
       <c r="I44" s="29" t="s">
-        <v>688</v>
+        <v>693</v>
       </c>
       <c r="J44" s="33"/>
     </row>
@@ -8664,7 +8675,7 @@
       </c>
       <c r="H45" s="29"/>
       <c r="I45" s="29" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="J45" s="33"/>
     </row>
@@ -8690,7 +8701,7 @@
       </c>
       <c r="H46" s="29"/>
       <c r="I46" s="29" t="s">
-        <v>688</v>
+        <v>693</v>
       </c>
       <c r="J46" s="33"/>
     </row>
@@ -8716,7 +8727,7 @@
       </c>
       <c r="H47" s="29"/>
       <c r="I47" s="29" t="s">
-        <v>688</v>
+        <v>693</v>
       </c>
       <c r="J47" s="33"/>
     </row>
@@ -8742,7 +8753,7 @@
       </c>
       <c r="H48" s="29"/>
       <c r="I48" s="29" t="s">
-        <v>688</v>
+        <v>693</v>
       </c>
       <c r="J48" s="33"/>
     </row>
@@ -8768,7 +8779,7 @@
       </c>
       <c r="H49" s="29"/>
       <c r="I49" s="29" t="s">
-        <v>688</v>
+        <v>693</v>
       </c>
       <c r="J49" s="33"/>
     </row>
@@ -8844,7 +8855,7 @@
         <v>258</v>
       </c>
       <c r="G52" s="29" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="H52" s="29"/>
       <c r="I52" s="29" t="s">
@@ -8924,7 +8935,7 @@
         <v>267</v>
       </c>
       <c r="G55" s="29" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="H55" s="29"/>
       <c r="I55" s="29" t="s">
@@ -9000,7 +9011,7 @@
         <v>273</v>
       </c>
       <c r="G58" s="36" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="H58" s="36"/>
       <c r="I58" s="36" t="s">
@@ -9010,16 +9021,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="A39:A44"/>
+    <mergeCell ref="A45:A51"/>
+    <mergeCell ref="A52:A54"/>
+    <mergeCell ref="A55:A58"/>
     <mergeCell ref="A2:A13"/>
     <mergeCell ref="A14:A20"/>
     <mergeCell ref="A21:A23"/>
     <mergeCell ref="A24:A28"/>
     <mergeCell ref="A29:A35"/>
-    <mergeCell ref="A36:A38"/>
-    <mergeCell ref="A39:A44"/>
-    <mergeCell ref="A45:A51"/>
-    <mergeCell ref="A52:A54"/>
-    <mergeCell ref="A55:A58"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" operator="equal" showErrorMessage="1" sqref="G2:G58" xr:uid="{00000000-0002-0000-0200-000000000000}">

--- a/v4-ASVS-checklist-en.xlsx
+++ b/v4-ASVS-checklist-en.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guicota/Desktop/MEI/desofs-2024/comic-book-store/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3D029E0-D2ED-A941-A605-39E78C834605}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B97587D2-EE8C-9944-B3DC-8E00970DB543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16460" tabRatio="500" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3518,7 +3518,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>87.719298245614027</c:v>
+                  <c:v>82.456140350877192</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -3557,7 +3557,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>17.985611510791365</c:v>
+                  <c:v>16.906474820143885</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4127,7 +4127,7 @@
       </c>
       <c r="B3" s="9">
         <f>COUNTIF(Authentication!G2:G58,"Valid")</f>
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C3" s="10">
         <f>COUNTIF(Authentication!G2:G58,"&lt;&gt;Not Applicable")</f>
@@ -4135,7 +4135,7 @@
       </c>
       <c r="D3" s="11">
         <f t="shared" si="0"/>
-        <v>87.719298245614027</v>
+        <v>82.456140350877192</v>
       </c>
       <c r="E3" s="12"/>
     </row>
@@ -4362,7 +4362,7 @@
       </c>
       <c r="B16" s="9">
         <f>SUM(B2:B15)</f>
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C16" s="10">
         <f>SUM(C2:C15)</f>
@@ -4370,7 +4370,7 @@
       </c>
       <c r="D16" s="11">
         <f t="shared" si="0"/>
-        <v>17.985611510791365</v>
+        <v>16.906474820143885</v>
       </c>
       <c r="E16" s="12"/>
     </row>
@@ -7440,17 +7440,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="A23:A26"/>
     <mergeCell ref="A40:A45"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="A29:A30"/>
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="A34:A36"/>
     <mergeCell ref="A37:A38"/>
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="A23:A26"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" operator="equal" showErrorMessage="1" sqref="G2:G45" xr:uid="{00000000-0002-0000-0100-000000000000}">
@@ -7471,8 +7471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AMJ58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="97" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="G45" sqref="G45"/>
+    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="97" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="G57" sqref="G57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="21"/>
@@ -8805,7 +8805,7 @@
       </c>
       <c r="H50" s="29"/>
       <c r="I50" s="29" t="s">
-        <v>688</v>
+        <v>693</v>
       </c>
       <c r="J50" s="33"/>
     </row>
@@ -8831,7 +8831,7 @@
       </c>
       <c r="H51" s="29"/>
       <c r="I51" s="29" t="s">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="J51" s="33"/>
     </row>
@@ -8881,7 +8881,7 @@
         <v>260</v>
       </c>
       <c r="G53" s="29" t="s">
-        <v>26</v>
+        <v>689</v>
       </c>
       <c r="H53" s="29"/>
       <c r="I53" s="29" t="s">
@@ -8907,7 +8907,7 @@
         <v>262</v>
       </c>
       <c r="G54" s="29" t="s">
-        <v>26</v>
+        <v>689</v>
       </c>
       <c r="H54" s="29"/>
       <c r="I54" s="29" t="s">
@@ -8965,7 +8965,7 @@
       </c>
       <c r="H56" s="29"/>
       <c r="I56" s="29" t="s">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="J56" s="33"/>
     </row>
@@ -8987,7 +8987,7 @@
         <v>271</v>
       </c>
       <c r="G57" s="29" t="s">
-        <v>26</v>
+        <v>689</v>
       </c>
       <c r="H57" s="29"/>
       <c r="I57" s="29" t="s">
@@ -9021,16 +9021,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A2:A13"/>
+    <mergeCell ref="A14:A20"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A24:A28"/>
+    <mergeCell ref="A29:A35"/>
     <mergeCell ref="A36:A38"/>
     <mergeCell ref="A39:A44"/>
     <mergeCell ref="A45:A51"/>
     <mergeCell ref="A52:A54"/>
     <mergeCell ref="A55:A58"/>
-    <mergeCell ref="A2:A13"/>
-    <mergeCell ref="A14:A20"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="A24:A28"/>
-    <mergeCell ref="A29:A35"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" operator="equal" showErrorMessage="1" sqref="G2:G58" xr:uid="{00000000-0002-0000-0200-000000000000}">

--- a/v4-ASVS-checklist-en.xlsx
+++ b/v4-ASVS-checklist-en.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guicota/Desktop/MEI/desofs-2024/comic-book-store/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leandro\Desktop\Faculdade\2º Ano\DESOFS\desofs2024_M1C_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B97587D2-EE8C-9944-B3DC-8E00970DB543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6CE2E51-8B70-415D-B767-E43E7251D6CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16460" tabRatio="500" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="500" firstSheet="7" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ASVS Results" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="996" uniqueCount="694">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1044" uniqueCount="694">
   <si>
     <t>Security Category</t>
   </si>
@@ -2171,7 +2171,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00,_€;\-#,##0.00,_€"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2257,6 +2257,14 @@
       <sz val="12"/>
       <color rgb="FF102A43"/>
       <name val="Noto Sans CJK SC"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FF102A43"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -2933,7 +2941,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3256,6 +3264,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3344,7 +3353,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <c:style val="2"/>
   <c:chart>
@@ -3363,7 +3372,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr sz="1800" b="1" strike="noStrike" spc="-1">
+              <a:rPr lang="pt-PT" sz="1800" b="1" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -3438,7 +3447,7 @@
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-PT"/>
+                <a:endParaRPr lang="pt-PT"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -3512,7 +3521,7 @@
             <c:numRef>
               <c:f>'ASVS Results'!$D$2:$D$16</c:f>
               <c:numCache>
-                <c:formatCode>#\ ##0.00\ _€;\-#\ ##0.00\ _€</c:formatCode>
+                <c:formatCode>#,##0.00,_€;\-#,##0.00,_€</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -3527,7 +3536,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>88.888888888888886</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -3542,7 +3551,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
@@ -3557,7 +3566,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>16.906474820143885</c:v>
+                  <c:v>27.450980392156865</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3617,7 +3626,7 @@
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-PT"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="74048637"/>
@@ -3668,7 +3677,7 @@
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-PT"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="17923522"/>
@@ -3705,7 +3714,7 @@
               <a:latin typeface="Calibri"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-PT"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3774,9 +3783,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3814,7 +3823,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -3920,7 +3929,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4062,7 +4071,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4076,17 +4085,17 @@
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="21"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="21"/>
   <cols>
     <col min="1" max="1" width="64.33203125" style="3" customWidth="1"/>
     <col min="2" max="2" width="23.33203125" style="4" customWidth="1"/>
     <col min="3" max="3" width="21" style="4" customWidth="1"/>
     <col min="4" max="4" width="25" style="4" customWidth="1"/>
     <col min="5" max="5" width="37" style="4" customWidth="1"/>
-    <col min="6" max="1024" width="8.83203125" style="4"/>
+    <col min="6" max="1024" width="8.77734375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="7" customFormat="1" ht="22">
+    <row r="1" spans="1:6" s="7" customFormat="1">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -4181,15 +4190,15 @@
       </c>
       <c r="B6" s="9">
         <f>COUNTIF('Validation, Sanitization and En'!G2:G31,"Valid")</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="C6" s="10">
         <f>COUNTIF('Validation, Sanitization and En'!G2:G31,"&lt;&gt;Not Applicable")</f>
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D6" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>88.888888888888886</v>
       </c>
       <c r="E6" s="12"/>
     </row>
@@ -4258,11 +4267,11 @@
       </c>
       <c r="C10" s="10">
         <f>COUNTIF(Communication!G2:G9,"&lt;&gt;Not Applicable")</f>
-        <v>8</v>
-      </c>
-      <c r="D10" s="11">
+        <v>0</v>
+      </c>
+      <c r="D10" s="11" t="e">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="E10" s="12"/>
     </row>
@@ -4272,15 +4281,15 @@
       </c>
       <c r="B11" s="9">
         <f>COUNTIF('Malicious Code'!G2:G11,"Valid")</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C11" s="10">
         <f>COUNTIF('Malicious Code'!G2:G11,"&lt;&gt;Not Applicable")</f>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D11" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E11" s="12"/>
     </row>
@@ -4362,15 +4371,15 @@
       </c>
       <c r="B16" s="9">
         <f>SUM(B2:B15)</f>
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="C16" s="10">
         <f>SUM(C2:C15)</f>
-        <v>278</v>
+        <v>255</v>
       </c>
       <c r="D16" s="11">
         <f t="shared" si="0"/>
-        <v>16.906474820143885</v>
+        <v>27.450980392156865</v>
       </c>
       <c r="E16" s="12"/>
     </row>
@@ -4390,23 +4399,23 @@
   <dimension ref="A1:AMJ9"/>
   <sheetViews>
     <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="21"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="21"/>
   <cols>
     <col min="1" max="1" width="37.33203125" style="73" customWidth="1"/>
-    <col min="2" max="2" width="8.83203125" style="26"/>
-    <col min="3" max="5" width="8.83203125" style="60"/>
-    <col min="6" max="6" width="88.83203125" style="26" customWidth="1"/>
-    <col min="7" max="7" width="8.83203125" style="26"/>
+    <col min="2" max="2" width="8.77734375" style="26"/>
+    <col min="3" max="5" width="8.77734375" style="60"/>
+    <col min="6" max="6" width="88.77734375" style="26" customWidth="1"/>
+    <col min="7" max="7" width="8.77734375" style="26"/>
     <col min="8" max="8" width="28.33203125" style="26" customWidth="1"/>
     <col min="9" max="9" width="26.33203125" style="26" customWidth="1"/>
     <col min="10" max="10" width="37.6640625" style="26" customWidth="1"/>
-    <col min="11" max="1024" width="8.83203125" style="26"/>
+    <col min="11" max="1024" width="8.77734375" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="44" customFormat="1" ht="44">
+    <row r="1" spans="1:10" s="44" customFormat="1" ht="42">
       <c r="A1" s="95" t="s">
         <v>20</v>
       </c>
@@ -4455,12 +4464,14 @@
       <c r="F2" s="80" t="s">
         <v>507</v>
       </c>
-      <c r="G2" s="50"/>
+      <c r="G2" s="50" t="s">
+        <v>56</v>
+      </c>
       <c r="H2" s="50"/>
       <c r="I2" s="50"/>
       <c r="J2" s="66"/>
     </row>
-    <row r="3" spans="1:10" ht="34">
+    <row r="3" spans="1:10" ht="31.2">
       <c r="A3" s="122"/>
       <c r="B3" s="63" t="s">
         <v>508</v>
@@ -4475,12 +4486,14 @@
       <c r="F3" s="81" t="s">
         <v>509</v>
       </c>
-      <c r="G3" s="29"/>
+      <c r="G3" s="29" t="s">
+        <v>56</v>
+      </c>
       <c r="H3" s="29"/>
       <c r="I3" s="29"/>
       <c r="J3" s="33"/>
     </row>
-    <row r="4" spans="1:10" ht="34">
+    <row r="4" spans="1:10" ht="31.2">
       <c r="A4" s="122"/>
       <c r="B4" s="63" t="s">
         <v>510</v>
@@ -4495,7 +4508,9 @@
       <c r="F4" s="81" t="s">
         <v>511</v>
       </c>
-      <c r="G4" s="29"/>
+      <c r="G4" s="29" t="s">
+        <v>56</v>
+      </c>
       <c r="H4" s="29"/>
       <c r="I4" s="29"/>
       <c r="J4" s="33"/>
@@ -4517,12 +4532,14 @@
       <c r="F5" s="81" t="s">
         <v>514</v>
       </c>
-      <c r="G5" s="29"/>
+      <c r="G5" s="29" t="s">
+        <v>56</v>
+      </c>
       <c r="H5" s="29"/>
       <c r="I5" s="29"/>
       <c r="J5" s="33"/>
     </row>
-    <row r="6" spans="1:10" ht="68">
+    <row r="6" spans="1:10" ht="62.4">
       <c r="A6" s="122"/>
       <c r="B6" s="63" t="s">
         <v>515</v>
@@ -4537,12 +4554,14 @@
       <c r="F6" s="81" t="s">
         <v>516</v>
       </c>
-      <c r="G6" s="29"/>
+      <c r="G6" s="29" t="s">
+        <v>56</v>
+      </c>
       <c r="H6" s="29"/>
       <c r="I6" s="29"/>
       <c r="J6" s="33"/>
     </row>
-    <row r="7" spans="1:10" ht="34">
+    <row r="7" spans="1:10" ht="31.2">
       <c r="A7" s="122"/>
       <c r="B7" s="63" t="s">
         <v>517</v>
@@ -4557,12 +4576,14 @@
       <c r="F7" s="81" t="s">
         <v>518</v>
       </c>
-      <c r="G7" s="29"/>
+      <c r="G7" s="29" t="s">
+        <v>56</v>
+      </c>
       <c r="H7" s="29"/>
       <c r="I7" s="29"/>
       <c r="J7" s="33"/>
     </row>
-    <row r="8" spans="1:10" ht="34">
+    <row r="8" spans="1:10" ht="31.2">
       <c r="A8" s="122"/>
       <c r="B8" s="63" t="s">
         <v>519</v>
@@ -4577,12 +4598,14 @@
       <c r="F8" s="81" t="s">
         <v>520</v>
       </c>
-      <c r="G8" s="29"/>
+      <c r="G8" s="29" t="s">
+        <v>56</v>
+      </c>
       <c r="H8" s="29"/>
       <c r="I8" s="29"/>
       <c r="J8" s="33"/>
     </row>
-    <row r="9" spans="1:10" ht="17">
+    <row r="9" spans="1:10" ht="15.6">
       <c r="A9" s="122"/>
       <c r="B9" s="63" t="s">
         <v>521</v>
@@ -4597,7 +4620,9 @@
       <c r="F9" s="82" t="s">
         <v>522</v>
       </c>
-      <c r="G9" s="36"/>
+      <c r="G9" s="36" t="s">
+        <v>56</v>
+      </c>
       <c r="H9" s="36"/>
       <c r="I9" s="36"/>
       <c r="J9" s="38"/>
@@ -4626,24 +4651,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:AMJ11"/>
   <sheetViews>
-    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="21"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="21"/>
   <cols>
     <col min="1" max="1" width="31.33203125" style="73" customWidth="1"/>
-    <col min="2" max="2" width="8.83203125" style="26"/>
-    <col min="3" max="5" width="8.83203125" style="60"/>
-    <col min="6" max="6" width="88.5" style="26" customWidth="1"/>
-    <col min="7" max="7" width="8.83203125" style="26"/>
-    <col min="8" max="8" width="35.83203125" style="26" customWidth="1"/>
-    <col min="9" max="9" width="26.1640625" style="26" customWidth="1"/>
+    <col min="2" max="2" width="8.77734375" style="26"/>
+    <col min="3" max="5" width="8.77734375" style="60"/>
+    <col min="6" max="6" width="88.44140625" style="26" customWidth="1"/>
+    <col min="7" max="7" width="8.77734375" style="26"/>
+    <col min="8" max="8" width="35.77734375" style="26" customWidth="1"/>
+    <col min="9" max="9" width="26.109375" style="26" customWidth="1"/>
     <col min="10" max="10" width="28.6640625" style="26" customWidth="1"/>
-    <col min="11" max="1024" width="8.83203125" style="26"/>
+    <col min="11" max="1024" width="8.77734375" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="44" customFormat="1" ht="44">
+    <row r="1" spans="1:10" s="44" customFormat="1" ht="42">
       <c r="A1" s="97" t="s">
         <v>20</v>
       </c>
@@ -4675,7 +4700,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="34">
+    <row r="2" spans="1:10" ht="31.2">
       <c r="A2" s="1" t="s">
         <v>523</v>
       </c>
@@ -4692,7 +4717,9 @@
       <c r="F2" s="80" t="s">
         <v>525</v>
       </c>
-      <c r="G2" s="50"/>
+      <c r="G2" s="50" t="s">
+        <v>26</v>
+      </c>
       <c r="H2" s="50"/>
       <c r="I2" s="50"/>
       <c r="J2" s="66"/>
@@ -4714,12 +4741,14 @@
       <c r="F3" s="81" t="s">
         <v>528</v>
       </c>
-      <c r="G3" s="29"/>
+      <c r="G3" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H3" s="29"/>
       <c r="I3" s="29"/>
       <c r="J3" s="33"/>
     </row>
-    <row r="4" spans="1:10" ht="34">
+    <row r="4" spans="1:10" ht="31.2">
       <c r="A4" s="122"/>
       <c r="B4" s="63" t="s">
         <v>529</v>
@@ -4734,12 +4763,14 @@
       <c r="F4" s="81" t="s">
         <v>530</v>
       </c>
-      <c r="G4" s="29"/>
+      <c r="G4" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H4" s="29"/>
       <c r="I4" s="29"/>
       <c r="J4" s="33"/>
     </row>
-    <row r="5" spans="1:10" ht="68">
+    <row r="5" spans="1:10" ht="78">
       <c r="A5" s="122"/>
       <c r="B5" s="63" t="s">
         <v>531</v>
@@ -4754,12 +4785,14 @@
       <c r="F5" s="81" t="s">
         <v>532</v>
       </c>
-      <c r="G5" s="29"/>
+      <c r="G5" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H5" s="29"/>
       <c r="I5" s="29"/>
       <c r="J5" s="33"/>
     </row>
-    <row r="6" spans="1:10" ht="34">
+    <row r="6" spans="1:10" ht="31.2">
       <c r="A6" s="122"/>
       <c r="B6" s="63" t="s">
         <v>533</v>
@@ -4774,12 +4807,14 @@
       <c r="F6" s="81" t="s">
         <v>534</v>
       </c>
-      <c r="G6" s="29"/>
+      <c r="G6" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H6" s="29"/>
       <c r="I6" s="29"/>
       <c r="J6" s="33"/>
     </row>
-    <row r="7" spans="1:10" ht="34">
+    <row r="7" spans="1:10" ht="31.2">
       <c r="A7" s="122"/>
       <c r="B7" s="63" t="s">
         <v>535</v>
@@ -4794,12 +4829,14 @@
       <c r="F7" s="81" t="s">
         <v>536</v>
       </c>
-      <c r="G7" s="29"/>
+      <c r="G7" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H7" s="29"/>
       <c r="I7" s="29"/>
       <c r="J7" s="33"/>
     </row>
-    <row r="8" spans="1:10" ht="34">
+    <row r="8" spans="1:10" ht="31.2">
       <c r="A8" s="122"/>
       <c r="B8" s="63" t="s">
         <v>537</v>
@@ -4814,7 +4851,9 @@
       <c r="F8" s="81" t="s">
         <v>538</v>
       </c>
-      <c r="G8" s="29"/>
+      <c r="G8" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H8" s="29"/>
       <c r="I8" s="29"/>
       <c r="J8" s="33"/>
@@ -4836,12 +4875,14 @@
       <c r="F9" s="81" t="s">
         <v>541</v>
       </c>
-      <c r="G9" s="29"/>
+      <c r="G9" s="29" t="s">
+        <v>56</v>
+      </c>
       <c r="H9" s="29"/>
       <c r="I9" s="29"/>
       <c r="J9" s="33"/>
     </row>
-    <row r="10" spans="1:10" ht="51">
+    <row r="10" spans="1:10" ht="62.4">
       <c r="A10" s="122"/>
       <c r="B10" s="63" t="s">
         <v>542</v>
@@ -4856,12 +4897,14 @@
       <c r="F10" s="81" t="s">
         <v>543</v>
       </c>
-      <c r="G10" s="29"/>
+      <c r="G10" s="29" t="s">
+        <v>56</v>
+      </c>
       <c r="H10" s="29"/>
       <c r="I10" s="29"/>
       <c r="J10" s="33"/>
     </row>
-    <row r="11" spans="1:10" ht="85">
+    <row r="11" spans="1:10" ht="93.6">
       <c r="A11" s="122"/>
       <c r="B11" s="63" t="s">
         <v>544</v>
@@ -4876,7 +4919,9 @@
       <c r="F11" s="82" t="s">
         <v>545</v>
       </c>
-      <c r="G11" s="36"/>
+      <c r="G11" s="36" t="s">
+        <v>56</v>
+      </c>
       <c r="H11" s="36"/>
       <c r="I11" s="36"/>
       <c r="J11" s="38"/>
@@ -4909,20 +4954,20 @@
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="21"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="21"/>
   <cols>
-    <col min="1" max="1" width="23.83203125" style="73" customWidth="1"/>
-    <col min="2" max="2" width="8.83203125" style="26"/>
-    <col min="3" max="5" width="8.83203125" style="60"/>
+    <col min="1" max="1" width="23.77734375" style="73" customWidth="1"/>
+    <col min="2" max="2" width="8.77734375" style="26"/>
+    <col min="3" max="5" width="8.77734375" style="60"/>
     <col min="6" max="6" width="71.33203125" style="26" customWidth="1"/>
     <col min="7" max="7" width="17.33203125" style="26" customWidth="1"/>
     <col min="8" max="8" width="34.6640625" style="26" customWidth="1"/>
-    <col min="9" max="9" width="34.5" style="26" customWidth="1"/>
+    <col min="9" max="9" width="34.44140625" style="26" customWidth="1"/>
     <col min="10" max="10" width="37" style="26" customWidth="1"/>
-    <col min="11" max="1024" width="8.83203125" style="26"/>
+    <col min="11" max="1024" width="8.77734375" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="44" customFormat="1" ht="44">
+    <row r="1" spans="1:10" s="44" customFormat="1" ht="42">
       <c r="A1" s="95" t="s">
         <v>20</v>
       </c>
@@ -4976,7 +5021,7 @@
       <c r="I2" s="50"/>
       <c r="J2" s="66"/>
     </row>
-    <row r="3" spans="1:10" ht="51">
+    <row r="3" spans="1:10" ht="46.8">
       <c r="A3" s="122"/>
       <c r="B3" s="63" t="s">
         <v>549</v>
@@ -4996,7 +5041,7 @@
       <c r="I3" s="29"/>
       <c r="J3" s="33"/>
     </row>
-    <row r="4" spans="1:10" ht="34">
+    <row r="4" spans="1:10" ht="31.2">
       <c r="A4" s="122"/>
       <c r="B4" s="63" t="s">
         <v>551</v>
@@ -5016,7 +5061,7 @@
       <c r="I4" s="29"/>
       <c r="J4" s="33"/>
     </row>
-    <row r="5" spans="1:10" ht="51">
+    <row r="5" spans="1:10" ht="46.8">
       <c r="A5" s="122"/>
       <c r="B5" s="63" t="s">
         <v>553</v>
@@ -5036,7 +5081,7 @@
       <c r="I5" s="29"/>
       <c r="J5" s="33"/>
     </row>
-    <row r="6" spans="1:10" ht="51">
+    <row r="6" spans="1:10" ht="46.8">
       <c r="A6" s="122"/>
       <c r="B6" s="63" t="s">
         <v>555</v>
@@ -5096,7 +5141,7 @@
       <c r="I8" s="29"/>
       <c r="J8" s="33"/>
     </row>
-    <row r="9" spans="1:10" ht="34">
+    <row r="9" spans="1:10" ht="31.2">
       <c r="A9" s="122"/>
       <c r="B9" s="63" t="s">
         <v>561</v>
@@ -5143,20 +5188,20 @@
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="21"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="21"/>
   <cols>
-    <col min="1" max="1" width="33.5" style="73" customWidth="1"/>
+    <col min="1" max="1" width="33.44140625" style="73" customWidth="1"/>
     <col min="2" max="2" width="13.33203125" style="26" customWidth="1"/>
-    <col min="3" max="5" width="8.83203125" style="60"/>
+    <col min="3" max="5" width="8.77734375" style="60"/>
     <col min="6" max="6" width="78.6640625" style="26" customWidth="1"/>
-    <col min="7" max="7" width="18.83203125" style="26" customWidth="1"/>
-    <col min="8" max="8" width="31.5" style="26" customWidth="1"/>
-    <col min="9" max="9" width="26.83203125" style="26" customWidth="1"/>
-    <col min="10" max="10" width="31.83203125" style="26" customWidth="1"/>
-    <col min="11" max="1024" width="8.83203125" style="26"/>
+    <col min="7" max="7" width="18.77734375" style="26" customWidth="1"/>
+    <col min="8" max="8" width="31.44140625" style="26" customWidth="1"/>
+    <col min="9" max="9" width="26.77734375" style="26" customWidth="1"/>
+    <col min="10" max="10" width="31.77734375" style="26" customWidth="1"/>
+    <col min="11" max="1024" width="8.77734375" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="44" customFormat="1" ht="44">
+    <row r="1" spans="1:10" s="44" customFormat="1" ht="42">
       <c r="A1" s="95" t="s">
         <v>20</v>
       </c>
@@ -5210,7 +5255,7 @@
       <c r="I2" s="50"/>
       <c r="J2" s="66"/>
     </row>
-    <row r="3" spans="1:10" ht="51">
+    <row r="3" spans="1:10" ht="46.8">
       <c r="A3" s="122"/>
       <c r="B3" s="63" t="s">
         <v>566</v>
@@ -5230,7 +5275,7 @@
       <c r="I3" s="29"/>
       <c r="J3" s="33"/>
     </row>
-    <row r="4" spans="1:10" ht="34">
+    <row r="4" spans="1:10" ht="46.8">
       <c r="A4" s="122"/>
       <c r="B4" s="63" t="s">
         <v>568</v>
@@ -5250,7 +5295,7 @@
       <c r="I4" s="29"/>
       <c r="J4" s="33"/>
     </row>
-    <row r="5" spans="1:10" ht="34">
+    <row r="5" spans="1:10" ht="31.2">
       <c r="A5" s="1" t="s">
         <v>570</v>
       </c>
@@ -5294,7 +5339,7 @@
       <c r="I6" s="29"/>
       <c r="J6" s="33"/>
     </row>
-    <row r="7" spans="1:10" ht="34">
+    <row r="7" spans="1:10" ht="31.2">
       <c r="A7" s="122"/>
       <c r="B7" s="63" t="s">
         <v>576</v>
@@ -5314,7 +5359,7 @@
       <c r="I7" s="29"/>
       <c r="J7" s="33"/>
     </row>
-    <row r="8" spans="1:10" ht="51">
+    <row r="8" spans="1:10" ht="46.8">
       <c r="A8" s="122"/>
       <c r="B8" s="63" t="s">
         <v>578</v>
@@ -5334,7 +5379,7 @@
       <c r="I8" s="29"/>
       <c r="J8" s="33"/>
     </row>
-    <row r="9" spans="1:10" ht="68">
+    <row r="9" spans="1:10" ht="62.4">
       <c r="A9" s="122"/>
       <c r="B9" s="63" t="s">
         <v>580</v>
@@ -5354,7 +5399,7 @@
       <c r="I9" s="29"/>
       <c r="J9" s="33"/>
     </row>
-    <row r="10" spans="1:10" ht="34">
+    <row r="10" spans="1:10" ht="31.2">
       <c r="A10" s="122"/>
       <c r="B10" s="63" t="s">
         <v>582</v>
@@ -5374,7 +5419,7 @@
       <c r="I10" s="29"/>
       <c r="J10" s="33"/>
     </row>
-    <row r="11" spans="1:10" ht="51">
+    <row r="11" spans="1:10" ht="46.8">
       <c r="A11" s="122"/>
       <c r="B11" s="63" t="s">
         <v>584</v>
@@ -5416,7 +5461,7 @@
       <c r="I12" s="29"/>
       <c r="J12" s="33"/>
     </row>
-    <row r="13" spans="1:10" ht="34">
+    <row r="13" spans="1:10" ht="31.2">
       <c r="A13" s="122"/>
       <c r="B13" s="63" t="s">
         <v>589</v>
@@ -5458,7 +5503,7 @@
       <c r="I14" s="29"/>
       <c r="J14" s="33"/>
     </row>
-    <row r="15" spans="1:10" ht="34">
+    <row r="15" spans="1:10" ht="31.2">
       <c r="A15" s="122"/>
       <c r="B15" s="63" t="s">
         <v>594</v>
@@ -5478,7 +5523,7 @@
       <c r="I15" s="29"/>
       <c r="J15" s="33"/>
     </row>
-    <row r="16" spans="1:10" ht="34">
+    <row r="16" spans="1:10" ht="46.8">
       <c r="A16" s="1" t="s">
         <v>596</v>
       </c>
@@ -5530,19 +5575,19 @@
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="21"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="21"/>
   <cols>
     <col min="1" max="1" width="24" style="73" customWidth="1"/>
-    <col min="2" max="5" width="8.83203125" style="26"/>
+    <col min="2" max="5" width="8.77734375" style="26"/>
     <col min="6" max="6" width="84.33203125" style="26" customWidth="1"/>
-    <col min="7" max="7" width="17.5" style="26" customWidth="1"/>
-    <col min="8" max="8" width="35.5" style="26" customWidth="1"/>
-    <col min="9" max="9" width="24.1640625" style="26" customWidth="1"/>
-    <col min="10" max="10" width="37.83203125" style="26" customWidth="1"/>
-    <col min="11" max="1024" width="8.83203125" style="26"/>
+    <col min="7" max="7" width="17.44140625" style="26" customWidth="1"/>
+    <col min="8" max="8" width="35.44140625" style="26" customWidth="1"/>
+    <col min="9" max="9" width="24.109375" style="26" customWidth="1"/>
+    <col min="10" max="10" width="37.77734375" style="26" customWidth="1"/>
+    <col min="11" max="1024" width="8.77734375" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="44" customFormat="1" ht="44">
+    <row r="1" spans="1:10" s="44" customFormat="1" ht="42">
       <c r="A1" s="95" t="s">
         <v>20</v>
       </c>
@@ -5596,7 +5641,7 @@
       <c r="I2" s="50"/>
       <c r="J2" s="66"/>
     </row>
-    <row r="3" spans="1:10" ht="17">
+    <row r="3" spans="1:10" ht="15.6">
       <c r="A3" s="122"/>
       <c r="B3" s="63" t="s">
         <v>602</v>
@@ -5618,7 +5663,7 @@
       <c r="I3" s="29"/>
       <c r="J3" s="33"/>
     </row>
-    <row r="4" spans="1:10" ht="17">
+    <row r="4" spans="1:10" ht="31.2">
       <c r="A4" s="122"/>
       <c r="B4" s="63" t="s">
         <v>604</v>
@@ -5638,7 +5683,7 @@
       <c r="I4" s="29"/>
       <c r="J4" s="33"/>
     </row>
-    <row r="5" spans="1:10" ht="51">
+    <row r="5" spans="1:10" ht="46.8">
       <c r="A5" s="122"/>
       <c r="B5" s="63" t="s">
         <v>606</v>
@@ -5658,7 +5703,7 @@
       <c r="I5" s="29"/>
       <c r="J5" s="33"/>
     </row>
-    <row r="6" spans="1:10" ht="34">
+    <row r="6" spans="1:10" ht="46.8">
       <c r="A6" s="122"/>
       <c r="B6" s="63" t="s">
         <v>608</v>
@@ -5700,7 +5745,7 @@
       <c r="I7" s="29"/>
       <c r="J7" s="33"/>
     </row>
-    <row r="8" spans="1:10" ht="17">
+    <row r="8" spans="1:10" ht="15.6">
       <c r="A8" s="122"/>
       <c r="B8" s="63" t="s">
         <v>613</v>
@@ -5720,7 +5765,7 @@
       <c r="I8" s="29"/>
       <c r="J8" s="33"/>
     </row>
-    <row r="9" spans="1:10" ht="51">
+    <row r="9" spans="1:10" ht="46.8">
       <c r="A9" s="122"/>
       <c r="B9" s="63" t="s">
         <v>615</v>
@@ -5740,7 +5785,7 @@
       <c r="I9" s="29"/>
       <c r="J9" s="33"/>
     </row>
-    <row r="10" spans="1:10" ht="17">
+    <row r="10" spans="1:10" ht="15.6">
       <c r="A10" s="122"/>
       <c r="B10" s="63" t="s">
         <v>617</v>
@@ -5762,7 +5807,7 @@
       <c r="I10" s="29"/>
       <c r="J10" s="33"/>
     </row>
-    <row r="11" spans="1:10" ht="34">
+    <row r="11" spans="1:10" ht="31.2">
       <c r="A11" s="122"/>
       <c r="B11" s="63" t="s">
         <v>619</v>
@@ -5782,7 +5827,7 @@
       <c r="I11" s="29"/>
       <c r="J11" s="33"/>
     </row>
-    <row r="12" spans="1:10" ht="85">
+    <row r="12" spans="1:10" ht="93.6">
       <c r="A12" s="122"/>
       <c r="B12" s="63" t="s">
         <v>621</v>
@@ -5824,7 +5869,7 @@
       <c r="I13" s="29"/>
       <c r="J13" s="33"/>
     </row>
-    <row r="14" spans="1:10" ht="34">
+    <row r="14" spans="1:10" ht="31.2">
       <c r="A14" s="122"/>
       <c r="B14" s="63" t="s">
         <v>626</v>
@@ -5866,7 +5911,7 @@
       <c r="I15" s="29"/>
       <c r="J15" s="33"/>
     </row>
-    <row r="16" spans="1:10" ht="34">
+    <row r="16" spans="1:10" ht="31.2">
       <c r="A16" s="122"/>
       <c r="B16" s="63" t="s">
         <v>631</v>
@@ -5916,20 +5961,20 @@
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="21"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="21"/>
   <cols>
     <col min="1" max="1" width="41" style="73" customWidth="1"/>
-    <col min="2" max="2" width="14.1640625" style="26" customWidth="1"/>
-    <col min="3" max="5" width="8.83203125" style="26"/>
+    <col min="2" max="2" width="14.109375" style="26" customWidth="1"/>
+    <col min="3" max="5" width="8.77734375" style="26"/>
     <col min="6" max="6" width="88.6640625" style="26" customWidth="1"/>
-    <col min="7" max="7" width="17.1640625" style="26" customWidth="1"/>
+    <col min="7" max="7" width="17.109375" style="26" customWidth="1"/>
     <col min="8" max="8" width="35.33203125" style="26" customWidth="1"/>
-    <col min="9" max="9" width="20.5" style="26" customWidth="1"/>
+    <col min="9" max="9" width="20.44140625" style="26" customWidth="1"/>
     <col min="10" max="10" width="33.33203125" style="26" customWidth="1"/>
-    <col min="11" max="1024" width="8.83203125" style="26"/>
+    <col min="11" max="1024" width="8.77734375" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="44" customFormat="1" ht="44">
+    <row r="1" spans="1:10" s="44" customFormat="1" ht="42">
       <c r="A1" s="99" t="s">
         <v>20</v>
       </c>
@@ -5981,7 +6026,7 @@
       <c r="I2" s="105"/>
       <c r="J2" s="106"/>
     </row>
-    <row r="3" spans="1:10" ht="51">
+    <row r="3" spans="1:10" ht="46.8">
       <c r="A3" s="123"/>
       <c r="B3" s="63" t="s">
         <v>636</v>
@@ -6001,7 +6046,7 @@
       <c r="I3" s="111"/>
       <c r="J3" s="112"/>
     </row>
-    <row r="4" spans="1:10" ht="34">
+    <row r="4" spans="1:10" ht="31.2">
       <c r="A4" s="123"/>
       <c r="B4" s="63" t="s">
         <v>638</v>
@@ -6021,7 +6066,7 @@
       <c r="I4" s="111"/>
       <c r="J4" s="112"/>
     </row>
-    <row r="5" spans="1:10" ht="51">
+    <row r="5" spans="1:10" ht="46.8">
       <c r="A5" s="123"/>
       <c r="B5" s="63" t="s">
         <v>640</v>
@@ -6039,7 +6084,7 @@
       <c r="I5" s="111"/>
       <c r="J5" s="112"/>
     </row>
-    <row r="6" spans="1:10" ht="34">
+    <row r="6" spans="1:10" ht="31.2">
       <c r="A6" s="123"/>
       <c r="B6" s="63" t="s">
         <v>642</v>
@@ -6079,7 +6124,7 @@
       <c r="I7" s="111"/>
       <c r="J7" s="112"/>
     </row>
-    <row r="8" spans="1:10" ht="34">
+    <row r="8" spans="1:10" ht="31.2">
       <c r="A8" s="122"/>
       <c r="B8" s="63" t="s">
         <v>647</v>
@@ -6099,7 +6144,7 @@
       <c r="I8" s="111"/>
       <c r="J8" s="112"/>
     </row>
-    <row r="9" spans="1:10" ht="51">
+    <row r="9" spans="1:10" ht="46.8">
       <c r="A9" s="122"/>
       <c r="B9" s="63" t="s">
         <v>649</v>
@@ -6119,7 +6164,7 @@
       <c r="I9" s="111"/>
       <c r="J9" s="112"/>
     </row>
-    <row r="10" spans="1:10" ht="34">
+    <row r="10" spans="1:10" ht="46.8">
       <c r="A10" s="122"/>
       <c r="B10" s="63" t="s">
         <v>651</v>
@@ -6139,7 +6184,7 @@
       <c r="I10" s="111"/>
       <c r="J10" s="112"/>
     </row>
-    <row r="11" spans="1:10" ht="34">
+    <row r="11" spans="1:10" ht="31.2">
       <c r="A11" s="122"/>
       <c r="B11" s="63" t="s">
         <v>653</v>
@@ -6157,7 +6202,7 @@
       <c r="I11" s="111"/>
       <c r="J11" s="112"/>
     </row>
-    <row r="12" spans="1:10" ht="51">
+    <row r="12" spans="1:10" ht="46.8">
       <c r="A12" s="122"/>
       <c r="B12" s="63" t="s">
         <v>655</v>
@@ -6201,7 +6246,7 @@
       <c r="I13" s="111"/>
       <c r="J13" s="112"/>
     </row>
-    <row r="14" spans="1:10" ht="34">
+    <row r="14" spans="1:10" ht="46.8">
       <c r="A14" s="122"/>
       <c r="B14" s="63" t="s">
         <v>660</v>
@@ -6221,7 +6266,7 @@
       <c r="I14" s="111"/>
       <c r="J14" s="112"/>
     </row>
-    <row r="15" spans="1:10" ht="34">
+    <row r="15" spans="1:10" ht="31.2">
       <c r="A15" s="122"/>
       <c r="B15" s="63" t="s">
         <v>662</v>
@@ -6263,7 +6308,7 @@
       <c r="I16" s="111"/>
       <c r="J16" s="112"/>
     </row>
-    <row r="17" spans="1:10" ht="34">
+    <row r="17" spans="1:10" ht="31.2">
       <c r="A17" s="122"/>
       <c r="B17" s="63" t="s">
         <v>667</v>
@@ -6283,7 +6328,7 @@
       <c r="I17" s="111"/>
       <c r="J17" s="112"/>
     </row>
-    <row r="18" spans="1:10" ht="34">
+    <row r="18" spans="1:10" ht="31.2">
       <c r="A18" s="122"/>
       <c r="B18" s="63" t="s">
         <v>669</v>
@@ -6303,7 +6348,7 @@
       <c r="I18" s="111"/>
       <c r="J18" s="112"/>
     </row>
-    <row r="19" spans="1:10" ht="17">
+    <row r="19" spans="1:10" ht="15.6">
       <c r="A19" s="122"/>
       <c r="B19" s="63" t="s">
         <v>671</v>
@@ -6323,7 +6368,7 @@
       <c r="I19" s="111"/>
       <c r="J19" s="112"/>
     </row>
-    <row r="20" spans="1:10" ht="34">
+    <row r="20" spans="1:10" ht="31.2">
       <c r="A20" s="122"/>
       <c r="B20" s="63" t="s">
         <v>673</v>
@@ -6343,7 +6388,7 @@
       <c r="I20" s="111"/>
       <c r="J20" s="112"/>
     </row>
-    <row r="21" spans="1:10" ht="34">
+    <row r="21" spans="1:10" ht="31.2">
       <c r="A21" s="122"/>
       <c r="B21" s="63" t="s">
         <v>675</v>
@@ -6363,7 +6408,7 @@
       <c r="I21" s="111"/>
       <c r="J21" s="112"/>
     </row>
-    <row r="22" spans="1:10" ht="51">
+    <row r="22" spans="1:10" ht="62.4">
       <c r="A22" s="122"/>
       <c r="B22" s="63" t="s">
         <v>677</v>
@@ -6405,7 +6450,7 @@
       <c r="I23" s="111"/>
       <c r="J23" s="112"/>
     </row>
-    <row r="24" spans="1:10" ht="34">
+    <row r="24" spans="1:10" ht="31.2">
       <c r="A24" s="122"/>
       <c r="B24" s="63" t="s">
         <v>682</v>
@@ -6425,7 +6470,7 @@
       <c r="I24" s="111"/>
       <c r="J24" s="112"/>
     </row>
-    <row r="25" spans="1:10" ht="34">
+    <row r="25" spans="1:10" ht="46.8">
       <c r="A25" s="122"/>
       <c r="B25" s="63" t="s">
         <v>684</v>
@@ -6445,7 +6490,7 @@
       <c r="I25" s="111"/>
       <c r="J25" s="112"/>
     </row>
-    <row r="26" spans="1:10" ht="34">
+    <row r="26" spans="1:10" ht="31.2">
       <c r="A26" s="122"/>
       <c r="B26" s="63" t="s">
         <v>686</v>
@@ -6496,21 +6541,21 @@
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="21"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="21"/>
   <cols>
-    <col min="1" max="1" width="35.5" style="3" customWidth="1"/>
-    <col min="2" max="2" width="8.83203125" style="15"/>
-    <col min="3" max="3" width="10.83203125" style="15" customWidth="1"/>
-    <col min="4" max="5" width="8.83203125" style="15"/>
-    <col min="6" max="6" width="60.83203125" style="15" customWidth="1"/>
-    <col min="7" max="7" width="19.1640625" style="15" customWidth="1"/>
+    <col min="1" max="1" width="35.44140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="8.77734375" style="15"/>
+    <col min="3" max="3" width="10.77734375" style="15" customWidth="1"/>
+    <col min="4" max="5" width="8.77734375" style="15"/>
+    <col min="6" max="6" width="60.77734375" style="15" customWidth="1"/>
+    <col min="7" max="7" width="19.109375" style="15" customWidth="1"/>
     <col min="8" max="8" width="36" style="15" customWidth="1"/>
     <col min="9" max="9" width="31.6640625" style="15" customWidth="1"/>
     <col min="10" max="10" width="41.6640625" style="15" customWidth="1"/>
-    <col min="11" max="1024" width="8.83203125" style="15"/>
+    <col min="11" max="1024" width="8.77734375" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="3" customFormat="1" ht="44">
+    <row r="1" spans="1:10" s="3" customFormat="1" ht="42">
       <c r="A1" s="16" t="s">
         <v>20</v>
       </c>
@@ -6542,7 +6587,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="26" customFormat="1" ht="58.25" customHeight="1">
+    <row r="2" spans="1:10" s="26" customFormat="1" ht="58.2" customHeight="1">
       <c r="A2" s="121" t="s">
         <v>30</v>
       </c>
@@ -6562,7 +6607,7 @@
       <c r="I2" s="24"/>
       <c r="J2" s="25"/>
     </row>
-    <row r="3" spans="1:10" s="26" customFormat="1" ht="51">
+    <row r="3" spans="1:10" s="26" customFormat="1" ht="62.4">
       <c r="A3" s="121"/>
       <c r="B3" s="19" t="s">
         <v>33</v>
@@ -6582,7 +6627,7 @@
       <c r="I3" s="31"/>
       <c r="J3" s="32"/>
     </row>
-    <row r="4" spans="1:10" s="26" customFormat="1" ht="51">
+    <row r="4" spans="1:10" s="26" customFormat="1" ht="62.4">
       <c r="A4" s="121"/>
       <c r="B4" s="19" t="s">
         <v>35</v>
@@ -6602,7 +6647,7 @@
       <c r="I4" s="31"/>
       <c r="J4" s="32"/>
     </row>
-    <row r="5" spans="1:10" s="26" customFormat="1" ht="34">
+    <row r="5" spans="1:10" s="26" customFormat="1" ht="31.2">
       <c r="A5" s="121"/>
       <c r="B5" s="19" t="s">
         <v>37</v>
@@ -6622,7 +6667,7 @@
       <c r="I5" s="31"/>
       <c r="J5" s="32"/>
     </row>
-    <row r="6" spans="1:10" s="26" customFormat="1" ht="68">
+    <row r="6" spans="1:10" s="26" customFormat="1" ht="62.4">
       <c r="A6" s="121"/>
       <c r="B6" s="19" t="s">
         <v>39</v>
@@ -6642,7 +6687,7 @@
       <c r="I6" s="31"/>
       <c r="J6" s="32"/>
     </row>
-    <row r="7" spans="1:10" s="26" customFormat="1" ht="85">
+    <row r="7" spans="1:10" s="26" customFormat="1" ht="78">
       <c r="A7" s="121"/>
       <c r="B7" s="19" t="s">
         <v>41</v>
@@ -6662,7 +6707,7 @@
       <c r="I7" s="31"/>
       <c r="J7" s="32"/>
     </row>
-    <row r="8" spans="1:10" s="26" customFormat="1" ht="34">
+    <row r="8" spans="1:10" s="26" customFormat="1" ht="46.8">
       <c r="A8" s="121"/>
       <c r="B8" s="19" t="s">
         <v>43</v>
@@ -6704,7 +6749,7 @@
       <c r="I9" s="31"/>
       <c r="J9" s="32"/>
     </row>
-    <row r="10" spans="1:10" s="26" customFormat="1" ht="85">
+    <row r="10" spans="1:10" s="26" customFormat="1" ht="78">
       <c r="A10" s="121"/>
       <c r="B10" s="19" t="s">
         <v>48</v>
@@ -6724,7 +6769,7 @@
       <c r="I10" s="31"/>
       <c r="J10" s="32"/>
     </row>
-    <row r="11" spans="1:10" s="26" customFormat="1" ht="68">
+    <row r="11" spans="1:10" s="26" customFormat="1" ht="62.4">
       <c r="A11" s="121"/>
       <c r="B11" s="19" t="s">
         <v>50</v>
@@ -6744,7 +6789,7 @@
       <c r="I11" s="31"/>
       <c r="J11" s="32"/>
     </row>
-    <row r="12" spans="1:10" s="26" customFormat="1" ht="51">
+    <row r="12" spans="1:10" s="26" customFormat="1" ht="62.4">
       <c r="A12" s="121"/>
       <c r="B12" s="19" t="s">
         <v>52</v>
@@ -6764,7 +6809,7 @@
       <c r="I12" s="31"/>
       <c r="J12" s="32"/>
     </row>
-    <row r="13" spans="1:10" s="26" customFormat="1" ht="44">
+    <row r="13" spans="1:10" s="26" customFormat="1" ht="42">
       <c r="A13" s="2" t="s">
         <v>54</v>
       </c>
@@ -6804,7 +6849,7 @@
       <c r="I14" s="29"/>
       <c r="J14" s="33"/>
     </row>
-    <row r="15" spans="1:10" s="26" customFormat="1" ht="17">
+    <row r="15" spans="1:10" s="26" customFormat="1" ht="15.6">
       <c r="A15" s="121"/>
       <c r="B15" s="19" t="s">
         <v>60</v>
@@ -6826,7 +6871,7 @@
       <c r="I15" s="29"/>
       <c r="J15" s="33"/>
     </row>
-    <row r="16" spans="1:10" s="26" customFormat="1" ht="17">
+    <row r="16" spans="1:10" s="26" customFormat="1" ht="15.6">
       <c r="A16" s="121"/>
       <c r="B16" s="19" t="s">
         <v>62</v>
@@ -6848,7 +6893,7 @@
       <c r="I16" s="29"/>
       <c r="J16" s="33"/>
     </row>
-    <row r="17" spans="1:10" s="26" customFormat="1" ht="85">
+    <row r="17" spans="1:10" s="26" customFormat="1" ht="93.6">
       <c r="A17" s="121"/>
       <c r="B17" s="19" t="s">
         <v>64</v>
@@ -6868,7 +6913,7 @@
       <c r="I17" s="29"/>
       <c r="J17" s="33"/>
     </row>
-    <row r="18" spans="1:10" s="26" customFormat="1" ht="85">
+    <row r="18" spans="1:10" s="26" customFormat="1" ht="93.6">
       <c r="A18" s="121"/>
       <c r="B18" s="19" t="s">
         <v>66</v>
@@ -6910,7 +6955,7 @@
       <c r="I19" s="29"/>
       <c r="J19" s="33"/>
     </row>
-    <row r="20" spans="1:10" s="26" customFormat="1" ht="68">
+    <row r="20" spans="1:10" s="26" customFormat="1" ht="78">
       <c r="A20" s="121"/>
       <c r="B20" s="19" t="s">
         <v>71</v>
@@ -6930,7 +6975,7 @@
       <c r="I20" s="29"/>
       <c r="J20" s="33"/>
     </row>
-    <row r="21" spans="1:10" s="26" customFormat="1" ht="51">
+    <row r="21" spans="1:10" s="26" customFormat="1" ht="46.8">
       <c r="A21" s="121"/>
       <c r="B21" s="19" t="s">
         <v>73</v>
@@ -6950,7 +6995,7 @@
       <c r="I21" s="29"/>
       <c r="J21" s="33"/>
     </row>
-    <row r="22" spans="1:10" s="26" customFormat="1" ht="68">
+    <row r="22" spans="1:10" s="26" customFormat="1" ht="62.4">
       <c r="A22" s="121"/>
       <c r="B22" s="19" t="s">
         <v>75</v>
@@ -6992,7 +7037,7 @@
       <c r="I23" s="29"/>
       <c r="J23" s="33"/>
     </row>
-    <row r="24" spans="1:10" s="26" customFormat="1" ht="34">
+    <row r="24" spans="1:10" s="26" customFormat="1" ht="46.8">
       <c r="A24" s="121"/>
       <c r="B24" s="19" t="s">
         <v>80</v>
@@ -7012,7 +7057,7 @@
       <c r="I24" s="29"/>
       <c r="J24" s="33"/>
     </row>
-    <row r="25" spans="1:10" s="26" customFormat="1" ht="34">
+    <row r="25" spans="1:10" s="26" customFormat="1" ht="31.2">
       <c r="A25" s="121"/>
       <c r="B25" s="19" t="s">
         <v>82</v>
@@ -7032,7 +7077,7 @@
       <c r="I25" s="29"/>
       <c r="J25" s="33"/>
     </row>
-    <row r="26" spans="1:10" s="26" customFormat="1" ht="51">
+    <row r="26" spans="1:10" s="26" customFormat="1" ht="46.8">
       <c r="A26" s="121"/>
       <c r="B26" s="19" t="s">
         <v>84</v>
@@ -7074,7 +7119,7 @@
       <c r="I27" s="29"/>
       <c r="J27" s="33"/>
     </row>
-    <row r="28" spans="1:10" s="26" customFormat="1" ht="68">
+    <row r="28" spans="1:10" s="26" customFormat="1" ht="62.4">
       <c r="A28" s="121"/>
       <c r="B28" s="19" t="s">
         <v>89</v>
@@ -7112,7 +7157,7 @@
       <c r="I29" s="29"/>
       <c r="J29" s="33"/>
     </row>
-    <row r="30" spans="1:10" s="26" customFormat="1" ht="68">
+    <row r="30" spans="1:10" s="26" customFormat="1" ht="78">
       <c r="A30" s="121"/>
       <c r="B30" s="19" t="s">
         <v>94</v>
@@ -7152,7 +7197,7 @@
       <c r="I31" s="29"/>
       <c r="J31" s="33"/>
     </row>
-    <row r="32" spans="1:10" s="26" customFormat="1" ht="68">
+    <row r="32" spans="1:10" s="26" customFormat="1" ht="62.4">
       <c r="A32" s="121"/>
       <c r="B32" s="19" t="s">
         <v>99</v>
@@ -7172,7 +7217,7 @@
       <c r="I32" s="29"/>
       <c r="J32" s="33"/>
     </row>
-    <row r="33" spans="1:10" s="26" customFormat="1" ht="68">
+    <row r="33" spans="1:10" s="26" customFormat="1" ht="78">
       <c r="A33" s="2" t="s">
         <v>101</v>
       </c>
@@ -7216,7 +7261,7 @@
       <c r="I34" s="29"/>
       <c r="J34" s="33"/>
     </row>
-    <row r="35" spans="1:10" s="26" customFormat="1" ht="51">
+    <row r="35" spans="1:10" s="26" customFormat="1" ht="46.8">
       <c r="A35" s="121"/>
       <c r="B35" s="19" t="s">
         <v>107</v>
@@ -7236,7 +7281,7 @@
       <c r="I35" s="29"/>
       <c r="J35" s="33"/>
     </row>
-    <row r="36" spans="1:10" s="26" customFormat="1" ht="51">
+    <row r="36" spans="1:10" s="26" customFormat="1" ht="62.4">
       <c r="A36" s="121"/>
       <c r="B36" s="19" t="s">
         <v>109</v>
@@ -7280,7 +7325,7 @@
       <c r="I37" s="29"/>
       <c r="J37" s="33"/>
     </row>
-    <row r="38" spans="1:10" s="26" customFormat="1" ht="85">
+    <row r="38" spans="1:10" s="26" customFormat="1" ht="93.6">
       <c r="A38" s="121"/>
       <c r="B38" s="19" t="s">
         <v>114</v>
@@ -7300,7 +7345,7 @@
       <c r="I38" s="29"/>
       <c r="J38" s="33"/>
     </row>
-    <row r="39" spans="1:10" s="26" customFormat="1" ht="22">
+    <row r="39" spans="1:10" s="26" customFormat="1">
       <c r="A39" s="2" t="s">
         <v>116</v>
       </c>
@@ -7318,7 +7363,7 @@
       <c r="I39" s="29"/>
       <c r="J39" s="33"/>
     </row>
-    <row r="40" spans="1:10" s="26" customFormat="1" ht="58.75" customHeight="1">
+    <row r="40" spans="1:10" s="26" customFormat="1" ht="58.8" customHeight="1">
       <c r="A40" s="121" t="s">
         <v>117</v>
       </c>
@@ -7340,7 +7385,7 @@
       <c r="I40" s="29"/>
       <c r="J40" s="33"/>
     </row>
-    <row r="41" spans="1:10" s="26" customFormat="1" ht="34">
+    <row r="41" spans="1:10" s="26" customFormat="1" ht="31.2">
       <c r="A41" s="121"/>
       <c r="B41" s="19" t="s">
         <v>120</v>
@@ -7360,7 +7405,7 @@
       <c r="I41" s="29"/>
       <c r="J41" s="33"/>
     </row>
-    <row r="42" spans="1:10" s="26" customFormat="1" ht="34">
+    <row r="42" spans="1:10" s="26" customFormat="1" ht="31.2">
       <c r="A42" s="121"/>
       <c r="B42" s="19" t="s">
         <v>122</v>
@@ -7380,7 +7425,7 @@
       <c r="I42" s="29"/>
       <c r="J42" s="33"/>
     </row>
-    <row r="43" spans="1:10" s="26" customFormat="1" ht="68">
+    <row r="43" spans="1:10" s="26" customFormat="1" ht="62.4">
       <c r="A43" s="121"/>
       <c r="B43" s="19" t="s">
         <v>124</v>
@@ -7398,7 +7443,7 @@
       <c r="I43" s="29"/>
       <c r="J43" s="33"/>
     </row>
-    <row r="44" spans="1:10" s="26" customFormat="1" ht="102">
+    <row r="44" spans="1:10" s="26" customFormat="1" ht="93.6">
       <c r="A44" s="121"/>
       <c r="B44" s="19" t="s">
         <v>126</v>
@@ -7418,7 +7463,7 @@
       <c r="I44" s="29"/>
       <c r="J44" s="33"/>
     </row>
-    <row r="45" spans="1:10" s="26" customFormat="1" ht="51">
+    <row r="45" spans="1:10" s="26" customFormat="1" ht="62.4">
       <c r="A45" s="121"/>
       <c r="B45" s="19" t="s">
         <v>128</v>
@@ -7440,17 +7485,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="A23:A26"/>
     <mergeCell ref="A40:A45"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="A29:A30"/>
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="A34:A36"/>
     <mergeCell ref="A37:A38"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="A23:A26"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" operator="equal" showErrorMessage="1" sqref="G2:G45" xr:uid="{00000000-0002-0000-0100-000000000000}">
@@ -7471,25 +7516,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AMJ58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="97" zoomScaleNormal="95" workbookViewId="0">
+    <sheetView topLeftCell="A51" zoomScale="97" zoomScaleNormal="95" workbookViewId="0">
       <selection activeCell="G57" sqref="G57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="21"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="21"/>
   <cols>
     <col min="1" max="1" width="34.33203125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="8.83203125" style="39"/>
-    <col min="3" max="3" width="14.83203125" style="40" customWidth="1"/>
-    <col min="4" max="5" width="8.83203125" style="40"/>
+    <col min="2" max="2" width="8.77734375" style="39"/>
+    <col min="3" max="3" width="14.77734375" style="40" customWidth="1"/>
+    <col min="4" max="5" width="8.77734375" style="40"/>
     <col min="6" max="6" width="73" style="15" customWidth="1"/>
     <col min="7" max="7" width="25.33203125" style="15" customWidth="1"/>
     <col min="8" max="8" width="30.33203125" style="15" customWidth="1"/>
     <col min="9" max="9" width="33.33203125" style="15" customWidth="1"/>
     <col min="10" max="10" width="29" style="15" customWidth="1"/>
-    <col min="11" max="1024" width="8.83203125" style="15"/>
+    <col min="11" max="1024" width="8.77734375" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="44" customFormat="1" ht="22">
+    <row r="1" spans="1:10" s="44" customFormat="1">
       <c r="A1" s="41" t="s">
         <v>20</v>
       </c>
@@ -7549,7 +7594,7 @@
       </c>
       <c r="J2" s="52"/>
     </row>
-    <row r="3" spans="1:10" s="26" customFormat="1" ht="51">
+    <row r="3" spans="1:10" s="26" customFormat="1" ht="46.8">
       <c r="A3" s="122"/>
       <c r="B3" s="45" t="s">
         <v>134</v>
@@ -7575,7 +7620,7 @@
       </c>
       <c r="J3" s="32"/>
     </row>
-    <row r="4" spans="1:10" s="26" customFormat="1" ht="51">
+    <row r="4" spans="1:10" s="26" customFormat="1" ht="46.8">
       <c r="A4" s="122"/>
       <c r="B4" s="45" t="s">
         <v>136</v>
@@ -7601,7 +7646,7 @@
       </c>
       <c r="J4" s="32"/>
     </row>
-    <row r="5" spans="1:10" s="26" customFormat="1" ht="34">
+    <row r="5" spans="1:10" s="26" customFormat="1" ht="31.2">
       <c r="A5" s="122"/>
       <c r="B5" s="45" t="s">
         <v>138</v>
@@ -7627,7 +7672,7 @@
       </c>
       <c r="J5" s="32"/>
     </row>
-    <row r="6" spans="1:10" s="26" customFormat="1" ht="17">
+    <row r="6" spans="1:10" s="26" customFormat="1" ht="15.6">
       <c r="A6" s="122"/>
       <c r="B6" s="45" t="s">
         <v>140</v>
@@ -7653,7 +7698,7 @@
       </c>
       <c r="J6" s="32"/>
     </row>
-    <row r="7" spans="1:10" s="26" customFormat="1" ht="34">
+    <row r="7" spans="1:10" s="26" customFormat="1" ht="31.2">
       <c r="A7" s="122"/>
       <c r="B7" s="45" t="s">
         <v>142</v>
@@ -7679,7 +7724,7 @@
       </c>
       <c r="J7" s="32"/>
     </row>
-    <row r="8" spans="1:10" s="26" customFormat="1" ht="136">
+    <row r="8" spans="1:10" s="26" customFormat="1" ht="140.4">
       <c r="A8" s="122"/>
       <c r="B8" s="45" t="s">
         <v>144</v>
@@ -7705,7 +7750,7 @@
       </c>
       <c r="J8" s="32"/>
     </row>
-    <row r="9" spans="1:10" s="26" customFormat="1" ht="34">
+    <row r="9" spans="1:10" s="26" customFormat="1" ht="31.2">
       <c r="A9" s="122"/>
       <c r="B9" s="45" t="s">
         <v>146</v>
@@ -7731,7 +7776,7 @@
       </c>
       <c r="J9" s="32"/>
     </row>
-    <row r="10" spans="1:10" s="26" customFormat="1" ht="68">
+    <row r="10" spans="1:10" s="26" customFormat="1" ht="62.4">
       <c r="A10" s="122"/>
       <c r="B10" s="45" t="s">
         <v>148</v>
@@ -7757,7 +7802,7 @@
       </c>
       <c r="J10" s="32"/>
     </row>
-    <row r="11" spans="1:10" s="26" customFormat="1" ht="34">
+    <row r="11" spans="1:10" s="26" customFormat="1" ht="31.2">
       <c r="A11" s="122"/>
       <c r="B11" s="45" t="s">
         <v>150</v>
@@ -7783,7 +7828,7 @@
       </c>
       <c r="J11" s="32"/>
     </row>
-    <row r="12" spans="1:10" s="26" customFormat="1" ht="34">
+    <row r="12" spans="1:10" s="26" customFormat="1" ht="31.2">
       <c r="A12" s="122"/>
       <c r="B12" s="45" t="s">
         <v>152</v>
@@ -7809,7 +7854,7 @@
       </c>
       <c r="J12" s="32"/>
     </row>
-    <row r="13" spans="1:10" s="26" customFormat="1" ht="51">
+    <row r="13" spans="1:10" s="26" customFormat="1" ht="46.8">
       <c r="A13" s="122"/>
       <c r="B13" s="45" t="s">
         <v>154</v>
@@ -7863,7 +7908,7 @@
       </c>
       <c r="J14" s="32"/>
     </row>
-    <row r="15" spans="1:10" s="26" customFormat="1" ht="85">
+    <row r="15" spans="1:10" s="26" customFormat="1" ht="78">
       <c r="A15" s="122"/>
       <c r="B15" s="45" t="s">
         <v>160</v>
@@ -7889,7 +7934,7 @@
       </c>
       <c r="J15" s="32"/>
     </row>
-    <row r="16" spans="1:10" s="26" customFormat="1" ht="85">
+    <row r="16" spans="1:10" s="26" customFormat="1" ht="93.6">
       <c r="A16" s="122"/>
       <c r="B16" s="45" t="s">
         <v>163</v>
@@ -7913,7 +7958,7 @@
       </c>
       <c r="J16" s="32"/>
     </row>
-    <row r="17" spans="1:10" s="26" customFormat="1" ht="51">
+    <row r="17" spans="1:10" s="26" customFormat="1" ht="62.4">
       <c r="A17" s="122"/>
       <c r="B17" s="45" t="s">
         <v>165</v>
@@ -7939,7 +7984,7 @@
       </c>
       <c r="J17" s="32"/>
     </row>
-    <row r="18" spans="1:10" s="26" customFormat="1" ht="51">
+    <row r="18" spans="1:10" s="26" customFormat="1" ht="46.8">
       <c r="A18" s="122"/>
       <c r="B18" s="45" t="s">
         <v>168</v>
@@ -7965,7 +8010,7 @@
       </c>
       <c r="J18" s="32"/>
     </row>
-    <row r="19" spans="1:10" s="26" customFormat="1" ht="34">
+    <row r="19" spans="1:10" s="26" customFormat="1" ht="31.2">
       <c r="A19" s="122"/>
       <c r="B19" s="45" t="s">
         <v>171</v>
@@ -7991,7 +8036,7 @@
       </c>
       <c r="J19" s="32"/>
     </row>
-    <row r="20" spans="1:10" s="26" customFormat="1" ht="34">
+    <row r="20" spans="1:10" s="26" customFormat="1" ht="31.2">
       <c r="A20" s="122"/>
       <c r="B20" s="45" t="s">
         <v>174</v>
@@ -8045,7 +8090,7 @@
       </c>
       <c r="J21" s="32"/>
     </row>
-    <row r="22" spans="1:10" s="26" customFormat="1" ht="34">
+    <row r="22" spans="1:10" s="26" customFormat="1" ht="31.2">
       <c r="A22" s="122"/>
       <c r="B22" s="45" t="s">
         <v>181</v>
@@ -8071,7 +8116,7 @@
       </c>
       <c r="J22" s="32"/>
     </row>
-    <row r="23" spans="1:10" s="26" customFormat="1" ht="34">
+    <row r="23" spans="1:10" s="26" customFormat="1" ht="31.2">
       <c r="A23" s="122"/>
       <c r="B23" s="45" t="s">
         <v>184</v>
@@ -8125,7 +8170,7 @@
       </c>
       <c r="J24" s="32"/>
     </row>
-    <row r="25" spans="1:10" s="26" customFormat="1" ht="68">
+    <row r="25" spans="1:10" s="26" customFormat="1" ht="62.4">
       <c r="A25" s="122"/>
       <c r="B25" s="45" t="s">
         <v>190</v>
@@ -8151,7 +8196,7 @@
       </c>
       <c r="J25" s="32"/>
     </row>
-    <row r="26" spans="1:10" s="26" customFormat="1" ht="51">
+    <row r="26" spans="1:10" s="26" customFormat="1" ht="62.4">
       <c r="A26" s="122"/>
       <c r="B26" s="45" t="s">
         <v>192</v>
@@ -8177,7 +8222,7 @@
       </c>
       <c r="J26" s="32"/>
     </row>
-    <row r="27" spans="1:10" s="26" customFormat="1" ht="51">
+    <row r="27" spans="1:10" s="26" customFormat="1" ht="46.8">
       <c r="A27" s="122"/>
       <c r="B27" s="45" t="s">
         <v>194</v>
@@ -8203,7 +8248,7 @@
       </c>
       <c r="J27" s="32"/>
     </row>
-    <row r="28" spans="1:10" s="26" customFormat="1" ht="102">
+    <row r="28" spans="1:10" s="26" customFormat="1" ht="109.2">
       <c r="A28" s="122"/>
       <c r="B28" s="45" t="s">
         <v>196</v>
@@ -8257,7 +8302,7 @@
       </c>
       <c r="J29" s="33"/>
     </row>
-    <row r="30" spans="1:10" s="26" customFormat="1" ht="34">
+    <row r="30" spans="1:10" s="26" customFormat="1" ht="31.2">
       <c r="A30" s="122"/>
       <c r="B30" s="45" t="s">
         <v>201</v>
@@ -8283,7 +8328,7 @@
       </c>
       <c r="J30" s="33"/>
     </row>
-    <row r="31" spans="1:10" s="26" customFormat="1" ht="34">
+    <row r="31" spans="1:10" s="26" customFormat="1" ht="46.8">
       <c r="A31" s="122"/>
       <c r="B31" s="45" t="s">
         <v>203</v>
@@ -8309,7 +8354,7 @@
       </c>
       <c r="J31" s="33"/>
     </row>
-    <row r="32" spans="1:10" s="26" customFormat="1" ht="34">
+    <row r="32" spans="1:10" s="26" customFormat="1" ht="31.2">
       <c r="A32" s="122"/>
       <c r="B32" s="45" t="s">
         <v>205</v>
@@ -8335,7 +8380,7 @@
       </c>
       <c r="J32" s="33"/>
     </row>
-    <row r="33" spans="1:10" s="26" customFormat="1" ht="34">
+    <row r="33" spans="1:10" s="26" customFormat="1" ht="31.2">
       <c r="A33" s="122"/>
       <c r="B33" s="45" t="s">
         <v>207</v>
@@ -8361,7 +8406,7 @@
       </c>
       <c r="J33" s="33"/>
     </row>
-    <row r="34" spans="1:10" s="26" customFormat="1" ht="68">
+    <row r="34" spans="1:10" s="26" customFormat="1" ht="62.4">
       <c r="A34" s="122"/>
       <c r="B34" s="45" t="s">
         <v>210</v>
@@ -8387,7 +8432,7 @@
       </c>
       <c r="J34" s="33"/>
     </row>
-    <row r="35" spans="1:10" s="26" customFormat="1" ht="34">
+    <row r="35" spans="1:10" s="26" customFormat="1" ht="46.8">
       <c r="A35" s="122"/>
       <c r="B35" s="45" t="s">
         <v>212</v>
@@ -8441,7 +8486,7 @@
       </c>
       <c r="J36" s="33"/>
     </row>
-    <row r="37" spans="1:10" s="26" customFormat="1" ht="51">
+    <row r="37" spans="1:10" s="26" customFormat="1" ht="46.8">
       <c r="A37" s="122"/>
       <c r="B37" s="45" t="s">
         <v>218</v>
@@ -8467,7 +8512,7 @@
       </c>
       <c r="J37" s="33"/>
     </row>
-    <row r="38" spans="1:10" s="26" customFormat="1" ht="17">
+    <row r="38" spans="1:10" s="26" customFormat="1" ht="31.2">
       <c r="A38" s="122"/>
       <c r="B38" s="45" t="s">
         <v>220</v>
@@ -8521,7 +8566,7 @@
       </c>
       <c r="J39" s="33"/>
     </row>
-    <row r="40" spans="1:10" s="26" customFormat="1" ht="34">
+    <row r="40" spans="1:10" s="26" customFormat="1" ht="31.2">
       <c r="A40" s="122"/>
       <c r="B40" s="45" t="s">
         <v>226</v>
@@ -8547,7 +8592,7 @@
       </c>
       <c r="J40" s="33"/>
     </row>
-    <row r="41" spans="1:10" s="26" customFormat="1" ht="34">
+    <row r="41" spans="1:10" s="26" customFormat="1" ht="46.8">
       <c r="A41" s="122"/>
       <c r="B41" s="45" t="s">
         <v>228</v>
@@ -8573,7 +8618,7 @@
       </c>
       <c r="J41" s="33"/>
     </row>
-    <row r="42" spans="1:10" s="26" customFormat="1" ht="34">
+    <row r="42" spans="1:10" s="26" customFormat="1" ht="31.2">
       <c r="A42" s="122"/>
       <c r="B42" s="45" t="s">
         <v>230</v>
@@ -8599,7 +8644,7 @@
       </c>
       <c r="J42" s="33"/>
     </row>
-    <row r="43" spans="1:10" s="26" customFormat="1" ht="34">
+    <row r="43" spans="1:10" s="26" customFormat="1" ht="31.2">
       <c r="A43" s="122"/>
       <c r="B43" s="45" t="s">
         <v>232</v>
@@ -8625,7 +8670,7 @@
       </c>
       <c r="J43" s="33"/>
     </row>
-    <row r="44" spans="1:10" s="26" customFormat="1" ht="51">
+    <row r="44" spans="1:10" s="26" customFormat="1" ht="46.8">
       <c r="A44" s="122"/>
       <c r="B44" s="45" t="s">
         <v>234</v>
@@ -8679,7 +8724,7 @@
       </c>
       <c r="J45" s="33"/>
     </row>
-    <row r="46" spans="1:10" s="26" customFormat="1" ht="51">
+    <row r="46" spans="1:10" s="26" customFormat="1" ht="46.8">
       <c r="A46" s="122"/>
       <c r="B46" s="45" t="s">
         <v>240</v>
@@ -8705,7 +8750,7 @@
       </c>
       <c r="J46" s="33"/>
     </row>
-    <row r="47" spans="1:10" s="26" customFormat="1" ht="34">
+    <row r="47" spans="1:10" s="26" customFormat="1" ht="31.2">
       <c r="A47" s="122"/>
       <c r="B47" s="45" t="s">
         <v>242</v>
@@ -8731,7 +8776,7 @@
       </c>
       <c r="J47" s="33"/>
     </row>
-    <row r="48" spans="1:10" s="26" customFormat="1" ht="34">
+    <row r="48" spans="1:10" s="26" customFormat="1" ht="31.2">
       <c r="A48" s="122"/>
       <c r="B48" s="45" t="s">
         <v>244</v>
@@ -8757,7 +8802,7 @@
       </c>
       <c r="J48" s="33"/>
     </row>
-    <row r="49" spans="1:10" s="26" customFormat="1" ht="51">
+    <row r="49" spans="1:10" s="26" customFormat="1" ht="46.8">
       <c r="A49" s="122"/>
       <c r="B49" s="45" t="s">
         <v>246</v>
@@ -8783,7 +8828,7 @@
       </c>
       <c r="J49" s="33"/>
     </row>
-    <row r="50" spans="1:10" s="26" customFormat="1" ht="51">
+    <row r="50" spans="1:10" s="26" customFormat="1" ht="46.8">
       <c r="A50" s="122"/>
       <c r="B50" s="45" t="s">
         <v>249</v>
@@ -8809,7 +8854,7 @@
       </c>
       <c r="J50" s="33"/>
     </row>
-    <row r="51" spans="1:10" s="26" customFormat="1" ht="34">
+    <row r="51" spans="1:10" s="26" customFormat="1" ht="46.8">
       <c r="A51" s="122"/>
       <c r="B51" s="45" t="s">
         <v>252</v>
@@ -8863,7 +8908,7 @@
       </c>
       <c r="J52" s="33"/>
     </row>
-    <row r="53" spans="1:10" s="26" customFormat="1" ht="34">
+    <row r="53" spans="1:10" s="26" customFormat="1" ht="31.2">
       <c r="A53" s="122"/>
       <c r="B53" s="45" t="s">
         <v>259</v>
@@ -8889,7 +8934,7 @@
       </c>
       <c r="J53" s="33"/>
     </row>
-    <row r="54" spans="1:10" s="26" customFormat="1" ht="34">
+    <row r="54" spans="1:10" s="26" customFormat="1" ht="31.2">
       <c r="A54" s="122"/>
       <c r="B54" s="45" t="s">
         <v>261</v>
@@ -8943,7 +8988,7 @@
       </c>
       <c r="J55" s="33"/>
     </row>
-    <row r="56" spans="1:10" s="26" customFormat="1" ht="51">
+    <row r="56" spans="1:10" s="26" customFormat="1" ht="46.8">
       <c r="A56" s="122"/>
       <c r="B56" s="45" t="s">
         <v>268</v>
@@ -8969,7 +9014,7 @@
       </c>
       <c r="J56" s="33"/>
     </row>
-    <row r="57" spans="1:10" s="26" customFormat="1" ht="51">
+    <row r="57" spans="1:10" s="26" customFormat="1" ht="46.8">
       <c r="A57" s="122"/>
       <c r="B57" s="45" t="s">
         <v>270</v>
@@ -8995,7 +9040,7 @@
       </c>
       <c r="J57" s="33"/>
     </row>
-    <row r="58" spans="1:10" s="26" customFormat="1" ht="85">
+    <row r="58" spans="1:10" s="26" customFormat="1" ht="93.6">
       <c r="A58" s="122"/>
       <c r="B58" s="45" t="s">
         <v>272</v>
@@ -9021,16 +9066,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="A39:A44"/>
+    <mergeCell ref="A45:A51"/>
+    <mergeCell ref="A52:A54"/>
+    <mergeCell ref="A55:A58"/>
     <mergeCell ref="A2:A13"/>
     <mergeCell ref="A14:A20"/>
     <mergeCell ref="A21:A23"/>
     <mergeCell ref="A24:A28"/>
     <mergeCell ref="A29:A35"/>
-    <mergeCell ref="A36:A38"/>
-    <mergeCell ref="A39:A44"/>
-    <mergeCell ref="A45:A51"/>
-    <mergeCell ref="A52:A54"/>
-    <mergeCell ref="A55:A58"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" operator="equal" showErrorMessage="1" sqref="G2:G58" xr:uid="{00000000-0002-0000-0200-000000000000}">
@@ -9055,21 +9100,21 @@
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="21"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="21"/>
   <cols>
-    <col min="1" max="1" width="40.83203125" style="59" customWidth="1"/>
+    <col min="1" max="1" width="40.77734375" style="59" customWidth="1"/>
     <col min="2" max="2" width="11" style="26" customWidth="1"/>
-    <col min="3" max="3" width="11.83203125" style="60" customWidth="1"/>
-    <col min="4" max="5" width="8.83203125" style="60"/>
+    <col min="3" max="3" width="11.77734375" style="60" customWidth="1"/>
+    <col min="4" max="5" width="8.77734375" style="60"/>
     <col min="6" max="6" width="70" style="26" customWidth="1"/>
     <col min="7" max="7" width="20.6640625" style="26" customWidth="1"/>
-    <col min="8" max="8" width="36.1640625" style="26" customWidth="1"/>
+    <col min="8" max="8" width="36.109375" style="26" customWidth="1"/>
     <col min="9" max="9" width="35.6640625" style="26" customWidth="1"/>
-    <col min="10" max="10" width="42.83203125" style="26" customWidth="1"/>
-    <col min="11" max="1024" width="8.83203125" style="26"/>
+    <col min="10" max="10" width="42.77734375" style="26" customWidth="1"/>
+    <col min="11" max="1024" width="8.77734375" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="44" customFormat="1" ht="44">
+    <row r="1" spans="1:10" s="44" customFormat="1" ht="42">
       <c r="A1" s="61" t="s">
         <v>20</v>
       </c>
@@ -9101,7 +9146,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="44">
+    <row r="2" spans="1:10" ht="42">
       <c r="A2" s="1" t="s">
         <v>274</v>
       </c>
@@ -9147,7 +9192,7 @@
       <c r="I3" s="29"/>
       <c r="J3" s="33"/>
     </row>
-    <row r="4" spans="1:10" ht="51">
+    <row r="4" spans="1:10" ht="46.8">
       <c r="A4" s="122"/>
       <c r="B4" s="63" t="s">
         <v>280</v>
@@ -9169,7 +9214,7 @@
       <c r="I4" s="29"/>
       <c r="J4" s="33"/>
     </row>
-    <row r="5" spans="1:10" ht="51">
+    <row r="5" spans="1:10" ht="46.8">
       <c r="A5" s="122"/>
       <c r="B5" s="63" t="s">
         <v>282</v>
@@ -9191,7 +9236,7 @@
       <c r="I5" s="29"/>
       <c r="J5" s="33"/>
     </row>
-    <row r="6" spans="1:10" ht="68">
+    <row r="6" spans="1:10" ht="62.4">
       <c r="A6" s="122"/>
       <c r="B6" s="63" t="s">
         <v>284</v>
@@ -9237,7 +9282,7 @@
       <c r="I7" s="29"/>
       <c r="J7" s="33"/>
     </row>
-    <row r="8" spans="1:10" ht="102">
+    <row r="8" spans="1:10" ht="109.2">
       <c r="A8" s="122"/>
       <c r="B8" s="63" t="s">
         <v>289</v>
@@ -9259,7 +9304,7 @@
       <c r="I8" s="29"/>
       <c r="J8" s="33"/>
     </row>
-    <row r="9" spans="1:10" ht="68">
+    <row r="9" spans="1:10" ht="62.4">
       <c r="A9" s="122"/>
       <c r="B9" s="63" t="s">
         <v>291</v>
@@ -9279,7 +9324,7 @@
       <c r="I9" s="29"/>
       <c r="J9" s="33"/>
     </row>
-    <row r="10" spans="1:10" ht="34">
+    <row r="10" spans="1:10" ht="31.2">
       <c r="A10" s="122"/>
       <c r="B10" s="63" t="s">
         <v>293</v>
@@ -9325,7 +9370,7 @@
       <c r="I11" s="29"/>
       <c r="J11" s="33"/>
     </row>
-    <row r="12" spans="1:10" ht="34">
+    <row r="12" spans="1:10" ht="46.8">
       <c r="A12" s="122"/>
       <c r="B12" s="63" t="s">
         <v>299</v>
@@ -9347,7 +9392,7 @@
       <c r="I12" s="29"/>
       <c r="J12" s="33"/>
     </row>
-    <row r="13" spans="1:10" ht="51">
+    <row r="13" spans="1:10" ht="62.4">
       <c r="A13" s="122"/>
       <c r="B13" s="63" t="s">
         <v>301</v>
@@ -9369,7 +9414,7 @@
       <c r="I13" s="29"/>
       <c r="J13" s="33"/>
     </row>
-    <row r="14" spans="1:10" ht="34">
+    <row r="14" spans="1:10" ht="31.2">
       <c r="A14" s="122"/>
       <c r="B14" s="63" t="s">
         <v>303</v>
@@ -9391,7 +9436,7 @@
       <c r="I14" s="29"/>
       <c r="J14" s="33"/>
     </row>
-    <row r="15" spans="1:10" ht="85">
+    <row r="15" spans="1:10" ht="93.6">
       <c r="A15" s="122"/>
       <c r="B15" s="63" t="s">
         <v>305</v>
@@ -9437,7 +9482,7 @@
       <c r="I16" s="29"/>
       <c r="J16" s="33"/>
     </row>
-    <row r="17" spans="1:10" ht="34">
+    <row r="17" spans="1:10" ht="31.2">
       <c r="A17" s="122"/>
       <c r="B17" s="63" t="s">
         <v>311</v>
@@ -9457,7 +9502,7 @@
       <c r="I17" s="29"/>
       <c r="J17" s="33"/>
     </row>
-    <row r="18" spans="1:10" ht="51">
+    <row r="18" spans="1:10" ht="46.8">
       <c r="A18" s="122"/>
       <c r="B18" s="63" t="s">
         <v>313</v>
@@ -9501,7 +9546,7 @@
       <c r="I19" s="29"/>
       <c r="J19" s="33"/>
     </row>
-    <row r="20" spans="1:10" ht="51">
+    <row r="20" spans="1:10" ht="46.8">
       <c r="A20" s="122"/>
       <c r="B20" s="63" t="s">
         <v>319</v>
@@ -9523,7 +9568,7 @@
       <c r="I20" s="29"/>
       <c r="J20" s="33"/>
     </row>
-    <row r="21" spans="1:10" ht="51">
+    <row r="21" spans="1:10" ht="46.8">
       <c r="A21" s="1" t="s">
         <v>321</v>
       </c>
@@ -9585,18 +9630,18 @@
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="21"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="21"/>
   <cols>
-    <col min="1" max="1" width="38.5" style="73" customWidth="1"/>
+    <col min="1" max="1" width="38.44140625" style="73" customWidth="1"/>
     <col min="2" max="2" width="12.33203125" style="74" customWidth="1"/>
-    <col min="3" max="3" width="12.5" style="60" customWidth="1"/>
-    <col min="4" max="5" width="8.83203125" style="60"/>
+    <col min="3" max="3" width="12.44140625" style="60" customWidth="1"/>
+    <col min="4" max="5" width="8.77734375" style="60"/>
     <col min="6" max="6" width="68.6640625" style="26" customWidth="1"/>
-    <col min="7" max="7" width="18.1640625" style="26" customWidth="1"/>
+    <col min="7" max="7" width="18.109375" style="26" customWidth="1"/>
     <col min="8" max="8" width="32.6640625" style="26" customWidth="1"/>
     <col min="9" max="9" width="27.33203125" style="26" customWidth="1"/>
-    <col min="10" max="10" width="42.1640625" style="26" customWidth="1"/>
-    <col min="11" max="1024" width="8.83203125" style="26"/>
+    <col min="10" max="10" width="42.109375" style="26" customWidth="1"/>
+    <col min="11" max="1024" width="8.77734375" style="26"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="77" customFormat="1">
@@ -9653,7 +9698,7 @@
       <c r="I2" s="50"/>
       <c r="J2" s="66"/>
     </row>
-    <row r="3" spans="1:10" ht="34">
+    <row r="3" spans="1:10" ht="46.8">
       <c r="A3" s="122"/>
       <c r="B3" s="78" t="s">
         <v>327</v>
@@ -9673,7 +9718,7 @@
       <c r="I3" s="29"/>
       <c r="J3" s="33"/>
     </row>
-    <row r="4" spans="1:10" ht="85">
+    <row r="4" spans="1:10" ht="93.6">
       <c r="A4" s="122"/>
       <c r="B4" s="78" t="s">
         <v>329</v>
@@ -9693,7 +9738,7 @@
       <c r="I4" s="29"/>
       <c r="J4" s="33"/>
     </row>
-    <row r="5" spans="1:10" ht="17">
+    <row r="5" spans="1:10" ht="15.6">
       <c r="A5" s="122"/>
       <c r="B5" s="78" t="s">
         <v>331</v>
@@ -9715,7 +9760,7 @@
       <c r="I5" s="29"/>
       <c r="J5" s="33"/>
     </row>
-    <row r="6" spans="1:10" ht="34">
+    <row r="6" spans="1:10" ht="46.8">
       <c r="A6" s="122"/>
       <c r="B6" s="78" t="s">
         <v>332</v>
@@ -9757,7 +9802,7 @@
       <c r="I7" s="29"/>
       <c r="J7" s="33"/>
     </row>
-    <row r="8" spans="1:10" ht="51">
+    <row r="8" spans="1:10" ht="46.8">
       <c r="A8" s="122"/>
       <c r="B8" s="78" t="s">
         <v>337</v>
@@ -9799,7 +9844,7 @@
       <c r="I9" s="29"/>
       <c r="J9" s="33"/>
     </row>
-    <row r="10" spans="1:10" ht="51">
+    <row r="10" spans="1:10" ht="62.4">
       <c r="A10" s="122"/>
       <c r="B10" s="78" t="s">
         <v>342</v>
@@ -9819,7 +9864,7 @@
       <c r="I10" s="29"/>
       <c r="J10" s="33"/>
     </row>
-    <row r="11" spans="1:10" ht="68">
+    <row r="11" spans="1:10" ht="62.4">
       <c r="A11" s="122"/>
       <c r="B11" s="78" t="s">
         <v>344</v>
@@ -9862,26 +9907,26 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:AMJ31"/>
+  <dimension ref="A1:AMJ32"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView topLeftCell="A23" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="21"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="21"/>
   <cols>
     <col min="1" max="1" width="53.33203125" style="73" customWidth="1"/>
-    <col min="2" max="2" width="11.5" style="26" customWidth="1"/>
-    <col min="3" max="5" width="8.83203125" style="60"/>
+    <col min="2" max="2" width="11.44140625" style="26" customWidth="1"/>
+    <col min="3" max="5" width="8.77734375" style="60"/>
     <col min="6" max="6" width="60.6640625" style="26" customWidth="1"/>
     <col min="7" max="7" width="22.6640625" style="26" customWidth="1"/>
     <col min="8" max="8" width="41.33203125" style="26" customWidth="1"/>
     <col min="9" max="9" width="35.33203125" style="26" customWidth="1"/>
     <col min="10" max="10" width="29" style="26" customWidth="1"/>
-    <col min="11" max="1024" width="8.83203125" style="26"/>
+    <col min="11" max="1024" width="8.77734375" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="44" customFormat="1" ht="44">
+    <row r="1" spans="1:10" s="44" customFormat="1" ht="42">
       <c r="A1" s="41" t="s">
         <v>20</v>
       </c>
@@ -9930,12 +9975,14 @@
       <c r="F2" s="80" t="s">
         <v>348</v>
       </c>
-      <c r="G2" s="50"/>
+      <c r="G2" s="50" t="s">
+        <v>26</v>
+      </c>
       <c r="H2" s="50"/>
       <c r="I2" s="50"/>
       <c r="J2" s="66"/>
     </row>
-    <row r="3" spans="1:10" ht="85">
+    <row r="3" spans="1:10" ht="93.6">
       <c r="A3" s="122"/>
       <c r="B3" s="63" t="s">
         <v>349</v>
@@ -9950,12 +9997,14 @@
       <c r="F3" s="81" t="s">
         <v>350</v>
       </c>
-      <c r="G3" s="29"/>
+      <c r="G3" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H3" s="29"/>
       <c r="I3" s="29"/>
       <c r="J3" s="33"/>
     </row>
-    <row r="4" spans="1:10" ht="85">
+    <row r="4" spans="1:10" ht="78">
       <c r="A4" s="122"/>
       <c r="B4" s="63" t="s">
         <v>351</v>
@@ -9970,12 +10019,14 @@
       <c r="F4" s="81" t="s">
         <v>352</v>
       </c>
-      <c r="G4" s="29"/>
+      <c r="G4" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H4" s="29"/>
       <c r="I4" s="29"/>
       <c r="J4" s="33"/>
     </row>
-    <row r="5" spans="1:10" ht="102">
+    <row r="5" spans="1:10" ht="109.2">
       <c r="A5" s="122"/>
       <c r="B5" s="63" t="s">
         <v>353</v>
@@ -9990,12 +10041,14 @@
       <c r="F5" s="81" t="s">
         <v>354</v>
       </c>
-      <c r="G5" s="29"/>
+      <c r="G5" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H5" s="29"/>
       <c r="I5" s="29"/>
       <c r="J5" s="33"/>
     </row>
-    <row r="6" spans="1:10" ht="51">
+    <row r="6" spans="1:10" ht="46.8">
       <c r="A6" s="122"/>
       <c r="B6" s="63" t="s">
         <v>355</v>
@@ -10010,7 +10063,9 @@
       <c r="F6" s="81" t="s">
         <v>356</v>
       </c>
-      <c r="G6" s="29"/>
+      <c r="G6" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H6" s="29"/>
       <c r="I6" s="29"/>
       <c r="J6" s="33"/>
@@ -10032,12 +10087,14 @@
       <c r="F7" s="81" t="s">
         <v>358</v>
       </c>
-      <c r="G7" s="29"/>
+      <c r="G7" s="29" t="s">
+        <v>56</v>
+      </c>
       <c r="H7" s="29"/>
       <c r="I7" s="29"/>
       <c r="J7" s="33"/>
     </row>
-    <row r="8" spans="1:10" ht="34">
+    <row r="8" spans="1:10" ht="31.2">
       <c r="A8" s="122"/>
       <c r="B8" s="63" t="s">
         <v>359</v>
@@ -10052,12 +10109,14 @@
       <c r="F8" s="81" t="s">
         <v>360</v>
       </c>
-      <c r="G8" s="29"/>
+      <c r="G8" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H8" s="29"/>
       <c r="I8" s="29"/>
       <c r="J8" s="33"/>
     </row>
-    <row r="9" spans="1:10" ht="34">
+    <row r="9" spans="1:10" ht="31.2">
       <c r="A9" s="122"/>
       <c r="B9" s="63" t="s">
         <v>253</v>
@@ -10072,12 +10131,14 @@
       <c r="F9" s="81" t="s">
         <v>361</v>
       </c>
-      <c r="G9" s="29"/>
+      <c r="G9" s="29" t="s">
+        <v>56</v>
+      </c>
       <c r="H9" s="29"/>
       <c r="I9" s="29"/>
       <c r="J9" s="33"/>
     </row>
-    <row r="10" spans="1:10" ht="51">
+    <row r="10" spans="1:10" ht="62.4">
       <c r="A10" s="122"/>
       <c r="B10" s="63" t="s">
         <v>362</v>
@@ -10092,12 +10153,14 @@
       <c r="F10" s="81" t="s">
         <v>363</v>
       </c>
-      <c r="G10" s="29"/>
+      <c r="G10" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H10" s="29"/>
       <c r="I10" s="29"/>
       <c r="J10" s="33"/>
     </row>
-    <row r="11" spans="1:10" ht="51">
+    <row r="11" spans="1:10" ht="46.8">
       <c r="A11" s="122"/>
       <c r="B11" s="63" t="s">
         <v>166</v>
@@ -10112,12 +10175,14 @@
       <c r="F11" s="81" t="s">
         <v>364</v>
       </c>
-      <c r="G11" s="29"/>
+      <c r="G11" s="29" t="s">
+        <v>56</v>
+      </c>
       <c r="H11" s="29"/>
       <c r="I11" s="29"/>
       <c r="J11" s="33"/>
     </row>
-    <row r="12" spans="1:10" ht="68">
+    <row r="12" spans="1:10" ht="62.4">
       <c r="A12" s="122"/>
       <c r="B12" s="63" t="s">
         <v>169</v>
@@ -10132,12 +10197,14 @@
       <c r="F12" s="81" t="s">
         <v>365</v>
       </c>
-      <c r="G12" s="29"/>
+      <c r="G12" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H12" s="29"/>
       <c r="I12" s="29"/>
       <c r="J12" s="33"/>
     </row>
-    <row r="13" spans="1:10" ht="51">
+    <row r="13" spans="1:10" ht="62.4">
       <c r="A13" s="122"/>
       <c r="B13" s="63" t="s">
         <v>366</v>
@@ -10152,12 +10219,14 @@
       <c r="F13" s="81" t="s">
         <v>367</v>
       </c>
-      <c r="G13" s="29"/>
+      <c r="G13" s="29" t="s">
+        <v>56</v>
+      </c>
       <c r="H13" s="29"/>
       <c r="I13" s="29"/>
       <c r="J13" s="33"/>
     </row>
-    <row r="14" spans="1:10" ht="51">
+    <row r="14" spans="1:10" ht="62.4">
       <c r="A14" s="122"/>
       <c r="B14" s="63" t="s">
         <v>172</v>
@@ -10172,7 +10241,9 @@
       <c r="F14" s="81" t="s">
         <v>368</v>
       </c>
-      <c r="G14" s="29"/>
+      <c r="G14" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H14" s="29"/>
       <c r="I14" s="29"/>
       <c r="J14" s="33"/>
@@ -10194,12 +10265,14 @@
       <c r="F15" s="81" t="s">
         <v>371</v>
       </c>
-      <c r="G15" s="29"/>
+      <c r="G15" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H15" s="29"/>
       <c r="I15" s="29"/>
       <c r="J15" s="33"/>
     </row>
-    <row r="16" spans="1:10" ht="68">
+    <row r="16" spans="1:10" ht="78">
       <c r="A16" s="122"/>
       <c r="B16" s="63" t="s">
         <v>372</v>
@@ -10214,12 +10287,14 @@
       <c r="F16" s="81" t="s">
         <v>373</v>
       </c>
-      <c r="G16" s="29"/>
+      <c r="G16" s="29" t="s">
+        <v>56</v>
+      </c>
       <c r="H16" s="29"/>
       <c r="I16" s="29"/>
       <c r="J16" s="33"/>
     </row>
-    <row r="17" spans="1:10" ht="68">
+    <row r="17" spans="1:10" ht="62.4">
       <c r="A17" s="122"/>
       <c r="B17" s="63" t="s">
         <v>374</v>
@@ -10234,12 +10309,14 @@
       <c r="F17" s="81" t="s">
         <v>375</v>
       </c>
-      <c r="G17" s="29"/>
+      <c r="G17" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H17" s="29"/>
       <c r="I17" s="29"/>
       <c r="J17" s="33"/>
     </row>
-    <row r="18" spans="1:10" ht="85">
+    <row r="18" spans="1:10" ht="78">
       <c r="A18" s="122"/>
       <c r="B18" s="63" t="s">
         <v>376</v>
@@ -10254,12 +10331,14 @@
       <c r="F18" s="81" t="s">
         <v>377</v>
       </c>
-      <c r="G18" s="29"/>
+      <c r="G18" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H18" s="29"/>
       <c r="I18" s="29"/>
       <c r="J18" s="33"/>
     </row>
-    <row r="19" spans="1:10" ht="85">
+    <row r="19" spans="1:10" ht="93.6">
       <c r="A19" s="122"/>
       <c r="B19" s="63" t="s">
         <v>378</v>
@@ -10274,12 +10353,14 @@
       <c r="F19" s="81" t="s">
         <v>379</v>
       </c>
-      <c r="G19" s="29"/>
+      <c r="G19" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H19" s="29"/>
       <c r="I19" s="29"/>
       <c r="J19" s="33"/>
     </row>
-    <row r="20" spans="1:10" ht="68">
+    <row r="20" spans="1:10" ht="62.4">
       <c r="A20" s="122"/>
       <c r="B20" s="63" t="s">
         <v>380</v>
@@ -10294,12 +10375,14 @@
       <c r="F20" s="81" t="s">
         <v>381</v>
       </c>
-      <c r="G20" s="29"/>
+      <c r="G20" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H20" s="29"/>
       <c r="I20" s="29"/>
       <c r="J20" s="33"/>
     </row>
-    <row r="21" spans="1:10" ht="68">
+    <row r="21" spans="1:10" ht="78">
       <c r="A21" s="122"/>
       <c r="B21" s="63" t="s">
         <v>382</v>
@@ -10314,12 +10397,14 @@
       <c r="F21" s="81" t="s">
         <v>383</v>
       </c>
-      <c r="G21" s="29"/>
+      <c r="G21" s="29" t="s">
+        <v>689</v>
+      </c>
       <c r="H21" s="29"/>
       <c r="I21" s="29"/>
       <c r="J21" s="33"/>
     </row>
-    <row r="22" spans="1:10" ht="85">
+    <row r="22" spans="1:10" ht="78">
       <c r="A22" s="122"/>
       <c r="B22" s="63" t="s">
         <v>384</v>
@@ -10334,12 +10419,14 @@
       <c r="F22" s="81" t="s">
         <v>385</v>
       </c>
-      <c r="G22" s="29"/>
+      <c r="G22" s="29" t="s">
+        <v>56</v>
+      </c>
       <c r="H22" s="29"/>
       <c r="I22" s="29"/>
       <c r="J22" s="33"/>
     </row>
-    <row r="23" spans="1:10" ht="34">
+    <row r="23" spans="1:10" ht="31.2">
       <c r="A23" s="122"/>
       <c r="B23" s="63" t="s">
         <v>386</v>
@@ -10354,12 +10441,14 @@
       <c r="F23" s="81" t="s">
         <v>387</v>
       </c>
-      <c r="G23" s="29"/>
+      <c r="G23" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H23" s="29"/>
       <c r="I23" s="29"/>
       <c r="J23" s="33"/>
     </row>
-    <row r="24" spans="1:10" ht="51">
+    <row r="24" spans="1:10" ht="46.8">
       <c r="A24" s="122"/>
       <c r="B24" s="63" t="s">
         <v>388</v>
@@ -10374,7 +10463,9 @@
       <c r="F24" s="81" t="s">
         <v>389</v>
       </c>
-      <c r="G24" s="29"/>
+      <c r="G24" s="29" t="s">
+        <v>689</v>
+      </c>
       <c r="H24" s="29"/>
       <c r="I24" s="29"/>
       <c r="J24" s="33"/>
@@ -10396,12 +10487,14 @@
       <c r="F25" s="81" t="s">
         <v>392</v>
       </c>
-      <c r="G25" s="29"/>
+      <c r="G25" s="29" t="s">
+        <v>56</v>
+      </c>
       <c r="H25" s="29"/>
       <c r="I25" s="29"/>
       <c r="J25" s="33"/>
     </row>
-    <row r="26" spans="1:10" ht="34">
+    <row r="26" spans="1:10" ht="31.2">
       <c r="A26" s="122"/>
       <c r="B26" s="63" t="s">
         <v>393</v>
@@ -10416,12 +10509,14 @@
       <c r="F26" s="81" t="s">
         <v>394</v>
       </c>
-      <c r="G26" s="29"/>
+      <c r="G26" s="29" t="s">
+        <v>56</v>
+      </c>
       <c r="H26" s="29"/>
       <c r="I26" s="29"/>
       <c r="J26" s="33"/>
     </row>
-    <row r="27" spans="1:10" ht="34">
+    <row r="27" spans="1:10" ht="31.2">
       <c r="A27" s="122"/>
       <c r="B27" s="63" t="s">
         <v>395</v>
@@ -10436,7 +10531,9 @@
       <c r="F27" s="81" t="s">
         <v>396</v>
       </c>
-      <c r="G27" s="29"/>
+      <c r="G27" s="29" t="s">
+        <v>56</v>
+      </c>
       <c r="H27" s="29"/>
       <c r="I27" s="29"/>
       <c r="J27" s="33"/>
@@ -10458,12 +10555,14 @@
       <c r="F28" s="81" t="s">
         <v>399</v>
       </c>
-      <c r="G28" s="29"/>
+      <c r="G28" s="29" t="s">
+        <v>56</v>
+      </c>
       <c r="H28" s="29"/>
       <c r="I28" s="29"/>
       <c r="J28" s="33"/>
     </row>
-    <row r="29" spans="1:10" ht="68">
+    <row r="29" spans="1:10" ht="62.4">
       <c r="A29" s="122"/>
       <c r="B29" s="63" t="s">
         <v>400</v>
@@ -10478,12 +10577,14 @@
       <c r="F29" s="81" t="s">
         <v>401</v>
       </c>
-      <c r="G29" s="29"/>
+      <c r="G29" s="29" t="s">
+        <v>56</v>
+      </c>
       <c r="H29" s="29"/>
       <c r="I29" s="29"/>
       <c r="J29" s="33"/>
     </row>
-    <row r="30" spans="1:10" ht="51">
+    <row r="30" spans="1:10" ht="46.8">
       <c r="A30" s="122"/>
       <c r="B30" s="63" t="s">
         <v>402</v>
@@ -10498,12 +10599,14 @@
       <c r="F30" s="81" t="s">
         <v>403</v>
       </c>
-      <c r="G30" s="29"/>
+      <c r="G30" s="29" t="s">
+        <v>56</v>
+      </c>
       <c r="H30" s="29"/>
       <c r="I30" s="29"/>
       <c r="J30" s="33"/>
     </row>
-    <row r="31" spans="1:10" ht="51">
+    <row r="31" spans="1:10" ht="46.8">
       <c r="A31" s="122"/>
       <c r="B31" s="63" t="s">
         <v>404</v>
@@ -10518,10 +10621,15 @@
       <c r="F31" s="82" t="s">
         <v>405</v>
       </c>
-      <c r="G31" s="36"/>
+      <c r="G31" s="36" t="s">
+        <v>26</v>
+      </c>
       <c r="H31" s="36"/>
       <c r="I31" s="36"/>
       <c r="J31" s="38"/>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="G32" s="124"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -10554,21 +10662,21 @@
       <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="21"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="21"/>
   <cols>
     <col min="1" max="1" width="35.33203125" style="73" customWidth="1"/>
-    <col min="2" max="2" width="6.83203125" style="26" customWidth="1"/>
-    <col min="3" max="3" width="12.5" style="60" customWidth="1"/>
-    <col min="4" max="5" width="8.83203125" style="60"/>
-    <col min="6" max="6" width="97.1640625" style="26" customWidth="1"/>
-    <col min="7" max="7" width="8.5" style="26" customWidth="1"/>
-    <col min="8" max="8" width="36.1640625" style="26" customWidth="1"/>
+    <col min="2" max="2" width="6.77734375" style="26" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" style="60" customWidth="1"/>
+    <col min="4" max="5" width="8.77734375" style="60"/>
+    <col min="6" max="6" width="97.109375" style="26" customWidth="1"/>
+    <col min="7" max="7" width="8.44140625" style="26" customWidth="1"/>
+    <col min="8" max="8" width="36.109375" style="26" customWidth="1"/>
     <col min="9" max="9" width="18" style="26" customWidth="1"/>
     <col min="10" max="10" width="27.33203125" style="26" customWidth="1"/>
-    <col min="11" max="1024" width="8.83203125" style="26"/>
+    <col min="11" max="1024" width="8.77734375" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="44" customFormat="1" ht="44">
+    <row r="1" spans="1:10" s="44" customFormat="1" ht="42">
       <c r="A1" s="41" t="s">
         <v>20</v>
       </c>
@@ -10622,7 +10730,7 @@
       <c r="I2" s="50"/>
       <c r="J2" s="66"/>
     </row>
-    <row r="3" spans="1:10" ht="34">
+    <row r="3" spans="1:10" ht="31.2">
       <c r="A3" s="122"/>
       <c r="B3" s="63" t="s">
         <v>409</v>
@@ -10642,7 +10750,7 @@
       <c r="I3" s="29"/>
       <c r="J3" s="33"/>
     </row>
-    <row r="4" spans="1:10" ht="34">
+    <row r="4" spans="1:10" ht="46.8">
       <c r="A4" s="122"/>
       <c r="B4" s="63" t="s">
         <v>182</v>
@@ -10684,7 +10792,7 @@
       <c r="I5" s="29"/>
       <c r="J5" s="33"/>
     </row>
-    <row r="6" spans="1:10" ht="51">
+    <row r="6" spans="1:10" ht="46.8">
       <c r="A6" s="122"/>
       <c r="B6" s="63" t="s">
         <v>415</v>
@@ -10704,7 +10812,7 @@
       <c r="I6" s="29"/>
       <c r="J6" s="33"/>
     </row>
-    <row r="7" spans="1:10" ht="34">
+    <row r="7" spans="1:10" ht="31.2">
       <c r="A7" s="122"/>
       <c r="B7" s="63" t="s">
         <v>417</v>
@@ -10724,7 +10832,7 @@
       <c r="I7" s="29"/>
       <c r="J7" s="33"/>
     </row>
-    <row r="8" spans="1:10" ht="51">
+    <row r="8" spans="1:10" ht="46.8">
       <c r="A8" s="122"/>
       <c r="B8" s="63" t="s">
         <v>419</v>
@@ -10744,7 +10852,7 @@
       <c r="I8" s="29"/>
       <c r="J8" s="33"/>
     </row>
-    <row r="9" spans="1:10" ht="51">
+    <row r="9" spans="1:10" ht="46.8">
       <c r="A9" s="122"/>
       <c r="B9" s="63" t="s">
         <v>421</v>
@@ -10764,7 +10872,7 @@
       <c r="I9" s="29"/>
       <c r="J9" s="33"/>
     </row>
-    <row r="10" spans="1:10" ht="34">
+    <row r="10" spans="1:10" ht="46.8">
       <c r="A10" s="122"/>
       <c r="B10" s="63" t="s">
         <v>423</v>
@@ -10784,7 +10892,7 @@
       <c r="I10" s="29"/>
       <c r="J10" s="33"/>
     </row>
-    <row r="11" spans="1:10" ht="34">
+    <row r="11" spans="1:10" ht="31.2">
       <c r="A11" s="122"/>
       <c r="B11" s="63" t="s">
         <v>425</v>
@@ -10804,7 +10912,7 @@
       <c r="I11" s="29"/>
       <c r="J11" s="33"/>
     </row>
-    <row r="12" spans="1:10" ht="34">
+    <row r="12" spans="1:10" ht="31.2">
       <c r="A12" s="122"/>
       <c r="B12" s="63" t="s">
         <v>427</v>
@@ -10846,7 +10954,7 @@
       <c r="I13" s="29"/>
       <c r="J13" s="33"/>
     </row>
-    <row r="14" spans="1:10" ht="51">
+    <row r="14" spans="1:10" ht="46.8">
       <c r="A14" s="122"/>
       <c r="B14" s="63" t="s">
         <v>432</v>
@@ -10866,7 +10974,7 @@
       <c r="I14" s="29"/>
       <c r="J14" s="33"/>
     </row>
-    <row r="15" spans="1:10" ht="34">
+    <row r="15" spans="1:10" ht="31.2">
       <c r="A15" s="122"/>
       <c r="B15" s="63" t="s">
         <v>434</v>
@@ -10908,7 +11016,7 @@
       <c r="I16" s="29"/>
       <c r="J16" s="33"/>
     </row>
-    <row r="17" spans="1:10" ht="34">
+    <row r="17" spans="1:10" ht="46.8">
       <c r="A17" s="122"/>
       <c r="B17" s="63" t="s">
         <v>439</v>
@@ -10958,21 +11066,21 @@
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="21"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="21"/>
   <cols>
-    <col min="1" max="1" width="31.5" style="73" customWidth="1"/>
-    <col min="2" max="2" width="6.83203125" style="26" customWidth="1"/>
+    <col min="1" max="1" width="31.44140625" style="73" customWidth="1"/>
+    <col min="2" max="2" width="6.77734375" style="26" customWidth="1"/>
     <col min="3" max="3" width="15" style="60" customWidth="1"/>
-    <col min="4" max="5" width="8.83203125" style="60"/>
+    <col min="4" max="5" width="8.77734375" style="60"/>
     <col min="6" max="6" width="80.33203125" style="26" customWidth="1"/>
     <col min="7" max="7" width="16.6640625" style="26" customWidth="1"/>
     <col min="8" max="8" width="31" style="26" customWidth="1"/>
     <col min="9" max="9" width="24" style="26" customWidth="1"/>
-    <col min="10" max="10" width="35.1640625" style="26" customWidth="1"/>
-    <col min="11" max="1024" width="8.83203125" style="26"/>
+    <col min="10" max="10" width="35.109375" style="26" customWidth="1"/>
+    <col min="11" max="1024" width="8.77734375" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="88" customFormat="1" ht="22">
+    <row r="1" spans="1:10" s="88" customFormat="1">
       <c r="A1" s="84" t="s">
         <v>20</v>
       </c>
@@ -11026,7 +11134,7 @@
       <c r="I2" s="93"/>
       <c r="J2" s="94"/>
     </row>
-    <row r="3" spans="1:10" ht="51">
+    <row r="3" spans="1:10" ht="46.8">
       <c r="A3" s="122"/>
       <c r="B3" s="63" t="s">
         <v>309</v>
@@ -11046,7 +11154,7 @@
       <c r="I3" s="29"/>
       <c r="J3" s="33"/>
     </row>
-    <row r="4" spans="1:10" ht="51">
+    <row r="4" spans="1:10" ht="62.4">
       <c r="A4" s="122"/>
       <c r="B4" s="63" t="s">
         <v>444</v>
@@ -11066,7 +11174,7 @@
       <c r="I4" s="29"/>
       <c r="J4" s="33"/>
     </row>
-    <row r="5" spans="1:10" ht="51">
+    <row r="5" spans="1:10" ht="46.8">
       <c r="A5" s="122"/>
       <c r="B5" s="63" t="s">
         <v>446</v>
@@ -11108,7 +11216,7 @@
       <c r="I6" s="29"/>
       <c r="J6" s="33"/>
     </row>
-    <row r="7" spans="1:10" ht="34">
+    <row r="7" spans="1:10" ht="46.8">
       <c r="A7" s="122"/>
       <c r="B7" s="63" t="s">
         <v>450</v>
@@ -11150,7 +11258,7 @@
       <c r="I8" s="29"/>
       <c r="J8" s="33"/>
     </row>
-    <row r="9" spans="1:10" ht="17">
+    <row r="9" spans="1:10" ht="15.6">
       <c r="A9" s="122"/>
       <c r="B9" s="63" t="s">
         <v>455</v>
@@ -11172,7 +11280,7 @@
       <c r="I9" s="29"/>
       <c r="J9" s="33"/>
     </row>
-    <row r="10" spans="1:10" ht="34">
+    <row r="10" spans="1:10" ht="31.2">
       <c r="A10" s="122"/>
       <c r="B10" s="63" t="s">
         <v>457</v>
@@ -11192,7 +11300,7 @@
       <c r="I10" s="29"/>
       <c r="J10" s="33"/>
     </row>
-    <row r="11" spans="1:10" ht="51">
+    <row r="11" spans="1:10" ht="62.4">
       <c r="A11" s="122"/>
       <c r="B11" s="63" t="s">
         <v>459</v>
@@ -11232,7 +11340,7 @@
       <c r="I12" s="29"/>
       <c r="J12" s="33"/>
     </row>
-    <row r="13" spans="1:10" ht="51">
+    <row r="13" spans="1:10" ht="46.8">
       <c r="A13" s="122"/>
       <c r="B13" s="63" t="s">
         <v>464</v>
@@ -11252,7 +11360,7 @@
       <c r="I13" s="29"/>
       <c r="J13" s="33"/>
     </row>
-    <row r="14" spans="1:10" ht="34">
+    <row r="14" spans="1:10" ht="46.8">
       <c r="A14" s="122"/>
       <c r="B14" s="63" t="s">
         <v>466</v>
@@ -11302,20 +11410,20 @@
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="21"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="21"/>
   <cols>
     <col min="1" max="1" width="30.6640625" style="73" customWidth="1"/>
-    <col min="2" max="2" width="8.83203125" style="26"/>
-    <col min="3" max="5" width="8.83203125" style="60"/>
+    <col min="2" max="2" width="8.77734375" style="26"/>
+    <col min="3" max="5" width="8.77734375" style="60"/>
     <col min="6" max="6" width="93" style="26" customWidth="1"/>
-    <col min="7" max="7" width="12.5" style="26" customWidth="1"/>
-    <col min="8" max="8" width="35.83203125" style="26" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" style="26" customWidth="1"/>
+    <col min="8" max="8" width="35.77734375" style="26" customWidth="1"/>
     <col min="9" max="9" width="17.33203125" style="26" customWidth="1"/>
-    <col min="10" max="10" width="30.83203125" style="26" customWidth="1"/>
-    <col min="11" max="1024" width="8.83203125" style="26"/>
+    <col min="10" max="10" width="30.77734375" style="26" customWidth="1"/>
+    <col min="11" max="1024" width="8.77734375" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="44" customFormat="1" ht="44">
+    <row r="1" spans="1:10" s="44" customFormat="1" ht="42">
       <c r="A1" s="95" t="s">
         <v>20</v>
       </c>
@@ -11369,7 +11477,7 @@
       <c r="I2" s="50"/>
       <c r="J2" s="66"/>
     </row>
-    <row r="3" spans="1:10" ht="34">
+    <row r="3" spans="1:10" ht="46.8">
       <c r="A3" s="122"/>
       <c r="B3" s="63" t="s">
         <v>471</v>
@@ -11389,7 +11497,7 @@
       <c r="I3" s="29"/>
       <c r="J3" s="33"/>
     </row>
-    <row r="4" spans="1:10" ht="34">
+    <row r="4" spans="1:10" ht="31.2">
       <c r="A4" s="122"/>
       <c r="B4" s="63" t="s">
         <v>473</v>
@@ -11409,7 +11517,7 @@
       <c r="I4" s="29"/>
       <c r="J4" s="33"/>
     </row>
-    <row r="5" spans="1:10" ht="34">
+    <row r="5" spans="1:10" ht="31.2">
       <c r="A5" s="122"/>
       <c r="B5" s="63" t="s">
         <v>475</v>
@@ -11429,7 +11537,7 @@
       <c r="I5" s="29"/>
       <c r="J5" s="33"/>
     </row>
-    <row r="6" spans="1:10" ht="17">
+    <row r="6" spans="1:10" ht="31.2">
       <c r="A6" s="122"/>
       <c r="B6" s="63" t="s">
         <v>477</v>
@@ -11449,7 +11557,7 @@
       <c r="I6" s="29"/>
       <c r="J6" s="33"/>
     </row>
-    <row r="7" spans="1:10" ht="17">
+    <row r="7" spans="1:10" ht="15.6">
       <c r="A7" s="122"/>
       <c r="B7" s="63" t="s">
         <v>479</v>
@@ -11491,7 +11599,7 @@
       <c r="I8" s="29"/>
       <c r="J8" s="33"/>
     </row>
-    <row r="9" spans="1:10" ht="34">
+    <row r="9" spans="1:10" ht="31.2">
       <c r="A9" s="122"/>
       <c r="B9" s="63" t="s">
         <v>484</v>
@@ -11511,7 +11619,7 @@
       <c r="I9" s="29"/>
       <c r="J9" s="33"/>
     </row>
-    <row r="10" spans="1:10" ht="34">
+    <row r="10" spans="1:10" ht="31.2">
       <c r="A10" s="122"/>
       <c r="B10" s="63" t="s">
         <v>486</v>
@@ -11553,7 +11661,7 @@
       <c r="I11" s="29"/>
       <c r="J11" s="33"/>
     </row>
-    <row r="12" spans="1:10" ht="17">
+    <row r="12" spans="1:10" ht="15.6">
       <c r="A12" s="122"/>
       <c r="B12" s="63" t="s">
         <v>491</v>
@@ -11573,7 +11681,7 @@
       <c r="I12" s="29"/>
       <c r="J12" s="33"/>
     </row>
-    <row r="13" spans="1:10" ht="34">
+    <row r="13" spans="1:10" ht="46.8">
       <c r="A13" s="122"/>
       <c r="B13" s="63" t="s">
         <v>493</v>
@@ -11593,7 +11701,7 @@
       <c r="I13" s="29"/>
       <c r="J13" s="33"/>
     </row>
-    <row r="14" spans="1:10" ht="51">
+    <row r="14" spans="1:10" ht="46.8">
       <c r="A14" s="122"/>
       <c r="B14" s="63" t="s">
         <v>495</v>
@@ -11613,7 +11721,7 @@
       <c r="I14" s="29"/>
       <c r="J14" s="33"/>
     </row>
-    <row r="15" spans="1:10" ht="34">
+    <row r="15" spans="1:10" ht="31.2">
       <c r="A15" s="122"/>
       <c r="B15" s="63" t="s">
         <v>497</v>
@@ -11633,7 +11741,7 @@
       <c r="I15" s="29"/>
       <c r="J15" s="33"/>
     </row>
-    <row r="16" spans="1:10" ht="34">
+    <row r="16" spans="1:10" ht="31.2">
       <c r="A16" s="122"/>
       <c r="B16" s="63" t="s">
         <v>499</v>
@@ -11653,7 +11761,7 @@
       <c r="I16" s="29"/>
       <c r="J16" s="33"/>
     </row>
-    <row r="17" spans="1:10" ht="51">
+    <row r="17" spans="1:10" ht="46.8">
       <c r="A17" s="122"/>
       <c r="B17" s="63" t="s">
         <v>501</v>
@@ -11673,7 +11781,7 @@
       <c r="I17" s="29"/>
       <c r="J17" s="33"/>
     </row>
-    <row r="18" spans="1:10" ht="34">
+    <row r="18" spans="1:10" ht="31.2">
       <c r="A18" s="122"/>
       <c r="B18" s="63" t="s">
         <v>503</v>

--- a/v4-ASVS-checklist-en.xlsx
+++ b/v4-ASVS-checklist-en.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leandro\Desktop\Faculdade\2º Ano\DESOFS\desofs2024_M1C_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6CE2E51-8B70-415D-B767-E43E7251D6CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF43845B-0B13-4C3F-9E79-DC5F28181FFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="500" firstSheet="7" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="500" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ASVS Results" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1044" uniqueCount="694">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1053" uniqueCount="694">
   <si>
     <t>Security Category</t>
   </si>
@@ -3255,6 +3255,7 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -3264,7 +3265,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3533,7 +3533,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>88.888888888888886</c:v>
@@ -3566,7 +3566,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>27.450980392156865</c:v>
+                  <c:v>30.980392156862745</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4172,7 +4172,7 @@
       </c>
       <c r="B5" s="9">
         <f>COUNTIF('Access Control'!G2:G11,"Valid")</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C5" s="10">
         <f>COUNTIF('Access Control'!G2:G11,"&lt;&gt;Not Applicable")</f>
@@ -4180,7 +4180,7 @@
       </c>
       <c r="D5" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E5" s="12"/>
     </row>
@@ -4371,7 +4371,7 @@
       </c>
       <c r="B16" s="9">
         <f>SUM(B2:B15)</f>
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="C16" s="10">
         <f>SUM(C2:C15)</f>
@@ -4379,7 +4379,7 @@
       </c>
       <c r="D16" s="11">
         <f t="shared" si="0"/>
-        <v>27.450980392156865</v>
+        <v>30.980392156862745</v>
       </c>
       <c r="E16" s="12"/>
     </row>
@@ -4448,7 +4448,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="48" customHeight="1">
-      <c r="A2" s="122" t="s">
+      <c r="A2" s="123" t="s">
         <v>505</v>
       </c>
       <c r="B2" s="63" t="s">
@@ -4472,7 +4472,7 @@
       <c r="J2" s="66"/>
     </row>
     <row r="3" spans="1:10" ht="31.2">
-      <c r="A3" s="122"/>
+      <c r="A3" s="123"/>
       <c r="B3" s="63" t="s">
         <v>508</v>
       </c>
@@ -4494,7 +4494,7 @@
       <c r="J3" s="33"/>
     </row>
     <row r="4" spans="1:10" ht="31.2">
-      <c r="A4" s="122"/>
+      <c r="A4" s="123"/>
       <c r="B4" s="63" t="s">
         <v>510</v>
       </c>
@@ -4516,7 +4516,7 @@
       <c r="J4" s="33"/>
     </row>
     <row r="5" spans="1:10" ht="63.75" customHeight="1">
-      <c r="A5" s="122" t="s">
+      <c r="A5" s="123" t="s">
         <v>512</v>
       </c>
       <c r="B5" s="63" t="s">
@@ -4540,7 +4540,7 @@
       <c r="J5" s="33"/>
     </row>
     <row r="6" spans="1:10" ht="62.4">
-      <c r="A6" s="122"/>
+      <c r="A6" s="123"/>
       <c r="B6" s="63" t="s">
         <v>515</v>
       </c>
@@ -4562,7 +4562,7 @@
       <c r="J6" s="33"/>
     </row>
     <row r="7" spans="1:10" ht="31.2">
-      <c r="A7" s="122"/>
+      <c r="A7" s="123"/>
       <c r="B7" s="63" t="s">
         <v>517</v>
       </c>
@@ -4584,7 +4584,7 @@
       <c r="J7" s="33"/>
     </row>
     <row r="8" spans="1:10" ht="31.2">
-      <c r="A8" s="122"/>
+      <c r="A8" s="123"/>
       <c r="B8" s="63" t="s">
         <v>519</v>
       </c>
@@ -4606,7 +4606,7 @@
       <c r="J8" s="33"/>
     </row>
     <row r="9" spans="1:10" ht="15.6">
-      <c r="A9" s="122"/>
+      <c r="A9" s="123"/>
       <c r="B9" s="63" t="s">
         <v>521</v>
       </c>
@@ -4651,7 +4651,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:AMJ11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
@@ -4725,7 +4725,7 @@
       <c r="J2" s="66"/>
     </row>
     <row r="3" spans="1:10" ht="48" customHeight="1">
-      <c r="A3" s="122" t="s">
+      <c r="A3" s="123" t="s">
         <v>526</v>
       </c>
       <c r="B3" s="63" t="s">
@@ -4749,7 +4749,7 @@
       <c r="J3" s="33"/>
     </row>
     <row r="4" spans="1:10" ht="31.2">
-      <c r="A4" s="122"/>
+      <c r="A4" s="123"/>
       <c r="B4" s="63" t="s">
         <v>529</v>
       </c>
@@ -4771,7 +4771,7 @@
       <c r="J4" s="33"/>
     </row>
     <row r="5" spans="1:10" ht="78">
-      <c r="A5" s="122"/>
+      <c r="A5" s="123"/>
       <c r="B5" s="63" t="s">
         <v>531</v>
       </c>
@@ -4793,7 +4793,7 @@
       <c r="J5" s="33"/>
     </row>
     <row r="6" spans="1:10" ht="31.2">
-      <c r="A6" s="122"/>
+      <c r="A6" s="123"/>
       <c r="B6" s="63" t="s">
         <v>533</v>
       </c>
@@ -4815,7 +4815,7 @@
       <c r="J6" s="33"/>
     </row>
     <row r="7" spans="1:10" ht="31.2">
-      <c r="A7" s="122"/>
+      <c r="A7" s="123"/>
       <c r="B7" s="63" t="s">
         <v>535</v>
       </c>
@@ -4837,7 +4837,7 @@
       <c r="J7" s="33"/>
     </row>
     <row r="8" spans="1:10" ht="31.2">
-      <c r="A8" s="122"/>
+      <c r="A8" s="123"/>
       <c r="B8" s="63" t="s">
         <v>537</v>
       </c>
@@ -4859,7 +4859,7 @@
       <c r="J8" s="33"/>
     </row>
     <row r="9" spans="1:10" ht="48" customHeight="1">
-      <c r="A9" s="122" t="s">
+      <c r="A9" s="123" t="s">
         <v>539</v>
       </c>
       <c r="B9" s="63" t="s">
@@ -4883,7 +4883,7 @@
       <c r="J9" s="33"/>
     </row>
     <row r="10" spans="1:10" ht="62.4">
-      <c r="A10" s="122"/>
+      <c r="A10" s="123"/>
       <c r="B10" s="63" t="s">
         <v>542</v>
       </c>
@@ -4905,7 +4905,7 @@
       <c r="J10" s="33"/>
     </row>
     <row r="11" spans="1:10" ht="93.6">
-      <c r="A11" s="122"/>
+      <c r="A11" s="123"/>
       <c r="B11" s="63" t="s">
         <v>544</v>
       </c>
@@ -5000,7 +5000,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="32.25" customHeight="1">
-      <c r="A2" s="122" t="s">
+      <c r="A2" s="123" t="s">
         <v>546</v>
       </c>
       <c r="B2" s="63" t="s">
@@ -5022,7 +5022,7 @@
       <c r="J2" s="66"/>
     </row>
     <row r="3" spans="1:10" ht="46.8">
-      <c r="A3" s="122"/>
+      <c r="A3" s="123"/>
       <c r="B3" s="63" t="s">
         <v>549</v>
       </c>
@@ -5042,7 +5042,7 @@
       <c r="J3" s="33"/>
     </row>
     <row r="4" spans="1:10" ht="31.2">
-      <c r="A4" s="122"/>
+      <c r="A4" s="123"/>
       <c r="B4" s="63" t="s">
         <v>551</v>
       </c>
@@ -5062,7 +5062,7 @@
       <c r="J4" s="33"/>
     </row>
     <row r="5" spans="1:10" ht="46.8">
-      <c r="A5" s="122"/>
+      <c r="A5" s="123"/>
       <c r="B5" s="63" t="s">
         <v>553</v>
       </c>
@@ -5082,7 +5082,7 @@
       <c r="J5" s="33"/>
     </row>
     <row r="6" spans="1:10" ht="46.8">
-      <c r="A6" s="122"/>
+      <c r="A6" s="123"/>
       <c r="B6" s="63" t="s">
         <v>555</v>
       </c>
@@ -5102,7 +5102,7 @@
       <c r="J6" s="33"/>
     </row>
     <row r="7" spans="1:10" ht="36" customHeight="1">
-      <c r="A7" s="122"/>
+      <c r="A7" s="123"/>
       <c r="B7" s="63" t="s">
         <v>557</v>
       </c>
@@ -5122,7 +5122,7 @@
       <c r="J7" s="33"/>
     </row>
     <row r="8" spans="1:10" ht="66.75" customHeight="1">
-      <c r="A8" s="122"/>
+      <c r="A8" s="123"/>
       <c r="B8" s="63" t="s">
         <v>559</v>
       </c>
@@ -5142,7 +5142,7 @@
       <c r="J8" s="33"/>
     </row>
     <row r="9" spans="1:10" ht="31.2">
-      <c r="A9" s="122"/>
+      <c r="A9" s="123"/>
       <c r="B9" s="63" t="s">
         <v>561</v>
       </c>
@@ -5234,7 +5234,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="32.25" customHeight="1">
-      <c r="A2" s="122" t="s">
+      <c r="A2" s="123" t="s">
         <v>563</v>
       </c>
       <c r="B2" s="63" t="s">
@@ -5256,7 +5256,7 @@
       <c r="J2" s="66"/>
     </row>
     <row r="3" spans="1:10" ht="46.8">
-      <c r="A3" s="122"/>
+      <c r="A3" s="123"/>
       <c r="B3" s="63" t="s">
         <v>566</v>
       </c>
@@ -5276,7 +5276,7 @@
       <c r="J3" s="33"/>
     </row>
     <row r="4" spans="1:10" ht="46.8">
-      <c r="A4" s="122"/>
+      <c r="A4" s="123"/>
       <c r="B4" s="63" t="s">
         <v>568</v>
       </c>
@@ -5318,7 +5318,7 @@
       <c r="J5" s="33"/>
     </row>
     <row r="6" spans="1:10" ht="48" customHeight="1">
-      <c r="A6" s="122" t="s">
+      <c r="A6" s="123" t="s">
         <v>573</v>
       </c>
       <c r="B6" s="63" t="s">
@@ -5340,7 +5340,7 @@
       <c r="J6" s="33"/>
     </row>
     <row r="7" spans="1:10" ht="31.2">
-      <c r="A7" s="122"/>
+      <c r="A7" s="123"/>
       <c r="B7" s="63" t="s">
         <v>576</v>
       </c>
@@ -5360,7 +5360,7 @@
       <c r="J7" s="33"/>
     </row>
     <row r="8" spans="1:10" ht="46.8">
-      <c r="A8" s="122"/>
+      <c r="A8" s="123"/>
       <c r="B8" s="63" t="s">
         <v>578</v>
       </c>
@@ -5380,7 +5380,7 @@
       <c r="J8" s="33"/>
     </row>
     <row r="9" spans="1:10" ht="62.4">
-      <c r="A9" s="122"/>
+      <c r="A9" s="123"/>
       <c r="B9" s="63" t="s">
         <v>580</v>
       </c>
@@ -5400,7 +5400,7 @@
       <c r="J9" s="33"/>
     </row>
     <row r="10" spans="1:10" ht="31.2">
-      <c r="A10" s="122"/>
+      <c r="A10" s="123"/>
       <c r="B10" s="63" t="s">
         <v>582</v>
       </c>
@@ -5420,7 +5420,7 @@
       <c r="J10" s="33"/>
     </row>
     <row r="11" spans="1:10" ht="46.8">
-      <c r="A11" s="122"/>
+      <c r="A11" s="123"/>
       <c r="B11" s="63" t="s">
         <v>584</v>
       </c>
@@ -5440,7 +5440,7 @@
       <c r="J11" s="33"/>
     </row>
     <row r="12" spans="1:10" ht="32.25" customHeight="1">
-      <c r="A12" s="122" t="s">
+      <c r="A12" s="123" t="s">
         <v>586</v>
       </c>
       <c r="B12" s="63" t="s">
@@ -5462,7 +5462,7 @@
       <c r="J12" s="33"/>
     </row>
     <row r="13" spans="1:10" ht="31.2">
-      <c r="A13" s="122"/>
+      <c r="A13" s="123"/>
       <c r="B13" s="63" t="s">
         <v>589</v>
       </c>
@@ -5482,7 +5482,7 @@
       <c r="J13" s="33"/>
     </row>
     <row r="14" spans="1:10" ht="79.5" customHeight="1">
-      <c r="A14" s="122" t="s">
+      <c r="A14" s="123" t="s">
         <v>591</v>
       </c>
       <c r="B14" s="63" t="s">
@@ -5504,7 +5504,7 @@
       <c r="J14" s="33"/>
     </row>
     <row r="15" spans="1:10" ht="31.2">
-      <c r="A15" s="122"/>
+      <c r="A15" s="123"/>
       <c r="B15" s="63" t="s">
         <v>594</v>
       </c>
@@ -5620,7 +5620,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="48" customHeight="1">
-      <c r="A2" s="122" t="s">
+      <c r="A2" s="123" t="s">
         <v>599</v>
       </c>
       <c r="B2" s="63" t="s">
@@ -5642,7 +5642,7 @@
       <c r="J2" s="66"/>
     </row>
     <row r="3" spans="1:10" ht="15.6">
-      <c r="A3" s="122"/>
+      <c r="A3" s="123"/>
       <c r="B3" s="63" t="s">
         <v>602</v>
       </c>
@@ -5664,7 +5664,7 @@
       <c r="J3" s="33"/>
     </row>
     <row r="4" spans="1:10" ht="31.2">
-      <c r="A4" s="122"/>
+      <c r="A4" s="123"/>
       <c r="B4" s="63" t="s">
         <v>604</v>
       </c>
@@ -5684,7 +5684,7 @@
       <c r="J4" s="33"/>
     </row>
     <row r="5" spans="1:10" ht="46.8">
-      <c r="A5" s="122"/>
+      <c r="A5" s="123"/>
       <c r="B5" s="63" t="s">
         <v>606</v>
       </c>
@@ -5704,7 +5704,7 @@
       <c r="J5" s="33"/>
     </row>
     <row r="6" spans="1:10" ht="46.8">
-      <c r="A6" s="122"/>
+      <c r="A6" s="123"/>
       <c r="B6" s="63" t="s">
         <v>608</v>
       </c>
@@ -5724,7 +5724,7 @@
       <c r="J6" s="33"/>
     </row>
     <row r="7" spans="1:10" ht="32.25" customHeight="1">
-      <c r="A7" s="122" t="s">
+      <c r="A7" s="123" t="s">
         <v>610</v>
       </c>
       <c r="B7" s="63" t="s">
@@ -5746,7 +5746,7 @@
       <c r="J7" s="33"/>
     </row>
     <row r="8" spans="1:10" ht="15.6">
-      <c r="A8" s="122"/>
+      <c r="A8" s="123"/>
       <c r="B8" s="63" t="s">
         <v>613</v>
       </c>
@@ -5766,7 +5766,7 @@
       <c r="J8" s="33"/>
     </row>
     <row r="9" spans="1:10" ht="46.8">
-      <c r="A9" s="122"/>
+      <c r="A9" s="123"/>
       <c r="B9" s="63" t="s">
         <v>615</v>
       </c>
@@ -5786,7 +5786,7 @@
       <c r="J9" s="33"/>
     </row>
     <row r="10" spans="1:10" ht="15.6">
-      <c r="A10" s="122"/>
+      <c r="A10" s="123"/>
       <c r="B10" s="63" t="s">
         <v>617</v>
       </c>
@@ -5808,7 +5808,7 @@
       <c r="J10" s="33"/>
     </row>
     <row r="11" spans="1:10" ht="31.2">
-      <c r="A11" s="122"/>
+      <c r="A11" s="123"/>
       <c r="B11" s="63" t="s">
         <v>619</v>
       </c>
@@ -5828,7 +5828,7 @@
       <c r="J11" s="33"/>
     </row>
     <row r="12" spans="1:10" ht="93.6">
-      <c r="A12" s="122"/>
+      <c r="A12" s="123"/>
       <c r="B12" s="63" t="s">
         <v>621</v>
       </c>
@@ -5848,7 +5848,7 @@
       <c r="J12" s="33"/>
     </row>
     <row r="13" spans="1:10" ht="48" customHeight="1">
-      <c r="A13" s="122" t="s">
+      <c r="A13" s="123" t="s">
         <v>623</v>
       </c>
       <c r="B13" s="63" t="s">
@@ -5870,7 +5870,7 @@
       <c r="J13" s="33"/>
     </row>
     <row r="14" spans="1:10" ht="31.2">
-      <c r="A14" s="122"/>
+      <c r="A14" s="123"/>
       <c r="B14" s="63" t="s">
         <v>626</v>
       </c>
@@ -5890,7 +5890,7 @@
       <c r="J14" s="33"/>
     </row>
     <row r="15" spans="1:10" ht="63.75" customHeight="1">
-      <c r="A15" s="122" t="s">
+      <c r="A15" s="123" t="s">
         <v>628</v>
       </c>
       <c r="B15" s="63" t="s">
@@ -5912,7 +5912,7 @@
       <c r="J15" s="33"/>
     </row>
     <row r="16" spans="1:10" ht="31.2">
-      <c r="A16" s="122"/>
+      <c r="A16" s="123"/>
       <c r="B16" s="63" t="s">
         <v>631</v>
       </c>
@@ -6007,7 +6007,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="48" customHeight="1">
-      <c r="A2" s="123" t="s">
+      <c r="A2" s="124" t="s">
         <v>633</v>
       </c>
       <c r="B2" s="100" t="s">
@@ -6027,7 +6027,7 @@
       <c r="J2" s="106"/>
     </row>
     <row r="3" spans="1:10" ht="46.8">
-      <c r="A3" s="123"/>
+      <c r="A3" s="124"/>
       <c r="B3" s="63" t="s">
         <v>636</v>
       </c>
@@ -6047,7 +6047,7 @@
       <c r="J3" s="112"/>
     </row>
     <row r="4" spans="1:10" ht="31.2">
-      <c r="A4" s="123"/>
+      <c r="A4" s="124"/>
       <c r="B4" s="63" t="s">
         <v>638</v>
       </c>
@@ -6067,7 +6067,7 @@
       <c r="J4" s="112"/>
     </row>
     <row r="5" spans="1:10" ht="46.8">
-      <c r="A5" s="123"/>
+      <c r="A5" s="124"/>
       <c r="B5" s="63" t="s">
         <v>640</v>
       </c>
@@ -6085,7 +6085,7 @@
       <c r="J5" s="112"/>
     </row>
     <row r="6" spans="1:10" ht="31.2">
-      <c r="A6" s="123"/>
+      <c r="A6" s="124"/>
       <c r="B6" s="63" t="s">
         <v>642</v>
       </c>
@@ -6103,7 +6103,7 @@
       <c r="J6" s="112"/>
     </row>
     <row r="7" spans="1:10" ht="48" customHeight="1">
-      <c r="A7" s="122" t="s">
+      <c r="A7" s="123" t="s">
         <v>644</v>
       </c>
       <c r="B7" s="63" t="s">
@@ -6125,7 +6125,7 @@
       <c r="J7" s="112"/>
     </row>
     <row r="8" spans="1:10" ht="31.2">
-      <c r="A8" s="122"/>
+      <c r="A8" s="123"/>
       <c r="B8" s="63" t="s">
         <v>647</v>
       </c>
@@ -6145,7 +6145,7 @@
       <c r="J8" s="112"/>
     </row>
     <row r="9" spans="1:10" ht="46.8">
-      <c r="A9" s="122"/>
+      <c r="A9" s="123"/>
       <c r="B9" s="63" t="s">
         <v>649</v>
       </c>
@@ -6165,7 +6165,7 @@
       <c r="J9" s="112"/>
     </row>
     <row r="10" spans="1:10" ht="46.8">
-      <c r="A10" s="122"/>
+      <c r="A10" s="123"/>
       <c r="B10" s="63" t="s">
         <v>651</v>
       </c>
@@ -6185,7 +6185,7 @@
       <c r="J10" s="112"/>
     </row>
     <row r="11" spans="1:10" ht="31.2">
-      <c r="A11" s="122"/>
+      <c r="A11" s="123"/>
       <c r="B11" s="63" t="s">
         <v>653</v>
       </c>
@@ -6203,7 +6203,7 @@
       <c r="J11" s="112"/>
     </row>
     <row r="12" spans="1:10" ht="46.8">
-      <c r="A12" s="122"/>
+      <c r="A12" s="123"/>
       <c r="B12" s="63" t="s">
         <v>655</v>
       </c>
@@ -6223,7 +6223,7 @@
       <c r="J12" s="112"/>
     </row>
     <row r="13" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A13" s="122" t="s">
+      <c r="A13" s="123" t="s">
         <v>657</v>
       </c>
       <c r="B13" s="63" t="s">
@@ -6247,7 +6247,7 @@
       <c r="J13" s="112"/>
     </row>
     <row r="14" spans="1:10" ht="46.8">
-      <c r="A14" s="122"/>
+      <c r="A14" s="123"/>
       <c r="B14" s="63" t="s">
         <v>660</v>
       </c>
@@ -6267,7 +6267,7 @@
       <c r="J14" s="112"/>
     </row>
     <row r="15" spans="1:10" ht="31.2">
-      <c r="A15" s="122"/>
+      <c r="A15" s="123"/>
       <c r="B15" s="63" t="s">
         <v>662</v>
       </c>
@@ -6287,7 +6287,7 @@
       <c r="J15" s="112"/>
     </row>
     <row r="16" spans="1:10" ht="48" customHeight="1">
-      <c r="A16" s="122" t="s">
+      <c r="A16" s="123" t="s">
         <v>664</v>
       </c>
       <c r="B16" s="63" t="s">
@@ -6309,7 +6309,7 @@
       <c r="J16" s="112"/>
     </row>
     <row r="17" spans="1:10" ht="31.2">
-      <c r="A17" s="122"/>
+      <c r="A17" s="123"/>
       <c r="B17" s="63" t="s">
         <v>667</v>
       </c>
@@ -6329,7 +6329,7 @@
       <c r="J17" s="112"/>
     </row>
     <row r="18" spans="1:10" ht="31.2">
-      <c r="A18" s="122"/>
+      <c r="A18" s="123"/>
       <c r="B18" s="63" t="s">
         <v>669</v>
       </c>
@@ -6349,7 +6349,7 @@
       <c r="J18" s="112"/>
     </row>
     <row r="19" spans="1:10" ht="15.6">
-      <c r="A19" s="122"/>
+      <c r="A19" s="123"/>
       <c r="B19" s="63" t="s">
         <v>671</v>
       </c>
@@ -6369,7 +6369,7 @@
       <c r="J19" s="112"/>
     </row>
     <row r="20" spans="1:10" ht="31.2">
-      <c r="A20" s="122"/>
+      <c r="A20" s="123"/>
       <c r="B20" s="63" t="s">
         <v>673</v>
       </c>
@@ -6389,7 +6389,7 @@
       <c r="J20" s="112"/>
     </row>
     <row r="21" spans="1:10" ht="31.2">
-      <c r="A21" s="122"/>
+      <c r="A21" s="123"/>
       <c r="B21" s="63" t="s">
         <v>675</v>
       </c>
@@ -6409,7 +6409,7 @@
       <c r="J21" s="112"/>
     </row>
     <row r="22" spans="1:10" ht="62.4">
-      <c r="A22" s="122"/>
+      <c r="A22" s="123"/>
       <c r="B22" s="63" t="s">
         <v>677</v>
       </c>
@@ -6429,7 +6429,7 @@
       <c r="J22" s="112"/>
     </row>
     <row r="23" spans="1:10" ht="48" customHeight="1">
-      <c r="A23" s="122" t="s">
+      <c r="A23" s="123" t="s">
         <v>679</v>
       </c>
       <c r="B23" s="63" t="s">
@@ -6451,7 +6451,7 @@
       <c r="J23" s="112"/>
     </row>
     <row r="24" spans="1:10" ht="31.2">
-      <c r="A24" s="122"/>
+      <c r="A24" s="123"/>
       <c r="B24" s="63" t="s">
         <v>682</v>
       </c>
@@ -6471,7 +6471,7 @@
       <c r="J24" s="112"/>
     </row>
     <row r="25" spans="1:10" ht="46.8">
-      <c r="A25" s="122"/>
+      <c r="A25" s="123"/>
       <c r="B25" s="63" t="s">
         <v>684</v>
       </c>
@@ -6491,7 +6491,7 @@
       <c r="J25" s="112"/>
     </row>
     <row r="26" spans="1:10" ht="31.2">
-      <c r="A26" s="122"/>
+      <c r="A26" s="123"/>
       <c r="B26" s="63" t="s">
         <v>686</v>
       </c>
@@ -6588,7 +6588,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" s="26" customFormat="1" ht="58.2" customHeight="1">
-      <c r="A2" s="121" t="s">
+      <c r="A2" s="122" t="s">
         <v>30</v>
       </c>
       <c r="B2" s="19" t="s">
@@ -6608,7 +6608,7 @@
       <c r="J2" s="25"/>
     </row>
     <row r="3" spans="1:10" s="26" customFormat="1" ht="62.4">
-      <c r="A3" s="121"/>
+      <c r="A3" s="122"/>
       <c r="B3" s="19" t="s">
         <v>33</v>
       </c>
@@ -6628,7 +6628,7 @@
       <c r="J3" s="32"/>
     </row>
     <row r="4" spans="1:10" s="26" customFormat="1" ht="62.4">
-      <c r="A4" s="121"/>
+      <c r="A4" s="122"/>
       <c r="B4" s="19" t="s">
         <v>35</v>
       </c>
@@ -6648,7 +6648,7 @@
       <c r="J4" s="32"/>
     </row>
     <row r="5" spans="1:10" s="26" customFormat="1" ht="31.2">
-      <c r="A5" s="121"/>
+      <c r="A5" s="122"/>
       <c r="B5" s="19" t="s">
         <v>37</v>
       </c>
@@ -6668,7 +6668,7 @@
       <c r="J5" s="32"/>
     </row>
     <row r="6" spans="1:10" s="26" customFormat="1" ht="62.4">
-      <c r="A6" s="121"/>
+      <c r="A6" s="122"/>
       <c r="B6" s="19" t="s">
         <v>39</v>
       </c>
@@ -6688,7 +6688,7 @@
       <c r="J6" s="32"/>
     </row>
     <row r="7" spans="1:10" s="26" customFormat="1" ht="78">
-      <c r="A7" s="121"/>
+      <c r="A7" s="122"/>
       <c r="B7" s="19" t="s">
         <v>41</v>
       </c>
@@ -6708,7 +6708,7 @@
       <c r="J7" s="32"/>
     </row>
     <row r="8" spans="1:10" s="26" customFormat="1" ht="46.8">
-      <c r="A8" s="121"/>
+      <c r="A8" s="122"/>
       <c r="B8" s="19" t="s">
         <v>43</v>
       </c>
@@ -6728,7 +6728,7 @@
       <c r="J8" s="32"/>
     </row>
     <row r="9" spans="1:10" s="26" customFormat="1" ht="63.75" customHeight="1">
-      <c r="A9" s="121" t="s">
+      <c r="A9" s="122" t="s">
         <v>45</v>
       </c>
       <c r="B9" s="19" t="s">
@@ -6750,7 +6750,7 @@
       <c r="J9" s="32"/>
     </row>
     <row r="10" spans="1:10" s="26" customFormat="1" ht="78">
-      <c r="A10" s="121"/>
+      <c r="A10" s="122"/>
       <c r="B10" s="19" t="s">
         <v>48</v>
       </c>
@@ -6770,7 +6770,7 @@
       <c r="J10" s="32"/>
     </row>
     <row r="11" spans="1:10" s="26" customFormat="1" ht="62.4">
-      <c r="A11" s="121"/>
+      <c r="A11" s="122"/>
       <c r="B11" s="19" t="s">
         <v>50</v>
       </c>
@@ -6790,7 +6790,7 @@
       <c r="J11" s="32"/>
     </row>
     <row r="12" spans="1:10" s="26" customFormat="1" ht="62.4">
-      <c r="A12" s="121"/>
+      <c r="A12" s="122"/>
       <c r="B12" s="19" t="s">
         <v>52</v>
       </c>
@@ -6828,7 +6828,7 @@
       <c r="J13" s="32"/>
     </row>
     <row r="14" spans="1:10" s="26" customFormat="1" ht="48" customHeight="1">
-      <c r="A14" s="121" t="s">
+      <c r="A14" s="122" t="s">
         <v>57</v>
       </c>
       <c r="B14" s="19" t="s">
@@ -6850,7 +6850,7 @@
       <c r="J14" s="33"/>
     </row>
     <row r="15" spans="1:10" s="26" customFormat="1" ht="15.6">
-      <c r="A15" s="121"/>
+      <c r="A15" s="122"/>
       <c r="B15" s="19" t="s">
         <v>60</v>
       </c>
@@ -6872,7 +6872,7 @@
       <c r="J15" s="33"/>
     </row>
     <row r="16" spans="1:10" s="26" customFormat="1" ht="15.6">
-      <c r="A16" s="121"/>
+      <c r="A16" s="122"/>
       <c r="B16" s="19" t="s">
         <v>62</v>
       </c>
@@ -6894,7 +6894,7 @@
       <c r="J16" s="33"/>
     </row>
     <row r="17" spans="1:10" s="26" customFormat="1" ht="93.6">
-      <c r="A17" s="121"/>
+      <c r="A17" s="122"/>
       <c r="B17" s="19" t="s">
         <v>64</v>
       </c>
@@ -6914,7 +6914,7 @@
       <c r="J17" s="33"/>
     </row>
     <row r="18" spans="1:10" s="26" customFormat="1" ht="93.6">
-      <c r="A18" s="121"/>
+      <c r="A18" s="122"/>
       <c r="B18" s="19" t="s">
         <v>66</v>
       </c>
@@ -6934,7 +6934,7 @@
       <c r="J18" s="33"/>
     </row>
     <row r="19" spans="1:10" s="26" customFormat="1" ht="48" customHeight="1">
-      <c r="A19" s="121" t="s">
+      <c r="A19" s="122" t="s">
         <v>68</v>
       </c>
       <c r="B19" s="19" t="s">
@@ -6956,7 +6956,7 @@
       <c r="J19" s="33"/>
     </row>
     <row r="20" spans="1:10" s="26" customFormat="1" ht="78">
-      <c r="A20" s="121"/>
+      <c r="A20" s="122"/>
       <c r="B20" s="19" t="s">
         <v>71</v>
       </c>
@@ -6976,7 +6976,7 @@
       <c r="J20" s="33"/>
     </row>
     <row r="21" spans="1:10" s="26" customFormat="1" ht="46.8">
-      <c r="A21" s="121"/>
+      <c r="A21" s="122"/>
       <c r="B21" s="19" t="s">
         <v>73</v>
       </c>
@@ -6996,7 +6996,7 @@
       <c r="J21" s="33"/>
     </row>
     <row r="22" spans="1:10" s="26" customFormat="1" ht="62.4">
-      <c r="A22" s="121"/>
+      <c r="A22" s="122"/>
       <c r="B22" s="19" t="s">
         <v>75</v>
       </c>
@@ -7016,7 +7016,7 @@
       <c r="J22" s="33"/>
     </row>
     <row r="23" spans="1:10" s="26" customFormat="1" ht="48" customHeight="1">
-      <c r="A23" s="121" t="s">
+      <c r="A23" s="122" t="s">
         <v>77</v>
       </c>
       <c r="B23" s="19" t="s">
@@ -7038,7 +7038,7 @@
       <c r="J23" s="33"/>
     </row>
     <row r="24" spans="1:10" s="26" customFormat="1" ht="46.8">
-      <c r="A24" s="121"/>
+      <c r="A24" s="122"/>
       <c r="B24" s="19" t="s">
         <v>80</v>
       </c>
@@ -7058,7 +7058,7 @@
       <c r="J24" s="33"/>
     </row>
     <row r="25" spans="1:10" s="26" customFormat="1" ht="31.2">
-      <c r="A25" s="121"/>
+      <c r="A25" s="122"/>
       <c r="B25" s="19" t="s">
         <v>82</v>
       </c>
@@ -7078,7 +7078,7 @@
       <c r="J25" s="33"/>
     </row>
     <row r="26" spans="1:10" s="26" customFormat="1" ht="46.8">
-      <c r="A26" s="121"/>
+      <c r="A26" s="122"/>
       <c r="B26" s="19" t="s">
         <v>84</v>
       </c>
@@ -7098,7 +7098,7 @@
       <c r="J26" s="33"/>
     </row>
     <row r="27" spans="1:10" s="26" customFormat="1" ht="48" customHeight="1">
-      <c r="A27" s="121" t="s">
+      <c r="A27" s="122" t="s">
         <v>86</v>
       </c>
       <c r="B27" s="19" t="s">
@@ -7120,7 +7120,7 @@
       <c r="J27" s="33"/>
     </row>
     <row r="28" spans="1:10" s="26" customFormat="1" ht="62.4">
-      <c r="A28" s="121"/>
+      <c r="A28" s="122"/>
       <c r="B28" s="19" t="s">
         <v>89</v>
       </c>
@@ -7138,7 +7138,7 @@
       <c r="J28" s="33"/>
     </row>
     <row r="29" spans="1:10" s="26" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A29" s="121" t="s">
+      <c r="A29" s="122" t="s">
         <v>91</v>
       </c>
       <c r="B29" s="19" t="s">
@@ -7158,7 +7158,7 @@
       <c r="J29" s="33"/>
     </row>
     <row r="30" spans="1:10" s="26" customFormat="1" ht="78">
-      <c r="A30" s="121"/>
+      <c r="A30" s="122"/>
       <c r="B30" s="19" t="s">
         <v>94</v>
       </c>
@@ -7176,7 +7176,7 @@
       <c r="J30" s="33"/>
     </row>
     <row r="31" spans="1:10" s="26" customFormat="1" ht="79.5" customHeight="1">
-      <c r="A31" s="121" t="s">
+      <c r="A31" s="122" t="s">
         <v>96</v>
       </c>
       <c r="B31" s="19" t="s">
@@ -7198,7 +7198,7 @@
       <c r="J31" s="33"/>
     </row>
     <row r="32" spans="1:10" s="26" customFormat="1" ht="62.4">
-      <c r="A32" s="121"/>
+      <c r="A32" s="122"/>
       <c r="B32" s="19" t="s">
         <v>99</v>
       </c>
@@ -7240,7 +7240,7 @@
       <c r="J33" s="33"/>
     </row>
     <row r="34" spans="1:10" s="26" customFormat="1" ht="48" customHeight="1">
-      <c r="A34" s="121" t="s">
+      <c r="A34" s="122" t="s">
         <v>104</v>
       </c>
       <c r="B34" s="19" t="s">
@@ -7262,7 +7262,7 @@
       <c r="J34" s="33"/>
     </row>
     <row r="35" spans="1:10" s="26" customFormat="1" ht="46.8">
-      <c r="A35" s="121"/>
+      <c r="A35" s="122"/>
       <c r="B35" s="19" t="s">
         <v>107</v>
       </c>
@@ -7282,7 +7282,7 @@
       <c r="J35" s="33"/>
     </row>
     <row r="36" spans="1:10" s="26" customFormat="1" ht="62.4">
-      <c r="A36" s="121"/>
+      <c r="A36" s="122"/>
       <c r="B36" s="19" t="s">
         <v>109</v>
       </c>
@@ -7302,7 +7302,7 @@
       <c r="J36" s="33"/>
     </row>
     <row r="37" spans="1:10" s="26" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A37" s="121" t="s">
+      <c r="A37" s="122" t="s">
         <v>111</v>
       </c>
       <c r="B37" s="19" t="s">
@@ -7326,7 +7326,7 @@
       <c r="J37" s="33"/>
     </row>
     <row r="38" spans="1:10" s="26" customFormat="1" ht="93.6">
-      <c r="A38" s="121"/>
+      <c r="A38" s="122"/>
       <c r="B38" s="19" t="s">
         <v>114</v>
       </c>
@@ -7364,7 +7364,7 @@
       <c r="J39" s="33"/>
     </row>
     <row r="40" spans="1:10" s="26" customFormat="1" ht="58.8" customHeight="1">
-      <c r="A40" s="121" t="s">
+      <c r="A40" s="122" t="s">
         <v>117</v>
       </c>
       <c r="B40" s="19" t="s">
@@ -7386,7 +7386,7 @@
       <c r="J40" s="33"/>
     </row>
     <row r="41" spans="1:10" s="26" customFormat="1" ht="31.2">
-      <c r="A41" s="121"/>
+      <c r="A41" s="122"/>
       <c r="B41" s="19" t="s">
         <v>120</v>
       </c>
@@ -7406,7 +7406,7 @@
       <c r="J41" s="33"/>
     </row>
     <row r="42" spans="1:10" s="26" customFormat="1" ht="31.2">
-      <c r="A42" s="121"/>
+      <c r="A42" s="122"/>
       <c r="B42" s="19" t="s">
         <v>122</v>
       </c>
@@ -7426,7 +7426,7 @@
       <c r="J42" s="33"/>
     </row>
     <row r="43" spans="1:10" s="26" customFormat="1" ht="62.4">
-      <c r="A43" s="121"/>
+      <c r="A43" s="122"/>
       <c r="B43" s="19" t="s">
         <v>124</v>
       </c>
@@ -7444,7 +7444,7 @@
       <c r="J43" s="33"/>
     </row>
     <row r="44" spans="1:10" s="26" customFormat="1" ht="93.6">
-      <c r="A44" s="121"/>
+      <c r="A44" s="122"/>
       <c r="B44" s="19" t="s">
         <v>126</v>
       </c>
@@ -7464,7 +7464,7 @@
       <c r="J44" s="33"/>
     </row>
     <row r="45" spans="1:10" s="26" customFormat="1" ht="62.4">
-      <c r="A45" s="121"/>
+      <c r="A45" s="122"/>
       <c r="B45" s="19" t="s">
         <v>128</v>
       </c>
@@ -7485,17 +7485,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="A23:A26"/>
     <mergeCell ref="A40:A45"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="A29:A30"/>
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="A34:A36"/>
     <mergeCell ref="A37:A38"/>
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="A23:A26"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" operator="equal" showErrorMessage="1" sqref="G2:G45" xr:uid="{00000000-0002-0000-0100-000000000000}">
@@ -7567,7 +7567,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" s="26" customFormat="1" ht="48" customHeight="1">
-      <c r="A2" s="122" t="s">
+      <c r="A2" s="123" t="s">
         <v>130</v>
       </c>
       <c r="B2" s="45" t="s">
@@ -7595,7 +7595,7 @@
       <c r="J2" s="52"/>
     </row>
     <row r="3" spans="1:10" s="26" customFormat="1" ht="46.8">
-      <c r="A3" s="122"/>
+      <c r="A3" s="123"/>
       <c r="B3" s="45" t="s">
         <v>134</v>
       </c>
@@ -7621,7 +7621,7 @@
       <c r="J3" s="32"/>
     </row>
     <row r="4" spans="1:10" s="26" customFormat="1" ht="46.8">
-      <c r="A4" s="122"/>
+      <c r="A4" s="123"/>
       <c r="B4" s="45" t="s">
         <v>136</v>
       </c>
@@ -7647,7 +7647,7 @@
       <c r="J4" s="32"/>
     </row>
     <row r="5" spans="1:10" s="26" customFormat="1" ht="31.2">
-      <c r="A5" s="122"/>
+      <c r="A5" s="123"/>
       <c r="B5" s="45" t="s">
         <v>138</v>
       </c>
@@ -7673,7 +7673,7 @@
       <c r="J5" s="32"/>
     </row>
     <row r="6" spans="1:10" s="26" customFormat="1" ht="15.6">
-      <c r="A6" s="122"/>
+      <c r="A6" s="123"/>
       <c r="B6" s="45" t="s">
         <v>140</v>
       </c>
@@ -7699,7 +7699,7 @@
       <c r="J6" s="32"/>
     </row>
     <row r="7" spans="1:10" s="26" customFormat="1" ht="31.2">
-      <c r="A7" s="122"/>
+      <c r="A7" s="123"/>
       <c r="B7" s="45" t="s">
         <v>142</v>
       </c>
@@ -7725,7 +7725,7 @@
       <c r="J7" s="32"/>
     </row>
     <row r="8" spans="1:10" s="26" customFormat="1" ht="140.4">
-      <c r="A8" s="122"/>
+      <c r="A8" s="123"/>
       <c r="B8" s="45" t="s">
         <v>144</v>
       </c>
@@ -7751,7 +7751,7 @@
       <c r="J8" s="32"/>
     </row>
     <row r="9" spans="1:10" s="26" customFormat="1" ht="31.2">
-      <c r="A9" s="122"/>
+      <c r="A9" s="123"/>
       <c r="B9" s="45" t="s">
         <v>146</v>
       </c>
@@ -7777,7 +7777,7 @@
       <c r="J9" s="32"/>
     </row>
     <row r="10" spans="1:10" s="26" customFormat="1" ht="62.4">
-      <c r="A10" s="122"/>
+      <c r="A10" s="123"/>
       <c r="B10" s="45" t="s">
         <v>148</v>
       </c>
@@ -7803,7 +7803,7 @@
       <c r="J10" s="32"/>
     </row>
     <row r="11" spans="1:10" s="26" customFormat="1" ht="31.2">
-      <c r="A11" s="122"/>
+      <c r="A11" s="123"/>
       <c r="B11" s="45" t="s">
         <v>150</v>
       </c>
@@ -7829,7 +7829,7 @@
       <c r="J11" s="32"/>
     </row>
     <row r="12" spans="1:10" s="26" customFormat="1" ht="31.2">
-      <c r="A12" s="122"/>
+      <c r="A12" s="123"/>
       <c r="B12" s="45" t="s">
         <v>152</v>
       </c>
@@ -7855,7 +7855,7 @@
       <c r="J12" s="32"/>
     </row>
     <row r="13" spans="1:10" s="26" customFormat="1" ht="46.8">
-      <c r="A13" s="122"/>
+      <c r="A13" s="123"/>
       <c r="B13" s="45" t="s">
         <v>154</v>
       </c>
@@ -7881,7 +7881,7 @@
       <c r="J13" s="32"/>
     </row>
     <row r="14" spans="1:10" s="26" customFormat="1" ht="111" customHeight="1">
-      <c r="A14" s="122" t="s">
+      <c r="A14" s="123" t="s">
         <v>156</v>
       </c>
       <c r="B14" s="45" t="s">
@@ -7909,7 +7909,7 @@
       <c r="J14" s="32"/>
     </row>
     <row r="15" spans="1:10" s="26" customFormat="1" ht="78">
-      <c r="A15" s="122"/>
+      <c r="A15" s="123"/>
       <c r="B15" s="45" t="s">
         <v>160</v>
       </c>
@@ -7935,7 +7935,7 @@
       <c r="J15" s="32"/>
     </row>
     <row r="16" spans="1:10" s="26" customFormat="1" ht="93.6">
-      <c r="A16" s="122"/>
+      <c r="A16" s="123"/>
       <c r="B16" s="45" t="s">
         <v>163</v>
       </c>
@@ -7959,7 +7959,7 @@
       <c r="J16" s="32"/>
     </row>
     <row r="17" spans="1:10" s="26" customFormat="1" ht="62.4">
-      <c r="A17" s="122"/>
+      <c r="A17" s="123"/>
       <c r="B17" s="45" t="s">
         <v>165</v>
       </c>
@@ -7985,7 +7985,7 @@
       <c r="J17" s="32"/>
     </row>
     <row r="18" spans="1:10" s="26" customFormat="1" ht="46.8">
-      <c r="A18" s="122"/>
+      <c r="A18" s="123"/>
       <c r="B18" s="45" t="s">
         <v>168</v>
       </c>
@@ -8011,7 +8011,7 @@
       <c r="J18" s="32"/>
     </row>
     <row r="19" spans="1:10" s="26" customFormat="1" ht="31.2">
-      <c r="A19" s="122"/>
+      <c r="A19" s="123"/>
       <c r="B19" s="45" t="s">
         <v>171</v>
       </c>
@@ -8037,7 +8037,7 @@
       <c r="J19" s="32"/>
     </row>
     <row r="20" spans="1:10" s="26" customFormat="1" ht="31.2">
-      <c r="A20" s="122"/>
+      <c r="A20" s="123"/>
       <c r="B20" s="45" t="s">
         <v>174</v>
       </c>
@@ -8063,7 +8063,7 @@
       <c r="J20" s="32"/>
     </row>
     <row r="21" spans="1:10" s="26" customFormat="1" ht="79.5" customHeight="1">
-      <c r="A21" s="122" t="s">
+      <c r="A21" s="123" t="s">
         <v>177</v>
       </c>
       <c r="B21" s="45" t="s">
@@ -8091,7 +8091,7 @@
       <c r="J21" s="32"/>
     </row>
     <row r="22" spans="1:10" s="26" customFormat="1" ht="31.2">
-      <c r="A22" s="122"/>
+      <c r="A22" s="123"/>
       <c r="B22" s="45" t="s">
         <v>181</v>
       </c>
@@ -8117,7 +8117,7 @@
       <c r="J22" s="32"/>
     </row>
     <row r="23" spans="1:10" s="26" customFormat="1" ht="31.2">
-      <c r="A23" s="122"/>
+      <c r="A23" s="123"/>
       <c r="B23" s="45" t="s">
         <v>184</v>
       </c>
@@ -8143,7 +8143,7 @@
       <c r="J23" s="32"/>
     </row>
     <row r="24" spans="1:10" s="26" customFormat="1" ht="95.25" customHeight="1">
-      <c r="A24" s="122" t="s">
+      <c r="A24" s="123" t="s">
         <v>187</v>
       </c>
       <c r="B24" s="45" t="s">
@@ -8171,7 +8171,7 @@
       <c r="J24" s="32"/>
     </row>
     <row r="25" spans="1:10" s="26" customFormat="1" ht="62.4">
-      <c r="A25" s="122"/>
+      <c r="A25" s="123"/>
       <c r="B25" s="45" t="s">
         <v>190</v>
       </c>
@@ -8197,7 +8197,7 @@
       <c r="J25" s="32"/>
     </row>
     <row r="26" spans="1:10" s="26" customFormat="1" ht="62.4">
-      <c r="A26" s="122"/>
+      <c r="A26" s="123"/>
       <c r="B26" s="45" t="s">
         <v>192</v>
       </c>
@@ -8223,7 +8223,7 @@
       <c r="J26" s="32"/>
     </row>
     <row r="27" spans="1:10" s="26" customFormat="1" ht="46.8">
-      <c r="A27" s="122"/>
+      <c r="A27" s="123"/>
       <c r="B27" s="45" t="s">
         <v>194</v>
       </c>
@@ -8249,7 +8249,7 @@
       <c r="J27" s="32"/>
     </row>
     <row r="28" spans="1:10" s="26" customFormat="1" ht="109.2">
-      <c r="A28" s="122"/>
+      <c r="A28" s="123"/>
       <c r="B28" s="45" t="s">
         <v>196</v>
       </c>
@@ -8275,7 +8275,7 @@
       <c r="J28" s="33"/>
     </row>
     <row r="29" spans="1:10" s="26" customFormat="1" ht="48" customHeight="1">
-      <c r="A29" s="122" t="s">
+      <c r="A29" s="123" t="s">
         <v>198</v>
       </c>
       <c r="B29" s="45" t="s">
@@ -8303,7 +8303,7 @@
       <c r="J29" s="33"/>
     </row>
     <row r="30" spans="1:10" s="26" customFormat="1" ht="31.2">
-      <c r="A30" s="122"/>
+      <c r="A30" s="123"/>
       <c r="B30" s="45" t="s">
         <v>201</v>
       </c>
@@ -8329,7 +8329,7 @@
       <c r="J30" s="33"/>
     </row>
     <row r="31" spans="1:10" s="26" customFormat="1" ht="46.8">
-      <c r="A31" s="122"/>
+      <c r="A31" s="123"/>
       <c r="B31" s="45" t="s">
         <v>203</v>
       </c>
@@ -8355,7 +8355,7 @@
       <c r="J31" s="33"/>
     </row>
     <row r="32" spans="1:10" s="26" customFormat="1" ht="31.2">
-      <c r="A32" s="122"/>
+      <c r="A32" s="123"/>
       <c r="B32" s="45" t="s">
         <v>205</v>
       </c>
@@ -8381,7 +8381,7 @@
       <c r="J32" s="33"/>
     </row>
     <row r="33" spans="1:10" s="26" customFormat="1" ht="31.2">
-      <c r="A33" s="122"/>
+      <c r="A33" s="123"/>
       <c r="B33" s="45" t="s">
         <v>207</v>
       </c>
@@ -8407,7 +8407,7 @@
       <c r="J33" s="33"/>
     </row>
     <row r="34" spans="1:10" s="26" customFormat="1" ht="62.4">
-      <c r="A34" s="122"/>
+      <c r="A34" s="123"/>
       <c r="B34" s="45" t="s">
         <v>210</v>
       </c>
@@ -8433,7 +8433,7 @@
       <c r="J34" s="33"/>
     </row>
     <row r="35" spans="1:10" s="26" customFormat="1" ht="46.8">
-      <c r="A35" s="122"/>
+      <c r="A35" s="123"/>
       <c r="B35" s="45" t="s">
         <v>212</v>
       </c>
@@ -8459,7 +8459,7 @@
       <c r="J35" s="33"/>
     </row>
     <row r="36" spans="1:10" s="26" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A36" s="122" t="s">
+      <c r="A36" s="123" t="s">
         <v>214</v>
       </c>
       <c r="B36" s="45" t="s">
@@ -8487,7 +8487,7 @@
       <c r="J36" s="33"/>
     </row>
     <row r="37" spans="1:10" s="26" customFormat="1" ht="46.8">
-      <c r="A37" s="122"/>
+      <c r="A37" s="123"/>
       <c r="B37" s="45" t="s">
         <v>218</v>
       </c>
@@ -8513,7 +8513,7 @@
       <c r="J37" s="33"/>
     </row>
     <row r="38" spans="1:10" s="26" customFormat="1" ht="31.2">
-      <c r="A38" s="122"/>
+      <c r="A38" s="123"/>
       <c r="B38" s="45" t="s">
         <v>220</v>
       </c>
@@ -8539,7 +8539,7 @@
       <c r="J38" s="33"/>
     </row>
     <row r="39" spans="1:10" s="26" customFormat="1" ht="48" customHeight="1">
-      <c r="A39" s="122" t="s">
+      <c r="A39" s="123" t="s">
         <v>222</v>
       </c>
       <c r="B39" s="45" t="s">
@@ -8567,7 +8567,7 @@
       <c r="J39" s="33"/>
     </row>
     <row r="40" spans="1:10" s="26" customFormat="1" ht="31.2">
-      <c r="A40" s="122"/>
+      <c r="A40" s="123"/>
       <c r="B40" s="45" t="s">
         <v>226</v>
       </c>
@@ -8593,7 +8593,7 @@
       <c r="J40" s="33"/>
     </row>
     <row r="41" spans="1:10" s="26" customFormat="1" ht="46.8">
-      <c r="A41" s="122"/>
+      <c r="A41" s="123"/>
       <c r="B41" s="45" t="s">
         <v>228</v>
       </c>
@@ -8619,7 +8619,7 @@
       <c r="J41" s="33"/>
     </row>
     <row r="42" spans="1:10" s="26" customFormat="1" ht="31.2">
-      <c r="A42" s="122"/>
+      <c r="A42" s="123"/>
       <c r="B42" s="45" t="s">
         <v>230</v>
       </c>
@@ -8645,7 +8645,7 @@
       <c r="J42" s="33"/>
     </row>
     <row r="43" spans="1:10" s="26" customFormat="1" ht="31.2">
-      <c r="A43" s="122"/>
+      <c r="A43" s="123"/>
       <c r="B43" s="45" t="s">
         <v>232</v>
       </c>
@@ -8671,7 +8671,7 @@
       <c r="J43" s="33"/>
     </row>
     <row r="44" spans="1:10" s="26" customFormat="1" ht="46.8">
-      <c r="A44" s="122"/>
+      <c r="A44" s="123"/>
       <c r="B44" s="45" t="s">
         <v>234</v>
       </c>
@@ -8697,7 +8697,7 @@
       <c r="J44" s="33"/>
     </row>
     <row r="45" spans="1:10" s="26" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A45" s="122" t="s">
+      <c r="A45" s="123" t="s">
         <v>236</v>
       </c>
       <c r="B45" s="45" t="s">
@@ -8725,7 +8725,7 @@
       <c r="J45" s="33"/>
     </row>
     <row r="46" spans="1:10" s="26" customFormat="1" ht="46.8">
-      <c r="A46" s="122"/>
+      <c r="A46" s="123"/>
       <c r="B46" s="45" t="s">
         <v>240</v>
       </c>
@@ -8751,7 +8751,7 @@
       <c r="J46" s="33"/>
     </row>
     <row r="47" spans="1:10" s="26" customFormat="1" ht="31.2">
-      <c r="A47" s="122"/>
+      <c r="A47" s="123"/>
       <c r="B47" s="45" t="s">
         <v>242</v>
       </c>
@@ -8777,7 +8777,7 @@
       <c r="J47" s="33"/>
     </row>
     <row r="48" spans="1:10" s="26" customFormat="1" ht="31.2">
-      <c r="A48" s="122"/>
+      <c r="A48" s="123"/>
       <c r="B48" s="45" t="s">
         <v>244</v>
       </c>
@@ -8803,7 +8803,7 @@
       <c r="J48" s="33"/>
     </row>
     <row r="49" spans="1:10" s="26" customFormat="1" ht="46.8">
-      <c r="A49" s="122"/>
+      <c r="A49" s="123"/>
       <c r="B49" s="45" t="s">
         <v>246</v>
       </c>
@@ -8829,7 +8829,7 @@
       <c r="J49" s="33"/>
     </row>
     <row r="50" spans="1:10" s="26" customFormat="1" ht="46.8">
-      <c r="A50" s="122"/>
+      <c r="A50" s="123"/>
       <c r="B50" s="45" t="s">
         <v>249</v>
       </c>
@@ -8855,7 +8855,7 @@
       <c r="J50" s="33"/>
     </row>
     <row r="51" spans="1:10" s="26" customFormat="1" ht="46.8">
-      <c r="A51" s="122"/>
+      <c r="A51" s="123"/>
       <c r="B51" s="45" t="s">
         <v>252</v>
       </c>
@@ -8881,7 +8881,7 @@
       <c r="J51" s="33"/>
     </row>
     <row r="52" spans="1:10" s="26" customFormat="1" ht="63.75" customHeight="1">
-      <c r="A52" s="122" t="s">
+      <c r="A52" s="123" t="s">
         <v>255</v>
       </c>
       <c r="B52" s="45" t="s">
@@ -8909,7 +8909,7 @@
       <c r="J52" s="33"/>
     </row>
     <row r="53" spans="1:10" s="26" customFormat="1" ht="31.2">
-      <c r="A53" s="122"/>
+      <c r="A53" s="123"/>
       <c r="B53" s="45" t="s">
         <v>259</v>
       </c>
@@ -8935,7 +8935,7 @@
       <c r="J53" s="33"/>
     </row>
     <row r="54" spans="1:10" s="26" customFormat="1" ht="31.2">
-      <c r="A54" s="122"/>
+      <c r="A54" s="123"/>
       <c r="B54" s="45" t="s">
         <v>261</v>
       </c>
@@ -8961,7 +8961,7 @@
       <c r="J54" s="33"/>
     </row>
     <row r="55" spans="1:10" s="26" customFormat="1" ht="79.5" customHeight="1">
-      <c r="A55" s="122" t="s">
+      <c r="A55" s="123" t="s">
         <v>263</v>
       </c>
       <c r="B55" s="45" t="s">
@@ -8989,7 +8989,7 @@
       <c r="J55" s="33"/>
     </row>
     <row r="56" spans="1:10" s="26" customFormat="1" ht="46.8">
-      <c r="A56" s="122"/>
+      <c r="A56" s="123"/>
       <c r="B56" s="45" t="s">
         <v>268</v>
       </c>
@@ -9015,7 +9015,7 @@
       <c r="J56" s="33"/>
     </row>
     <row r="57" spans="1:10" s="26" customFormat="1" ht="46.8">
-      <c r="A57" s="122"/>
+      <c r="A57" s="123"/>
       <c r="B57" s="45" t="s">
         <v>270</v>
       </c>
@@ -9041,7 +9041,7 @@
       <c r="J57" s="33"/>
     </row>
     <row r="58" spans="1:10" s="26" customFormat="1" ht="93.6">
-      <c r="A58" s="122"/>
+      <c r="A58" s="123"/>
       <c r="B58" s="45" t="s">
         <v>272</v>
       </c>
@@ -9066,16 +9066,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A2:A13"/>
+    <mergeCell ref="A14:A20"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A24:A28"/>
+    <mergeCell ref="A29:A35"/>
     <mergeCell ref="A36:A38"/>
     <mergeCell ref="A39:A44"/>
     <mergeCell ref="A45:A51"/>
     <mergeCell ref="A52:A54"/>
     <mergeCell ref="A55:A58"/>
-    <mergeCell ref="A2:A13"/>
-    <mergeCell ref="A14:A20"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="A24:A28"/>
-    <mergeCell ref="A29:A35"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" operator="equal" showErrorMessage="1" sqref="G2:G58" xr:uid="{00000000-0002-0000-0200-000000000000}">
@@ -9169,7 +9169,7 @@
       <c r="J2" s="66"/>
     </row>
     <row r="3" spans="1:10" ht="63.75" customHeight="1">
-      <c r="A3" s="122" t="s">
+      <c r="A3" s="123" t="s">
         <v>277</v>
       </c>
       <c r="B3" s="63" t="s">
@@ -9193,7 +9193,7 @@
       <c r="J3" s="33"/>
     </row>
     <row r="4" spans="1:10" ht="46.8">
-      <c r="A4" s="122"/>
+      <c r="A4" s="123"/>
       <c r="B4" s="63" t="s">
         <v>280</v>
       </c>
@@ -9215,7 +9215,7 @@
       <c r="J4" s="33"/>
     </row>
     <row r="5" spans="1:10" ht="46.8">
-      <c r="A5" s="122"/>
+      <c r="A5" s="123"/>
       <c r="B5" s="63" t="s">
         <v>282</v>
       </c>
@@ -9237,7 +9237,7 @@
       <c r="J5" s="33"/>
     </row>
     <row r="6" spans="1:10" ht="62.4">
-      <c r="A6" s="122"/>
+      <c r="A6" s="123"/>
       <c r="B6" s="63" t="s">
         <v>284</v>
       </c>
@@ -9259,7 +9259,7 @@
       <c r="J6" s="33"/>
     </row>
     <row r="7" spans="1:10" ht="79.5" customHeight="1">
-      <c r="A7" s="122" t="s">
+      <c r="A7" s="123" t="s">
         <v>286</v>
       </c>
       <c r="B7" s="63" t="s">
@@ -9283,7 +9283,7 @@
       <c r="J7" s="33"/>
     </row>
     <row r="8" spans="1:10" ht="109.2">
-      <c r="A8" s="122"/>
+      <c r="A8" s="123"/>
       <c r="B8" s="63" t="s">
         <v>289</v>
       </c>
@@ -9305,7 +9305,7 @@
       <c r="J8" s="33"/>
     </row>
     <row r="9" spans="1:10" ht="62.4">
-      <c r="A9" s="122"/>
+      <c r="A9" s="123"/>
       <c r="B9" s="63" t="s">
         <v>291</v>
       </c>
@@ -9325,7 +9325,7 @@
       <c r="J9" s="33"/>
     </row>
     <row r="10" spans="1:10" ht="31.2">
-      <c r="A10" s="122"/>
+      <c r="A10" s="123"/>
       <c r="B10" s="63" t="s">
         <v>293</v>
       </c>
@@ -9347,7 +9347,7 @@
       <c r="J10" s="33"/>
     </row>
     <row r="11" spans="1:10" ht="48" customHeight="1">
-      <c r="A11" s="122" t="s">
+      <c r="A11" s="123" t="s">
         <v>295</v>
       </c>
       <c r="B11" s="63" t="s">
@@ -9371,7 +9371,7 @@
       <c r="J11" s="33"/>
     </row>
     <row r="12" spans="1:10" ht="46.8">
-      <c r="A12" s="122"/>
+      <c r="A12" s="123"/>
       <c r="B12" s="63" t="s">
         <v>299</v>
       </c>
@@ -9393,7 +9393,7 @@
       <c r="J12" s="33"/>
     </row>
     <row r="13" spans="1:10" ht="62.4">
-      <c r="A13" s="122"/>
+      <c r="A13" s="123"/>
       <c r="B13" s="63" t="s">
         <v>301</v>
       </c>
@@ -9415,7 +9415,7 @@
       <c r="J13" s="33"/>
     </row>
     <row r="14" spans="1:10" ht="31.2">
-      <c r="A14" s="122"/>
+      <c r="A14" s="123"/>
       <c r="B14" s="63" t="s">
         <v>303</v>
       </c>
@@ -9437,7 +9437,7 @@
       <c r="J14" s="33"/>
     </row>
     <row r="15" spans="1:10" ht="93.6">
-      <c r="A15" s="122"/>
+      <c r="A15" s="123"/>
       <c r="B15" s="63" t="s">
         <v>305</v>
       </c>
@@ -9459,7 +9459,7 @@
       <c r="J15" s="33"/>
     </row>
     <row r="16" spans="1:10" ht="32.25" customHeight="1">
-      <c r="A16" s="122" t="s">
+      <c r="A16" s="123" t="s">
         <v>307</v>
       </c>
       <c r="B16" s="63" t="s">
@@ -9483,7 +9483,7 @@
       <c r="J16" s="33"/>
     </row>
     <row r="17" spans="1:10" ht="31.2">
-      <c r="A17" s="122"/>
+      <c r="A17" s="123"/>
       <c r="B17" s="63" t="s">
         <v>311</v>
       </c>
@@ -9503,7 +9503,7 @@
       <c r="J17" s="33"/>
     </row>
     <row r="18" spans="1:10" ht="46.8">
-      <c r="A18" s="122"/>
+      <c r="A18" s="123"/>
       <c r="B18" s="63" t="s">
         <v>313</v>
       </c>
@@ -9523,7 +9523,7 @@
       <c r="J18" s="33"/>
     </row>
     <row r="19" spans="1:10" ht="63.75" customHeight="1">
-      <c r="A19" s="122" t="s">
+      <c r="A19" s="123" t="s">
         <v>315</v>
       </c>
       <c r="B19" s="63" t="s">
@@ -9547,7 +9547,7 @@
       <c r="J19" s="33"/>
     </row>
     <row r="20" spans="1:10" ht="46.8">
-      <c r="A20" s="122"/>
+      <c r="A20" s="123"/>
       <c r="B20" s="63" t="s">
         <v>319</v>
       </c>
@@ -9626,8 +9626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AMJ11"/>
   <sheetViews>
-    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="21"/>
@@ -9677,7 +9677,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="48" customHeight="1">
-      <c r="A2" s="122" t="s">
+      <c r="A2" s="123" t="s">
         <v>324</v>
       </c>
       <c r="B2" s="78" t="s">
@@ -9693,13 +9693,15 @@
       <c r="F2" s="49" t="s">
         <v>326</v>
       </c>
-      <c r="G2" s="50"/>
+      <c r="G2" s="50" t="s">
+        <v>26</v>
+      </c>
       <c r="H2" s="50"/>
       <c r="I2" s="50"/>
       <c r="J2" s="66"/>
     </row>
     <row r="3" spans="1:10" ht="46.8">
-      <c r="A3" s="122"/>
+      <c r="A3" s="123"/>
       <c r="B3" s="78" t="s">
         <v>327</v>
       </c>
@@ -9713,13 +9715,15 @@
       <c r="F3" s="30" t="s">
         <v>328</v>
       </c>
-      <c r="G3" s="29"/>
+      <c r="G3" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H3" s="29"/>
       <c r="I3" s="29"/>
       <c r="J3" s="33"/>
     </row>
     <row r="4" spans="1:10" ht="93.6">
-      <c r="A4" s="122"/>
+      <c r="A4" s="123"/>
       <c r="B4" s="78" t="s">
         <v>329</v>
       </c>
@@ -9733,13 +9737,15 @@
       <c r="F4" s="30" t="s">
         <v>330</v>
       </c>
-      <c r="G4" s="29"/>
+      <c r="G4" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H4" s="29"/>
       <c r="I4" s="29"/>
       <c r="J4" s="33"/>
     </row>
     <row r="5" spans="1:10" ht="15.6">
-      <c r="A5" s="122"/>
+      <c r="A5" s="123"/>
       <c r="B5" s="78" t="s">
         <v>331</v>
       </c>
@@ -9761,7 +9767,7 @@
       <c r="J5" s="33"/>
     </row>
     <row r="6" spans="1:10" ht="46.8">
-      <c r="A6" s="122"/>
+      <c r="A6" s="123"/>
       <c r="B6" s="78" t="s">
         <v>332</v>
       </c>
@@ -9775,13 +9781,15 @@
       <c r="F6" s="30" t="s">
         <v>333</v>
       </c>
-      <c r="G6" s="29"/>
+      <c r="G6" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H6" s="29"/>
       <c r="I6" s="29"/>
       <c r="J6" s="33"/>
     </row>
     <row r="7" spans="1:10" ht="79.5" customHeight="1">
-      <c r="A7" s="122" t="s">
+      <c r="A7" s="123" t="s">
         <v>334</v>
       </c>
       <c r="B7" s="78" t="s">
@@ -9797,13 +9805,15 @@
       <c r="F7" s="30" t="s">
         <v>336</v>
       </c>
-      <c r="G7" s="29"/>
+      <c r="G7" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H7" s="29"/>
       <c r="I7" s="29"/>
       <c r="J7" s="33"/>
     </row>
     <row r="8" spans="1:10" ht="46.8">
-      <c r="A8" s="122"/>
+      <c r="A8" s="123"/>
       <c r="B8" s="78" t="s">
         <v>337</v>
       </c>
@@ -9817,13 +9827,15 @@
       <c r="F8" s="30" t="s">
         <v>338</v>
       </c>
-      <c r="G8" s="29"/>
+      <c r="G8" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H8" s="29"/>
       <c r="I8" s="29"/>
       <c r="J8" s="33"/>
     </row>
     <row r="9" spans="1:10" ht="32.25" customHeight="1">
-      <c r="A9" s="122" t="s">
+      <c r="A9" s="123" t="s">
         <v>339</v>
       </c>
       <c r="B9" s="78" t="s">
@@ -9839,13 +9851,15 @@
       <c r="F9" s="30" t="s">
         <v>341</v>
       </c>
-      <c r="G9" s="29"/>
+      <c r="G9" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H9" s="29"/>
       <c r="I9" s="29"/>
       <c r="J9" s="33"/>
     </row>
     <row r="10" spans="1:10" ht="62.4">
-      <c r="A10" s="122"/>
+      <c r="A10" s="123"/>
       <c r="B10" s="78" t="s">
         <v>342</v>
       </c>
@@ -9859,13 +9873,15 @@
       <c r="F10" s="30" t="s">
         <v>343</v>
       </c>
-      <c r="G10" s="29"/>
+      <c r="G10" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H10" s="29"/>
       <c r="I10" s="29"/>
       <c r="J10" s="33"/>
     </row>
     <row r="11" spans="1:10" ht="62.4">
-      <c r="A11" s="122"/>
+      <c r="A11" s="123"/>
       <c r="B11" s="78" t="s">
         <v>344</v>
       </c>
@@ -9879,7 +9895,9 @@
       <c r="F11" s="37" t="s">
         <v>345</v>
       </c>
-      <c r="G11" s="36"/>
+      <c r="G11" s="36" t="s">
+        <v>26</v>
+      </c>
       <c r="H11" s="36"/>
       <c r="I11" s="36"/>
       <c r="J11" s="38"/>
@@ -9959,7 +9977,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="79.5" customHeight="1">
-      <c r="A2" s="122" t="s">
+      <c r="A2" s="123" t="s">
         <v>346</v>
       </c>
       <c r="B2" s="63" t="s">
@@ -9983,7 +10001,7 @@
       <c r="J2" s="66"/>
     </row>
     <row r="3" spans="1:10" ht="93.6">
-      <c r="A3" s="122"/>
+      <c r="A3" s="123"/>
       <c r="B3" s="63" t="s">
         <v>349</v>
       </c>
@@ -10005,7 +10023,7 @@
       <c r="J3" s="33"/>
     </row>
     <row r="4" spans="1:10" ht="78">
-      <c r="A4" s="122"/>
+      <c r="A4" s="123"/>
       <c r="B4" s="63" t="s">
         <v>351</v>
       </c>
@@ -10027,7 +10045,7 @@
       <c r="J4" s="33"/>
     </row>
     <row r="5" spans="1:10" ht="109.2">
-      <c r="A5" s="122"/>
+      <c r="A5" s="123"/>
       <c r="B5" s="63" t="s">
         <v>353</v>
       </c>
@@ -10049,7 +10067,7 @@
       <c r="J5" s="33"/>
     </row>
     <row r="6" spans="1:10" ht="46.8">
-      <c r="A6" s="122"/>
+      <c r="A6" s="123"/>
       <c r="B6" s="63" t="s">
         <v>355</v>
       </c>
@@ -10071,7 +10089,7 @@
       <c r="J6" s="33"/>
     </row>
     <row r="7" spans="1:10" ht="63.75" customHeight="1">
-      <c r="A7" s="122" t="s">
+      <c r="A7" s="123" t="s">
         <v>357</v>
       </c>
       <c r="B7" s="63" t="s">
@@ -10095,7 +10113,7 @@
       <c r="J7" s="33"/>
     </row>
     <row r="8" spans="1:10" ht="31.2">
-      <c r="A8" s="122"/>
+      <c r="A8" s="123"/>
       <c r="B8" s="63" t="s">
         <v>359</v>
       </c>
@@ -10117,7 +10135,7 @@
       <c r="J8" s="33"/>
     </row>
     <row r="9" spans="1:10" ht="31.2">
-      <c r="A9" s="122"/>
+      <c r="A9" s="123"/>
       <c r="B9" s="63" t="s">
         <v>253</v>
       </c>
@@ -10139,7 +10157,7 @@
       <c r="J9" s="33"/>
     </row>
     <row r="10" spans="1:10" ht="62.4">
-      <c r="A10" s="122"/>
+      <c r="A10" s="123"/>
       <c r="B10" s="63" t="s">
         <v>362</v>
       </c>
@@ -10161,7 +10179,7 @@
       <c r="J10" s="33"/>
     </row>
     <row r="11" spans="1:10" ht="46.8">
-      <c r="A11" s="122"/>
+      <c r="A11" s="123"/>
       <c r="B11" s="63" t="s">
         <v>166</v>
       </c>
@@ -10183,7 +10201,7 @@
       <c r="J11" s="33"/>
     </row>
     <row r="12" spans="1:10" ht="62.4">
-      <c r="A12" s="122"/>
+      <c r="A12" s="123"/>
       <c r="B12" s="63" t="s">
         <v>169</v>
       </c>
@@ -10205,7 +10223,7 @@
       <c r="J12" s="33"/>
     </row>
     <row r="13" spans="1:10" ht="62.4">
-      <c r="A13" s="122"/>
+      <c r="A13" s="123"/>
       <c r="B13" s="63" t="s">
         <v>366</v>
       </c>
@@ -10227,7 +10245,7 @@
       <c r="J13" s="33"/>
     </row>
     <row r="14" spans="1:10" ht="62.4">
-      <c r="A14" s="122"/>
+      <c r="A14" s="123"/>
       <c r="B14" s="63" t="s">
         <v>172</v>
       </c>
@@ -10249,7 +10267,7 @@
       <c r="J14" s="33"/>
     </row>
     <row r="15" spans="1:10" ht="126.75" customHeight="1">
-      <c r="A15" s="122" t="s">
+      <c r="A15" s="123" t="s">
         <v>369</v>
       </c>
       <c r="B15" s="63" t="s">
@@ -10273,7 +10291,7 @@
       <c r="J15" s="33"/>
     </row>
     <row r="16" spans="1:10" ht="78">
-      <c r="A16" s="122"/>
+      <c r="A16" s="123"/>
       <c r="B16" s="63" t="s">
         <v>372</v>
       </c>
@@ -10295,7 +10313,7 @@
       <c r="J16" s="33"/>
     </row>
     <row r="17" spans="1:10" ht="62.4">
-      <c r="A17" s="122"/>
+      <c r="A17" s="123"/>
       <c r="B17" s="63" t="s">
         <v>374</v>
       </c>
@@ -10317,7 +10335,7 @@
       <c r="J17" s="33"/>
     </row>
     <row r="18" spans="1:10" ht="78">
-      <c r="A18" s="122"/>
+      <c r="A18" s="123"/>
       <c r="B18" s="63" t="s">
         <v>376</v>
       </c>
@@ -10339,7 +10357,7 @@
       <c r="J18" s="33"/>
     </row>
     <row r="19" spans="1:10" ht="93.6">
-      <c r="A19" s="122"/>
+      <c r="A19" s="123"/>
       <c r="B19" s="63" t="s">
         <v>378</v>
       </c>
@@ -10361,7 +10379,7 @@
       <c r="J19" s="33"/>
     </row>
     <row r="20" spans="1:10" ht="62.4">
-      <c r="A20" s="122"/>
+      <c r="A20" s="123"/>
       <c r="B20" s="63" t="s">
         <v>380</v>
       </c>
@@ -10383,7 +10401,7 @@
       <c r="J20" s="33"/>
     </row>
     <row r="21" spans="1:10" ht="78">
-      <c r="A21" s="122"/>
+      <c r="A21" s="123"/>
       <c r="B21" s="63" t="s">
         <v>382</v>
       </c>
@@ -10405,7 +10423,7 @@
       <c r="J21" s="33"/>
     </row>
     <row r="22" spans="1:10" ht="78">
-      <c r="A22" s="122"/>
+      <c r="A22" s="123"/>
       <c r="B22" s="63" t="s">
         <v>384</v>
       </c>
@@ -10427,7 +10445,7 @@
       <c r="J22" s="33"/>
     </row>
     <row r="23" spans="1:10" ht="31.2">
-      <c r="A23" s="122"/>
+      <c r="A23" s="123"/>
       <c r="B23" s="63" t="s">
         <v>386</v>
       </c>
@@ -10449,7 +10467,7 @@
       <c r="J23" s="33"/>
     </row>
     <row r="24" spans="1:10" ht="46.8">
-      <c r="A24" s="122"/>
+      <c r="A24" s="123"/>
       <c r="B24" s="63" t="s">
         <v>388</v>
       </c>
@@ -10471,7 +10489,7 @@
       <c r="J24" s="33"/>
     </row>
     <row r="25" spans="1:10" ht="48" customHeight="1">
-      <c r="A25" s="122" t="s">
+      <c r="A25" s="123" t="s">
         <v>390</v>
       </c>
       <c r="B25" s="63" t="s">
@@ -10495,7 +10513,7 @@
       <c r="J25" s="33"/>
     </row>
     <row r="26" spans="1:10" ht="31.2">
-      <c r="A26" s="122"/>
+      <c r="A26" s="123"/>
       <c r="B26" s="63" t="s">
         <v>393</v>
       </c>
@@ -10517,7 +10535,7 @@
       <c r="J26" s="33"/>
     </row>
     <row r="27" spans="1:10" ht="31.2">
-      <c r="A27" s="122"/>
+      <c r="A27" s="123"/>
       <c r="B27" s="63" t="s">
         <v>395</v>
       </c>
@@ -10539,7 +10557,7 @@
       <c r="J27" s="33"/>
     </row>
     <row r="28" spans="1:10" ht="63.75" customHeight="1">
-      <c r="A28" s="122" t="s">
+      <c r="A28" s="123" t="s">
         <v>397</v>
       </c>
       <c r="B28" s="63" t="s">
@@ -10563,7 +10581,7 @@
       <c r="J28" s="33"/>
     </row>
     <row r="29" spans="1:10" ht="62.4">
-      <c r="A29" s="122"/>
+      <c r="A29" s="123"/>
       <c r="B29" s="63" t="s">
         <v>400</v>
       </c>
@@ -10585,7 +10603,7 @@
       <c r="J29" s="33"/>
     </row>
     <row r="30" spans="1:10" ht="46.8">
-      <c r="A30" s="122"/>
+      <c r="A30" s="123"/>
       <c r="B30" s="63" t="s">
         <v>402</v>
       </c>
@@ -10607,7 +10625,7 @@
       <c r="J30" s="33"/>
     </row>
     <row r="31" spans="1:10" ht="46.8">
-      <c r="A31" s="122"/>
+      <c r="A31" s="123"/>
       <c r="B31" s="63" t="s">
         <v>404</v>
       </c>
@@ -10629,7 +10647,7 @@
       <c r="J31" s="38"/>
     </row>
     <row r="32" spans="1:10">
-      <c r="G32" s="124"/>
+      <c r="G32" s="121"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -10709,7 +10727,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="48" customHeight="1">
-      <c r="A2" s="122" t="s">
+      <c r="A2" s="123" t="s">
         <v>406</v>
       </c>
       <c r="B2" s="63" t="s">
@@ -10731,7 +10749,7 @@
       <c r="J2" s="66"/>
     </row>
     <row r="3" spans="1:10" ht="31.2">
-      <c r="A3" s="122"/>
+      <c r="A3" s="123"/>
       <c r="B3" s="63" t="s">
         <v>409</v>
       </c>
@@ -10751,7 +10769,7 @@
       <c r="J3" s="33"/>
     </row>
     <row r="4" spans="1:10" ht="46.8">
-      <c r="A4" s="122"/>
+      <c r="A4" s="123"/>
       <c r="B4" s="63" t="s">
         <v>182</v>
       </c>
@@ -10771,7 +10789,7 @@
       <c r="J4" s="33"/>
     </row>
     <row r="5" spans="1:10" ht="32.25" customHeight="1">
-      <c r="A5" s="122" t="s">
+      <c r="A5" s="123" t="s">
         <v>412</v>
       </c>
       <c r="B5" s="63" t="s">
@@ -10793,7 +10811,7 @@
       <c r="J5" s="33"/>
     </row>
     <row r="6" spans="1:10" ht="46.8">
-      <c r="A6" s="122"/>
+      <c r="A6" s="123"/>
       <c r="B6" s="63" t="s">
         <v>415</v>
       </c>
@@ -10813,7 +10831,7 @@
       <c r="J6" s="33"/>
     </row>
     <row r="7" spans="1:10" ht="31.2">
-      <c r="A7" s="122"/>
+      <c r="A7" s="123"/>
       <c r="B7" s="63" t="s">
         <v>417</v>
       </c>
@@ -10833,7 +10851,7 @@
       <c r="J7" s="33"/>
     </row>
     <row r="8" spans="1:10" ht="46.8">
-      <c r="A8" s="122"/>
+      <c r="A8" s="123"/>
       <c r="B8" s="63" t="s">
         <v>419</v>
       </c>
@@ -10853,7 +10871,7 @@
       <c r="J8" s="33"/>
     </row>
     <row r="9" spans="1:10" ht="46.8">
-      <c r="A9" s="122"/>
+      <c r="A9" s="123"/>
       <c r="B9" s="63" t="s">
         <v>421</v>
       </c>
@@ -10873,7 +10891,7 @@
       <c r="J9" s="33"/>
     </row>
     <row r="10" spans="1:10" ht="46.8">
-      <c r="A10" s="122"/>
+      <c r="A10" s="123"/>
       <c r="B10" s="63" t="s">
         <v>423</v>
       </c>
@@ -10893,7 +10911,7 @@
       <c r="J10" s="33"/>
     </row>
     <row r="11" spans="1:10" ht="31.2">
-      <c r="A11" s="122"/>
+      <c r="A11" s="123"/>
       <c r="B11" s="63" t="s">
         <v>425</v>
       </c>
@@ -10913,7 +10931,7 @@
       <c r="J11" s="33"/>
     </row>
     <row r="12" spans="1:10" ht="31.2">
-      <c r="A12" s="122"/>
+      <c r="A12" s="123"/>
       <c r="B12" s="63" t="s">
         <v>427</v>
       </c>
@@ -10933,7 +10951,7 @@
       <c r="J12" s="33"/>
     </row>
     <row r="13" spans="1:10" ht="48" customHeight="1">
-      <c r="A13" s="122" t="s">
+      <c r="A13" s="123" t="s">
         <v>429</v>
       </c>
       <c r="B13" s="63" t="s">
@@ -10955,7 +10973,7 @@
       <c r="J13" s="33"/>
     </row>
     <row r="14" spans="1:10" ht="46.8">
-      <c r="A14" s="122"/>
+      <c r="A14" s="123"/>
       <c r="B14" s="63" t="s">
         <v>432</v>
       </c>
@@ -10975,7 +10993,7 @@
       <c r="J14" s="33"/>
     </row>
     <row r="15" spans="1:10" ht="31.2">
-      <c r="A15" s="122"/>
+      <c r="A15" s="123"/>
       <c r="B15" s="63" t="s">
         <v>434</v>
       </c>
@@ -10995,7 +11013,7 @@
       <c r="J15" s="33"/>
     </row>
     <row r="16" spans="1:10" ht="48" customHeight="1">
-      <c r="A16" s="122" t="s">
+      <c r="A16" s="123" t="s">
         <v>436</v>
       </c>
       <c r="B16" s="63" t="s">
@@ -11017,7 +11035,7 @@
       <c r="J16" s="33"/>
     </row>
     <row r="17" spans="1:10" ht="46.8">
-      <c r="A17" s="122"/>
+      <c r="A17" s="123"/>
       <c r="B17" s="63" t="s">
         <v>439</v>
       </c>
@@ -11113,7 +11131,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="48" customHeight="1">
-      <c r="A2" s="122" t="s">
+      <c r="A2" s="123" t="s">
         <v>441</v>
       </c>
       <c r="B2" s="63" t="s">
@@ -11135,7 +11153,7 @@
       <c r="J2" s="94"/>
     </row>
     <row r="3" spans="1:10" ht="46.8">
-      <c r="A3" s="122"/>
+      <c r="A3" s="123"/>
       <c r="B3" s="63" t="s">
         <v>309</v>
       </c>
@@ -11155,7 +11173,7 @@
       <c r="J3" s="33"/>
     </row>
     <row r="4" spans="1:10" ht="62.4">
-      <c r="A4" s="122"/>
+      <c r="A4" s="123"/>
       <c r="B4" s="63" t="s">
         <v>444</v>
       </c>
@@ -11175,7 +11193,7 @@
       <c r="J4" s="33"/>
     </row>
     <row r="5" spans="1:10" ht="46.8">
-      <c r="A5" s="122"/>
+      <c r="A5" s="123"/>
       <c r="B5" s="63" t="s">
         <v>446</v>
       </c>
@@ -11195,7 +11213,7 @@
       <c r="J5" s="33"/>
     </row>
     <row r="6" spans="1:10" ht="48" customHeight="1">
-      <c r="A6" s="122" t="s">
+      <c r="A6" s="123" t="s">
         <v>448</v>
       </c>
       <c r="B6" s="63" t="s">
@@ -11217,7 +11235,7 @@
       <c r="J6" s="33"/>
     </row>
     <row r="7" spans="1:10" ht="46.8">
-      <c r="A7" s="122"/>
+      <c r="A7" s="123"/>
       <c r="B7" s="63" t="s">
         <v>450</v>
       </c>
@@ -11237,7 +11255,7 @@
       <c r="J7" s="33"/>
     </row>
     <row r="8" spans="1:10" ht="48" customHeight="1">
-      <c r="A8" s="122" t="s">
+      <c r="A8" s="123" t="s">
         <v>452</v>
       </c>
       <c r="B8" s="63" t="s">
@@ -11259,7 +11277,7 @@
       <c r="J8" s="33"/>
     </row>
     <row r="9" spans="1:10" ht="15.6">
-      <c r="A9" s="122"/>
+      <c r="A9" s="123"/>
       <c r="B9" s="63" t="s">
         <v>455</v>
       </c>
@@ -11281,7 +11299,7 @@
       <c r="J9" s="33"/>
     </row>
     <row r="10" spans="1:10" ht="31.2">
-      <c r="A10" s="122"/>
+      <c r="A10" s="123"/>
       <c r="B10" s="63" t="s">
         <v>457</v>
       </c>
@@ -11301,7 +11319,7 @@
       <c r="J10" s="33"/>
     </row>
     <row r="11" spans="1:10" ht="62.4">
-      <c r="A11" s="122"/>
+      <c r="A11" s="123"/>
       <c r="B11" s="63" t="s">
         <v>459</v>
       </c>
@@ -11319,7 +11337,7 @@
       <c r="J11" s="33"/>
     </row>
     <row r="12" spans="1:10" ht="63.75" customHeight="1">
-      <c r="A12" s="122" t="s">
+      <c r="A12" s="123" t="s">
         <v>461</v>
       </c>
       <c r="B12" s="63" t="s">
@@ -11341,7 +11359,7 @@
       <c r="J12" s="33"/>
     </row>
     <row r="13" spans="1:10" ht="46.8">
-      <c r="A13" s="122"/>
+      <c r="A13" s="123"/>
       <c r="B13" s="63" t="s">
         <v>464</v>
       </c>
@@ -11361,7 +11379,7 @@
       <c r="J13" s="33"/>
     </row>
     <row r="14" spans="1:10" ht="46.8">
-      <c r="A14" s="122"/>
+      <c r="A14" s="123"/>
       <c r="B14" s="63" t="s">
         <v>466</v>
       </c>
@@ -11456,7 +11474,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="32.25" customHeight="1">
-      <c r="A2" s="122" t="s">
+      <c r="A2" s="123" t="s">
         <v>468</v>
       </c>
       <c r="B2" s="63" t="s">
@@ -11478,7 +11496,7 @@
       <c r="J2" s="66"/>
     </row>
     <row r="3" spans="1:10" ht="46.8">
-      <c r="A3" s="122"/>
+      <c r="A3" s="123"/>
       <c r="B3" s="63" t="s">
         <v>471</v>
       </c>
@@ -11498,7 +11516,7 @@
       <c r="J3" s="33"/>
     </row>
     <row r="4" spans="1:10" ht="31.2">
-      <c r="A4" s="122"/>
+      <c r="A4" s="123"/>
       <c r="B4" s="63" t="s">
         <v>473</v>
       </c>
@@ -11518,7 +11536,7 @@
       <c r="J4" s="33"/>
     </row>
     <row r="5" spans="1:10" ht="31.2">
-      <c r="A5" s="122"/>
+      <c r="A5" s="123"/>
       <c r="B5" s="63" t="s">
         <v>475</v>
       </c>
@@ -11538,7 +11556,7 @@
       <c r="J5" s="33"/>
     </row>
     <row r="6" spans="1:10" ht="31.2">
-      <c r="A6" s="122"/>
+      <c r="A6" s="123"/>
       <c r="B6" s="63" t="s">
         <v>477</v>
       </c>
@@ -11558,7 +11576,7 @@
       <c r="J6" s="33"/>
     </row>
     <row r="7" spans="1:10" ht="15.6">
-      <c r="A7" s="122"/>
+      <c r="A7" s="123"/>
       <c r="B7" s="63" t="s">
         <v>479</v>
       </c>
@@ -11578,7 +11596,7 @@
       <c r="J7" s="33"/>
     </row>
     <row r="8" spans="1:10" ht="32.25" customHeight="1">
-      <c r="A8" s="122" t="s">
+      <c r="A8" s="123" t="s">
         <v>481</v>
       </c>
       <c r="B8" s="63" t="s">
@@ -11600,7 +11618,7 @@
       <c r="J8" s="33"/>
     </row>
     <row r="9" spans="1:10" ht="31.2">
-      <c r="A9" s="122"/>
+      <c r="A9" s="123"/>
       <c r="B9" s="63" t="s">
         <v>484</v>
       </c>
@@ -11620,7 +11638,7 @@
       <c r="J9" s="33"/>
     </row>
     <row r="10" spans="1:10" ht="31.2">
-      <c r="A10" s="122"/>
+      <c r="A10" s="123"/>
       <c r="B10" s="63" t="s">
         <v>486</v>
       </c>
@@ -11640,7 +11658,7 @@
       <c r="J10" s="33"/>
     </row>
     <row r="11" spans="1:10" ht="32.25" customHeight="1">
-      <c r="A11" s="122" t="s">
+      <c r="A11" s="123" t="s">
         <v>488</v>
       </c>
       <c r="B11" s="63" t="s">
@@ -11662,7 +11680,7 @@
       <c r="J11" s="33"/>
     </row>
     <row r="12" spans="1:10" ht="15.6">
-      <c r="A12" s="122"/>
+      <c r="A12" s="123"/>
       <c r="B12" s="63" t="s">
         <v>491</v>
       </c>
@@ -11682,7 +11700,7 @@
       <c r="J12" s="33"/>
     </row>
     <row r="13" spans="1:10" ht="46.8">
-      <c r="A13" s="122"/>
+      <c r="A13" s="123"/>
       <c r="B13" s="63" t="s">
         <v>493</v>
       </c>
@@ -11702,7 +11720,7 @@
       <c r="J13" s="33"/>
     </row>
     <row r="14" spans="1:10" ht="46.8">
-      <c r="A14" s="122"/>
+      <c r="A14" s="123"/>
       <c r="B14" s="63" t="s">
         <v>495</v>
       </c>
@@ -11722,7 +11740,7 @@
       <c r="J14" s="33"/>
     </row>
     <row r="15" spans="1:10" ht="31.2">
-      <c r="A15" s="122"/>
+      <c r="A15" s="123"/>
       <c r="B15" s="63" t="s">
         <v>497</v>
       </c>
@@ -11742,7 +11760,7 @@
       <c r="J15" s="33"/>
     </row>
     <row r="16" spans="1:10" ht="31.2">
-      <c r="A16" s="122"/>
+      <c r="A16" s="123"/>
       <c r="B16" s="63" t="s">
         <v>499</v>
       </c>
@@ -11762,7 +11780,7 @@
       <c r="J16" s="33"/>
     </row>
     <row r="17" spans="1:10" ht="46.8">
-      <c r="A17" s="122"/>
+      <c r="A17" s="123"/>
       <c r="B17" s="63" t="s">
         <v>501</v>
       </c>
@@ -11782,7 +11800,7 @@
       <c r="J17" s="33"/>
     </row>
     <row r="18" spans="1:10" ht="31.2">
-      <c r="A18" s="122"/>
+      <c r="A18" s="123"/>
       <c r="B18" s="63" t="s">
         <v>503</v>
       </c>

--- a/v4-ASVS-checklist-en.xlsx
+++ b/v4-ASVS-checklist-en.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leandro\Desktop\Faculdade\2º Ano\DESOFS\desofs2024_M1C_1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ctw02447/Documents/Mestrado/DESOFS/desofs2024_M1C_1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF43845B-0B13-4C3F-9E79-DC5F28181FFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0DD752C-5F27-0546-8A5F-7CA2DCA6BE0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="500" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38400" yWindow="500" windowWidth="38400" windowHeight="20240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ASVS Results" sheetId="1" r:id="rId1"/>
@@ -29,8 +29,11 @@
     <sheet name="API and Web Service" sheetId="14" r:id="rId14"/>
     <sheet name="Configuration" sheetId="15" r:id="rId15"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191028" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -38,6 +41,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -48,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1053" uniqueCount="694">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="690">
   <si>
     <t>Security Category</t>
   </si>
@@ -456,6 +461,9 @@
   </si>
   <si>
     <t>Verify that passwords of at least 64 characters are permitted, and that passwords of more than 128 characters are denied. ([C6](https://owasp.org/www-project-proactive-controls/#div-numbering))</t>
+  </si>
+  <si>
+    <t>Non-valid</t>
   </si>
   <si>
     <t>2.1.3</t>
@@ -2146,22 +2154,7 @@
     <t>Verify that HTTP headers added by a trusted proxy or SSO devices, such as a bearer token, are authenticated by the application.</t>
   </si>
   <si>
-    <t>Analysis done</t>
-  </si>
-  <si>
-    <t>Non-valid</t>
-  </si>
-  <si>
-    <t>Analysis done, support</t>
-  </si>
-  <si>
-    <t>Analysis done, support, customizable</t>
-  </si>
-  <si>
-    <t>Analysis done, customizable</t>
-  </si>
-  <si>
-    <t>Analysis done, uncertain</t>
+    <t>Analysis</t>
   </si>
 </sst>
 </file>
@@ -2171,7 +2164,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00,_€;\-#,##0.00,_€"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="17">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2262,6 +2255,27 @@
     </font>
     <font>
       <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF102A43"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color rgb="FF102A43"/>
       <name val="Calibri"/>
@@ -2938,10 +2952,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3255,7 +3270,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -3265,8 +3279,31 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="39" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3353,7 +3390,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <c:style val="2"/>
   <c:chart>
@@ -3372,7 +3409,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="pt-PT" sz="1800" b="1" strike="noStrike" spc="-1">
+              <a:rPr lang="en-GB" sz="1800" b="1" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -3447,7 +3484,7 @@
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="pt-PT"/>
+                <a:endParaRPr lang="en-PT"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -3521,16 +3558,16 @@
             <c:numRef>
               <c:f>'ASVS Results'!$D$2:$D$16</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00,_€;\-#,##0.00,_€</c:formatCode>
+                <c:formatCode>#\ ##0.00\ _€;\-#\ ##0.00\ _€</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>61.111111111111114</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>82.456140350877192</c:v>
+                  <c:v>76.744186046511629</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>100</c:v>
@@ -3539,13 +3576,13 @@
                   <c:v>88.888888888888886</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>57.142857142857139</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>41.666666666666671</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>68.75</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -3554,19 +3591,19 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>84.615384615384613</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>91.666666666666657</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>30.980392156862745</c:v>
+                  <c:v>73.191489361702125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3626,7 +3663,7 @@
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="74048637"/>
@@ -3677,7 +3714,7 @@
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="17923522"/>
@@ -3714,7 +3751,7 @@
               <a:latin typeface="Calibri"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3782,8 +3819,12 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema Office 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
@@ -4081,21 +4122,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMJ16"/>
   <sheetViews>
-    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="21"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="21"/>
   <cols>
     <col min="1" max="1" width="64.33203125" style="3" customWidth="1"/>
     <col min="2" max="2" width="23.33203125" style="4" customWidth="1"/>
     <col min="3" max="3" width="21" style="4" customWidth="1"/>
     <col min="4" max="4" width="25" style="4" customWidth="1"/>
     <col min="5" max="5" width="37" style="4" customWidth="1"/>
-    <col min="6" max="1024" width="8.77734375" style="4"/>
+    <col min="6" max="1024" width="8.6640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="7" customFormat="1">
+    <row r="1" spans="1:6" s="7" customFormat="1" ht="22">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -4118,15 +4159,15 @@
       </c>
       <c r="B2" s="9">
         <f>0+COUNTIF('Architecture, Design and Threat'!G2:G45,"Valid")</f>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C2" s="10">
         <f>COUNTIF('Architecture, Design and Threat'!G2:G45,"&lt;&gt;Not Applicable")</f>
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D2" s="11">
         <f t="shared" ref="D2:D16" si="0">(B2/C2)*100</f>
-        <v>0</v>
+        <v>61.111111111111114</v>
       </c>
       <c r="E2" s="12"/>
     </row>
@@ -4136,15 +4177,15 @@
       </c>
       <c r="B3" s="9">
         <f>COUNTIF(Authentication!G2:G58,"Valid")</f>
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="C3" s="10">
         <f>COUNTIF(Authentication!G2:G58,"&lt;&gt;Not Applicable")</f>
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="D3" s="11">
         <f t="shared" si="0"/>
-        <v>82.456140350877192</v>
+        <v>76.744186046511629</v>
       </c>
       <c r="E3" s="12"/>
     </row>
@@ -4154,7 +4195,7 @@
       </c>
       <c r="B4" s="9">
         <f>COUNTIF('Session Management'!G2:G21,"Valid")</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C4" s="10">
         <f>COUNTIF('Session Management'!G2:G21,"&lt;&gt;Not Applicable")</f>
@@ -4162,7 +4203,7 @@
       </c>
       <c r="D4" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E4" s="12"/>
     </row>
@@ -4208,15 +4249,15 @@
       </c>
       <c r="B7" s="9">
         <f>COUNTIF('Stored Cryptography'!G2:G17,"Valid")</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C7" s="10">
         <f>COUNTIF('Stored Cryptography'!G2:G17,"&lt;&gt;Not Applicable")</f>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D7" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>57.142857142857139</v>
       </c>
       <c r="E7" s="12"/>
       <c r="F7" s="14"/>
@@ -4227,7 +4268,7 @@
       </c>
       <c r="B8" s="9">
         <f>COUNTIF('Error Handling and Logging'!G2:G14,"Valid")</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C8" s="10">
         <f>COUNTIF('Error Handling and Logging'!G2:G14,"&lt;&gt;Not Applicable")</f>
@@ -4235,7 +4276,7 @@
       </c>
       <c r="D8" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>41.666666666666671</v>
       </c>
       <c r="E8" s="12"/>
     </row>
@@ -4245,15 +4286,15 @@
       </c>
       <c r="B9" s="9">
         <f>COUNTIF('Data Protection'!G2:G18,"Valid")</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C9" s="10">
         <f>COUNTIF('Data Protection'!G2:G18,"&lt;&gt;Not Applicable")</f>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D9" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>68.75</v>
       </c>
       <c r="E9" s="12"/>
     </row>
@@ -4299,7 +4340,7 @@
       </c>
       <c r="B12" s="9">
         <f>COUNTIF('Business Logic'!G2:G9,"Valid")</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C12" s="10">
         <f>COUNTIF('Business Logic'!G2:G9,"&lt;&gt;Not Applicable")</f>
@@ -4307,7 +4348,7 @@
       </c>
       <c r="D12" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E12" s="12"/>
     </row>
@@ -4317,7 +4358,7 @@
       </c>
       <c r="B13" s="9">
         <f>COUNTIF('Files and Resources'!G2:G16,"Valid")</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C13" s="10">
         <f>COUNTIF('Files and Resources'!G2:G16,"&lt;&gt;Not Applicable")</f>
@@ -4325,7 +4366,7 @@
       </c>
       <c r="D13" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="E13" s="12"/>
     </row>
@@ -4335,7 +4376,7 @@
       </c>
       <c r="B14" s="9">
         <f>COUNTIF('API and Web Service'!G2:G16,"Valid")</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C14" s="10">
         <f>COUNTIF('API and Web Service'!G2:G16,"&lt;&gt;Not Applicable")</f>
@@ -4343,7 +4384,7 @@
       </c>
       <c r="D14" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>84.615384615384613</v>
       </c>
       <c r="E14" s="12"/>
     </row>
@@ -4353,7 +4394,7 @@
       </c>
       <c r="B15" s="9">
         <f>COUNTIF(Configuration!G2:G26,"Valid")</f>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C15" s="10">
         <f>COUNTIF(Configuration!G2:G26,"&lt;&gt;Not Applicable")</f>
@@ -4361,7 +4402,7 @@
       </c>
       <c r="D15" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>91.666666666666657</v>
       </c>
       <c r="E15" s="12"/>
     </row>
@@ -4371,15 +4412,15 @@
       </c>
       <c r="B16" s="9">
         <f>SUM(B2:B15)</f>
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="C16" s="10">
         <f>SUM(C2:C15)</f>
-        <v>255</v>
+        <v>235</v>
       </c>
       <c r="D16" s="11">
         <f t="shared" si="0"/>
-        <v>30.980392156862745</v>
+        <v>73.191489361702125</v>
       </c>
       <c r="E16" s="12"/>
     </row>
@@ -4399,23 +4440,23 @@
   <dimension ref="A1:AMJ9"/>
   <sheetViews>
     <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="21"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="21"/>
   <cols>
     <col min="1" max="1" width="37.33203125" style="73" customWidth="1"/>
-    <col min="2" max="2" width="8.77734375" style="26"/>
-    <col min="3" max="5" width="8.77734375" style="60"/>
-    <col min="6" max="6" width="88.77734375" style="26" customWidth="1"/>
-    <col min="7" max="7" width="8.77734375" style="26"/>
+    <col min="2" max="2" width="8.6640625" style="26"/>
+    <col min="3" max="5" width="8.6640625" style="60"/>
+    <col min="6" max="6" width="88.6640625" style="26" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" style="26"/>
     <col min="8" max="8" width="28.33203125" style="26" customWidth="1"/>
     <col min="9" max="9" width="26.33203125" style="26" customWidth="1"/>
     <col min="10" max="10" width="37.6640625" style="26" customWidth="1"/>
-    <col min="11" max="1024" width="8.77734375" style="26"/>
+    <col min="11" max="1024" width="8.6640625" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="44" customFormat="1" ht="42">
+    <row r="1" spans="1:10" s="44" customFormat="1" ht="44">
       <c r="A1" s="95" t="s">
         <v>20</v>
       </c>
@@ -4447,12 +4488,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="48" customHeight="1">
-      <c r="A2" s="123" t="s">
-        <v>505</v>
+    <row r="2" spans="1:10" ht="48" customHeight="1" thickBot="1">
+      <c r="A2" s="122" t="s">
+        <v>506</v>
       </c>
       <c r="B2" s="63" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C2" s="64">
         <v>1</v>
@@ -4462,19 +4503,22 @@
       </c>
       <c r="E2" s="65"/>
       <c r="F2" s="80" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="G2" s="50" t="s">
         <v>56</v>
       </c>
       <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
+      <c r="I2" s="126" t="str">
+        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/communication.md", "Analysis done here")</f>
+        <v>Analysis done here</v>
+      </c>
       <c r="J2" s="66"/>
     </row>
-    <row r="3" spans="1:10" ht="31.2">
-      <c r="A3" s="123"/>
+    <row r="3" spans="1:10" ht="35" thickBot="1">
+      <c r="A3" s="122"/>
       <c r="B3" s="63" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C3" s="67">
         <v>1</v>
@@ -4484,19 +4528,22 @@
       </c>
       <c r="E3" s="68"/>
       <c r="F3" s="81" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="G3" s="29" t="s">
         <v>56</v>
       </c>
       <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
+      <c r="I3" s="126" t="str">
+        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/communication.md", "Analysis done here")</f>
+        <v>Analysis done here</v>
+      </c>
       <c r="J3" s="33"/>
     </row>
-    <row r="4" spans="1:10" ht="31.2">
-      <c r="A4" s="123"/>
+    <row r="4" spans="1:10" ht="35" thickBot="1">
+      <c r="A4" s="122"/>
       <c r="B4" s="63" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C4" s="67">
         <v>1</v>
@@ -4506,21 +4553,24 @@
       </c>
       <c r="E4" s="68"/>
       <c r="F4" s="81" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="G4" s="29" t="s">
         <v>56</v>
       </c>
       <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
+      <c r="I4" s="126" t="str">
+        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/communication.md", "Analysis done here")</f>
+        <v>Analysis done here</v>
+      </c>
       <c r="J4" s="33"/>
     </row>
-    <row r="5" spans="1:10" ht="63.75" customHeight="1">
-      <c r="A5" s="123" t="s">
-        <v>512</v>
+    <row r="5" spans="1:10" ht="63.75" customHeight="1" thickBot="1">
+      <c r="A5" s="122" t="s">
+        <v>513</v>
       </c>
       <c r="B5" s="63" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C5" s="69">
         <v>2</v>
@@ -4530,19 +4580,22 @@
       </c>
       <c r="E5" s="68"/>
       <c r="F5" s="81" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="G5" s="29" t="s">
         <v>56</v>
       </c>
       <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
+      <c r="I5" s="126" t="str">
+        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/communication.md", "Analysis done here")</f>
+        <v>Analysis done here</v>
+      </c>
       <c r="J5" s="33"/>
     </row>
-    <row r="6" spans="1:10" ht="62.4">
-      <c r="A6" s="123"/>
+    <row r="6" spans="1:10" ht="69" thickBot="1">
+      <c r="A6" s="122"/>
       <c r="B6" s="63" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C6" s="69">
         <v>2</v>
@@ -4552,19 +4605,22 @@
       </c>
       <c r="E6" s="68"/>
       <c r="F6" s="81" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="G6" s="29" t="s">
         <v>56</v>
       </c>
       <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
+      <c r="I6" s="126" t="str">
+        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/communication.md", "Analysis done here")</f>
+        <v>Analysis done here</v>
+      </c>
       <c r="J6" s="33"/>
     </row>
-    <row r="7" spans="1:10" ht="31.2">
-      <c r="A7" s="123"/>
+    <row r="7" spans="1:10" ht="35" thickBot="1">
+      <c r="A7" s="122"/>
       <c r="B7" s="63" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C7" s="69">
         <v>2</v>
@@ -4574,19 +4630,22 @@
       </c>
       <c r="E7" s="68"/>
       <c r="F7" s="81" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="G7" s="29" t="s">
         <v>56</v>
       </c>
       <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
+      <c r="I7" s="126" t="str">
+        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/communication.md", "Analysis done here")</f>
+        <v>Analysis done here</v>
+      </c>
       <c r="J7" s="33"/>
     </row>
-    <row r="8" spans="1:10" ht="31.2">
-      <c r="A8" s="123"/>
+    <row r="8" spans="1:10" ht="35" thickBot="1">
+      <c r="A8" s="122"/>
       <c r="B8" s="63" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C8" s="69">
         <v>2</v>
@@ -4596,19 +4655,22 @@
       </c>
       <c r="E8" s="68"/>
       <c r="F8" s="81" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="G8" s="29" t="s">
         <v>56</v>
       </c>
       <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
+      <c r="I8" s="126" t="str">
+        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/communication.md", "Analysis done here")</f>
+        <v>Analysis done here</v>
+      </c>
       <c r="J8" s="33"/>
     </row>
-    <row r="9" spans="1:10" ht="15.6">
-      <c r="A9" s="123"/>
+    <row r="9" spans="1:10" ht="18" thickBot="1">
+      <c r="A9" s="122"/>
       <c r="B9" s="63" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C9" s="96">
         <v>3</v>
@@ -4618,13 +4680,16 @@
       </c>
       <c r="E9" s="72"/>
       <c r="F9" s="82" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="G9" s="36" t="s">
         <v>56</v>
       </c>
       <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
+      <c r="I9" s="126" t="str">
+        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/communication.md", "Analysis done here")</f>
+        <v>Analysis done here</v>
+      </c>
       <c r="J9" s="38"/>
     </row>
   </sheetData>
@@ -4632,7 +4697,7 @@
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A9"/>
   </mergeCells>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" operator="equal" showErrorMessage="1" sqref="G2:G9" xr:uid="{00000000-0002-0000-0900-000000000000}">
       <formula1>"Valid,Non-valid,Not Applicable"</formula1>
       <formula2>0</formula2>
@@ -4651,24 +4716,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:AMJ11"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="21"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="21"/>
   <cols>
     <col min="1" max="1" width="31.33203125" style="73" customWidth="1"/>
-    <col min="2" max="2" width="8.77734375" style="26"/>
-    <col min="3" max="5" width="8.77734375" style="60"/>
-    <col min="6" max="6" width="88.44140625" style="26" customWidth="1"/>
-    <col min="7" max="7" width="8.77734375" style="26"/>
-    <col min="8" max="8" width="35.77734375" style="26" customWidth="1"/>
-    <col min="9" max="9" width="26.109375" style="26" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" style="26"/>
+    <col min="3" max="5" width="8.6640625" style="60"/>
+    <col min="6" max="6" width="88.5" style="26" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" style="26"/>
+    <col min="8" max="8" width="35.6640625" style="26" customWidth="1"/>
+    <col min="9" max="9" width="26.1640625" style="26" customWidth="1"/>
     <col min="10" max="10" width="28.6640625" style="26" customWidth="1"/>
-    <col min="11" max="1024" width="8.77734375" style="26"/>
+    <col min="11" max="1024" width="8.6640625" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="44" customFormat="1" ht="42">
+    <row r="1" spans="1:10" s="44" customFormat="1" ht="44">
       <c r="A1" s="97" t="s">
         <v>20</v>
       </c>
@@ -4700,12 +4765,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="31.2">
+    <row r="2" spans="1:10" ht="35" thickBot="1">
       <c r="A2" s="1" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B2" s="63" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C2" s="98">
         <v>3</v>
@@ -4715,21 +4780,24 @@
       </c>
       <c r="E2" s="65"/>
       <c r="F2" s="80" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="G2" s="50" t="s">
         <v>26</v>
       </c>
       <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
+      <c r="I2" s="126" t="str">
+        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/malicious_code.md", "Analysis done here")</f>
+        <v>Analysis done here</v>
+      </c>
       <c r="J2" s="66"/>
     </row>
-    <row r="3" spans="1:10" ht="48" customHeight="1">
-      <c r="A3" s="123" t="s">
-        <v>526</v>
+    <row r="3" spans="1:10" ht="48" customHeight="1" thickBot="1">
+      <c r="A3" s="122" t="s">
+        <v>527</v>
       </c>
       <c r="B3" s="63" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C3" s="69">
         <v>2</v>
@@ -4739,19 +4807,22 @@
       </c>
       <c r="E3" s="68"/>
       <c r="F3" s="81" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="G3" s="29" t="s">
         <v>26</v>
       </c>
       <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
+      <c r="I3" s="126" t="str">
+        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/malicious_code.md", "Analysis done here")</f>
+        <v>Analysis done here</v>
+      </c>
       <c r="J3" s="33"/>
     </row>
-    <row r="4" spans="1:10" ht="31.2">
-      <c r="A4" s="123"/>
+    <row r="4" spans="1:10" ht="35" thickBot="1">
+      <c r="A4" s="122"/>
       <c r="B4" s="63" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C4" s="69">
         <v>2</v>
@@ -4761,19 +4832,22 @@
       </c>
       <c r="E4" s="68"/>
       <c r="F4" s="81" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="G4" s="29" t="s">
         <v>26</v>
       </c>
       <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
+      <c r="I4" s="126" t="str">
+        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/malicious_code.md", "Analysis done here")</f>
+        <v>Analysis done here</v>
+      </c>
       <c r="J4" s="33"/>
     </row>
-    <row r="5" spans="1:10" ht="78">
-      <c r="A5" s="123"/>
+    <row r="5" spans="1:10" ht="69" thickBot="1">
+      <c r="A5" s="122"/>
       <c r="B5" s="63" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C5" s="70">
         <v>3</v>
@@ -4783,19 +4857,22 @@
       </c>
       <c r="E5" s="68"/>
       <c r="F5" s="81" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="G5" s="29" t="s">
         <v>26</v>
       </c>
       <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
+      <c r="I5" s="126" t="str">
+        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/malicious_code.md", "Analysis done here")</f>
+        <v>Analysis done here</v>
+      </c>
       <c r="J5" s="33"/>
     </row>
-    <row r="6" spans="1:10" ht="31.2">
-      <c r="A6" s="123"/>
+    <row r="6" spans="1:10" ht="35" thickBot="1">
+      <c r="A6" s="122"/>
       <c r="B6" s="63" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C6" s="70">
         <v>3</v>
@@ -4805,19 +4882,22 @@
       </c>
       <c r="E6" s="68"/>
       <c r="F6" s="81" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="G6" s="29" t="s">
         <v>26</v>
       </c>
       <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
+      <c r="I6" s="126" t="str">
+        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/malicious_code.md", "Analysis done here")</f>
+        <v>Analysis done here</v>
+      </c>
       <c r="J6" s="33"/>
     </row>
-    <row r="7" spans="1:10" ht="31.2">
-      <c r="A7" s="123"/>
+    <row r="7" spans="1:10" ht="35" thickBot="1">
+      <c r="A7" s="122"/>
       <c r="B7" s="63" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C7" s="70">
         <v>3</v>
@@ -4827,19 +4907,22 @@
       </c>
       <c r="E7" s="68"/>
       <c r="F7" s="81" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="G7" s="29" t="s">
         <v>26</v>
       </c>
       <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
+      <c r="I7" s="126" t="str">
+        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/malicious_code.md", "Analysis done here")</f>
+        <v>Analysis done here</v>
+      </c>
       <c r="J7" s="33"/>
     </row>
-    <row r="8" spans="1:10" ht="31.2">
-      <c r="A8" s="123"/>
+    <row r="8" spans="1:10" ht="35" thickBot="1">
+      <c r="A8" s="122"/>
       <c r="B8" s="63" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C8" s="70">
         <v>3</v>
@@ -4849,21 +4932,24 @@
       </c>
       <c r="E8" s="68"/>
       <c r="F8" s="81" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="G8" s="29" t="s">
         <v>26</v>
       </c>
       <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
+      <c r="I8" s="126" t="str">
+        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/malicious_code.md", "Analysis done here")</f>
+        <v>Analysis done here</v>
+      </c>
       <c r="J8" s="33"/>
     </row>
-    <row r="9" spans="1:10" ht="48" customHeight="1">
-      <c r="A9" s="123" t="s">
-        <v>539</v>
+    <row r="9" spans="1:10" ht="48" customHeight="1" thickBot="1">
+      <c r="A9" s="122" t="s">
+        <v>540</v>
       </c>
       <c r="B9" s="63" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C9" s="67">
         <v>1</v>
@@ -4873,19 +4959,22 @@
       </c>
       <c r="E9" s="68"/>
       <c r="F9" s="81" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="G9" s="29" t="s">
         <v>56</v>
       </c>
       <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
+      <c r="I9" s="126" t="str">
+        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/malicious_code.md", "Analysis done here")</f>
+        <v>Analysis done here</v>
+      </c>
       <c r="J9" s="33"/>
     </row>
-    <row r="10" spans="1:10" ht="62.4">
-      <c r="A10" s="123"/>
+    <row r="10" spans="1:10" ht="52" thickBot="1">
+      <c r="A10" s="122"/>
       <c r="B10" s="63" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C10" s="67">
         <v>1</v>
@@ -4895,19 +4984,22 @@
       </c>
       <c r="E10" s="68"/>
       <c r="F10" s="81" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="G10" s="29" t="s">
         <v>56</v>
       </c>
       <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
+      <c r="I10" s="126" t="str">
+        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/malicious_code.md", "Analysis done here")</f>
+        <v>Analysis done here</v>
+      </c>
       <c r="J10" s="33"/>
     </row>
-    <row r="11" spans="1:10" ht="93.6">
-      <c r="A11" s="123"/>
+    <row r="11" spans="1:10" ht="86" thickBot="1">
+      <c r="A11" s="122"/>
       <c r="B11" s="63" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C11" s="71">
         <v>1</v>
@@ -4917,13 +5009,16 @@
       </c>
       <c r="E11" s="35"/>
       <c r="F11" s="82" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="G11" s="36" t="s">
         <v>56</v>
       </c>
       <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
+      <c r="I11" s="126" t="str">
+        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/malicious_code.md", "Analysis done here")</f>
+        <v>Analysis done here</v>
+      </c>
       <c r="J11" s="38"/>
     </row>
   </sheetData>
@@ -4954,20 +5049,20 @@
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="21"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="21"/>
   <cols>
-    <col min="1" max="1" width="23.77734375" style="73" customWidth="1"/>
-    <col min="2" max="2" width="8.77734375" style="26"/>
-    <col min="3" max="5" width="8.77734375" style="60"/>
+    <col min="1" max="1" width="23.6640625" style="73" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" style="26"/>
+    <col min="3" max="5" width="8.6640625" style="60"/>
     <col min="6" max="6" width="71.33203125" style="26" customWidth="1"/>
     <col min="7" max="7" width="17.33203125" style="26" customWidth="1"/>
     <col min="8" max="8" width="34.6640625" style="26" customWidth="1"/>
-    <col min="9" max="9" width="34.44140625" style="26" customWidth="1"/>
+    <col min="9" max="9" width="34.5" style="26" customWidth="1"/>
     <col min="10" max="10" width="37" style="26" customWidth="1"/>
-    <col min="11" max="1024" width="8.77734375" style="26"/>
+    <col min="11" max="1024" width="8.6640625" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="44" customFormat="1" ht="42">
+    <row r="1" spans="1:10" s="44" customFormat="1" ht="44">
       <c r="A1" s="95" t="s">
         <v>20</v>
       </c>
@@ -4999,12 +5094,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="32.25" customHeight="1">
-      <c r="A2" s="123" t="s">
-        <v>546</v>
+    <row r="2" spans="1:10" ht="32.25" customHeight="1" thickBot="1">
+      <c r="A2" s="122" t="s">
+        <v>547</v>
       </c>
       <c r="B2" s="63" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C2" s="64">
         <v>1</v>
@@ -5014,17 +5109,22 @@
       </c>
       <c r="E2" s="65"/>
       <c r="F2" s="80" t="s">
-        <v>548</v>
-      </c>
-      <c r="G2" s="50"/>
+        <v>549</v>
+      </c>
+      <c r="G2" s="50" t="s">
+        <v>26</v>
+      </c>
       <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
+      <c r="I2" s="126" t="str">
+        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/business_logic.md", "Analysis done here")</f>
+        <v>Analysis done here</v>
+      </c>
       <c r="J2" s="66"/>
     </row>
-    <row r="3" spans="1:10" ht="46.8">
-      <c r="A3" s="123"/>
+    <row r="3" spans="1:10" ht="52" thickBot="1">
+      <c r="A3" s="122"/>
       <c r="B3" s="63" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C3" s="67">
         <v>1</v>
@@ -5034,17 +5134,22 @@
       </c>
       <c r="E3" s="68"/>
       <c r="F3" s="81" t="s">
-        <v>550</v>
-      </c>
-      <c r="G3" s="29"/>
+        <v>551</v>
+      </c>
+      <c r="G3" s="29" t="s">
+        <v>136</v>
+      </c>
       <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
+      <c r="I3" s="126" t="str">
+        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/business_logic.md", "Analysis done here")</f>
+        <v>Analysis done here</v>
+      </c>
       <c r="J3" s="33"/>
     </row>
-    <row r="4" spans="1:10" ht="31.2">
-      <c r="A4" s="123"/>
+    <row r="4" spans="1:10" ht="35" thickBot="1">
+      <c r="A4" s="122"/>
       <c r="B4" s="63" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C4" s="67">
         <v>1</v>
@@ -5054,17 +5159,22 @@
       </c>
       <c r="E4" s="68"/>
       <c r="F4" s="81" t="s">
-        <v>552</v>
-      </c>
-      <c r="G4" s="29"/>
+        <v>553</v>
+      </c>
+      <c r="G4" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
+      <c r="I4" s="126" t="str">
+        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/business_logic.md", "Analysis done here")</f>
+        <v>Analysis done here</v>
+      </c>
       <c r="J4" s="33"/>
     </row>
-    <row r="5" spans="1:10" ht="46.8">
-      <c r="A5" s="123"/>
+    <row r="5" spans="1:10" ht="52" thickBot="1">
+      <c r="A5" s="122"/>
       <c r="B5" s="63" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C5" s="67">
         <v>1</v>
@@ -5074,17 +5184,22 @@
       </c>
       <c r="E5" s="28"/>
       <c r="F5" s="81" t="s">
-        <v>554</v>
-      </c>
-      <c r="G5" s="29"/>
+        <v>555</v>
+      </c>
+      <c r="G5" s="29" t="s">
+        <v>136</v>
+      </c>
       <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
+      <c r="I5" s="126" t="str">
+        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/business_logic.md", "Analysis done here")</f>
+        <v>Analysis done here</v>
+      </c>
       <c r="J5" s="33"/>
     </row>
-    <row r="6" spans="1:10" ht="46.8">
-      <c r="A6" s="123"/>
+    <row r="6" spans="1:10" ht="52" thickBot="1">
+      <c r="A6" s="122"/>
       <c r="B6" s="63" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C6" s="67">
         <v>1</v>
@@ -5094,17 +5209,22 @@
       </c>
       <c r="E6" s="28"/>
       <c r="F6" s="81" t="s">
-        <v>556</v>
-      </c>
-      <c r="G6" s="29"/>
+        <v>557</v>
+      </c>
+      <c r="G6" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
+      <c r="I6" s="126" t="str">
+        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/business_logic.md", "Analysis done here")</f>
+        <v>Analysis done here</v>
+      </c>
       <c r="J6" s="33"/>
     </row>
-    <row r="7" spans="1:10" ht="36" customHeight="1">
-      <c r="A7" s="123"/>
+    <row r="7" spans="1:10" ht="36" customHeight="1" thickBot="1">
+      <c r="A7" s="122"/>
       <c r="B7" s="63" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C7" s="69">
         <v>2</v>
@@ -5114,17 +5234,22 @@
       </c>
       <c r="E7" s="28"/>
       <c r="F7" s="81" t="s">
-        <v>558</v>
-      </c>
-      <c r="G7" s="29"/>
+        <v>559</v>
+      </c>
+      <c r="G7" s="29" t="s">
+        <v>136</v>
+      </c>
       <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
+      <c r="I7" s="126" t="str">
+        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/business_logic.md", "Analysis done here")</f>
+        <v>Analysis done here</v>
+      </c>
       <c r="J7" s="33"/>
     </row>
-    <row r="8" spans="1:10" ht="66.75" customHeight="1">
-      <c r="A8" s="123"/>
+    <row r="8" spans="1:10" ht="66.75" customHeight="1" thickBot="1">
+      <c r="A8" s="122"/>
       <c r="B8" s="63" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C8" s="69">
         <v>2</v>
@@ -5134,17 +5259,22 @@
       </c>
       <c r="E8" s="28"/>
       <c r="F8" s="81" t="s">
-        <v>560</v>
-      </c>
-      <c r="G8" s="29"/>
+        <v>561</v>
+      </c>
+      <c r="G8" s="29" t="s">
+        <v>136</v>
+      </c>
       <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
+      <c r="I8" s="126" t="str">
+        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/business_logic.md", "Analysis done here")</f>
+        <v>Analysis done here</v>
+      </c>
       <c r="J8" s="33"/>
     </row>
-    <row r="9" spans="1:10" ht="31.2">
-      <c r="A9" s="123"/>
+    <row r="9" spans="1:10" ht="35" thickBot="1">
+      <c r="A9" s="122"/>
       <c r="B9" s="63" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C9" s="79">
         <v>2</v>
@@ -5154,11 +5284,16 @@
       </c>
       <c r="E9" s="35"/>
       <c r="F9" s="82" t="s">
-        <v>562</v>
-      </c>
-      <c r="G9" s="36"/>
+        <v>563</v>
+      </c>
+      <c r="G9" s="36" t="s">
+        <v>26</v>
+      </c>
       <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
+      <c r="I9" s="126" t="str">
+        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/business_logic.md", "Analysis done here")</f>
+        <v>Analysis done here</v>
+      </c>
       <c r="J9" s="38"/>
     </row>
   </sheetData>
@@ -5188,20 +5323,20 @@
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="21"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="21"/>
   <cols>
-    <col min="1" max="1" width="33.44140625" style="73" customWidth="1"/>
+    <col min="1" max="1" width="33.5" style="73" customWidth="1"/>
     <col min="2" max="2" width="13.33203125" style="26" customWidth="1"/>
-    <col min="3" max="5" width="8.77734375" style="60"/>
+    <col min="3" max="5" width="8.6640625" style="60"/>
     <col min="6" max="6" width="78.6640625" style="26" customWidth="1"/>
-    <col min="7" max="7" width="18.77734375" style="26" customWidth="1"/>
-    <col min="8" max="8" width="31.44140625" style="26" customWidth="1"/>
-    <col min="9" max="9" width="26.77734375" style="26" customWidth="1"/>
-    <col min="10" max="10" width="31.77734375" style="26" customWidth="1"/>
-    <col min="11" max="1024" width="8.77734375" style="26"/>
+    <col min="7" max="7" width="18.6640625" style="26" customWidth="1"/>
+    <col min="8" max="8" width="31.5" style="26" customWidth="1"/>
+    <col min="9" max="9" width="26.6640625" style="26" customWidth="1"/>
+    <col min="10" max="10" width="31.6640625" style="26" customWidth="1"/>
+    <col min="11" max="1024" width="8.6640625" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="44" customFormat="1" ht="42">
+    <row r="1" spans="1:10" s="44" customFormat="1" ht="44">
       <c r="A1" s="95" t="s">
         <v>20</v>
       </c>
@@ -5233,12 +5368,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="32.25" customHeight="1">
-      <c r="A2" s="123" t="s">
-        <v>563</v>
+    <row r="2" spans="1:10" ht="32.25" customHeight="1" thickBot="1">
+      <c r="A2" s="122" t="s">
+        <v>564</v>
       </c>
       <c r="B2" s="63" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C2" s="64">
         <v>1</v>
@@ -5248,17 +5383,22 @@
       </c>
       <c r="E2" s="65"/>
       <c r="F2" s="80" t="s">
-        <v>565</v>
-      </c>
-      <c r="G2" s="50"/>
+        <v>566</v>
+      </c>
+      <c r="G2" s="50" t="s">
+        <v>136</v>
+      </c>
       <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
+      <c r="I2" s="126" t="str">
+        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/file_and_resources.md", "Analysis done here")</f>
+        <v>Analysis done here</v>
+      </c>
       <c r="J2" s="66"/>
     </row>
-    <row r="3" spans="1:10" ht="46.8">
-      <c r="A3" s="123"/>
+    <row r="3" spans="1:10" ht="52" thickBot="1">
+      <c r="A3" s="122"/>
       <c r="B3" s="63" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C3" s="69">
         <v>2</v>
@@ -5268,17 +5408,22 @@
       </c>
       <c r="E3" s="68"/>
       <c r="F3" s="81" t="s">
-        <v>567</v>
-      </c>
-      <c r="G3" s="29"/>
+        <v>568</v>
+      </c>
+      <c r="G3" s="29" t="s">
+        <v>136</v>
+      </c>
       <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
+      <c r="I3" s="126" t="str">
+        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/file_and_resources.md", "Analysis done here")</f>
+        <v>Analysis done here</v>
+      </c>
       <c r="J3" s="33"/>
     </row>
-    <row r="4" spans="1:10" ht="46.8">
-      <c r="A4" s="123"/>
+    <row r="4" spans="1:10" ht="35" thickBot="1">
+      <c r="A4" s="122"/>
       <c r="B4" s="63" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C4" s="69">
         <v>2</v>
@@ -5288,19 +5433,24 @@
       </c>
       <c r="E4" s="68"/>
       <c r="F4" s="81" t="s">
-        <v>569</v>
-      </c>
-      <c r="G4" s="29"/>
+        <v>570</v>
+      </c>
+      <c r="G4" s="29" t="s">
+        <v>136</v>
+      </c>
       <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
+      <c r="I4" s="126" t="str">
+        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/file_and_resources.md", "Analysis done here")</f>
+        <v>Analysis done here</v>
+      </c>
       <c r="J4" s="33"/>
     </row>
-    <row r="5" spans="1:10" ht="31.2">
+    <row r="5" spans="1:10" ht="35" thickBot="1">
       <c r="A5" s="1" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B5" s="63" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C5" s="69">
         <v>2</v>
@@ -5310,19 +5460,24 @@
       </c>
       <c r="E5" s="68"/>
       <c r="F5" s="81" t="s">
-        <v>572</v>
-      </c>
-      <c r="G5" s="29"/>
+        <v>573</v>
+      </c>
+      <c r="G5" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
+      <c r="I5" s="126" t="str">
+        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/file_and_resources.md", "Analysis done here")</f>
+        <v>Analysis done here</v>
+      </c>
       <c r="J5" s="33"/>
     </row>
-    <row r="6" spans="1:10" ht="48" customHeight="1">
-      <c r="A6" s="123" t="s">
-        <v>573</v>
+    <row r="6" spans="1:10" ht="48" customHeight="1" thickBot="1">
+      <c r="A6" s="122" t="s">
+        <v>574</v>
       </c>
       <c r="B6" s="63" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C6" s="67">
         <v>1</v>
@@ -5332,17 +5487,22 @@
       </c>
       <c r="E6" s="68"/>
       <c r="F6" s="81" t="s">
-        <v>575</v>
-      </c>
-      <c r="G6" s="29"/>
+        <v>576</v>
+      </c>
+      <c r="G6" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
+      <c r="I6" s="126" t="str">
+        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/file_and_resources.md", "Analysis done here")</f>
+        <v>Analysis done here</v>
+      </c>
       <c r="J6" s="33"/>
     </row>
-    <row r="7" spans="1:10" ht="31.2">
-      <c r="A7" s="123"/>
+    <row r="7" spans="1:10" ht="35" thickBot="1">
+      <c r="A7" s="122"/>
       <c r="B7" s="63" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C7" s="67">
         <v>1</v>
@@ -5352,17 +5512,22 @@
       </c>
       <c r="E7" s="68"/>
       <c r="F7" s="81" t="s">
-        <v>577</v>
-      </c>
-      <c r="G7" s="29"/>
+        <v>578</v>
+      </c>
+      <c r="G7" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
+      <c r="I7" s="126" t="str">
+        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/file_and_resources.md", "Analysis done here")</f>
+        <v>Analysis done here</v>
+      </c>
       <c r="J7" s="33"/>
     </row>
-    <row r="8" spans="1:10" ht="46.8">
-      <c r="A8" s="123"/>
+    <row r="8" spans="1:10" ht="52" thickBot="1">
+      <c r="A8" s="122"/>
       <c r="B8" s="63" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C8" s="67">
         <v>1</v>
@@ -5372,17 +5537,22 @@
       </c>
       <c r="E8" s="68"/>
       <c r="F8" s="81" t="s">
-        <v>579</v>
-      </c>
-      <c r="G8" s="29"/>
+        <v>580</v>
+      </c>
+      <c r="G8" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
+      <c r="I8" s="126" t="str">
+        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/file_and_resources.md", "Analysis done here")</f>
+        <v>Analysis done here</v>
+      </c>
       <c r="J8" s="33"/>
     </row>
-    <row r="9" spans="1:10" ht="62.4">
-      <c r="A9" s="123"/>
+    <row r="9" spans="1:10" ht="69" thickBot="1">
+      <c r="A9" s="122"/>
       <c r="B9" s="63" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C9" s="67">
         <v>1</v>
@@ -5392,17 +5562,22 @@
       </c>
       <c r="E9" s="68"/>
       <c r="F9" s="81" t="s">
-        <v>581</v>
-      </c>
-      <c r="G9" s="29"/>
+        <v>582</v>
+      </c>
+      <c r="G9" s="29" t="s">
+        <v>136</v>
+      </c>
       <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
+      <c r="I9" s="126" t="str">
+        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/file_and_resources.md", "Analysis done here")</f>
+        <v>Analysis done here</v>
+      </c>
       <c r="J9" s="33"/>
     </row>
-    <row r="10" spans="1:10" ht="31.2">
-      <c r="A10" s="123"/>
+    <row r="10" spans="1:10" ht="35" thickBot="1">
+      <c r="A10" s="122"/>
       <c r="B10" s="63" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C10" s="67">
         <v>1</v>
@@ -5412,17 +5587,22 @@
       </c>
       <c r="E10" s="68"/>
       <c r="F10" s="81" t="s">
-        <v>583</v>
-      </c>
-      <c r="G10" s="29"/>
+        <v>584</v>
+      </c>
+      <c r="G10" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
+      <c r="I10" s="126" t="str">
+        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/file_and_resources.md", "Analysis done here")</f>
+        <v>Analysis done here</v>
+      </c>
       <c r="J10" s="33"/>
     </row>
-    <row r="11" spans="1:10" ht="46.8">
-      <c r="A11" s="123"/>
+    <row r="11" spans="1:10" ht="52" thickBot="1">
+      <c r="A11" s="122"/>
       <c r="B11" s="63" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="C11" s="69">
         <v>2</v>
@@ -5432,19 +5612,24 @@
       </c>
       <c r="E11" s="28"/>
       <c r="F11" s="81" t="s">
-        <v>585</v>
-      </c>
-      <c r="G11" s="29"/>
+        <v>586</v>
+      </c>
+      <c r="G11" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
+      <c r="I11" s="126" t="str">
+        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/file_and_resources.md", "Analysis done here")</f>
+        <v>Analysis done here</v>
+      </c>
       <c r="J11" s="33"/>
     </row>
-    <row r="12" spans="1:10" ht="32.25" customHeight="1">
-      <c r="A12" s="123" t="s">
-        <v>586</v>
+    <row r="12" spans="1:10" ht="32.25" customHeight="1" thickBot="1">
+      <c r="A12" s="122" t="s">
+        <v>587</v>
       </c>
       <c r="B12" s="63" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C12" s="67">
         <v>1</v>
@@ -5454,17 +5639,22 @@
       </c>
       <c r="E12" s="28"/>
       <c r="F12" s="81" t="s">
-        <v>588</v>
-      </c>
-      <c r="G12" s="29"/>
+        <v>589</v>
+      </c>
+      <c r="G12" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
+      <c r="I12" s="126" t="str">
+        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/file_and_resources.md", "Analysis done here")</f>
+        <v>Analysis done here</v>
+      </c>
       <c r="J12" s="33"/>
     </row>
-    <row r="13" spans="1:10" ht="31.2">
-      <c r="A13" s="123"/>
+    <row r="13" spans="1:10" ht="35" thickBot="1">
+      <c r="A13" s="122"/>
       <c r="B13" s="63" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C13" s="67">
         <v>1</v>
@@ -5474,19 +5664,24 @@
       </c>
       <c r="E13" s="28"/>
       <c r="F13" s="81" t="s">
-        <v>590</v>
-      </c>
-      <c r="G13" s="29"/>
+        <v>591</v>
+      </c>
+      <c r="G13" s="29" t="s">
+        <v>136</v>
+      </c>
       <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
+      <c r="I13" s="126" t="str">
+        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/file_and_resources.md", "Analysis done here")</f>
+        <v>Analysis done here</v>
+      </c>
       <c r="J13" s="33"/>
     </row>
-    <row r="14" spans="1:10" ht="79.5" customHeight="1">
-      <c r="A14" s="123" t="s">
-        <v>591</v>
+    <row r="14" spans="1:10" ht="79.5" customHeight="1" thickBot="1">
+      <c r="A14" s="122" t="s">
+        <v>592</v>
       </c>
       <c r="B14" s="63" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="C14" s="67">
         <v>1</v>
@@ -5496,17 +5691,22 @@
       </c>
       <c r="E14" s="28"/>
       <c r="F14" s="81" t="s">
-        <v>593</v>
-      </c>
-      <c r="G14" s="29"/>
+        <v>594</v>
+      </c>
+      <c r="G14" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
+      <c r="I14" s="126" t="str">
+        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/file_and_resources.md", "Analysis done here")</f>
+        <v>Analysis done here</v>
+      </c>
       <c r="J14" s="33"/>
     </row>
-    <row r="15" spans="1:10" ht="31.2">
-      <c r="A15" s="123"/>
+    <row r="15" spans="1:10" ht="35" thickBot="1">
+      <c r="A15" s="122"/>
       <c r="B15" s="63" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C15" s="67">
         <v>1</v>
@@ -5516,19 +5716,24 @@
       </c>
       <c r="E15" s="28"/>
       <c r="F15" s="81" t="s">
-        <v>595</v>
-      </c>
-      <c r="G15" s="29"/>
+        <v>596</v>
+      </c>
+      <c r="G15" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
+      <c r="I15" s="126" t="str">
+        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/file_and_resources.md", "Analysis done here")</f>
+        <v>Analysis done here</v>
+      </c>
       <c r="J15" s="33"/>
     </row>
-    <row r="16" spans="1:10" ht="46.8">
+    <row r="16" spans="1:10" ht="35" thickBot="1">
       <c r="A16" s="1" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B16" s="63" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C16" s="71">
         <v>1</v>
@@ -5538,11 +5743,16 @@
       </c>
       <c r="E16" s="35"/>
       <c r="F16" s="82" t="s">
-        <v>598</v>
-      </c>
-      <c r="G16" s="36"/>
+        <v>599</v>
+      </c>
+      <c r="G16" s="36" t="s">
+        <v>136</v>
+      </c>
       <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
+      <c r="I16" s="126" t="str">
+        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/file_and_resources.md", "Analysis done here")</f>
+        <v>Analysis done here</v>
+      </c>
       <c r="J16" s="38"/>
     </row>
   </sheetData>
@@ -5569,25 +5779,25 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:AMJ16"/>
+  <dimension ref="A1:AMJ36"/>
   <sheetViews>
     <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="21"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="21"/>
   <cols>
     <col min="1" max="1" width="24" style="73" customWidth="1"/>
-    <col min="2" max="5" width="8.77734375" style="26"/>
+    <col min="2" max="5" width="8.6640625" style="26"/>
     <col min="6" max="6" width="84.33203125" style="26" customWidth="1"/>
-    <col min="7" max="7" width="17.44140625" style="26" customWidth="1"/>
-    <col min="8" max="8" width="35.44140625" style="26" customWidth="1"/>
-    <col min="9" max="9" width="24.109375" style="26" customWidth="1"/>
-    <col min="10" max="10" width="37.77734375" style="26" customWidth="1"/>
-    <col min="11" max="1024" width="8.77734375" style="26"/>
+    <col min="7" max="7" width="17.5" style="26" customWidth="1"/>
+    <col min="8" max="8" width="35.5" style="26" customWidth="1"/>
+    <col min="9" max="9" width="24.1640625" style="26" customWidth="1"/>
+    <col min="10" max="10" width="37.6640625" style="26" customWidth="1"/>
+    <col min="11" max="1024" width="8.6640625" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="44" customFormat="1" ht="42">
+    <row r="1" spans="1:10" s="44" customFormat="1" ht="44">
       <c r="A1" s="95" t="s">
         <v>20</v>
       </c>
@@ -5619,12 +5829,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="48" customHeight="1">
-      <c r="A2" s="123" t="s">
-        <v>599</v>
+    <row r="2" spans="1:10" ht="48" customHeight="1" thickBot="1">
+      <c r="A2" s="122" t="s">
+        <v>600</v>
       </c>
       <c r="B2" s="63" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="C2" s="64">
         <v>1</v>
@@ -5634,17 +5844,22 @@
       </c>
       <c r="E2" s="65"/>
       <c r="F2" s="80" t="s">
-        <v>601</v>
-      </c>
-      <c r="G2" s="50"/>
+        <v>602</v>
+      </c>
+      <c r="G2" s="50" t="s">
+        <v>26</v>
+      </c>
       <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
+      <c r="I2" s="126" t="str">
+        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/api_and_webservice.md", "Analysis done here")</f>
+        <v>Analysis done here</v>
+      </c>
       <c r="J2" s="66"/>
     </row>
-    <row r="3" spans="1:10" ht="15.6">
-      <c r="A3" s="123"/>
+    <row r="3" spans="1:10" ht="18" thickBot="1">
+      <c r="A3" s="122"/>
       <c r="B3" s="63" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C3" s="67">
         <v>1</v>
@@ -5654,19 +5869,22 @@
       </c>
       <c r="E3" s="68"/>
       <c r="F3" s="81" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="G3" s="29" t="s">
         <v>56</v>
       </c>
       <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
+      <c r="I3" s="126" t="str">
+        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/api_and_webservice.md", "Analysis done here")</f>
+        <v>Analysis done here</v>
+      </c>
       <c r="J3" s="33"/>
     </row>
-    <row r="4" spans="1:10" ht="31.2">
-      <c r="A4" s="123"/>
+    <row r="4" spans="1:10" ht="18" thickBot="1">
+      <c r="A4" s="122"/>
       <c r="B4" s="63" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="C4" s="67">
         <v>1</v>
@@ -5676,17 +5894,22 @@
       </c>
       <c r="E4" s="68"/>
       <c r="F4" s="81" t="s">
-        <v>605</v>
-      </c>
-      <c r="G4" s="29"/>
+        <v>606</v>
+      </c>
+      <c r="G4" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
+      <c r="I4" s="126" t="str">
+        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/api_and_webservice.md", "Analysis done here")</f>
+        <v>Analysis done here</v>
+      </c>
       <c r="J4" s="33"/>
     </row>
-    <row r="5" spans="1:10" ht="46.8">
-      <c r="A5" s="123"/>
+    <row r="5" spans="1:10" ht="52" thickBot="1">
+      <c r="A5" s="122"/>
       <c r="B5" s="63" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C5" s="69">
         <v>2</v>
@@ -5696,17 +5919,22 @@
       </c>
       <c r="E5" s="68"/>
       <c r="F5" s="81" t="s">
-        <v>607</v>
-      </c>
-      <c r="G5" s="29"/>
+        <v>608</v>
+      </c>
+      <c r="G5" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
+      <c r="I5" s="126" t="str">
+        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/api_and_webservice.md", "Analysis done here")</f>
+        <v>Analysis done here</v>
+      </c>
       <c r="J5" s="33"/>
     </row>
-    <row r="6" spans="1:10" ht="46.8">
-      <c r="A6" s="123"/>
+    <row r="6" spans="1:10" ht="35" thickBot="1">
+      <c r="A6" s="122"/>
       <c r="B6" s="63" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="C6" s="69">
         <v>2</v>
@@ -5716,19 +5944,24 @@
       </c>
       <c r="E6" s="68"/>
       <c r="F6" s="81" t="s">
-        <v>609</v>
-      </c>
-      <c r="G6" s="29"/>
+        <v>610</v>
+      </c>
+      <c r="G6" s="29" t="s">
+        <v>136</v>
+      </c>
       <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
+      <c r="I6" s="126" t="str">
+        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/api_and_webservice.md", "Analysis done here")</f>
+        <v>Analysis done here</v>
+      </c>
       <c r="J6" s="33"/>
     </row>
-    <row r="7" spans="1:10" ht="32.25" customHeight="1">
-      <c r="A7" s="123" t="s">
-        <v>610</v>
+    <row r="7" spans="1:10" ht="32.25" customHeight="1" thickBot="1">
+      <c r="A7" s="122" t="s">
+        <v>611</v>
       </c>
       <c r="B7" s="63" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C7" s="67">
         <v>1</v>
@@ -5738,17 +5971,22 @@
       </c>
       <c r="E7" s="68"/>
       <c r="F7" s="81" t="s">
-        <v>612</v>
-      </c>
-      <c r="G7" s="29"/>
+        <v>613</v>
+      </c>
+      <c r="G7" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
+      <c r="I7" s="126" t="str">
+        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/api_and_webservice.md", "Analysis done here")</f>
+        <v>Analysis done here</v>
+      </c>
       <c r="J7" s="33"/>
     </row>
-    <row r="8" spans="1:10" ht="15.6">
-      <c r="A8" s="123"/>
+    <row r="8" spans="1:10" ht="18" thickBot="1">
+      <c r="A8" s="122"/>
       <c r="B8" s="63" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="C8" s="67">
         <v>1</v>
@@ -5758,17 +5996,22 @@
       </c>
       <c r="E8" s="68"/>
       <c r="F8" s="81" t="s">
-        <v>614</v>
-      </c>
-      <c r="G8" s="29"/>
+        <v>615</v>
+      </c>
+      <c r="G8" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
+      <c r="I8" s="126" t="str">
+        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/api_and_webservice.md", "Analysis done here")</f>
+        <v>Analysis done here</v>
+      </c>
       <c r="J8" s="33"/>
     </row>
-    <row r="9" spans="1:10" ht="46.8">
-      <c r="A9" s="123"/>
+    <row r="9" spans="1:10" ht="52" thickBot="1">
+      <c r="A9" s="122"/>
       <c r="B9" s="63" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="C9" s="67">
         <v>1</v>
@@ -5778,17 +6021,22 @@
       </c>
       <c r="E9" s="68"/>
       <c r="F9" s="81" t="s">
-        <v>616</v>
-      </c>
-      <c r="G9" s="29"/>
+        <v>617</v>
+      </c>
+      <c r="G9" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
+      <c r="I9" s="126" t="str">
+        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/api_and_webservice.md", "Analysis done here")</f>
+        <v>Analysis done here</v>
+      </c>
       <c r="J9" s="33"/>
     </row>
-    <row r="10" spans="1:10" ht="15.6">
-      <c r="A10" s="123"/>
+    <row r="10" spans="1:10" ht="18" thickBot="1">
+      <c r="A10" s="122"/>
       <c r="B10" s="63" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C10" s="69">
         <v>2</v>
@@ -5798,19 +6046,22 @@
       </c>
       <c r="E10" s="68"/>
       <c r="F10" s="81" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="G10" s="29" t="s">
         <v>56</v>
       </c>
       <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
+      <c r="I10" s="126" t="str">
+        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/api_and_webservice.md", "Analysis done here")</f>
+        <v>Analysis done here</v>
+      </c>
       <c r="J10" s="33"/>
     </row>
-    <row r="11" spans="1:10" ht="31.2">
-      <c r="A11" s="123"/>
+    <row r="11" spans="1:10" ht="35" thickBot="1">
+      <c r="A11" s="122"/>
       <c r="B11" s="63" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="C11" s="69">
         <v>2</v>
@@ -5820,17 +6071,22 @@
       </c>
       <c r="E11" s="68"/>
       <c r="F11" s="81" t="s">
-        <v>620</v>
-      </c>
-      <c r="G11" s="29"/>
+        <v>621</v>
+      </c>
+      <c r="G11" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
+      <c r="I11" s="126" t="str">
+        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/api_and_webservice.md", "Analysis done here")</f>
+        <v>Analysis done here</v>
+      </c>
       <c r="J11" s="33"/>
     </row>
-    <row r="12" spans="1:10" ht="93.6">
-      <c r="A12" s="123"/>
+    <row r="12" spans="1:10" ht="86" thickBot="1">
+      <c r="A12" s="122"/>
       <c r="B12" s="63" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C12" s="69">
         <v>2</v>
@@ -5840,19 +6096,24 @@
       </c>
       <c r="E12" s="68"/>
       <c r="F12" s="81" t="s">
-        <v>622</v>
-      </c>
-      <c r="G12" s="29"/>
+        <v>623</v>
+      </c>
+      <c r="G12" s="29" t="s">
+        <v>136</v>
+      </c>
       <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
+      <c r="I12" s="126" t="str">
+        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/api_and_webservice.md", "Analysis done here")</f>
+        <v>Analysis done here</v>
+      </c>
       <c r="J12" s="33"/>
     </row>
-    <row r="13" spans="1:10" ht="48" customHeight="1">
-      <c r="A13" s="123" t="s">
-        <v>623</v>
+    <row r="13" spans="1:10" ht="48" customHeight="1" thickBot="1">
+      <c r="A13" s="122" t="s">
+        <v>624</v>
       </c>
       <c r="B13" s="63" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="C13" s="67">
         <v>1</v>
@@ -5862,17 +6123,22 @@
       </c>
       <c r="E13" s="68"/>
       <c r="F13" s="81" t="s">
-        <v>625</v>
-      </c>
-      <c r="G13" s="29"/>
+        <v>626</v>
+      </c>
+      <c r="G13" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
+      <c r="I13" s="126" t="str">
+        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/api_and_webservice.md", "Analysis done here")</f>
+        <v>Analysis done here</v>
+      </c>
       <c r="J13" s="33"/>
     </row>
-    <row r="14" spans="1:10" ht="31.2">
-      <c r="A14" s="123"/>
+    <row r="14" spans="1:10" ht="35" thickBot="1">
+      <c r="A14" s="122"/>
       <c r="B14" s="63" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="C14" s="69">
         <v>2</v>
@@ -5882,19 +6148,24 @@
       </c>
       <c r="E14" s="68"/>
       <c r="F14" s="81" t="s">
-        <v>627</v>
-      </c>
-      <c r="G14" s="29"/>
+        <v>628</v>
+      </c>
+      <c r="G14" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
+      <c r="I14" s="126" t="str">
+        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/api_and_webservice.md", "Analysis done here")</f>
+        <v>Analysis done here</v>
+      </c>
       <c r="J14" s="33"/>
     </row>
-    <row r="15" spans="1:10" ht="63.75" customHeight="1">
-      <c r="A15" s="123" t="s">
-        <v>628</v>
+    <row r="15" spans="1:10" ht="63.75" customHeight="1" thickBot="1">
+      <c r="A15" s="122" t="s">
+        <v>629</v>
       </c>
       <c r="B15" s="63" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C15" s="69">
         <v>2</v>
@@ -5904,17 +6175,22 @@
       </c>
       <c r="E15" s="68"/>
       <c r="F15" s="81" t="s">
-        <v>630</v>
-      </c>
-      <c r="G15" s="29"/>
+        <v>631</v>
+      </c>
+      <c r="G15" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
+      <c r="I15" s="126" t="str">
+        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/api_and_webservice.md", "Analysis done here")</f>
+        <v>Analysis done here</v>
+      </c>
       <c r="J15" s="33"/>
     </row>
-    <row r="16" spans="1:10" ht="31.2">
-      <c r="A16" s="123"/>
+    <row r="16" spans="1:10" ht="35" thickBot="1">
+      <c r="A16" s="122"/>
       <c r="B16" s="63" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C16" s="79">
         <v>2</v>
@@ -5924,12 +6200,77 @@
       </c>
       <c r="E16" s="72"/>
       <c r="F16" s="82" t="s">
-        <v>632</v>
-      </c>
-      <c r="G16" s="36"/>
+        <v>633</v>
+      </c>
+      <c r="G16" s="36" t="s">
+        <v>26</v>
+      </c>
       <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
+      <c r="I16" s="126" t="str">
+        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/api_and_webservice.md", "Analysis done here")</f>
+        <v>Analysis done here</v>
+      </c>
       <c r="J16" s="38"/>
+    </row>
+    <row r="17" spans="9:9">
+      <c r="I17" s="131"/>
+    </row>
+    <row r="18" spans="9:9">
+      <c r="I18" s="131"/>
+    </row>
+    <row r="19" spans="9:9">
+      <c r="I19" s="131"/>
+    </row>
+    <row r="20" spans="9:9">
+      <c r="I20" s="131"/>
+    </row>
+    <row r="21" spans="9:9">
+      <c r="I21" s="131"/>
+    </row>
+    <row r="22" spans="9:9">
+      <c r="I22" s="131"/>
+    </row>
+    <row r="23" spans="9:9">
+      <c r="I23" s="131"/>
+    </row>
+    <row r="24" spans="9:9">
+      <c r="I24" s="131"/>
+    </row>
+    <row r="25" spans="9:9">
+      <c r="I25" s="131"/>
+    </row>
+    <row r="26" spans="9:9">
+      <c r="I26" s="131"/>
+    </row>
+    <row r="27" spans="9:9">
+      <c r="I27" s="131"/>
+    </row>
+    <row r="28" spans="9:9">
+      <c r="I28" s="131"/>
+    </row>
+    <row r="29" spans="9:9">
+      <c r="I29" s="131"/>
+    </row>
+    <row r="30" spans="9:9">
+      <c r="I30" s="131"/>
+    </row>
+    <row r="31" spans="9:9">
+      <c r="I31" s="131"/>
+    </row>
+    <row r="32" spans="9:9">
+      <c r="I32" s="131"/>
+    </row>
+    <row r="33" spans="9:9">
+      <c r="I33" s="131"/>
+    </row>
+    <row r="34" spans="9:9">
+      <c r="I34" s="131"/>
+    </row>
+    <row r="35" spans="9:9">
+      <c r="I35" s="131"/>
+    </row>
+    <row r="36" spans="9:9">
+      <c r="I36" s="131"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -5961,20 +6302,20 @@
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="21"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="21"/>
   <cols>
     <col min="1" max="1" width="41" style="73" customWidth="1"/>
-    <col min="2" max="2" width="14.109375" style="26" customWidth="1"/>
-    <col min="3" max="5" width="8.77734375" style="26"/>
+    <col min="2" max="2" width="14.1640625" style="26" customWidth="1"/>
+    <col min="3" max="5" width="8.6640625" style="26"/>
     <col min="6" max="6" width="88.6640625" style="26" customWidth="1"/>
-    <col min="7" max="7" width="17.109375" style="26" customWidth="1"/>
+    <col min="7" max="7" width="17.1640625" style="26" customWidth="1"/>
     <col min="8" max="8" width="35.33203125" style="26" customWidth="1"/>
-    <col min="9" max="9" width="20.44140625" style="26" customWidth="1"/>
+    <col min="9" max="9" width="20.5" style="26" customWidth="1"/>
     <col min="10" max="10" width="33.33203125" style="26" customWidth="1"/>
-    <col min="11" max="1024" width="8.77734375" style="26"/>
+    <col min="11" max="1024" width="8.6640625" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="44" customFormat="1" ht="42">
+    <row r="1" spans="1:10" s="44" customFormat="1" ht="44">
       <c r="A1" s="99" t="s">
         <v>20</v>
       </c>
@@ -6006,12 +6347,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="48" customHeight="1">
-      <c r="A2" s="124" t="s">
-        <v>633</v>
+    <row r="2" spans="1:10" ht="48" customHeight="1" thickBot="1">
+      <c r="A2" s="123" t="s">
+        <v>634</v>
       </c>
       <c r="B2" s="100" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="C2" s="101">
         <v>2</v>
@@ -6019,17 +6360,22 @@
       <c r="D2" s="102"/>
       <c r="E2" s="103"/>
       <c r="F2" s="104" t="s">
-        <v>635</v>
-      </c>
-      <c r="G2" s="105"/>
+        <v>636</v>
+      </c>
+      <c r="G2" s="105" t="s">
+        <v>26</v>
+      </c>
       <c r="H2" s="105"/>
-      <c r="I2" s="105"/>
+      <c r="I2" s="133" t="str">
+        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/configuration.md", "Analysis done here")</f>
+        <v>Analysis done here</v>
+      </c>
       <c r="J2" s="106"/>
     </row>
-    <row r="3" spans="1:10" ht="46.8">
-      <c r="A3" s="124"/>
+    <row r="3" spans="1:10" ht="52" thickBot="1">
+      <c r="A3" s="123"/>
       <c r="B3" s="63" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="C3" s="107">
         <v>2</v>
@@ -6039,17 +6385,22 @@
       </c>
       <c r="E3" s="109"/>
       <c r="F3" s="110" t="s">
-        <v>637</v>
-      </c>
-      <c r="G3" s="111"/>
+        <v>638</v>
+      </c>
+      <c r="G3" s="111" t="s">
+        <v>26</v>
+      </c>
       <c r="H3" s="111"/>
-      <c r="I3" s="111"/>
+      <c r="I3" s="132" t="str">
+        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/configuration.md", "Analysis done here")</f>
+        <v>Analysis done here</v>
+      </c>
       <c r="J3" s="112"/>
     </row>
-    <row r="4" spans="1:10" ht="31.2">
-      <c r="A4" s="124"/>
+    <row r="4" spans="1:10" ht="35" thickBot="1">
+      <c r="A4" s="123"/>
       <c r="B4" s="63" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C4" s="107">
         <v>2</v>
@@ -6059,17 +6410,22 @@
       </c>
       <c r="E4" s="109"/>
       <c r="F4" s="110" t="s">
-        <v>639</v>
-      </c>
-      <c r="G4" s="111"/>
+        <v>640</v>
+      </c>
+      <c r="G4" s="111" t="s">
+        <v>26</v>
+      </c>
       <c r="H4" s="111"/>
-      <c r="I4" s="111"/>
+      <c r="I4" s="132" t="str">
+        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/configuration.md", "Analysis done here")</f>
+        <v>Analysis done here</v>
+      </c>
       <c r="J4" s="112"/>
     </row>
-    <row r="5" spans="1:10" ht="46.8">
-      <c r="A5" s="124"/>
+    <row r="5" spans="1:10" ht="52" thickBot="1">
+      <c r="A5" s="123"/>
       <c r="B5" s="63" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="C5" s="107">
         <v>2</v>
@@ -6077,17 +6433,22 @@
       <c r="D5" s="108"/>
       <c r="E5" s="109"/>
       <c r="F5" s="110" t="s">
-        <v>641</v>
-      </c>
-      <c r="G5" s="111"/>
+        <v>642</v>
+      </c>
+      <c r="G5" s="111" t="s">
+        <v>26</v>
+      </c>
       <c r="H5" s="111"/>
-      <c r="I5" s="111"/>
+      <c r="I5" s="132" t="str">
+        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/configuration.md", "Analysis done here")</f>
+        <v>Analysis done here</v>
+      </c>
       <c r="J5" s="112"/>
     </row>
-    <row r="6" spans="1:10" ht="31.2">
-      <c r="A6" s="124"/>
+    <row r="6" spans="1:10" ht="35" thickBot="1">
+      <c r="A6" s="123"/>
       <c r="B6" s="63" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="C6" s="113">
         <v>3</v>
@@ -6095,19 +6456,24 @@
       <c r="D6" s="108"/>
       <c r="E6" s="109"/>
       <c r="F6" s="110" t="s">
-        <v>643</v>
-      </c>
-      <c r="G6" s="111"/>
+        <v>644</v>
+      </c>
+      <c r="G6" s="111" t="s">
+        <v>136</v>
+      </c>
       <c r="H6" s="111"/>
-      <c r="I6" s="111"/>
+      <c r="I6" s="132" t="str">
+        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/configuration.md", "Analysis done here")</f>
+        <v>Analysis done here</v>
+      </c>
       <c r="J6" s="112"/>
     </row>
-    <row r="7" spans="1:10" ht="48" customHeight="1">
-      <c r="A7" s="123" t="s">
-        <v>644</v>
+    <row r="7" spans="1:10" ht="48" customHeight="1" thickBot="1">
+      <c r="A7" s="122" t="s">
+        <v>645</v>
       </c>
       <c r="B7" s="63" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="C7" s="114">
         <v>1</v>
@@ -6117,17 +6483,22 @@
       </c>
       <c r="E7" s="109"/>
       <c r="F7" s="110" t="s">
-        <v>646</v>
-      </c>
-      <c r="G7" s="111"/>
+        <v>647</v>
+      </c>
+      <c r="G7" s="111" t="s">
+        <v>26</v>
+      </c>
       <c r="H7" s="111"/>
-      <c r="I7" s="111"/>
+      <c r="I7" s="132" t="str">
+        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/configuration.md", "Analysis done here")</f>
+        <v>Analysis done here</v>
+      </c>
       <c r="J7" s="112"/>
     </row>
-    <row r="8" spans="1:10" ht="31.2">
-      <c r="A8" s="123"/>
+    <row r="8" spans="1:10" ht="35" thickBot="1">
+      <c r="A8" s="122"/>
       <c r="B8" s="63" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="C8" s="114">
         <v>1</v>
@@ -6137,17 +6508,22 @@
       </c>
       <c r="E8" s="109"/>
       <c r="F8" s="110" t="s">
-        <v>648</v>
-      </c>
-      <c r="G8" s="111"/>
+        <v>649</v>
+      </c>
+      <c r="G8" s="111" t="s">
+        <v>26</v>
+      </c>
       <c r="H8" s="111"/>
-      <c r="I8" s="111"/>
+      <c r="I8" s="132" t="str">
+        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/configuration.md", "Analysis done here")</f>
+        <v>Analysis done here</v>
+      </c>
       <c r="J8" s="112"/>
     </row>
-    <row r="9" spans="1:10" ht="46.8">
-      <c r="A9" s="123"/>
+    <row r="9" spans="1:10" ht="52" thickBot="1">
+      <c r="A9" s="122"/>
       <c r="B9" s="63" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="C9" s="114">
         <v>1</v>
@@ -6157,17 +6533,22 @@
       </c>
       <c r="E9" s="109"/>
       <c r="F9" s="110" t="s">
-        <v>650</v>
-      </c>
-      <c r="G9" s="111"/>
+        <v>651</v>
+      </c>
+      <c r="G9" s="111" t="s">
+        <v>26</v>
+      </c>
       <c r="H9" s="111"/>
-      <c r="I9" s="111"/>
+      <c r="I9" s="132" t="str">
+        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/configuration.md", "Analysis done here")</f>
+        <v>Analysis done here</v>
+      </c>
       <c r="J9" s="112"/>
     </row>
-    <row r="10" spans="1:10" ht="46.8">
-      <c r="A10" s="123"/>
+    <row r="10" spans="1:10" ht="35" thickBot="1">
+      <c r="A10" s="122"/>
       <c r="B10" s="63" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="C10" s="107">
         <v>2</v>
@@ -6177,17 +6558,22 @@
       </c>
       <c r="E10" s="109"/>
       <c r="F10" s="110" t="s">
-        <v>652</v>
-      </c>
-      <c r="G10" s="111"/>
+        <v>653</v>
+      </c>
+      <c r="G10" s="111" t="s">
+        <v>26</v>
+      </c>
       <c r="H10" s="111"/>
-      <c r="I10" s="111"/>
+      <c r="I10" s="132" t="str">
+        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/configuration.md", "Analysis done here")</f>
+        <v>Analysis done here</v>
+      </c>
       <c r="J10" s="112"/>
     </row>
-    <row r="11" spans="1:10" ht="31.2">
-      <c r="A11" s="123"/>
+    <row r="11" spans="1:10" ht="35" thickBot="1">
+      <c r="A11" s="122"/>
       <c r="B11" s="63" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="C11" s="107">
         <v>2</v>
@@ -6195,17 +6581,22 @@
       <c r="D11" s="108"/>
       <c r="E11" s="109"/>
       <c r="F11" s="110" t="s">
-        <v>654</v>
-      </c>
-      <c r="G11" s="111"/>
+        <v>655</v>
+      </c>
+      <c r="G11" s="111" t="s">
+        <v>136</v>
+      </c>
       <c r="H11" s="111"/>
-      <c r="I11" s="111"/>
+      <c r="I11" s="132" t="str">
+        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/configuration.md", "Analysis done here")</f>
+        <v>Analysis done here</v>
+      </c>
       <c r="J11" s="112"/>
     </row>
-    <row r="12" spans="1:10" ht="46.8">
-      <c r="A12" s="123"/>
+    <row r="12" spans="1:10" ht="52" thickBot="1">
+      <c r="A12" s="122"/>
       <c r="B12" s="63" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="C12" s="107">
         <v>2</v>
@@ -6215,19 +6606,24 @@
       </c>
       <c r="E12" s="109"/>
       <c r="F12" s="110" t="s">
-        <v>656</v>
-      </c>
-      <c r="G12" s="111"/>
+        <v>657</v>
+      </c>
+      <c r="G12" s="111" t="s">
+        <v>26</v>
+      </c>
       <c r="H12" s="111"/>
-      <c r="I12" s="111"/>
+      <c r="I12" s="132" t="str">
+        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/configuration.md", "Analysis done here")</f>
+        <v>Analysis done here</v>
+      </c>
       <c r="J12" s="112"/>
     </row>
-    <row r="13" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A13" s="123" t="s">
-        <v>657</v>
+    <row r="13" spans="1:10" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A13" s="122" t="s">
+        <v>658</v>
       </c>
       <c r="B13" s="63" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="C13" s="114">
         <v>1</v>
@@ -6237,19 +6633,22 @@
       </c>
       <c r="E13" s="109"/>
       <c r="F13" s="110" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="G13" s="111" t="s">
         <v>56</v>
       </c>
       <c r="H13" s="111"/>
-      <c r="I13" s="111"/>
+      <c r="I13" s="132" t="str">
+        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/configuration.md", "Analysis done here")</f>
+        <v>Analysis done here</v>
+      </c>
       <c r="J13" s="112"/>
     </row>
-    <row r="14" spans="1:10" ht="46.8">
-      <c r="A14" s="123"/>
+    <row r="14" spans="1:10" ht="35" thickBot="1">
+      <c r="A14" s="122"/>
       <c r="B14" s="63" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="C14" s="114">
         <v>1</v>
@@ -6259,17 +6658,22 @@
       </c>
       <c r="E14" s="109"/>
       <c r="F14" s="110" t="s">
-        <v>661</v>
-      </c>
-      <c r="G14" s="111"/>
+        <v>662</v>
+      </c>
+      <c r="G14" s="111" t="s">
+        <v>26</v>
+      </c>
       <c r="H14" s="111"/>
-      <c r="I14" s="111"/>
+      <c r="I14" s="132" t="str">
+        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/configuration.md", "Analysis done here")</f>
+        <v>Analysis done here</v>
+      </c>
       <c r="J14" s="112"/>
     </row>
-    <row r="15" spans="1:10" ht="31.2">
-      <c r="A15" s="123"/>
+    <row r="15" spans="1:10" ht="35" thickBot="1">
+      <c r="A15" s="122"/>
       <c r="B15" s="63" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="C15" s="114">
         <v>1</v>
@@ -6279,19 +6683,24 @@
       </c>
       <c r="E15" s="109"/>
       <c r="F15" s="110" t="s">
-        <v>663</v>
-      </c>
-      <c r="G15" s="111"/>
+        <v>664</v>
+      </c>
+      <c r="G15" s="111" t="s">
+        <v>26</v>
+      </c>
       <c r="H15" s="111"/>
-      <c r="I15" s="111"/>
+      <c r="I15" s="132" t="str">
+        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/configuration.md", "Analysis done here")</f>
+        <v>Analysis done here</v>
+      </c>
       <c r="J15" s="112"/>
     </row>
-    <row r="16" spans="1:10" ht="48" customHeight="1">
-      <c r="A16" s="123" t="s">
-        <v>664</v>
+    <row r="16" spans="1:10" ht="48" customHeight="1" thickBot="1">
+      <c r="A16" s="122" t="s">
+        <v>665</v>
       </c>
       <c r="B16" s="63" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="C16" s="114">
         <v>1</v>
@@ -6301,17 +6710,22 @@
       </c>
       <c r="E16" s="109"/>
       <c r="F16" s="110" t="s">
-        <v>666</v>
-      </c>
-      <c r="G16" s="111"/>
+        <v>667</v>
+      </c>
+      <c r="G16" s="111" t="s">
+        <v>26</v>
+      </c>
       <c r="H16" s="111"/>
-      <c r="I16" s="111"/>
+      <c r="I16" s="132" t="str">
+        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/configuration.md", "Analysis done here")</f>
+        <v>Analysis done here</v>
+      </c>
       <c r="J16" s="112"/>
     </row>
-    <row r="17" spans="1:10" ht="31.2">
-      <c r="A17" s="123"/>
+    <row r="17" spans="1:10" ht="35" thickBot="1">
+      <c r="A17" s="122"/>
       <c r="B17" s="63" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="C17" s="114">
         <v>1</v>
@@ -6321,17 +6735,22 @@
       </c>
       <c r="E17" s="109"/>
       <c r="F17" s="110" t="s">
-        <v>668</v>
-      </c>
-      <c r="G17" s="111"/>
+        <v>669</v>
+      </c>
+      <c r="G17" s="111" t="s">
+        <v>26</v>
+      </c>
       <c r="H17" s="111"/>
-      <c r="I17" s="111"/>
+      <c r="I17" s="132" t="str">
+        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/configuration.md", "Analysis done here")</f>
+        <v>Analysis done here</v>
+      </c>
       <c r="J17" s="112"/>
     </row>
-    <row r="18" spans="1:10" ht="31.2">
-      <c r="A18" s="123"/>
+    <row r="18" spans="1:10" ht="35" thickBot="1">
+      <c r="A18" s="122"/>
       <c r="B18" s="63" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="C18" s="114">
         <v>1</v>
@@ -6341,17 +6760,22 @@
       </c>
       <c r="E18" s="109"/>
       <c r="F18" s="110" t="s">
-        <v>670</v>
-      </c>
-      <c r="G18" s="111"/>
+        <v>671</v>
+      </c>
+      <c r="G18" s="111" t="s">
+        <v>26</v>
+      </c>
       <c r="H18" s="111"/>
-      <c r="I18" s="111"/>
+      <c r="I18" s="132" t="str">
+        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/configuration.md", "Analysis done here")</f>
+        <v>Analysis done here</v>
+      </c>
       <c r="J18" s="112"/>
     </row>
-    <row r="19" spans="1:10" ht="15.6">
-      <c r="A19" s="123"/>
+    <row r="19" spans="1:10" ht="18" thickBot="1">
+      <c r="A19" s="122"/>
       <c r="B19" s="63" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="C19" s="114">
         <v>1</v>
@@ -6361,17 +6785,22 @@
       </c>
       <c r="E19" s="109"/>
       <c r="F19" s="110" t="s">
-        <v>672</v>
-      </c>
-      <c r="G19" s="111"/>
+        <v>673</v>
+      </c>
+      <c r="G19" s="111" t="s">
+        <v>26</v>
+      </c>
       <c r="H19" s="111"/>
-      <c r="I19" s="111"/>
+      <c r="I19" s="132" t="str">
+        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/configuration.md", "Analysis done here")</f>
+        <v>Analysis done here</v>
+      </c>
       <c r="J19" s="112"/>
     </row>
-    <row r="20" spans="1:10" ht="31.2">
-      <c r="A20" s="123"/>
+    <row r="20" spans="1:10" ht="35" thickBot="1">
+      <c r="A20" s="122"/>
       <c r="B20" s="63" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="C20" s="114">
         <v>1</v>
@@ -6381,17 +6810,22 @@
       </c>
       <c r="E20" s="109"/>
       <c r="F20" s="110" t="s">
-        <v>674</v>
-      </c>
-      <c r="G20" s="111"/>
+        <v>675</v>
+      </c>
+      <c r="G20" s="111" t="s">
+        <v>26</v>
+      </c>
       <c r="H20" s="111"/>
-      <c r="I20" s="111"/>
+      <c r="I20" s="132" t="str">
+        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/configuration.md", "Analysis done here")</f>
+        <v>Analysis done here</v>
+      </c>
       <c r="J20" s="112"/>
     </row>
-    <row r="21" spans="1:10" ht="31.2">
-      <c r="A21" s="123"/>
+    <row r="21" spans="1:10" ht="35" thickBot="1">
+      <c r="A21" s="122"/>
       <c r="B21" s="63" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="C21" s="114">
         <v>1</v>
@@ -6401,17 +6835,22 @@
       </c>
       <c r="E21" s="109"/>
       <c r="F21" s="110" t="s">
-        <v>676</v>
-      </c>
-      <c r="G21" s="111"/>
+        <v>677</v>
+      </c>
+      <c r="G21" s="111" t="s">
+        <v>26</v>
+      </c>
       <c r="H21" s="111"/>
-      <c r="I21" s="111"/>
+      <c r="I21" s="132" t="str">
+        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/configuration.md", "Analysis done here")</f>
+        <v>Analysis done here</v>
+      </c>
       <c r="J21" s="112"/>
     </row>
-    <row r="22" spans="1:10" ht="62.4">
-      <c r="A22" s="123"/>
+    <row r="22" spans="1:10" ht="52" thickBot="1">
+      <c r="A22" s="122"/>
       <c r="B22" s="63" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="C22" s="114">
         <v>1</v>
@@ -6421,19 +6860,24 @@
       </c>
       <c r="E22" s="109"/>
       <c r="F22" s="110" t="s">
-        <v>678</v>
-      </c>
-      <c r="G22" s="111"/>
+        <v>679</v>
+      </c>
+      <c r="G22" s="111" t="s">
+        <v>26</v>
+      </c>
       <c r="H22" s="111"/>
-      <c r="I22" s="111"/>
+      <c r="I22" s="132" t="str">
+        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/configuration.md", "Analysis done here")</f>
+        <v>Analysis done here</v>
+      </c>
       <c r="J22" s="112"/>
     </row>
-    <row r="23" spans="1:10" ht="48" customHeight="1">
-      <c r="A23" s="123" t="s">
-        <v>679</v>
+    <row r="23" spans="1:10" ht="48" customHeight="1" thickBot="1">
+      <c r="A23" s="122" t="s">
+        <v>680</v>
       </c>
       <c r="B23" s="63" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="C23" s="114">
         <v>1</v>
@@ -6443,17 +6887,22 @@
       </c>
       <c r="E23" s="109"/>
       <c r="F23" s="110" t="s">
-        <v>681</v>
-      </c>
-      <c r="G23" s="111"/>
+        <v>682</v>
+      </c>
+      <c r="G23" s="111" t="s">
+        <v>26</v>
+      </c>
       <c r="H23" s="111"/>
-      <c r="I23" s="111"/>
+      <c r="I23" s="132" t="str">
+        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/configuration.md", "Analysis done here")</f>
+        <v>Analysis done here</v>
+      </c>
       <c r="J23" s="112"/>
     </row>
-    <row r="24" spans="1:10" ht="31.2">
-      <c r="A24" s="123"/>
+    <row r="24" spans="1:10" ht="35" thickBot="1">
+      <c r="A24" s="122"/>
       <c r="B24" s="63" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="C24" s="114">
         <v>1</v>
@@ -6463,17 +6912,22 @@
       </c>
       <c r="E24" s="109"/>
       <c r="F24" s="110" t="s">
-        <v>683</v>
-      </c>
-      <c r="G24" s="111"/>
+        <v>684</v>
+      </c>
+      <c r="G24" s="111" t="s">
+        <v>26</v>
+      </c>
       <c r="H24" s="111"/>
-      <c r="I24" s="111"/>
+      <c r="I24" s="132" t="str">
+        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/configuration.md", "Analysis done here")</f>
+        <v>Analysis done here</v>
+      </c>
       <c r="J24" s="112"/>
     </row>
-    <row r="25" spans="1:10" ht="46.8">
-      <c r="A25" s="123"/>
+    <row r="25" spans="1:10" ht="35" thickBot="1">
+      <c r="A25" s="122"/>
       <c r="B25" s="63" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="C25" s="114">
         <v>1</v>
@@ -6483,17 +6937,22 @@
       </c>
       <c r="E25" s="109"/>
       <c r="F25" s="110" t="s">
-        <v>685</v>
-      </c>
-      <c r="G25" s="111"/>
+        <v>686</v>
+      </c>
+      <c r="G25" s="111" t="s">
+        <v>26</v>
+      </c>
       <c r="H25" s="111"/>
-      <c r="I25" s="111"/>
+      <c r="I25" s="132" t="str">
+        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/configuration.md", "Analysis done here")</f>
+        <v>Analysis done here</v>
+      </c>
       <c r="J25" s="112"/>
     </row>
-    <row r="26" spans="1:10" ht="31.2">
-      <c r="A26" s="123"/>
+    <row r="26" spans="1:10" ht="35" thickBot="1">
+      <c r="A26" s="122"/>
       <c r="B26" s="63" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="C26" s="115">
         <v>2</v>
@@ -6503,11 +6962,16 @@
       </c>
       <c r="E26" s="117"/>
       <c r="F26" s="118" t="s">
-        <v>687</v>
-      </c>
-      <c r="G26" s="119"/>
+        <v>688</v>
+      </c>
+      <c r="G26" s="119" t="s">
+        <v>26</v>
+      </c>
       <c r="H26" s="119"/>
-      <c r="I26" s="119"/>
+      <c r="I26" s="132" t="str">
+        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/configuration.md", "Analysis done here")</f>
+        <v>Analysis done here</v>
+      </c>
       <c r="J26" s="120"/>
     </row>
   </sheetData>
@@ -6537,25 +7001,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AMJ45"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView topLeftCell="A2" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40:A45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="21"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="21"/>
   <cols>
-    <col min="1" max="1" width="35.44140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="8.77734375" style="15"/>
-    <col min="3" max="3" width="10.77734375" style="15" customWidth="1"/>
-    <col min="4" max="5" width="8.77734375" style="15"/>
-    <col min="6" max="6" width="60.77734375" style="15" customWidth="1"/>
-    <col min="7" max="7" width="19.109375" style="15" customWidth="1"/>
+    <col min="1" max="1" width="35.5" style="3" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" style="15"/>
+    <col min="3" max="3" width="10.6640625" style="15" customWidth="1"/>
+    <col min="4" max="5" width="8.6640625" style="15"/>
+    <col min="6" max="6" width="60.6640625" style="15" customWidth="1"/>
+    <col min="7" max="7" width="19.1640625" style="15" customWidth="1"/>
     <col min="8" max="8" width="36" style="15" customWidth="1"/>
     <col min="9" max="9" width="31.6640625" style="15" customWidth="1"/>
     <col min="10" max="10" width="41.6640625" style="15" customWidth="1"/>
-    <col min="11" max="1024" width="8.77734375" style="15"/>
+    <col min="11" max="1024" width="8.6640625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="3" customFormat="1" ht="42">
+    <row r="1" spans="1:10" s="3" customFormat="1" ht="44">
       <c r="A1" s="16" t="s">
         <v>20</v>
       </c>
@@ -6587,8 +7051,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="26" customFormat="1" ht="58.2" customHeight="1">
-      <c r="A2" s="122" t="s">
+    <row r="2" spans="1:10" s="26" customFormat="1" ht="58.25" customHeight="1">
+      <c r="A2" s="121" t="s">
         <v>30</v>
       </c>
       <c r="B2" s="19" t="s">
@@ -6602,13 +7066,18 @@
       <c r="F2" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="22"/>
+      <c r="G2" s="22" t="s">
+        <v>26</v>
+      </c>
       <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
+      <c r="I2" s="134" t="str">
+        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/Arch_Design_Threat_analysis.md", "Analysis done here")</f>
+        <v>Analysis done here</v>
+      </c>
       <c r="J2" s="25"/>
     </row>
-    <row r="3" spans="1:10" s="26" customFormat="1" ht="62.4">
-      <c r="A3" s="122"/>
+    <row r="3" spans="1:10" s="26" customFormat="1" ht="51">
+      <c r="A3" s="121"/>
       <c r="B3" s="19" t="s">
         <v>33</v>
       </c>
@@ -6622,13 +7091,18 @@
       <c r="F3" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="G3" s="29"/>
+      <c r="G3" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
+      <c r="I3" s="134" t="str">
+        <f t="shared" ref="I3:I45" si="0">HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/Arch_Design_Threat_analysis.md", "Analysis done here")</f>
+        <v>Analysis done here</v>
+      </c>
       <c r="J3" s="32"/>
     </row>
-    <row r="4" spans="1:10" s="26" customFormat="1" ht="62.4">
-      <c r="A4" s="122"/>
+    <row r="4" spans="1:10" s="26" customFormat="1" ht="51">
+      <c r="A4" s="121"/>
       <c r="B4" s="19" t="s">
         <v>35</v>
       </c>
@@ -6642,13 +7116,18 @@
       <c r="F4" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="29"/>
+      <c r="G4" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
+      <c r="I4" s="134" t="str">
+        <f t="shared" si="0"/>
+        <v>Analysis done here</v>
+      </c>
       <c r="J4" s="32"/>
     </row>
-    <row r="5" spans="1:10" s="26" customFormat="1" ht="31.2">
-      <c r="A5" s="122"/>
+    <row r="5" spans="1:10" s="26" customFormat="1" ht="34">
+      <c r="A5" s="121"/>
       <c r="B5" s="19" t="s">
         <v>37</v>
       </c>
@@ -6662,13 +7141,18 @@
       <c r="F5" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="G5" s="29"/>
+      <c r="G5" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
+      <c r="I5" s="134" t="str">
+        <f t="shared" si="0"/>
+        <v>Analysis done here</v>
+      </c>
       <c r="J5" s="32"/>
     </row>
-    <row r="6" spans="1:10" s="26" customFormat="1" ht="62.4">
-      <c r="A6" s="122"/>
+    <row r="6" spans="1:10" s="26" customFormat="1" ht="68">
+      <c r="A6" s="121"/>
       <c r="B6" s="19" t="s">
         <v>39</v>
       </c>
@@ -6682,13 +7166,18 @@
       <c r="F6" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="G6" s="29"/>
+      <c r="G6" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
+      <c r="I6" s="134" t="str">
+        <f t="shared" si="0"/>
+        <v>Analysis done here</v>
+      </c>
       <c r="J6" s="32"/>
     </row>
-    <row r="7" spans="1:10" s="26" customFormat="1" ht="78">
-      <c r="A7" s="122"/>
+    <row r="7" spans="1:10" s="26" customFormat="1" ht="85">
+      <c r="A7" s="121"/>
       <c r="B7" s="19" t="s">
         <v>41</v>
       </c>
@@ -6702,13 +7191,18 @@
       <c r="F7" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="G7" s="29"/>
+      <c r="G7" s="29" t="s">
+        <v>136</v>
+      </c>
       <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
+      <c r="I7" s="134" t="str">
+        <f t="shared" si="0"/>
+        <v>Analysis done here</v>
+      </c>
       <c r="J7" s="32"/>
     </row>
-    <row r="8" spans="1:10" s="26" customFormat="1" ht="46.8">
-      <c r="A8" s="122"/>
+    <row r="8" spans="1:10" s="26" customFormat="1" ht="34">
+      <c r="A8" s="121"/>
       <c r="B8" s="19" t="s">
         <v>43</v>
       </c>
@@ -6722,13 +7216,18 @@
       <c r="F8" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="G8" s="29"/>
+      <c r="G8" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
+      <c r="I8" s="134" t="str">
+        <f t="shared" si="0"/>
+        <v>Analysis done here</v>
+      </c>
       <c r="J8" s="32"/>
     </row>
     <row r="9" spans="1:10" s="26" customFormat="1" ht="63.75" customHeight="1">
-      <c r="A9" s="122" t="s">
+      <c r="A9" s="121" t="s">
         <v>45</v>
       </c>
       <c r="B9" s="19" t="s">
@@ -6744,13 +7243,18 @@
       <c r="F9" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="G9" s="29"/>
+      <c r="G9" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
+      <c r="I9" s="134" t="str">
+        <f t="shared" si="0"/>
+        <v>Analysis done here</v>
+      </c>
       <c r="J9" s="32"/>
     </row>
-    <row r="10" spans="1:10" s="26" customFormat="1" ht="78">
-      <c r="A10" s="122"/>
+    <row r="10" spans="1:10" s="26" customFormat="1" ht="85">
+      <c r="A10" s="121"/>
       <c r="B10" s="19" t="s">
         <v>48</v>
       </c>
@@ -6764,13 +7268,18 @@
       <c r="F10" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="G10" s="29"/>
+      <c r="G10" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
+      <c r="I10" s="134" t="str">
+        <f t="shared" si="0"/>
+        <v>Analysis done here</v>
+      </c>
       <c r="J10" s="32"/>
     </row>
-    <row r="11" spans="1:10" s="26" customFormat="1" ht="62.4">
-      <c r="A11" s="122"/>
+    <row r="11" spans="1:10" s="26" customFormat="1" ht="68">
+      <c r="A11" s="121"/>
       <c r="B11" s="19" t="s">
         <v>50</v>
       </c>
@@ -6784,13 +7293,18 @@
       <c r="F11" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="G11" s="29"/>
+      <c r="G11" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
+      <c r="I11" s="134" t="str">
+        <f t="shared" si="0"/>
+        <v>Analysis done here</v>
+      </c>
       <c r="J11" s="32"/>
     </row>
-    <row r="12" spans="1:10" s="26" customFormat="1" ht="62.4">
-      <c r="A12" s="122"/>
+    <row r="12" spans="1:10" s="26" customFormat="1" ht="51">
+      <c r="A12" s="121"/>
       <c r="B12" s="19" t="s">
         <v>52</v>
       </c>
@@ -6804,12 +7318,17 @@
       <c r="F12" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="G12" s="29"/>
+      <c r="G12" s="29" t="s">
+        <v>136</v>
+      </c>
       <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
+      <c r="I12" s="134" t="str">
+        <f t="shared" si="0"/>
+        <v>Analysis done here</v>
+      </c>
       <c r="J12" s="32"/>
     </row>
-    <row r="13" spans="1:10" s="26" customFormat="1" ht="42">
+    <row r="13" spans="1:10" s="26" customFormat="1" ht="44">
       <c r="A13" s="2" t="s">
         <v>54</v>
       </c>
@@ -6824,11 +7343,11 @@
         <v>56</v>
       </c>
       <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
+      <c r="I13" s="134"/>
       <c r="J13" s="32"/>
     </row>
     <row r="14" spans="1:10" s="26" customFormat="1" ht="48" customHeight="1">
-      <c r="A14" s="122" t="s">
+      <c r="A14" s="121" t="s">
         <v>57</v>
       </c>
       <c r="B14" s="19" t="s">
@@ -6844,13 +7363,18 @@
       <c r="F14" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="G14" s="29"/>
+      <c r="G14" s="29" t="s">
+        <v>136</v>
+      </c>
       <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
+      <c r="I14" s="134" t="str">
+        <f t="shared" si="0"/>
+        <v>Analysis done here</v>
+      </c>
       <c r="J14" s="33"/>
     </row>
-    <row r="15" spans="1:10" s="26" customFormat="1" ht="15.6">
-      <c r="A15" s="122"/>
+    <row r="15" spans="1:10" s="26" customFormat="1" ht="17">
+      <c r="A15" s="121"/>
       <c r="B15" s="19" t="s">
         <v>60</v>
       </c>
@@ -6868,11 +7392,11 @@
         <v>56</v>
       </c>
       <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
+      <c r="I15" s="134"/>
       <c r="J15" s="33"/>
     </row>
-    <row r="16" spans="1:10" s="26" customFormat="1" ht="15.6">
-      <c r="A16" s="122"/>
+    <row r="16" spans="1:10" s="26" customFormat="1" ht="17">
+      <c r="A16" s="121"/>
       <c r="B16" s="19" t="s">
         <v>62</v>
       </c>
@@ -6890,11 +7414,11 @@
         <v>56</v>
       </c>
       <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
+      <c r="I16" s="134"/>
       <c r="J16" s="33"/>
     </row>
-    <row r="17" spans="1:10" s="26" customFormat="1" ht="93.6">
-      <c r="A17" s="122"/>
+    <row r="17" spans="1:10" s="26" customFormat="1" ht="85">
+      <c r="A17" s="121"/>
       <c r="B17" s="19" t="s">
         <v>64</v>
       </c>
@@ -6908,13 +7432,18 @@
       <c r="F17" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="G17" s="29"/>
+      <c r="G17" s="29" t="s">
+        <v>136</v>
+      </c>
       <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
+      <c r="I17" s="134" t="str">
+        <f t="shared" si="0"/>
+        <v>Analysis done here</v>
+      </c>
       <c r="J17" s="33"/>
     </row>
-    <row r="18" spans="1:10" s="26" customFormat="1" ht="93.6">
-      <c r="A18" s="122"/>
+    <row r="18" spans="1:10" s="26" customFormat="1" ht="85">
+      <c r="A18" s="121"/>
       <c r="B18" s="19" t="s">
         <v>66</v>
       </c>
@@ -6928,13 +7457,18 @@
       <c r="F18" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="G18" s="29"/>
+      <c r="G18" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
+      <c r="I18" s="134" t="str">
+        <f t="shared" si="0"/>
+        <v>Analysis done here</v>
+      </c>
       <c r="J18" s="33"/>
     </row>
     <row r="19" spans="1:10" s="26" customFormat="1" ht="48" customHeight="1">
-      <c r="A19" s="122" t="s">
+      <c r="A19" s="121" t="s">
         <v>68</v>
       </c>
       <c r="B19" s="19" t="s">
@@ -6950,13 +7484,18 @@
       <c r="F19" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="G19" s="29"/>
+      <c r="G19" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
+      <c r="I19" s="134" t="str">
+        <f t="shared" si="0"/>
+        <v>Analysis done here</v>
+      </c>
       <c r="J19" s="33"/>
     </row>
-    <row r="20" spans="1:10" s="26" customFormat="1" ht="78">
-      <c r="A20" s="122"/>
+    <row r="20" spans="1:10" s="26" customFormat="1" ht="68">
+      <c r="A20" s="121"/>
       <c r="B20" s="19" t="s">
         <v>71</v>
       </c>
@@ -6970,13 +7509,18 @@
       <c r="F20" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="G20" s="29"/>
+      <c r="G20" s="29" t="s">
+        <v>136</v>
+      </c>
       <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
+      <c r="I20" s="134" t="str">
+        <f t="shared" si="0"/>
+        <v>Analysis done here</v>
+      </c>
       <c r="J20" s="33"/>
     </row>
-    <row r="21" spans="1:10" s="26" customFormat="1" ht="46.8">
-      <c r="A21" s="122"/>
+    <row r="21" spans="1:10" s="26" customFormat="1" ht="51">
+      <c r="A21" s="121"/>
       <c r="B21" s="19" t="s">
         <v>73</v>
       </c>
@@ -6990,13 +7534,18 @@
       <c r="F21" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="G21" s="29"/>
+      <c r="G21" s="29" t="s">
+        <v>136</v>
+      </c>
       <c r="H21" s="29"/>
-      <c r="I21" s="29"/>
+      <c r="I21" s="134" t="str">
+        <f t="shared" si="0"/>
+        <v>Analysis done here</v>
+      </c>
       <c r="J21" s="33"/>
     </row>
-    <row r="22" spans="1:10" s="26" customFormat="1" ht="62.4">
-      <c r="A22" s="122"/>
+    <row r="22" spans="1:10" s="26" customFormat="1" ht="68">
+      <c r="A22" s="121"/>
       <c r="B22" s="19" t="s">
         <v>75</v>
       </c>
@@ -7010,13 +7559,18 @@
       <c r="F22" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="G22" s="29"/>
+      <c r="G22" s="29" t="s">
+        <v>136</v>
+      </c>
       <c r="H22" s="29"/>
-      <c r="I22" s="29"/>
+      <c r="I22" s="134" t="str">
+        <f t="shared" si="0"/>
+        <v>Analysis done here</v>
+      </c>
       <c r="J22" s="33"/>
     </row>
     <row r="23" spans="1:10" s="26" customFormat="1" ht="48" customHeight="1">
-      <c r="A23" s="122" t="s">
+      <c r="A23" s="121" t="s">
         <v>77</v>
       </c>
       <c r="B23" s="19" t="s">
@@ -7032,13 +7586,18 @@
       <c r="F23" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="G23" s="29"/>
+      <c r="G23" s="29" t="s">
+        <v>136</v>
+      </c>
       <c r="H23" s="29"/>
-      <c r="I23" s="29"/>
+      <c r="I23" s="134" t="str">
+        <f t="shared" si="0"/>
+        <v>Analysis done here</v>
+      </c>
       <c r="J23" s="33"/>
     </row>
-    <row r="24" spans="1:10" s="26" customFormat="1" ht="46.8">
-      <c r="A24" s="122"/>
+    <row r="24" spans="1:10" s="26" customFormat="1" ht="34">
+      <c r="A24" s="121"/>
       <c r="B24" s="19" t="s">
         <v>80</v>
       </c>
@@ -7052,13 +7611,18 @@
       <c r="F24" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="G24" s="29"/>
+      <c r="G24" s="29" t="s">
+        <v>136</v>
+      </c>
       <c r="H24" s="29"/>
-      <c r="I24" s="29"/>
+      <c r="I24" s="134" t="str">
+        <f t="shared" si="0"/>
+        <v>Analysis done here</v>
+      </c>
       <c r="J24" s="33"/>
     </row>
-    <row r="25" spans="1:10" s="26" customFormat="1" ht="31.2">
-      <c r="A25" s="122"/>
+    <row r="25" spans="1:10" s="26" customFormat="1" ht="34">
+      <c r="A25" s="121"/>
       <c r="B25" s="19" t="s">
         <v>82</v>
       </c>
@@ -7072,13 +7636,18 @@
       <c r="F25" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="G25" s="29"/>
+      <c r="G25" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H25" s="29"/>
-      <c r="I25" s="29"/>
+      <c r="I25" s="134" t="str">
+        <f t="shared" si="0"/>
+        <v>Analysis done here</v>
+      </c>
       <c r="J25" s="33"/>
     </row>
-    <row r="26" spans="1:10" s="26" customFormat="1" ht="46.8">
-      <c r="A26" s="122"/>
+    <row r="26" spans="1:10" s="26" customFormat="1" ht="51">
+      <c r="A26" s="121"/>
       <c r="B26" s="19" t="s">
         <v>84</v>
       </c>
@@ -7092,13 +7661,18 @@
       <c r="F26" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="G26" s="29"/>
+      <c r="G26" s="29" t="s">
+        <v>136</v>
+      </c>
       <c r="H26" s="29"/>
-      <c r="I26" s="29"/>
+      <c r="I26" s="134" t="str">
+        <f t="shared" si="0"/>
+        <v>Analysis done here</v>
+      </c>
       <c r="J26" s="33"/>
     </row>
     <row r="27" spans="1:10" s="26" customFormat="1" ht="48" customHeight="1">
-      <c r="A27" s="122" t="s">
+      <c r="A27" s="121" t="s">
         <v>86</v>
       </c>
       <c r="B27" s="19" t="s">
@@ -7114,13 +7688,18 @@
       <c r="F27" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="G27" s="29"/>
+      <c r="G27" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H27" s="29"/>
-      <c r="I27" s="29"/>
+      <c r="I27" s="134" t="str">
+        <f t="shared" si="0"/>
+        <v>Analysis done here</v>
+      </c>
       <c r="J27" s="33"/>
     </row>
-    <row r="28" spans="1:10" s="26" customFormat="1" ht="62.4">
-      <c r="A28" s="122"/>
+    <row r="28" spans="1:10" s="26" customFormat="1" ht="68">
+      <c r="A28" s="121"/>
       <c r="B28" s="19" t="s">
         <v>89</v>
       </c>
@@ -7132,13 +7711,18 @@
       <c r="F28" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="G28" s="29"/>
+      <c r="G28" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H28" s="29"/>
-      <c r="I28" s="29"/>
+      <c r="I28" s="134" t="str">
+        <f t="shared" si="0"/>
+        <v>Analysis done here</v>
+      </c>
       <c r="J28" s="33"/>
     </row>
     <row r="29" spans="1:10" s="26" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A29" s="122" t="s">
+      <c r="A29" s="121" t="s">
         <v>91</v>
       </c>
       <c r="B29" s="19" t="s">
@@ -7152,13 +7736,18 @@
       <c r="F29" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="G29" s="29"/>
+      <c r="G29" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H29" s="29"/>
-      <c r="I29" s="29"/>
+      <c r="I29" s="134" t="str">
+        <f t="shared" si="0"/>
+        <v>Analysis done here</v>
+      </c>
       <c r="J29" s="33"/>
     </row>
-    <row r="30" spans="1:10" s="26" customFormat="1" ht="78">
-      <c r="A30" s="122"/>
+    <row r="30" spans="1:10" s="26" customFormat="1" ht="68">
+      <c r="A30" s="121"/>
       <c r="B30" s="19" t="s">
         <v>94</v>
       </c>
@@ -7170,13 +7759,18 @@
       <c r="F30" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="G30" s="29"/>
+      <c r="G30" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H30" s="29"/>
-      <c r="I30" s="29"/>
+      <c r="I30" s="134" t="str">
+        <f t="shared" si="0"/>
+        <v>Analysis done here</v>
+      </c>
       <c r="J30" s="33"/>
     </row>
     <row r="31" spans="1:10" s="26" customFormat="1" ht="79.5" customHeight="1">
-      <c r="A31" s="122" t="s">
+      <c r="A31" s="121" t="s">
         <v>96</v>
       </c>
       <c r="B31" s="19" t="s">
@@ -7192,13 +7786,18 @@
       <c r="F31" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="G31" s="29"/>
+      <c r="G31" s="29" t="s">
+        <v>136</v>
+      </c>
       <c r="H31" s="29"/>
-      <c r="I31" s="29"/>
+      <c r="I31" s="134" t="str">
+        <f t="shared" si="0"/>
+        <v>Analysis done here</v>
+      </c>
       <c r="J31" s="33"/>
     </row>
-    <row r="32" spans="1:10" s="26" customFormat="1" ht="62.4">
-      <c r="A32" s="122"/>
+    <row r="32" spans="1:10" s="26" customFormat="1" ht="68">
+      <c r="A32" s="121"/>
       <c r="B32" s="19" t="s">
         <v>99</v>
       </c>
@@ -7212,12 +7811,17 @@
       <c r="F32" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="G32" s="29"/>
+      <c r="G32" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H32" s="29"/>
-      <c r="I32" s="29"/>
+      <c r="I32" s="134" t="str">
+        <f t="shared" si="0"/>
+        <v>Analysis done here</v>
+      </c>
       <c r="J32" s="33"/>
     </row>
-    <row r="33" spans="1:10" s="26" customFormat="1" ht="78">
+    <row r="33" spans="1:10" s="26" customFormat="1" ht="68">
       <c r="A33" s="2" t="s">
         <v>101</v>
       </c>
@@ -7234,13 +7838,18 @@
       <c r="F33" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="G33" s="29"/>
+      <c r="G33" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H33" s="29"/>
-      <c r="I33" s="29"/>
+      <c r="I33" s="134" t="str">
+        <f t="shared" si="0"/>
+        <v>Analysis done here</v>
+      </c>
       <c r="J33" s="33"/>
     </row>
     <row r="34" spans="1:10" s="26" customFormat="1" ht="48" customHeight="1">
-      <c r="A34" s="122" t="s">
+      <c r="A34" s="121" t="s">
         <v>104</v>
       </c>
       <c r="B34" s="19" t="s">
@@ -7256,13 +7865,18 @@
       <c r="F34" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="G34" s="29"/>
+      <c r="G34" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H34" s="29"/>
-      <c r="I34" s="29"/>
+      <c r="I34" s="134" t="str">
+        <f t="shared" si="0"/>
+        <v>Analysis done here</v>
+      </c>
       <c r="J34" s="33"/>
     </row>
-    <row r="35" spans="1:10" s="26" customFormat="1" ht="46.8">
-      <c r="A35" s="122"/>
+    <row r="35" spans="1:10" s="26" customFormat="1" ht="51">
+      <c r="A35" s="121"/>
       <c r="B35" s="19" t="s">
         <v>107</v>
       </c>
@@ -7276,13 +7890,18 @@
       <c r="F35" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="G35" s="29"/>
+      <c r="G35" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H35" s="29"/>
-      <c r="I35" s="29"/>
+      <c r="I35" s="134" t="str">
+        <f t="shared" si="0"/>
+        <v>Analysis done here</v>
+      </c>
       <c r="J35" s="33"/>
     </row>
-    <row r="36" spans="1:10" s="26" customFormat="1" ht="62.4">
-      <c r="A36" s="122"/>
+    <row r="36" spans="1:10" s="26" customFormat="1" ht="51">
+      <c r="A36" s="121"/>
       <c r="B36" s="19" t="s">
         <v>109</v>
       </c>
@@ -7296,13 +7915,18 @@
       <c r="F36" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="G36" s="29"/>
+      <c r="G36" s="29" t="s">
+        <v>136</v>
+      </c>
       <c r="H36" s="29"/>
-      <c r="I36" s="29"/>
+      <c r="I36" s="134" t="str">
+        <f t="shared" si="0"/>
+        <v>Analysis done here</v>
+      </c>
       <c r="J36" s="33"/>
     </row>
     <row r="37" spans="1:10" s="26" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A37" s="122" t="s">
+      <c r="A37" s="121" t="s">
         <v>111</v>
       </c>
       <c r="B37" s="19" t="s">
@@ -7322,11 +7946,11 @@
         <v>56</v>
       </c>
       <c r="H37" s="29"/>
-      <c r="I37" s="29"/>
+      <c r="I37" s="134"/>
       <c r="J37" s="33"/>
     </row>
-    <row r="38" spans="1:10" s="26" customFormat="1" ht="93.6">
-      <c r="A38" s="122"/>
+    <row r="38" spans="1:10" s="26" customFormat="1" ht="85">
+      <c r="A38" s="121"/>
       <c r="B38" s="19" t="s">
         <v>114</v>
       </c>
@@ -7340,12 +7964,17 @@
       <c r="F38" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="G38" s="29"/>
+      <c r="G38" s="29" t="s">
+        <v>56</v>
+      </c>
       <c r="H38" s="29"/>
-      <c r="I38" s="29"/>
+      <c r="I38" s="134" t="str">
+        <f t="shared" si="0"/>
+        <v>Analysis done here</v>
+      </c>
       <c r="J38" s="33"/>
     </row>
-    <row r="39" spans="1:10" s="26" customFormat="1">
+    <row r="39" spans="1:10" s="26" customFormat="1" ht="22">
       <c r="A39" s="2" t="s">
         <v>116</v>
       </c>
@@ -7360,11 +7989,11 @@
         <v>56</v>
       </c>
       <c r="H39" s="29"/>
-      <c r="I39" s="29"/>
+      <c r="I39" s="134"/>
       <c r="J39" s="33"/>
     </row>
-    <row r="40" spans="1:10" s="26" customFormat="1" ht="58.8" customHeight="1">
-      <c r="A40" s="122" t="s">
+    <row r="40" spans="1:10" s="26" customFormat="1" ht="59" customHeight="1">
+      <c r="A40" s="121" t="s">
         <v>117</v>
       </c>
       <c r="B40" s="19" t="s">
@@ -7380,13 +8009,18 @@
       <c r="F40" s="30" t="s">
         <v>119</v>
       </c>
-      <c r="G40" s="29"/>
+      <c r="G40" s="29" t="s">
+        <v>56</v>
+      </c>
       <c r="H40" s="29"/>
-      <c r="I40" s="29"/>
+      <c r="I40" s="134" t="str">
+        <f t="shared" si="0"/>
+        <v>Analysis done here</v>
+      </c>
       <c r="J40" s="33"/>
     </row>
-    <row r="41" spans="1:10" s="26" customFormat="1" ht="31.2">
-      <c r="A41" s="122"/>
+    <row r="41" spans="1:10" s="26" customFormat="1" ht="34">
+      <c r="A41" s="121"/>
       <c r="B41" s="19" t="s">
         <v>120</v>
       </c>
@@ -7400,13 +8034,18 @@
       <c r="F41" s="30" t="s">
         <v>121</v>
       </c>
-      <c r="G41" s="29"/>
+      <c r="G41" s="29" t="s">
+        <v>56</v>
+      </c>
       <c r="H41" s="29"/>
-      <c r="I41" s="29"/>
+      <c r="I41" s="134" t="str">
+        <f t="shared" si="0"/>
+        <v>Analysis done here</v>
+      </c>
       <c r="J41" s="33"/>
     </row>
-    <row r="42" spans="1:10" s="26" customFormat="1" ht="31.2">
-      <c r="A42" s="122"/>
+    <row r="42" spans="1:10" s="26" customFormat="1" ht="34">
+      <c r="A42" s="121"/>
       <c r="B42" s="19" t="s">
         <v>122</v>
       </c>
@@ -7420,13 +8059,18 @@
       <c r="F42" s="30" t="s">
         <v>123</v>
       </c>
-      <c r="G42" s="29"/>
+      <c r="G42" s="29" t="s">
+        <v>136</v>
+      </c>
       <c r="H42" s="29"/>
-      <c r="I42" s="29"/>
+      <c r="I42" s="134" t="str">
+        <f t="shared" si="0"/>
+        <v>Analysis done here</v>
+      </c>
       <c r="J42" s="33"/>
     </row>
-    <row r="43" spans="1:10" s="26" customFormat="1" ht="62.4">
-      <c r="A43" s="122"/>
+    <row r="43" spans="1:10" s="26" customFormat="1" ht="68">
+      <c r="A43" s="121"/>
       <c r="B43" s="19" t="s">
         <v>124</v>
       </c>
@@ -7438,13 +8082,18 @@
       <c r="F43" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="G43" s="29"/>
+      <c r="G43" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H43" s="29"/>
-      <c r="I43" s="29"/>
+      <c r="I43" s="134" t="str">
+        <f t="shared" si="0"/>
+        <v>Analysis done here</v>
+      </c>
       <c r="J43" s="33"/>
     </row>
-    <row r="44" spans="1:10" s="26" customFormat="1" ht="93.6">
-      <c r="A44" s="122"/>
+    <row r="44" spans="1:10" s="26" customFormat="1" ht="103" thickBot="1">
+      <c r="A44" s="121"/>
       <c r="B44" s="19" t="s">
         <v>126</v>
       </c>
@@ -7458,13 +8107,18 @@
       <c r="F44" s="30" t="s">
         <v>127</v>
       </c>
-      <c r="G44" s="29"/>
+      <c r="G44" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H44" s="29"/>
-      <c r="I44" s="29"/>
+      <c r="I44" s="134" t="str">
+        <f t="shared" si="0"/>
+        <v>Analysis done here</v>
+      </c>
       <c r="J44" s="33"/>
     </row>
-    <row r="45" spans="1:10" s="26" customFormat="1" ht="62.4">
-      <c r="A45" s="122"/>
+    <row r="45" spans="1:10" s="26" customFormat="1" ht="52" thickBot="1">
+      <c r="A45" s="121"/>
       <c r="B45" s="19" t="s">
         <v>128</v>
       </c>
@@ -7478,9 +8132,14 @@
       <c r="F45" s="37" t="s">
         <v>129</v>
       </c>
-      <c r="G45" s="36"/>
+      <c r="G45" s="36" t="s">
+        <v>136</v>
+      </c>
       <c r="H45" s="36"/>
-      <c r="I45" s="36"/>
+      <c r="I45" s="135" t="str">
+        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/Arch_Design_Threat_analysis.md", "Analysis done here")</f>
+        <v>Analysis done here</v>
+      </c>
       <c r="J45" s="38"/>
     </row>
   </sheetData>
@@ -7516,25 +8175,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AMJ58"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" zoomScale="97" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="G57" sqref="G57"/>
+    <sheetView zoomScale="97" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="21"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="21"/>
   <cols>
     <col min="1" max="1" width="34.33203125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="8.77734375" style="39"/>
-    <col min="3" max="3" width="14.77734375" style="40" customWidth="1"/>
-    <col min="4" max="5" width="8.77734375" style="40"/>
+    <col min="2" max="2" width="8.6640625" style="39"/>
+    <col min="3" max="3" width="14.6640625" style="40" customWidth="1"/>
+    <col min="4" max="5" width="8.6640625" style="40"/>
     <col min="6" max="6" width="73" style="15" customWidth="1"/>
     <col min="7" max="7" width="25.33203125" style="15" customWidth="1"/>
     <col min="8" max="8" width="30.33203125" style="15" customWidth="1"/>
     <col min="9" max="9" width="33.33203125" style="15" customWidth="1"/>
     <col min="10" max="10" width="29" style="15" customWidth="1"/>
-    <col min="11" max="1024" width="8.77734375" style="15"/>
+    <col min="11" max="1024" width="8.6640625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="44" customFormat="1">
+    <row r="1" spans="1:10" s="44" customFormat="1" ht="22">
       <c r="A1" s="41" t="s">
         <v>20</v>
       </c>
@@ -7567,7 +8226,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" s="26" customFormat="1" ht="48" customHeight="1">
-      <c r="A2" s="123" t="s">
+      <c r="A2" s="122" t="s">
         <v>130</v>
       </c>
       <c r="B2" s="45" t="s">
@@ -7589,13 +8248,13 @@
         <v>26</v>
       </c>
       <c r="H2" s="51"/>
-      <c r="I2" s="51" t="s">
-        <v>690</v>
+      <c r="I2" s="139" t="s">
+        <v>689</v>
       </c>
       <c r="J2" s="52"/>
     </row>
-    <row r="3" spans="1:10" s="26" customFormat="1" ht="46.8">
-      <c r="A3" s="123"/>
+    <row r="3" spans="1:10" s="26" customFormat="1" ht="51">
+      <c r="A3" s="122"/>
       <c r="B3" s="45" t="s">
         <v>134</v>
       </c>
@@ -7612,18 +8271,18 @@
         <v>135</v>
       </c>
       <c r="G3" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="H3" s="31"/>
+      <c r="I3" s="139" t="s">
         <v>689</v>
       </c>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31" t="s">
-        <v>688</v>
-      </c>
       <c r="J3" s="32"/>
     </row>
-    <row r="4" spans="1:10" s="26" customFormat="1" ht="46.8">
-      <c r="A4" s="123"/>
+    <row r="4" spans="1:10" s="26" customFormat="1" ht="51">
+      <c r="A4" s="122"/>
       <c r="B4" s="45" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C4" s="53">
         <v>1</v>
@@ -7635,21 +8294,21 @@
         <v>132</v>
       </c>
       <c r="F4" s="30" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G4" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="H4" s="31"/>
+      <c r="I4" s="139" t="s">
         <v>689</v>
       </c>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31" t="s">
-        <v>688</v>
-      </c>
       <c r="J4" s="32"/>
     </row>
-    <row r="5" spans="1:10" s="26" customFormat="1" ht="31.2">
-      <c r="A5" s="123"/>
+    <row r="5" spans="1:10" s="26" customFormat="1" ht="34">
+      <c r="A5" s="122"/>
       <c r="B5" s="45" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C5" s="53">
         <v>1</v>
@@ -7661,21 +8320,21 @@
         <v>132</v>
       </c>
       <c r="F5" s="30" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G5" s="29" t="s">
         <v>26</v>
       </c>
       <c r="H5" s="31"/>
-      <c r="I5" s="31" t="s">
-        <v>690</v>
+      <c r="I5" s="139" t="s">
+        <v>689</v>
       </c>
       <c r="J5" s="32"/>
     </row>
-    <row r="6" spans="1:10" s="26" customFormat="1" ht="15.6">
-      <c r="A6" s="123"/>
+    <row r="6" spans="1:10" s="26" customFormat="1" ht="17">
+      <c r="A6" s="122"/>
       <c r="B6" s="45" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C6" s="53">
         <v>1</v>
@@ -7687,21 +8346,21 @@
         <v>132</v>
       </c>
       <c r="F6" s="30" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G6" s="29" t="s">
         <v>26</v>
       </c>
       <c r="H6" s="31"/>
-      <c r="I6" s="31" t="s">
-        <v>690</v>
+      <c r="I6" s="139" t="s">
+        <v>689</v>
       </c>
       <c r="J6" s="32"/>
     </row>
-    <row r="7" spans="1:10" s="26" customFormat="1" ht="31.2">
-      <c r="A7" s="123"/>
+    <row r="7" spans="1:10" s="26" customFormat="1" ht="34">
+      <c r="A7" s="122"/>
       <c r="B7" s="45" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C7" s="53">
         <v>1</v>
@@ -7713,21 +8372,21 @@
         <v>132</v>
       </c>
       <c r="F7" s="30" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G7" s="29" t="s">
         <v>26</v>
       </c>
       <c r="H7" s="31"/>
-      <c r="I7" s="31" t="s">
-        <v>690</v>
+      <c r="I7" s="139" t="s">
+        <v>689</v>
       </c>
       <c r="J7" s="32"/>
     </row>
-    <row r="8" spans="1:10" s="26" customFormat="1" ht="140.4">
-      <c r="A8" s="123"/>
+    <row r="8" spans="1:10" s="26" customFormat="1" ht="136">
+      <c r="A8" s="122"/>
       <c r="B8" s="45" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C8" s="53">
         <v>1</v>
@@ -7739,21 +8398,21 @@
         <v>132</v>
       </c>
       <c r="F8" s="30" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G8" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="H8" s="31"/>
+      <c r="I8" s="139" t="s">
         <v>689</v>
       </c>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31" t="s">
-        <v>688</v>
-      </c>
       <c r="J8" s="32"/>
     </row>
-    <row r="9" spans="1:10" s="26" customFormat="1" ht="31.2">
-      <c r="A9" s="123"/>
+    <row r="9" spans="1:10" s="26" customFormat="1" ht="34">
+      <c r="A9" s="122"/>
       <c r="B9" s="45" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C9" s="53">
         <v>1</v>
@@ -7765,21 +8424,21 @@
         <v>132</v>
       </c>
       <c r="F9" s="30" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G9" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="H9" s="31"/>
+      <c r="I9" s="139" t="s">
         <v>689</v>
       </c>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31" t="s">
-        <v>688</v>
-      </c>
       <c r="J9" s="32"/>
     </row>
-    <row r="10" spans="1:10" s="26" customFormat="1" ht="62.4">
-      <c r="A10" s="123"/>
+    <row r="10" spans="1:10" s="26" customFormat="1" ht="68">
+      <c r="A10" s="122"/>
       <c r="B10" s="45" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C10" s="53">
         <v>1</v>
@@ -7791,21 +8450,21 @@
         <v>132</v>
       </c>
       <c r="F10" s="30" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G10" s="29" t="s">
         <v>26</v>
       </c>
       <c r="H10" s="31"/>
-      <c r="I10" s="31" t="s">
-        <v>690</v>
+      <c r="I10" s="139" t="s">
+        <v>689</v>
       </c>
       <c r="J10" s="32"/>
     </row>
-    <row r="11" spans="1:10" s="26" customFormat="1" ht="31.2">
-      <c r="A11" s="123"/>
+    <row r="11" spans="1:10" s="26" customFormat="1" ht="34">
+      <c r="A11" s="122"/>
       <c r="B11" s="45" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C11" s="53">
         <v>1</v>
@@ -7817,21 +8476,21 @@
         <v>132</v>
       </c>
       <c r="F11" s="30" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G11" s="29" t="s">
         <v>26</v>
       </c>
       <c r="H11" s="31"/>
-      <c r="I11" s="31" t="s">
-        <v>690</v>
+      <c r="I11" s="139" t="s">
+        <v>689</v>
       </c>
       <c r="J11" s="32"/>
     </row>
-    <row r="12" spans="1:10" s="26" customFormat="1" ht="31.2">
-      <c r="A12" s="123"/>
+    <row r="12" spans="1:10" s="26" customFormat="1" ht="34">
+      <c r="A12" s="122"/>
       <c r="B12" s="45" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C12" s="53">
         <v>1</v>
@@ -7843,21 +8502,21 @@
         <v>132</v>
       </c>
       <c r="F12" s="30" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G12" s="29" t="s">
         <v>26</v>
       </c>
       <c r="H12" s="31"/>
-      <c r="I12" s="31" t="s">
-        <v>690</v>
+      <c r="I12" s="139" t="s">
+        <v>689</v>
       </c>
       <c r="J12" s="32"/>
     </row>
-    <row r="13" spans="1:10" s="26" customFormat="1" ht="46.8">
-      <c r="A13" s="123"/>
+    <row r="13" spans="1:10" s="26" customFormat="1" ht="51">
+      <c r="A13" s="122"/>
       <c r="B13" s="45" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C13" s="53">
         <v>1</v>
@@ -7869,23 +8528,23 @@
         <v>132</v>
       </c>
       <c r="F13" s="30" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G13" s="29" t="s">
         <v>26</v>
       </c>
       <c r="H13" s="31"/>
-      <c r="I13" s="31" t="s">
-        <v>692</v>
+      <c r="I13" s="139" t="s">
+        <v>689</v>
       </c>
       <c r="J13" s="32"/>
     </row>
     <row r="14" spans="1:10" s="26" customFormat="1" ht="111" customHeight="1">
-      <c r="A14" s="123" t="s">
-        <v>156</v>
+      <c r="A14" s="122" t="s">
+        <v>157</v>
       </c>
       <c r="B14" s="45" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C14" s="53">
         <v>1</v>
@@ -7894,24 +8553,24 @@
         <v>307</v>
       </c>
       <c r="E14" s="28" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F14" s="30" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G14" s="29" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="H14" s="31"/>
-      <c r="I14" s="31" t="s">
-        <v>690</v>
+      <c r="I14" s="139" t="s">
+        <v>689</v>
       </c>
       <c r="J14" s="32"/>
     </row>
-    <row r="15" spans="1:10" s="26" customFormat="1" ht="78">
-      <c r="A15" s="123"/>
+    <row r="15" spans="1:10" s="26" customFormat="1" ht="85">
+      <c r="A15" s="122"/>
       <c r="B15" s="45" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C15" s="53">
         <v>1</v>
@@ -7920,24 +8579,24 @@
         <v>304</v>
       </c>
       <c r="E15" s="28" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F15" s="30" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G15" s="29" t="s">
         <v>26</v>
       </c>
       <c r="H15" s="31"/>
-      <c r="I15" s="31" t="s">
-        <v>691</v>
+      <c r="I15" s="139" t="s">
+        <v>689</v>
       </c>
       <c r="J15" s="32"/>
     </row>
-    <row r="16" spans="1:10" s="26" customFormat="1" ht="93.6">
-      <c r="A16" s="123"/>
+    <row r="16" spans="1:10" s="26" customFormat="1" ht="85">
+      <c r="A16" s="122"/>
       <c r="B16" s="45" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C16" s="53">
         <v>1</v>
@@ -7947,21 +8606,21 @@
       </c>
       <c r="E16" s="28"/>
       <c r="F16" s="30" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G16" s="29" t="s">
         <v>26</v>
       </c>
       <c r="H16" s="31"/>
-      <c r="I16" s="31" t="s">
-        <v>690</v>
+      <c r="I16" s="139" t="s">
+        <v>689</v>
       </c>
       <c r="J16" s="32"/>
     </row>
-    <row r="17" spans="1:10" s="26" customFormat="1" ht="62.4">
-      <c r="A17" s="123"/>
+    <row r="17" spans="1:10" s="26" customFormat="1" ht="51">
+      <c r="A17" s="122"/>
       <c r="B17" s="45" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C17" s="55">
         <v>3</v>
@@ -7970,24 +8629,24 @@
         <v>308</v>
       </c>
       <c r="E17" s="28" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F17" s="30" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G17" s="29" t="s">
         <v>26</v>
       </c>
       <c r="H17" s="31"/>
-      <c r="I17" s="31" t="s">
-        <v>690</v>
+      <c r="I17" s="139" t="s">
+        <v>689</v>
       </c>
       <c r="J17" s="32"/>
     </row>
-    <row r="18" spans="1:10" s="26" customFormat="1" ht="46.8">
-      <c r="A18" s="123"/>
+    <row r="18" spans="1:10" s="26" customFormat="1" ht="51">
+      <c r="A18" s="122"/>
       <c r="B18" s="45" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C18" s="55">
         <v>3</v>
@@ -7996,24 +8655,24 @@
         <v>319</v>
       </c>
       <c r="E18" s="28" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F18" s="30" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G18" s="29" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="H18" s="31"/>
-      <c r="I18" s="31" t="s">
-        <v>690</v>
+      <c r="I18" s="139" t="s">
+        <v>689</v>
       </c>
       <c r="J18" s="32"/>
     </row>
-    <row r="19" spans="1:10" s="26" customFormat="1" ht="31.2">
-      <c r="A19" s="123"/>
+    <row r="19" spans="1:10" s="26" customFormat="1" ht="34">
+      <c r="A19" s="122"/>
       <c r="B19" s="45" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C19" s="55">
         <v>3</v>
@@ -8022,24 +8681,24 @@
         <v>308</v>
       </c>
       <c r="E19" s="28" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F19" s="30" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G19" s="29" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="H19" s="31"/>
-      <c r="I19" s="31" t="s">
-        <v>690</v>
+      <c r="I19" s="139" t="s">
+        <v>689</v>
       </c>
       <c r="J19" s="32"/>
     </row>
-    <row r="20" spans="1:10" s="26" customFormat="1" ht="31.2">
-      <c r="A20" s="123"/>
+    <row r="20" spans="1:10" s="26" customFormat="1" ht="34">
+      <c r="A20" s="122"/>
       <c r="B20" s="45" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C20" s="55">
         <v>3</v>
@@ -8048,26 +8707,26 @@
         <v>308</v>
       </c>
       <c r="E20" s="28" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F20" s="30" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G20" s="29" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="H20" s="31"/>
-      <c r="I20" s="31" t="s">
-        <v>691</v>
+      <c r="I20" s="139" t="s">
+        <v>689</v>
       </c>
       <c r="J20" s="32"/>
     </row>
     <row r="21" spans="1:10" s="26" customFormat="1" ht="79.5" customHeight="1">
-      <c r="A21" s="123" t="s">
-        <v>177</v>
+      <c r="A21" s="122" t="s">
+        <v>178</v>
       </c>
       <c r="B21" s="45" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C21" s="53">
         <v>1</v>
@@ -8076,24 +8735,24 @@
         <v>330</v>
       </c>
       <c r="E21" s="28" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F21" s="30" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G21" s="29" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="H21" s="31"/>
-      <c r="I21" s="31" t="s">
-        <v>691</v>
+      <c r="I21" s="139" t="s">
+        <v>689</v>
       </c>
       <c r="J21" s="32"/>
     </row>
-    <row r="22" spans="1:10" s="26" customFormat="1" ht="31.2">
-      <c r="A22" s="123"/>
+    <row r="22" spans="1:10" s="26" customFormat="1" ht="34">
+      <c r="A22" s="122"/>
       <c r="B22" s="45" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C22" s="56">
         <v>2</v>
@@ -8102,24 +8761,24 @@
         <v>308</v>
       </c>
       <c r="E22" s="28" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F22" s="30" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G22" s="29" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="H22" s="31"/>
-      <c r="I22" s="31" t="s">
-        <v>690</v>
+      <c r="I22" s="139" t="s">
+        <v>689</v>
       </c>
       <c r="J22" s="32"/>
     </row>
-    <row r="23" spans="1:10" s="26" customFormat="1" ht="31.2">
-      <c r="A23" s="123"/>
+    <row r="23" spans="1:10" s="26" customFormat="1" ht="34">
+      <c r="A23" s="122"/>
       <c r="B23" s="45" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C23" s="56">
         <v>2</v>
@@ -8128,26 +8787,26 @@
         <v>287</v>
       </c>
       <c r="E23" s="28" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F23" s="30" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G23" s="29" t="s">
         <v>26</v>
       </c>
       <c r="H23" s="31"/>
-      <c r="I23" s="31" t="s">
-        <v>690</v>
+      <c r="I23" s="139" t="s">
+        <v>689</v>
       </c>
       <c r="J23" s="32"/>
     </row>
     <row r="24" spans="1:10" s="26" customFormat="1" ht="95.25" customHeight="1">
-      <c r="A24" s="123" t="s">
-        <v>187</v>
+      <c r="A24" s="122" t="s">
+        <v>188</v>
       </c>
       <c r="B24" s="45" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C24" s="56">
         <v>2</v>
@@ -8159,21 +8818,21 @@
         <v>132</v>
       </c>
       <c r="F24" s="30" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G24" s="29" t="s">
         <v>26</v>
       </c>
       <c r="H24" s="31"/>
-      <c r="I24" s="31" t="s">
-        <v>691</v>
+      <c r="I24" s="139" t="s">
+        <v>689</v>
       </c>
       <c r="J24" s="32"/>
     </row>
-    <row r="25" spans="1:10" s="26" customFormat="1" ht="62.4">
-      <c r="A25" s="123"/>
+    <row r="25" spans="1:10" s="26" customFormat="1" ht="68">
+      <c r="A25" s="122"/>
       <c r="B25" s="45" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C25" s="56">
         <v>2</v>
@@ -8185,21 +8844,21 @@
         <v>132</v>
       </c>
       <c r="F25" s="30" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G25" s="29" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="H25" s="31"/>
-      <c r="I25" s="31" t="s">
-        <v>691</v>
+      <c r="I25" s="139" t="s">
+        <v>689</v>
       </c>
       <c r="J25" s="32"/>
     </row>
-    <row r="26" spans="1:10" s="26" customFormat="1" ht="62.4">
-      <c r="A26" s="123"/>
+    <row r="26" spans="1:10" s="26" customFormat="1" ht="51">
+      <c r="A26" s="122"/>
       <c r="B26" s="45" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C26" s="56">
         <v>2</v>
@@ -8211,21 +8870,21 @@
         <v>132</v>
       </c>
       <c r="F26" s="30" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G26" s="29" t="s">
         <v>26</v>
       </c>
       <c r="H26" s="31"/>
-      <c r="I26" s="31" t="s">
-        <v>691</v>
+      <c r="I26" s="139" t="s">
+        <v>689</v>
       </c>
       <c r="J26" s="32"/>
     </row>
-    <row r="27" spans="1:10" s="26" customFormat="1" ht="46.8">
-      <c r="A27" s="123"/>
+    <row r="27" spans="1:10" s="26" customFormat="1" ht="51">
+      <c r="A27" s="122"/>
       <c r="B27" s="45" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C27" s="56">
         <v>2</v>
@@ -8237,21 +8896,21 @@
         <v>132</v>
       </c>
       <c r="F27" s="30" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G27" s="29" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="H27" s="31"/>
-      <c r="I27" s="31" t="s">
-        <v>690</v>
+      <c r="I27" s="139" t="s">
+        <v>689</v>
       </c>
       <c r="J27" s="32"/>
     </row>
-    <row r="28" spans="1:10" s="26" customFormat="1" ht="109.2">
-      <c r="A28" s="123"/>
+    <row r="28" spans="1:10" s="26" customFormat="1" ht="102">
+      <c r="A28" s="122"/>
       <c r="B28" s="45" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C28" s="56">
         <v>2</v>
@@ -8263,23 +8922,23 @@
         <v>132</v>
       </c>
       <c r="F28" s="30" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G28" s="29" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="H28" s="29"/>
-      <c r="I28" s="29" t="s">
-        <v>691</v>
+      <c r="I28" s="139" t="s">
+        <v>689</v>
       </c>
       <c r="J28" s="33"/>
     </row>
     <row r="29" spans="1:10" s="26" customFormat="1" ht="48" customHeight="1">
-      <c r="A29" s="123" t="s">
-        <v>198</v>
+      <c r="A29" s="122" t="s">
+        <v>199</v>
       </c>
       <c r="B29" s="45" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C29" s="53">
         <v>1</v>
@@ -8291,21 +8950,21 @@
         <v>132</v>
       </c>
       <c r="F29" s="30" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G29" s="29" t="s">
         <v>26</v>
       </c>
       <c r="H29" s="29"/>
-      <c r="I29" s="29" t="s">
-        <v>690</v>
+      <c r="I29" s="139" t="s">
+        <v>689</v>
       </c>
       <c r="J29" s="33"/>
     </row>
-    <row r="30" spans="1:10" s="26" customFormat="1" ht="31.2">
-      <c r="A30" s="123"/>
+    <row r="30" spans="1:10" s="26" customFormat="1" ht="34">
+      <c r="A30" s="122"/>
       <c r="B30" s="45" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C30" s="53">
         <v>1</v>
@@ -8317,21 +8976,21 @@
         <v>132</v>
       </c>
       <c r="F30" s="30" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G30" s="29" t="s">
         <v>26</v>
       </c>
       <c r="H30" s="29"/>
-      <c r="I30" s="29" t="s">
-        <v>690</v>
+      <c r="I30" s="139" t="s">
+        <v>689</v>
       </c>
       <c r="J30" s="33"/>
     </row>
-    <row r="31" spans="1:10" s="26" customFormat="1" ht="46.8">
-      <c r="A31" s="123"/>
+    <row r="31" spans="1:10" s="26" customFormat="1" ht="34">
+      <c r="A31" s="122"/>
       <c r="B31" s="45" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C31" s="53">
         <v>1</v>
@@ -8343,21 +9002,21 @@
         <v>132</v>
       </c>
       <c r="F31" s="30" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G31" s="29" t="s">
         <v>26</v>
       </c>
       <c r="H31" s="29"/>
-      <c r="I31" s="29" t="s">
-        <v>690</v>
+      <c r="I31" s="139" t="s">
+        <v>689</v>
       </c>
       <c r="J31" s="33"/>
     </row>
-    <row r="32" spans="1:10" s="26" customFormat="1" ht="31.2">
-      <c r="A32" s="123"/>
+    <row r="32" spans="1:10" s="26" customFormat="1" ht="34">
+      <c r="A32" s="122"/>
       <c r="B32" s="45" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C32" s="53">
         <v>1</v>
@@ -8366,24 +9025,24 @@
         <v>16</v>
       </c>
       <c r="E32" s="28" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F32" s="30" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G32" s="29" t="s">
         <v>26</v>
       </c>
       <c r="H32" s="29"/>
-      <c r="I32" s="29" t="s">
-        <v>690</v>
+      <c r="I32" s="139" t="s">
+        <v>689</v>
       </c>
       <c r="J32" s="33"/>
     </row>
-    <row r="33" spans="1:10" s="26" customFormat="1" ht="31.2">
-      <c r="A33" s="123"/>
+    <row r="33" spans="1:10" s="26" customFormat="1" ht="34">
+      <c r="A33" s="122"/>
       <c r="B33" s="45" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C33" s="53">
         <v>1</v>
@@ -8392,24 +9051,24 @@
         <v>304</v>
       </c>
       <c r="E33" s="28" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F33" s="30" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G33" s="29" t="s">
         <v>26</v>
       </c>
       <c r="H33" s="29"/>
-      <c r="I33" s="29" t="s">
-        <v>690</v>
+      <c r="I33" s="139" t="s">
+        <v>689</v>
       </c>
       <c r="J33" s="33"/>
     </row>
-    <row r="34" spans="1:10" s="26" customFormat="1" ht="62.4">
-      <c r="A34" s="123"/>
+    <row r="34" spans="1:10" s="26" customFormat="1" ht="68">
+      <c r="A34" s="122"/>
       <c r="B34" s="45" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C34" s="53">
         <v>1</v>
@@ -8421,21 +9080,21 @@
         <v>132</v>
       </c>
       <c r="F34" s="30" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G34" s="29" t="s">
         <v>26</v>
       </c>
       <c r="H34" s="29"/>
-      <c r="I34" s="29" t="s">
-        <v>690</v>
+      <c r="I34" s="139" t="s">
+        <v>689</v>
       </c>
       <c r="J34" s="33"/>
     </row>
-    <row r="35" spans="1:10" s="26" customFormat="1" ht="46.8">
-      <c r="A35" s="123"/>
+    <row r="35" spans="1:10" s="26" customFormat="1" ht="34">
+      <c r="A35" s="122"/>
       <c r="B35" s="45" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C35" s="56">
         <v>2</v>
@@ -8444,26 +9103,26 @@
         <v>308</v>
       </c>
       <c r="E35" s="28" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F35" s="30" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G35" s="29" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="H35" s="29"/>
-      <c r="I35" s="29" t="s">
-        <v>690</v>
+      <c r="I35" s="139" t="s">
+        <v>689</v>
       </c>
       <c r="J35" s="33"/>
     </row>
     <row r="36" spans="1:10" s="26" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A36" s="123" t="s">
-        <v>214</v>
+      <c r="A36" s="122" t="s">
+        <v>215</v>
       </c>
       <c r="B36" s="45" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C36" s="56">
         <v>2</v>
@@ -8472,24 +9131,24 @@
         <v>308</v>
       </c>
       <c r="E36" s="28" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F36" s="30" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G36" s="29" t="s">
         <v>26</v>
       </c>
       <c r="H36" s="29"/>
-      <c r="I36" s="29" t="s">
-        <v>691</v>
+      <c r="I36" s="139" t="s">
+        <v>689</v>
       </c>
       <c r="J36" s="33"/>
     </row>
-    <row r="37" spans="1:10" s="26" customFormat="1" ht="46.8">
-      <c r="A37" s="123"/>
+    <row r="37" spans="1:10" s="26" customFormat="1" ht="51">
+      <c r="A37" s="122"/>
       <c r="B37" s="45" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C37" s="56">
         <v>2</v>
@@ -8498,24 +9157,24 @@
         <v>330</v>
       </c>
       <c r="E37" s="28" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F37" s="30" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G37" s="29" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="H37" s="29"/>
-      <c r="I37" s="29" t="s">
-        <v>690</v>
+      <c r="I37" s="139" t="s">
+        <v>689</v>
       </c>
       <c r="J37" s="33"/>
     </row>
-    <row r="38" spans="1:10" s="26" customFormat="1" ht="31.2">
-      <c r="A38" s="123"/>
+    <row r="38" spans="1:10" s="26" customFormat="1" ht="17">
+      <c r="A38" s="122"/>
       <c r="B38" s="45" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C38" s="56">
         <v>2</v>
@@ -8524,26 +9183,26 @@
         <v>310</v>
       </c>
       <c r="E38" s="28" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F38" s="30" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G38" s="29" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="H38" s="29"/>
-      <c r="I38" s="29" t="s">
-        <v>690</v>
+      <c r="I38" s="139" t="s">
+        <v>689</v>
       </c>
       <c r="J38" s="33"/>
     </row>
     <row r="39" spans="1:10" s="26" customFormat="1" ht="48" customHeight="1">
-      <c r="A39" s="123" t="s">
-        <v>222</v>
+      <c r="A39" s="122" t="s">
+        <v>223</v>
       </c>
       <c r="B39" s="45" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C39" s="53">
         <v>1</v>
@@ -8552,24 +9211,24 @@
         <v>287</v>
       </c>
       <c r="E39" s="28" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F39" s="30" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="G39" s="29" t="s">
         <v>26</v>
       </c>
       <c r="H39" s="29"/>
-      <c r="I39" s="29" t="s">
-        <v>690</v>
+      <c r="I39" s="139" t="s">
+        <v>689</v>
       </c>
       <c r="J39" s="33"/>
     </row>
-    <row r="40" spans="1:10" s="26" customFormat="1" ht="31.2">
-      <c r="A40" s="123"/>
+    <row r="40" spans="1:10" s="26" customFormat="1" ht="34">
+      <c r="A40" s="122"/>
       <c r="B40" s="45" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C40" s="53">
         <v>1</v>
@@ -8578,24 +9237,24 @@
         <v>287</v>
       </c>
       <c r="E40" s="28" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F40" s="30" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G40" s="29" t="s">
         <v>26</v>
       </c>
       <c r="H40" s="29"/>
-      <c r="I40" s="29" t="s">
-        <v>690</v>
+      <c r="I40" s="139" t="s">
+        <v>689</v>
       </c>
       <c r="J40" s="33"/>
     </row>
-    <row r="41" spans="1:10" s="26" customFormat="1" ht="46.8">
-      <c r="A41" s="123"/>
+    <row r="41" spans="1:10" s="26" customFormat="1" ht="34">
+      <c r="A41" s="122"/>
       <c r="B41" s="45" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C41" s="53">
         <v>1</v>
@@ -8604,24 +9263,24 @@
         <v>287</v>
       </c>
       <c r="E41" s="28" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F41" s="30" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="G41" s="29" t="s">
         <v>26</v>
       </c>
       <c r="H41" s="29"/>
-      <c r="I41" s="29" t="s">
-        <v>690</v>
+      <c r="I41" s="139" t="s">
+        <v>689</v>
       </c>
       <c r="J41" s="33"/>
     </row>
-    <row r="42" spans="1:10" s="26" customFormat="1" ht="31.2">
-      <c r="A42" s="123"/>
+    <row r="42" spans="1:10" s="26" customFormat="1" ht="34">
+      <c r="A42" s="122"/>
       <c r="B42" s="45" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C42" s="53">
         <v>1</v>
@@ -8630,24 +9289,24 @@
         <v>523</v>
       </c>
       <c r="E42" s="28" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F42" s="30" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G42" s="29" t="s">
         <v>26</v>
       </c>
       <c r="H42" s="29"/>
-      <c r="I42" s="29" t="s">
-        <v>690</v>
+      <c r="I42" s="139" t="s">
+        <v>689</v>
       </c>
       <c r="J42" s="33"/>
     </row>
-    <row r="43" spans="1:10" s="26" customFormat="1" ht="31.2">
-      <c r="A43" s="123"/>
+    <row r="43" spans="1:10" s="26" customFormat="1" ht="34">
+      <c r="A43" s="122"/>
       <c r="B43" s="45" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C43" s="56">
         <v>2</v>
@@ -8656,24 +9315,24 @@
         <v>256</v>
       </c>
       <c r="E43" s="28" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F43" s="30" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G43" s="29" t="s">
         <v>26</v>
       </c>
       <c r="H43" s="29"/>
-      <c r="I43" s="29" t="s">
-        <v>693</v>
+      <c r="I43" s="139" t="s">
+        <v>689</v>
       </c>
       <c r="J43" s="33"/>
     </row>
-    <row r="44" spans="1:10" s="26" customFormat="1" ht="46.8">
-      <c r="A44" s="123"/>
+    <row r="44" spans="1:10" s="26" customFormat="1" ht="51">
+      <c r="A44" s="122"/>
       <c r="B44" s="45" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C44" s="56">
         <v>2</v>
@@ -8682,26 +9341,26 @@
         <v>310</v>
       </c>
       <c r="E44" s="28" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F44" s="30" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G44" s="29" t="s">
         <v>26</v>
       </c>
       <c r="H44" s="29"/>
-      <c r="I44" s="29" t="s">
-        <v>693</v>
+      <c r="I44" s="139" t="s">
+        <v>689</v>
       </c>
       <c r="J44" s="33"/>
     </row>
     <row r="45" spans="1:10" s="26" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A45" s="123" t="s">
-        <v>236</v>
+      <c r="A45" s="122" t="s">
+        <v>237</v>
       </c>
       <c r="B45" s="45" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C45" s="53">
         <v>1</v>
@@ -8710,24 +9369,24 @@
         <v>613</v>
       </c>
       <c r="E45" s="28" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F45" s="30" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G45" s="29" t="s">
         <v>26</v>
       </c>
       <c r="H45" s="29"/>
-      <c r="I45" s="29" t="s">
-        <v>690</v>
+      <c r="I45" s="139" t="s">
+        <v>689</v>
       </c>
       <c r="J45" s="33"/>
     </row>
-    <row r="46" spans="1:10" s="26" customFormat="1" ht="46.8">
-      <c r="A46" s="123"/>
+    <row r="46" spans="1:10" s="26" customFormat="1" ht="51">
+      <c r="A46" s="122"/>
       <c r="B46" s="45" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C46" s="56">
         <v>2</v>
@@ -8736,24 +9395,24 @@
         <v>320</v>
       </c>
       <c r="E46" s="28" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F46" s="30" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="G46" s="29" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="H46" s="29"/>
-      <c r="I46" s="29" t="s">
-        <v>693</v>
+      <c r="I46" s="139" t="s">
+        <v>689</v>
       </c>
       <c r="J46" s="33"/>
     </row>
-    <row r="47" spans="1:10" s="26" customFormat="1" ht="31.2">
-      <c r="A47" s="123"/>
+    <row r="47" spans="1:10" s="26" customFormat="1" ht="34">
+      <c r="A47" s="122"/>
       <c r="B47" s="45" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C47" s="56">
         <v>2</v>
@@ -8762,24 +9421,24 @@
         <v>326</v>
       </c>
       <c r="E47" s="28" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F47" s="30" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G47" s="29" t="s">
         <v>26</v>
       </c>
       <c r="H47" s="29"/>
-      <c r="I47" s="29" t="s">
-        <v>693</v>
+      <c r="I47" s="139" t="s">
+        <v>689</v>
       </c>
       <c r="J47" s="33"/>
     </row>
-    <row r="48" spans="1:10" s="26" customFormat="1" ht="31.2">
-      <c r="A48" s="123"/>
+    <row r="48" spans="1:10" s="26" customFormat="1" ht="34">
+      <c r="A48" s="122"/>
       <c r="B48" s="45" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C48" s="56">
         <v>2</v>
@@ -8788,24 +9447,24 @@
         <v>287</v>
       </c>
       <c r="E48" s="28" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F48" s="30" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="G48" s="29" t="s">
         <v>26</v>
       </c>
       <c r="H48" s="29"/>
-      <c r="I48" s="29" t="s">
-        <v>693</v>
+      <c r="I48" s="139" t="s">
+        <v>689</v>
       </c>
       <c r="J48" s="33"/>
     </row>
-    <row r="49" spans="1:10" s="26" customFormat="1" ht="46.8">
-      <c r="A49" s="123"/>
+    <row r="49" spans="1:10" s="26" customFormat="1" ht="51">
+      <c r="A49" s="122"/>
       <c r="B49" s="45" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C49" s="56">
         <v>2</v>
@@ -8814,24 +9473,24 @@
         <v>287</v>
       </c>
       <c r="E49" s="28" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F49" s="30" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="G49" s="29" t="s">
         <v>26</v>
       </c>
       <c r="H49" s="29"/>
-      <c r="I49" s="29" t="s">
-        <v>693</v>
+      <c r="I49" s="139" t="s">
+        <v>689</v>
       </c>
       <c r="J49" s="33"/>
     </row>
-    <row r="50" spans="1:10" s="26" customFormat="1" ht="46.8">
-      <c r="A50" s="123"/>
+    <row r="50" spans="1:10" s="26" customFormat="1" ht="51">
+      <c r="A50" s="122"/>
       <c r="B50" s="45" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C50" s="56">
         <v>2</v>
@@ -8840,24 +9499,24 @@
         <v>613</v>
       </c>
       <c r="E50" s="28" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F50" s="30" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G50" s="29" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="H50" s="29"/>
-      <c r="I50" s="29" t="s">
-        <v>693</v>
+      <c r="I50" s="139" t="s">
+        <v>689</v>
       </c>
       <c r="J50" s="33"/>
     </row>
-    <row r="51" spans="1:10" s="26" customFormat="1" ht="46.8">
-      <c r="A51" s="123"/>
+    <row r="51" spans="1:10" s="26" customFormat="1" ht="34">
+      <c r="A51" s="122"/>
       <c r="B51" s="45" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C51" s="55">
         <v>3</v>
@@ -8866,26 +9525,26 @@
         <v>308</v>
       </c>
       <c r="E51" s="28" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F51" s="30" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G51" s="29" t="s">
         <v>26</v>
       </c>
       <c r="H51" s="29"/>
-      <c r="I51" s="29" t="s">
-        <v>691</v>
+      <c r="I51" s="139" t="s">
+        <v>689</v>
       </c>
       <c r="J51" s="33"/>
     </row>
     <row r="52" spans="1:10" s="26" customFormat="1" ht="63.75" customHeight="1">
-      <c r="A52" s="123" t="s">
-        <v>255</v>
+      <c r="A52" s="122" t="s">
+        <v>256</v>
       </c>
       <c r="B52" s="45" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C52" s="56">
         <v>2</v>
@@ -8894,24 +9553,24 @@
         <v>320</v>
       </c>
       <c r="E52" s="28" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F52" s="30" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G52" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="H52" s="29"/>
+      <c r="I52" s="139" t="s">
         <v>689</v>
       </c>
-      <c r="H52" s="29"/>
-      <c r="I52" s="29" t="s">
-        <v>688</v>
-      </c>
       <c r="J52" s="33"/>
     </row>
-    <row r="53" spans="1:10" s="26" customFormat="1" ht="31.2">
-      <c r="A53" s="123"/>
+    <row r="53" spans="1:10" s="26" customFormat="1" ht="34">
+      <c r="A53" s="122"/>
       <c r="B53" s="45" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C53" s="56">
         <v>2</v>
@@ -8920,24 +9579,24 @@
         <v>330</v>
       </c>
       <c r="E53" s="28" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F53" s="30" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G53" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="H53" s="29"/>
+      <c r="I53" s="139" t="s">
         <v>689</v>
       </c>
-      <c r="H53" s="29"/>
-      <c r="I53" s="29" t="s">
-        <v>688</v>
-      </c>
       <c r="J53" s="33"/>
     </row>
-    <row r="54" spans="1:10" s="26" customFormat="1" ht="31.2">
-      <c r="A54" s="123"/>
+    <row r="54" spans="1:10" s="26" customFormat="1" ht="34">
+      <c r="A54" s="122"/>
       <c r="B54" s="45" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C54" s="56">
         <v>2</v>
@@ -8946,121 +9605,121 @@
         <v>327</v>
       </c>
       <c r="E54" s="28" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F54" s="30" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G54" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="H54" s="29"/>
+      <c r="I54" s="139" t="s">
         <v>689</v>
       </c>
-      <c r="H54" s="29"/>
-      <c r="I54" s="29" t="s">
-        <v>688</v>
-      </c>
       <c r="J54" s="33"/>
     </row>
     <row r="55" spans="1:10" s="26" customFormat="1" ht="79.5" customHeight="1">
-      <c r="A55" s="123" t="s">
-        <v>263</v>
+      <c r="A55" s="122" t="s">
+        <v>264</v>
       </c>
       <c r="B55" s="45" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C55" s="56" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D55" s="54">
         <v>287</v>
       </c>
       <c r="E55" s="28" t="s">
+        <v>267</v>
+      </c>
+      <c r="F55" s="30" t="s">
+        <v>268</v>
+      </c>
+      <c r="G55" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="H55" s="29"/>
+      <c r="I55" s="139" t="s">
+        <v>689</v>
+      </c>
+      <c r="J55" s="33"/>
+    </row>
+    <row r="56" spans="1:10" s="26" customFormat="1" ht="51">
+      <c r="A56" s="122"/>
+      <c r="B56" s="45" t="s">
+        <v>269</v>
+      </c>
+      <c r="C56" s="56" t="s">
         <v>266</v>
-      </c>
-      <c r="F55" s="30" t="s">
-        <v>267</v>
-      </c>
-      <c r="G55" s="29" t="s">
-        <v>689</v>
-      </c>
-      <c r="H55" s="29"/>
-      <c r="I55" s="29" t="s">
-        <v>688</v>
-      </c>
-      <c r="J55" s="33"/>
-    </row>
-    <row r="56" spans="1:10" s="26" customFormat="1" ht="46.8">
-      <c r="A56" s="123"/>
-      <c r="B56" s="45" t="s">
-        <v>268</v>
-      </c>
-      <c r="C56" s="56" t="s">
-        <v>265</v>
       </c>
       <c r="D56" s="54">
         <v>255</v>
       </c>
       <c r="E56" s="28" t="s">
+        <v>267</v>
+      </c>
+      <c r="F56" s="30" t="s">
+        <v>270</v>
+      </c>
+      <c r="G56" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="H56" s="29"/>
+      <c r="I56" s="139" t="s">
+        <v>689</v>
+      </c>
+      <c r="J56" s="33"/>
+    </row>
+    <row r="57" spans="1:10" s="26" customFormat="1" ht="51">
+      <c r="A57" s="122"/>
+      <c r="B57" s="45" t="s">
+        <v>271</v>
+      </c>
+      <c r="C57" s="56" t="s">
         <v>266</v>
-      </c>
-      <c r="F56" s="30" t="s">
-        <v>269</v>
-      </c>
-      <c r="G56" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="H56" s="29"/>
-      <c r="I56" s="29" t="s">
-        <v>691</v>
-      </c>
-      <c r="J56" s="33"/>
-    </row>
-    <row r="57" spans="1:10" s="26" customFormat="1" ht="46.8">
-      <c r="A57" s="123"/>
-      <c r="B57" s="45" t="s">
-        <v>270</v>
-      </c>
-      <c r="C57" s="56" t="s">
-        <v>265</v>
       </c>
       <c r="D57" s="54">
         <v>522</v>
       </c>
       <c r="E57" s="28" t="s">
+        <v>267</v>
+      </c>
+      <c r="F57" s="30" t="s">
+        <v>272</v>
+      </c>
+      <c r="G57" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="H57" s="29"/>
+      <c r="I57" s="139" t="s">
+        <v>689</v>
+      </c>
+      <c r="J57" s="33"/>
+    </row>
+    <row r="58" spans="1:10" s="26" customFormat="1" ht="85">
+      <c r="A58" s="122"/>
+      <c r="B58" s="45" t="s">
+        <v>273</v>
+      </c>
+      <c r="C58" s="57" t="s">
         <v>266</v>
-      </c>
-      <c r="F57" s="30" t="s">
-        <v>271</v>
-      </c>
-      <c r="G57" s="29" t="s">
-        <v>689</v>
-      </c>
-      <c r="H57" s="29"/>
-      <c r="I57" s="29" t="s">
-        <v>688</v>
-      </c>
-      <c r="J57" s="33"/>
-    </row>
-    <row r="58" spans="1:10" s="26" customFormat="1" ht="93.6">
-      <c r="A58" s="123"/>
-      <c r="B58" s="45" t="s">
-        <v>272</v>
-      </c>
-      <c r="C58" s="57" t="s">
-        <v>265</v>
       </c>
       <c r="D58" s="58">
         <v>798</v>
       </c>
       <c r="E58" s="35"/>
       <c r="F58" s="37" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="G58" s="36" t="s">
+        <v>136</v>
+      </c>
+      <c r="H58" s="36"/>
+      <c r="I58" s="139" t="s">
         <v>689</v>
-      </c>
-      <c r="H58" s="36"/>
-      <c r="I58" s="36" t="s">
-        <v>688</v>
       </c>
       <c r="J58" s="38"/>
     </row>
@@ -9077,12 +9736,17 @@
     <mergeCell ref="A52:A54"/>
     <mergeCell ref="A55:A58"/>
   </mergeCells>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" operator="equal" showErrorMessage="1" sqref="G2:G58" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"Valid,Non-valid,Not Applicable"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="I3" r:id="rId1" xr:uid="{DDAA73C2-2625-49C9-BACF-88A5FD249A33}"/>
+    <hyperlink ref="I2" r:id="rId2" xr:uid="{13F4237C-58F4-46EF-A4E4-6283B0DE6303}"/>
+    <hyperlink ref="I4:I58" r:id="rId3" display="Analysis" xr:uid="{837C973D-DF4F-4472-A7E1-49DDFD54C524}"/>
+  </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
@@ -9100,21 +9764,21 @@
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="21"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="21"/>
   <cols>
-    <col min="1" max="1" width="40.77734375" style="59" customWidth="1"/>
+    <col min="1" max="1" width="40.6640625" style="59" customWidth="1"/>
     <col min="2" max="2" width="11" style="26" customWidth="1"/>
-    <col min="3" max="3" width="11.77734375" style="60" customWidth="1"/>
-    <col min="4" max="5" width="8.77734375" style="60"/>
+    <col min="3" max="3" width="11.6640625" style="60" customWidth="1"/>
+    <col min="4" max="5" width="8.6640625" style="60"/>
     <col min="6" max="6" width="70" style="26" customWidth="1"/>
     <col min="7" max="7" width="20.6640625" style="26" customWidth="1"/>
-    <col min="8" max="8" width="36.109375" style="26" customWidth="1"/>
+    <col min="8" max="8" width="36.1640625" style="26" customWidth="1"/>
     <col min="9" max="9" width="35.6640625" style="26" customWidth="1"/>
-    <col min="10" max="10" width="42.77734375" style="26" customWidth="1"/>
-    <col min="11" max="1024" width="8.77734375" style="26"/>
+    <col min="10" max="10" width="42.6640625" style="26" customWidth="1"/>
+    <col min="11" max="1024" width="8.6640625" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="44" customFormat="1" ht="42">
+    <row r="1" spans="1:10" s="44" customFormat="1" ht="44">
       <c r="A1" s="61" t="s">
         <v>20</v>
       </c>
@@ -9139,19 +9803,20 @@
       <c r="H1" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="62" t="s">
-        <v>28</v>
+      <c r="I1" s="136" t="str">
+        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/session_management.md", "Analysis done here")</f>
+        <v>Analysis done here</v>
       </c>
       <c r="J1" s="62" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="42">
+    <row r="2" spans="1:10" ht="44">
       <c r="A2" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B2" s="63" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C2" s="64">
         <v>1</v>
@@ -9161,19 +9826,24 @@
       </c>
       <c r="E2" s="65"/>
       <c r="F2" s="49" t="s">
-        <v>276</v>
-      </c>
-      <c r="G2" s="50"/>
+        <v>277</v>
+      </c>
+      <c r="G2" s="50" t="s">
+        <v>26</v>
+      </c>
       <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
+      <c r="I2" s="126" t="str">
+        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/session_management.md", "Analysis done here")</f>
+        <v>Analysis done here</v>
+      </c>
       <c r="J2" s="66"/>
     </row>
     <row r="3" spans="1:10" ht="63.75" customHeight="1">
-      <c r="A3" s="123" t="s">
-        <v>277</v>
+      <c r="A3" s="122" t="s">
+        <v>278</v>
       </c>
       <c r="B3" s="63" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C3" s="67">
         <v>1</v>
@@ -9185,17 +9855,22 @@
         <v>7.1</v>
       </c>
       <c r="F3" s="30" t="s">
-        <v>279</v>
-      </c>
-      <c r="G3" s="29"/>
+        <v>280</v>
+      </c>
+      <c r="G3" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
+      <c r="I3" s="137" t="str">
+        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/session_management.md", "Analysis done here")</f>
+        <v>Analysis done here</v>
+      </c>
       <c r="J3" s="33"/>
     </row>
-    <row r="4" spans="1:10" ht="46.8">
-      <c r="A4" s="123"/>
+    <row r="4" spans="1:10" ht="51">
+      <c r="A4" s="122"/>
       <c r="B4" s="63" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C4" s="67">
         <v>1</v>
@@ -9207,17 +9882,22 @@
         <v>7.1</v>
       </c>
       <c r="F4" s="30" t="s">
-        <v>281</v>
-      </c>
-      <c r="G4" s="29"/>
+        <v>282</v>
+      </c>
+      <c r="G4" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
+      <c r="I4" s="137" t="str">
+        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/session_management.md", "Analysis done here")</f>
+        <v>Analysis done here</v>
+      </c>
       <c r="J4" s="33"/>
     </row>
-    <row r="5" spans="1:10" ht="46.8">
-      <c r="A5" s="123"/>
+    <row r="5" spans="1:10" ht="51">
+      <c r="A5" s="122"/>
       <c r="B5" s="63" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C5" s="67">
         <v>1</v>
@@ -9229,17 +9909,22 @@
         <v>7.1</v>
       </c>
       <c r="F5" s="30" t="s">
-        <v>283</v>
-      </c>
-      <c r="G5" s="29"/>
+        <v>284</v>
+      </c>
+      <c r="G5" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
+      <c r="I5" s="137" t="str">
+        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/session_management.md", "Analysis done here")</f>
+        <v>Analysis done here</v>
+      </c>
       <c r="J5" s="33"/>
     </row>
-    <row r="6" spans="1:10" ht="62.4">
-      <c r="A6" s="123"/>
+    <row r="6" spans="1:10" ht="68">
+      <c r="A6" s="122"/>
       <c r="B6" s="63" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C6" s="69">
         <v>2</v>
@@ -9251,19 +9936,24 @@
         <v>7.1</v>
       </c>
       <c r="F6" s="30" t="s">
-        <v>285</v>
-      </c>
-      <c r="G6" s="29"/>
+        <v>286</v>
+      </c>
+      <c r="G6" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
+      <c r="I6" s="137" t="str">
+        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/session_management.md", "Analysis done here")</f>
+        <v>Analysis done here</v>
+      </c>
       <c r="J6" s="33"/>
     </row>
     <row r="7" spans="1:10" ht="79.5" customHeight="1">
-      <c r="A7" s="123" t="s">
-        <v>286</v>
+      <c r="A7" s="122" t="s">
+        <v>287</v>
       </c>
       <c r="B7" s="63" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C7" s="67">
         <v>1</v>
@@ -9275,17 +9965,22 @@
         <v>7.1</v>
       </c>
       <c r="F7" s="30" t="s">
-        <v>288</v>
-      </c>
-      <c r="G7" s="29"/>
+        <v>289</v>
+      </c>
+      <c r="G7" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
+      <c r="I7" s="137" t="str">
+        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/session_management.md", "Analysis done here")</f>
+        <v>Analysis done here</v>
+      </c>
       <c r="J7" s="33"/>
     </row>
-    <row r="8" spans="1:10" ht="109.2">
-      <c r="A8" s="123"/>
+    <row r="8" spans="1:10" ht="102">
+      <c r="A8" s="122"/>
       <c r="B8" s="63" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C8" s="67">
         <v>1</v>
@@ -9297,17 +9992,22 @@
         <v>7.2</v>
       </c>
       <c r="F8" s="30" t="s">
-        <v>290</v>
-      </c>
-      <c r="G8" s="29"/>
+        <v>291</v>
+      </c>
+      <c r="G8" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
+      <c r="I8" s="137" t="str">
+        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/session_management.md", "Analysis done here")</f>
+        <v>Analysis done here</v>
+      </c>
       <c r="J8" s="33"/>
     </row>
-    <row r="9" spans="1:10" ht="62.4">
-      <c r="A9" s="123"/>
+    <row r="9" spans="1:10" ht="68">
+      <c r="A9" s="122"/>
       <c r="B9" s="63" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C9" s="69">
         <v>2</v>
@@ -9317,17 +10017,22 @@
       </c>
       <c r="E9" s="68"/>
       <c r="F9" s="30" t="s">
-        <v>292</v>
-      </c>
-      <c r="G9" s="29"/>
+        <v>293</v>
+      </c>
+      <c r="G9" s="29" t="s">
+        <v>136</v>
+      </c>
       <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
+      <c r="I9" s="137" t="str">
+        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/session_management.md", "Analysis done here")</f>
+        <v>Analysis done here</v>
+      </c>
       <c r="J9" s="33"/>
     </row>
-    <row r="10" spans="1:10" ht="31.2">
-      <c r="A10" s="123"/>
+    <row r="10" spans="1:10" ht="34">
+      <c r="A10" s="122"/>
       <c r="B10" s="63" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C10" s="69">
         <v>2</v>
@@ -9339,19 +10044,24 @@
         <v>7.1</v>
       </c>
       <c r="F10" s="30" t="s">
-        <v>294</v>
-      </c>
-      <c r="G10" s="29"/>
+        <v>295</v>
+      </c>
+      <c r="G10" s="29" t="s">
+        <v>136</v>
+      </c>
       <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
+      <c r="I10" s="137" t="str">
+        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/session_management.md", "Analysis done here")</f>
+        <v>Analysis done here</v>
+      </c>
       <c r="J10" s="33"/>
     </row>
     <row r="11" spans="1:10" ht="48" customHeight="1">
-      <c r="A11" s="123" t="s">
-        <v>295</v>
+      <c r="A11" s="122" t="s">
+        <v>296</v>
       </c>
       <c r="B11" s="63" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C11" s="67">
         <v>1</v>
@@ -9360,20 +10070,25 @@
         <v>614</v>
       </c>
       <c r="E11" s="68" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F11" s="30" t="s">
-        <v>298</v>
-      </c>
-      <c r="G11" s="29"/>
+        <v>299</v>
+      </c>
+      <c r="G11" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
+      <c r="I11" s="137" t="str">
+        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/session_management.md", "Analysis done here")</f>
+        <v>Analysis done here</v>
+      </c>
       <c r="J11" s="33"/>
     </row>
-    <row r="12" spans="1:10" ht="46.8">
-      <c r="A12" s="123"/>
+    <row r="12" spans="1:10" ht="34">
+      <c r="A12" s="122"/>
       <c r="B12" s="63" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C12" s="67">
         <v>1</v>
@@ -9382,20 +10097,25 @@
         <v>1004</v>
       </c>
       <c r="E12" s="68" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F12" s="30" t="s">
-        <v>300</v>
-      </c>
-      <c r="G12" s="29"/>
+        <v>301</v>
+      </c>
+      <c r="G12" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
+      <c r="I12" s="137" t="str">
+        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/session_management.md", "Analysis done here")</f>
+        <v>Analysis done here</v>
+      </c>
       <c r="J12" s="33"/>
     </row>
-    <row r="13" spans="1:10" ht="62.4">
-      <c r="A13" s="123"/>
+    <row r="13" spans="1:10" ht="51">
+      <c r="A13" s="122"/>
       <c r="B13" s="63" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C13" s="67">
         <v>1</v>
@@ -9404,20 +10124,25 @@
         <v>16</v>
       </c>
       <c r="E13" s="68" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F13" s="30" t="s">
-        <v>302</v>
-      </c>
-      <c r="G13" s="29"/>
+        <v>303</v>
+      </c>
+      <c r="G13" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
+      <c r="I13" s="137" t="str">
+        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/session_management.md", "Analysis done here")</f>
+        <v>Analysis done here</v>
+      </c>
       <c r="J13" s="33"/>
     </row>
-    <row r="14" spans="1:10" ht="31.2">
-      <c r="A14" s="123"/>
+    <row r="14" spans="1:10" ht="34">
+      <c r="A14" s="122"/>
       <c r="B14" s="63" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C14" s="67">
         <v>1</v>
@@ -9426,20 +10151,25 @@
         <v>16</v>
       </c>
       <c r="E14" s="68" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F14" s="30" t="s">
-        <v>304</v>
-      </c>
-      <c r="G14" s="29"/>
+        <v>305</v>
+      </c>
+      <c r="G14" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
+      <c r="I14" s="137" t="str">
+        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/session_management.md", "Analysis done here")</f>
+        <v>Analysis done here</v>
+      </c>
       <c r="J14" s="33"/>
     </row>
-    <row r="15" spans="1:10" ht="93.6">
-      <c r="A15" s="123"/>
+    <row r="15" spans="1:10" ht="85">
+      <c r="A15" s="122"/>
       <c r="B15" s="63" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C15" s="67">
         <v>1</v>
@@ -9448,22 +10178,27 @@
         <v>16</v>
       </c>
       <c r="E15" s="68" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F15" s="30" t="s">
-        <v>306</v>
-      </c>
-      <c r="G15" s="29"/>
+        <v>307</v>
+      </c>
+      <c r="G15" s="29" t="s">
+        <v>136</v>
+      </c>
       <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
+      <c r="I15" s="137" t="str">
+        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/session_management.md", "Analysis done here")</f>
+        <v>Analysis done here</v>
+      </c>
       <c r="J15" s="33"/>
     </row>
     <row r="16" spans="1:10" ht="32.25" customHeight="1">
-      <c r="A16" s="123" t="s">
-        <v>307</v>
+      <c r="A16" s="122" t="s">
+        <v>308</v>
       </c>
       <c r="B16" s="63" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C16" s="69">
         <v>2</v>
@@ -9472,20 +10207,25 @@
         <v>290</v>
       </c>
       <c r="E16" s="68" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F16" s="30" t="s">
-        <v>310</v>
-      </c>
-      <c r="G16" s="29"/>
+        <v>311</v>
+      </c>
+      <c r="G16" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
+      <c r="I16" s="137" t="str">
+        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/session_management.md", "Analysis done here")</f>
+        <v>Analysis done here</v>
+      </c>
       <c r="J16" s="33"/>
     </row>
-    <row r="17" spans="1:10" ht="31.2">
-      <c r="A17" s="123"/>
+    <row r="17" spans="1:10" ht="34">
+      <c r="A17" s="122"/>
       <c r="B17" s="63" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C17" s="69">
         <v>2</v>
@@ -9495,17 +10235,22 @@
       </c>
       <c r="E17" s="68"/>
       <c r="F17" s="30" t="s">
-        <v>312</v>
-      </c>
-      <c r="G17" s="29"/>
+        <v>313</v>
+      </c>
+      <c r="G17" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
+      <c r="I17" s="137" t="str">
+        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/session_management.md", "Analysis done here")</f>
+        <v>Analysis done here</v>
+      </c>
       <c r="J17" s="33"/>
     </row>
-    <row r="18" spans="1:10" ht="46.8">
-      <c r="A18" s="123"/>
+    <row r="18" spans="1:10" ht="51">
+      <c r="A18" s="122"/>
       <c r="B18" s="63" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C18" s="69">
         <v>2</v>
@@ -9515,19 +10260,24 @@
       </c>
       <c r="E18" s="68"/>
       <c r="F18" s="30" t="s">
-        <v>314</v>
-      </c>
-      <c r="G18" s="29"/>
+        <v>315</v>
+      </c>
+      <c r="G18" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
+      <c r="I18" s="137" t="str">
+        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/session_management.md", "Analysis done here")</f>
+        <v>Analysis done here</v>
+      </c>
       <c r="J18" s="33"/>
     </row>
     <row r="19" spans="1:10" ht="63.75" customHeight="1">
-      <c r="A19" s="123" t="s">
-        <v>315</v>
+      <c r="A19" s="122" t="s">
+        <v>316</v>
       </c>
       <c r="B19" s="63" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C19" s="70">
         <v>3</v>
@@ -9536,20 +10286,25 @@
         <v>613</v>
       </c>
       <c r="E19" s="68" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="F19" s="30" t="s">
-        <v>318</v>
-      </c>
-      <c r="G19" s="29"/>
+        <v>319</v>
+      </c>
+      <c r="G19" s="29" t="s">
+        <v>136</v>
+      </c>
       <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
+      <c r="I19" s="137" t="str">
+        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/session_management.md", "Analysis done here")</f>
+        <v>Analysis done here</v>
+      </c>
       <c r="J19" s="33"/>
     </row>
-    <row r="20" spans="1:10" ht="46.8">
-      <c r="A20" s="123"/>
+    <row r="20" spans="1:10" ht="52" thickBot="1">
+      <c r="A20" s="122"/>
       <c r="B20" s="63" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C20" s="70">
         <v>3</v>
@@ -9558,22 +10313,27 @@
         <v>613</v>
       </c>
       <c r="E20" s="68" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="F20" s="30" t="s">
-        <v>320</v>
-      </c>
-      <c r="G20" s="29"/>
+        <v>321</v>
+      </c>
+      <c r="G20" s="29" t="s">
+        <v>136</v>
+      </c>
       <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
+      <c r="I20" s="137" t="str">
+        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/session_management.md", "Analysis done here")</f>
+        <v>Analysis done here</v>
+      </c>
       <c r="J20" s="33"/>
     </row>
-    <row r="21" spans="1:10" ht="46.8">
+    <row r="21" spans="1:10" ht="52" thickBot="1">
       <c r="A21" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B21" s="63" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C21" s="71">
         <v>1</v>
@@ -9583,11 +10343,16 @@
       </c>
       <c r="E21" s="72"/>
       <c r="F21" s="37" t="s">
-        <v>323</v>
-      </c>
-      <c r="G21" s="36"/>
+        <v>324</v>
+      </c>
+      <c r="G21" s="36" t="s">
+        <v>26</v>
+      </c>
       <c r="H21" s="36"/>
-      <c r="I21" s="36"/>
+      <c r="I21" s="138" t="str">
+        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/session_management.md", "Analysis done here")</f>
+        <v>Analysis done here</v>
+      </c>
       <c r="J21" s="38"/>
     </row>
     <row r="22" spans="1:10" s="26" customFormat="1">
@@ -9626,25 +10391,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AMJ11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="21"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="21"/>
   <cols>
-    <col min="1" max="1" width="38.44140625" style="73" customWidth="1"/>
+    <col min="1" max="1" width="38.5" style="73" customWidth="1"/>
     <col min="2" max="2" width="12.33203125" style="74" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" style="60" customWidth="1"/>
-    <col min="4" max="5" width="8.77734375" style="60"/>
+    <col min="3" max="3" width="12.5" style="60" customWidth="1"/>
+    <col min="4" max="5" width="8.6640625" style="60"/>
     <col min="6" max="6" width="68.6640625" style="26" customWidth="1"/>
-    <col min="7" max="7" width="18.109375" style="26" customWidth="1"/>
+    <col min="7" max="7" width="18.1640625" style="26" customWidth="1"/>
     <col min="8" max="8" width="32.6640625" style="26" customWidth="1"/>
     <col min="9" max="9" width="27.33203125" style="26" customWidth="1"/>
-    <col min="10" max="10" width="42.109375" style="26" customWidth="1"/>
-    <col min="11" max="1024" width="8.77734375" style="26"/>
+    <col min="10" max="10" width="42.1640625" style="26" customWidth="1"/>
+    <col min="11" max="1024" width="8.6640625" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="77" customFormat="1">
+    <row r="1" spans="1:10" s="77" customFormat="1" ht="22" thickBot="1">
       <c r="A1" s="41" t="s">
         <v>20</v>
       </c>
@@ -9676,12 +10441,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="48" customHeight="1">
-      <c r="A2" s="123" t="s">
-        <v>324</v>
+    <row r="2" spans="1:10" ht="48" customHeight="1" thickBot="1">
+      <c r="A2" s="122" t="s">
+        <v>325</v>
       </c>
       <c r="B2" s="78" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C2" s="64">
         <v>1</v>
@@ -9691,19 +10456,22 @@
       </c>
       <c r="E2" s="50"/>
       <c r="F2" s="49" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="G2" s="50" t="s">
         <v>26</v>
       </c>
       <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="66"/>
-    </row>
-    <row r="3" spans="1:10" ht="46.8">
-      <c r="A3" s="123"/>
+      <c r="I2" s="126" t="str">
+        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/access_control.md", "Analysis done here")</f>
+        <v>Analysis done here</v>
+      </c>
+      <c r="J2" s="129"/>
+    </row>
+    <row r="3" spans="1:10" ht="35" thickBot="1">
+      <c r="A3" s="122"/>
       <c r="B3" s="78" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C3" s="67">
         <v>1</v>
@@ -9713,19 +10481,22 @@
       </c>
       <c r="E3" s="29"/>
       <c r="F3" s="30" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="G3" s="29" t="s">
         <v>26</v>
       </c>
       <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="33"/>
-    </row>
-    <row r="4" spans="1:10" ht="93.6">
-      <c r="A4" s="123"/>
+      <c r="I3" s="126" t="str">
+        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/access_control.md", "Analysis done here")</f>
+        <v>Analysis done here</v>
+      </c>
+      <c r="J3" s="128"/>
+    </row>
+    <row r="4" spans="1:10" ht="86" thickBot="1">
+      <c r="A4" s="122"/>
       <c r="B4" s="78" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C4" s="67">
         <v>1</v>
@@ -9735,19 +10506,22 @@
       </c>
       <c r="E4" s="29"/>
       <c r="F4" s="30" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="G4" s="29" t="s">
         <v>26</v>
       </c>
       <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="33"/>
-    </row>
-    <row r="5" spans="1:10" ht="15.6">
-      <c r="A5" s="123"/>
+      <c r="I4" s="126" t="str">
+        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/access_control.md", "Analysis done here")</f>
+        <v>Analysis done here</v>
+      </c>
+      <c r="J4" s="128"/>
+    </row>
+    <row r="5" spans="1:10" ht="18" thickBot="1">
+      <c r="A5" s="122"/>
       <c r="B5" s="78" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C5" s="67">
         <v>1</v>
@@ -9763,13 +10537,16 @@
         <v>56</v>
       </c>
       <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="33"/>
-    </row>
-    <row r="6" spans="1:10" ht="46.8">
-      <c r="A6" s="123"/>
+      <c r="I5" s="126" t="str">
+        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/access_control.md", "Analysis done here")</f>
+        <v>Analysis done here</v>
+      </c>
+      <c r="J5" s="128"/>
+    </row>
+    <row r="6" spans="1:10" ht="35" thickBot="1">
+      <c r="A6" s="122"/>
       <c r="B6" s="78" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C6" s="67">
         <v>1</v>
@@ -9779,21 +10556,24 @@
       </c>
       <c r="E6" s="29"/>
       <c r="F6" s="30" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="G6" s="29" t="s">
         <v>26</v>
       </c>
       <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="33"/>
-    </row>
-    <row r="7" spans="1:10" ht="79.5" customHeight="1">
-      <c r="A7" s="123" t="s">
-        <v>334</v>
+      <c r="I6" s="126" t="str">
+        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/access_control.md", "Analysis done here")</f>
+        <v>Analysis done here</v>
+      </c>
+      <c r="J6" s="128"/>
+    </row>
+    <row r="7" spans="1:10" ht="79.5" customHeight="1" thickBot="1">
+      <c r="A7" s="122" t="s">
+        <v>335</v>
       </c>
       <c r="B7" s="78" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C7" s="67">
         <v>1</v>
@@ -9803,19 +10583,22 @@
       </c>
       <c r="E7" s="29"/>
       <c r="F7" s="30" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="G7" s="29" t="s">
         <v>26</v>
       </c>
       <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="33"/>
-    </row>
-    <row r="8" spans="1:10" ht="46.8">
-      <c r="A8" s="123"/>
+      <c r="I7" s="126" t="str">
+        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/access_control.md", "Analysis done here")</f>
+        <v>Analysis done here</v>
+      </c>
+      <c r="J7" s="128"/>
+    </row>
+    <row r="8" spans="1:10" ht="52" thickBot="1">
+      <c r="A8" s="122"/>
       <c r="B8" s="78" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C8" s="67">
         <v>1</v>
@@ -9825,21 +10608,24 @@
       </c>
       <c r="E8" s="29"/>
       <c r="F8" s="30" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="G8" s="29" t="s">
         <v>26</v>
       </c>
       <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="33"/>
-    </row>
-    <row r="9" spans="1:10" ht="32.25" customHeight="1">
-      <c r="A9" s="123" t="s">
-        <v>339</v>
+      <c r="I8" s="126" t="str">
+        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/access_control.md", "Analysis done here")</f>
+        <v>Analysis done here</v>
+      </c>
+      <c r="J8" s="128"/>
+    </row>
+    <row r="9" spans="1:10" ht="32.25" customHeight="1" thickBot="1">
+      <c r="A9" s="122" t="s">
+        <v>340</v>
       </c>
       <c r="B9" s="78" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C9" s="67">
         <v>1</v>
@@ -9849,19 +10635,22 @@
       </c>
       <c r="E9" s="29"/>
       <c r="F9" s="30" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="G9" s="29" t="s">
         <v>26</v>
       </c>
       <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="33"/>
-    </row>
-    <row r="10" spans="1:10" ht="62.4">
-      <c r="A10" s="123"/>
+      <c r="I9" s="126" t="str">
+        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/access_control.md", "Analysis done here")</f>
+        <v>Analysis done here</v>
+      </c>
+      <c r="J9" s="128"/>
+    </row>
+    <row r="10" spans="1:10" ht="52" thickBot="1">
+      <c r="A10" s="122"/>
       <c r="B10" s="78" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C10" s="67">
         <v>1</v>
@@ -9871,19 +10660,22 @@
       </c>
       <c r="E10" s="29"/>
       <c r="F10" s="30" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="G10" s="29" t="s">
         <v>26</v>
       </c>
       <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="33"/>
-    </row>
-    <row r="11" spans="1:10" ht="62.4">
-      <c r="A11" s="123"/>
+      <c r="I10" s="126" t="str">
+        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/access_control.md", "Analysis done here")</f>
+        <v>Analysis done here</v>
+      </c>
+      <c r="J10" s="128"/>
+    </row>
+    <row r="11" spans="1:10" ht="69" thickBot="1">
+      <c r="A11" s="122"/>
       <c r="B11" s="78" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C11" s="79">
         <v>2</v>
@@ -9893,14 +10685,17 @@
       </c>
       <c r="E11" s="36"/>
       <c r="F11" s="37" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="G11" s="36" t="s">
         <v>26</v>
       </c>
       <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="38"/>
+      <c r="I11" s="126" t="str">
+        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/access_control.md", "Analysis done here")</f>
+        <v>Analysis done here</v>
+      </c>
+      <c r="J11" s="127"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -9908,7 +10703,7 @@
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="A9:A11"/>
   </mergeCells>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" operator="equal" showErrorMessage="1" sqref="G2:G11" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>"Valid,Non-valid,Not Applicable"</formula1>
       <formula2>0</formula2>
@@ -9925,26 +10720,26 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:AMJ32"/>
+  <dimension ref="A1:AMJ31"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView topLeftCell="A19" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="21"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="21"/>
   <cols>
     <col min="1" max="1" width="53.33203125" style="73" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" style="26" customWidth="1"/>
-    <col min="3" max="5" width="8.77734375" style="60"/>
+    <col min="2" max="2" width="11.5" style="26" customWidth="1"/>
+    <col min="3" max="5" width="8.6640625" style="60"/>
     <col min="6" max="6" width="60.6640625" style="26" customWidth="1"/>
     <col min="7" max="7" width="22.6640625" style="26" customWidth="1"/>
     <col min="8" max="8" width="41.33203125" style="26" customWidth="1"/>
     <col min="9" max="9" width="35.33203125" style="26" customWidth="1"/>
     <col min="10" max="10" width="29" style="26" customWidth="1"/>
-    <col min="11" max="1024" width="8.77734375" style="26"/>
+    <col min="11" max="1024" width="8.6640625" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="44" customFormat="1" ht="42">
+    <row r="1" spans="1:10" s="44" customFormat="1" ht="44">
       <c r="A1" s="41" t="s">
         <v>20</v>
       </c>
@@ -9976,12 +10771,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="79.5" customHeight="1">
-      <c r="A2" s="123" t="s">
-        <v>346</v>
+    <row r="2" spans="1:10" ht="79.5" customHeight="1" thickBot="1">
+      <c r="A2" s="122" t="s">
+        <v>347</v>
       </c>
       <c r="B2" s="63" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C2" s="64">
         <v>1</v>
@@ -9991,19 +10786,22 @@
       </c>
       <c r="E2" s="65"/>
       <c r="F2" s="80" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="G2" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="66"/>
-    </row>
-    <row r="3" spans="1:10" ht="93.6">
-      <c r="A3" s="123"/>
+      <c r="H2" s="130"/>
+      <c r="I2" s="126" t="str">
+        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/validation_sanitization_encoding.md", "Analysis done here")</f>
+        <v>Analysis done here</v>
+      </c>
+      <c r="J2" s="129"/>
+    </row>
+    <row r="3" spans="1:10" ht="86" thickBot="1">
+      <c r="A3" s="122"/>
       <c r="B3" s="63" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C3" s="67">
         <v>1</v>
@@ -10013,19 +10811,22 @@
       </c>
       <c r="E3" s="68"/>
       <c r="F3" s="81" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="G3" s="29" t="s">
         <v>26</v>
       </c>
       <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
+      <c r="I3" s="126" t="str">
+        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/validation_sanitization_encoding.md", "Analysis done here")</f>
+        <v>Analysis done here</v>
+      </c>
       <c r="J3" s="33"/>
     </row>
-    <row r="4" spans="1:10" ht="78">
-      <c r="A4" s="123"/>
+    <row r="4" spans="1:10" ht="86" thickBot="1">
+      <c r="A4" s="122"/>
       <c r="B4" s="63" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C4" s="67">
         <v>1</v>
@@ -10035,19 +10836,22 @@
       </c>
       <c r="E4" s="68"/>
       <c r="F4" s="81" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="G4" s="29" t="s">
         <v>26</v>
       </c>
       <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
+      <c r="I4" s="126" t="str">
+        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/validation_sanitization_encoding.md", "Analysis done here")</f>
+        <v>Analysis done here</v>
+      </c>
       <c r="J4" s="33"/>
     </row>
-    <row r="5" spans="1:10" ht="109.2">
-      <c r="A5" s="123"/>
+    <row r="5" spans="1:10" ht="103" thickBot="1">
+      <c r="A5" s="122"/>
       <c r="B5" s="63" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C5" s="67">
         <v>1</v>
@@ -10057,19 +10861,22 @@
       </c>
       <c r="E5" s="68"/>
       <c r="F5" s="81" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="G5" s="29" t="s">
         <v>26</v>
       </c>
       <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
+      <c r="I5" s="126" t="str">
+        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/validation_sanitization_encoding.md", "Analysis done here")</f>
+        <v>Analysis done here</v>
+      </c>
       <c r="J5" s="33"/>
     </row>
-    <row r="6" spans="1:10" ht="46.8">
-      <c r="A6" s="123"/>
+    <row r="6" spans="1:10" ht="52" thickBot="1">
+      <c r="A6" s="122"/>
       <c r="B6" s="63" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C6" s="67">
         <v>1</v>
@@ -10079,21 +10886,24 @@
       </c>
       <c r="E6" s="68"/>
       <c r="F6" s="81" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="G6" s="29" t="s">
         <v>26</v>
       </c>
       <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
+      <c r="I6" s="126" t="str">
+        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/validation_sanitization_encoding.md", "Analysis done here")</f>
+        <v>Analysis done here</v>
+      </c>
       <c r="J6" s="33"/>
     </row>
-    <row r="7" spans="1:10" ht="63.75" customHeight="1">
-      <c r="A7" s="123" t="s">
-        <v>357</v>
+    <row r="7" spans="1:10" ht="63.75" customHeight="1" thickBot="1">
+      <c r="A7" s="122" t="s">
+        <v>358</v>
       </c>
       <c r="B7" s="63" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C7" s="67">
         <v>1</v>
@@ -10103,19 +10913,22 @@
       </c>
       <c r="E7" s="68"/>
       <c r="F7" s="81" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="G7" s="29" t="s">
         <v>56</v>
       </c>
       <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
+      <c r="I7" s="126" t="str">
+        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/validation_sanitization_encoding.md", "Analysis done here")</f>
+        <v>Analysis done here</v>
+      </c>
       <c r="J7" s="33"/>
     </row>
-    <row r="8" spans="1:10" ht="31.2">
-      <c r="A8" s="123"/>
+    <row r="8" spans="1:10" ht="35" thickBot="1">
+      <c r="A8" s="122"/>
       <c r="B8" s="63" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C8" s="67">
         <v>1</v>
@@ -10125,19 +10938,22 @@
       </c>
       <c r="E8" s="68"/>
       <c r="F8" s="81" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="G8" s="29" t="s">
         <v>26</v>
       </c>
       <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
+      <c r="I8" s="126" t="str">
+        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/validation_sanitization_encoding.md", "Analysis done here")</f>
+        <v>Analysis done here</v>
+      </c>
       <c r="J8" s="33"/>
     </row>
-    <row r="9" spans="1:10" ht="31.2">
-      <c r="A9" s="123"/>
+    <row r="9" spans="1:10" ht="35" thickBot="1">
+      <c r="A9" s="122"/>
       <c r="B9" s="63" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C9" s="67">
         <v>1</v>
@@ -10147,19 +10963,22 @@
       </c>
       <c r="E9" s="68"/>
       <c r="F9" s="81" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="G9" s="29" t="s">
         <v>56</v>
       </c>
       <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
+      <c r="I9" s="126" t="str">
+        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/validation_sanitization_encoding.md", "Analysis done here")</f>
+        <v>Analysis done here</v>
+      </c>
       <c r="J9" s="33"/>
     </row>
-    <row r="10" spans="1:10" ht="62.4">
-      <c r="A10" s="123"/>
+    <row r="10" spans="1:10" ht="52" thickBot="1">
+      <c r="A10" s="122"/>
       <c r="B10" s="63" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C10" s="67">
         <v>1</v>
@@ -10169,19 +10988,22 @@
       </c>
       <c r="E10" s="68"/>
       <c r="F10" s="81" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="G10" s="29" t="s">
         <v>26</v>
       </c>
       <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
+      <c r="I10" s="126" t="str">
+        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/validation_sanitization_encoding.md", "Analysis done here")</f>
+        <v>Analysis done here</v>
+      </c>
       <c r="J10" s="33"/>
     </row>
-    <row r="11" spans="1:10" ht="46.8">
-      <c r="A11" s="123"/>
+    <row r="11" spans="1:10" ht="52" thickBot="1">
+      <c r="A11" s="122"/>
       <c r="B11" s="63" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C11" s="67">
         <v>1</v>
@@ -10191,19 +11013,22 @@
       </c>
       <c r="E11" s="68"/>
       <c r="F11" s="81" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="G11" s="29" t="s">
         <v>56</v>
       </c>
       <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
+      <c r="I11" s="126" t="str">
+        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/validation_sanitization_encoding.md", "Analysis done here")</f>
+        <v>Analysis done here</v>
+      </c>
       <c r="J11" s="33"/>
     </row>
-    <row r="12" spans="1:10" ht="62.4">
-      <c r="A12" s="123"/>
+    <row r="12" spans="1:10" ht="69" thickBot="1">
+      <c r="A12" s="122"/>
       <c r="B12" s="63" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C12" s="67">
         <v>1</v>
@@ -10213,19 +11038,22 @@
       </c>
       <c r="E12" s="68"/>
       <c r="F12" s="81" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="G12" s="29" t="s">
         <v>26</v>
       </c>
       <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
+      <c r="I12" s="126" t="str">
+        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/validation_sanitization_encoding.md", "Analysis done here")</f>
+        <v>Analysis done here</v>
+      </c>
       <c r="J12" s="33"/>
     </row>
-    <row r="13" spans="1:10" ht="62.4">
-      <c r="A13" s="123"/>
+    <row r="13" spans="1:10" ht="52" thickBot="1">
+      <c r="A13" s="122"/>
       <c r="B13" s="63" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C13" s="67">
         <v>1</v>
@@ -10235,19 +11063,22 @@
       </c>
       <c r="E13" s="68"/>
       <c r="F13" s="81" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="G13" s="29" t="s">
         <v>56</v>
       </c>
       <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
+      <c r="I13" s="126" t="str">
+        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/validation_sanitization_encoding.md", "Analysis done here")</f>
+        <v>Analysis done here</v>
+      </c>
       <c r="J13" s="33"/>
     </row>
-    <row r="14" spans="1:10" ht="62.4">
-      <c r="A14" s="123"/>
+    <row r="14" spans="1:10" ht="52" thickBot="1">
+      <c r="A14" s="122"/>
       <c r="B14" s="63" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C14" s="67">
         <v>1</v>
@@ -10257,21 +11088,24 @@
       </c>
       <c r="E14" s="68"/>
       <c r="F14" s="81" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="G14" s="29" t="s">
         <v>26</v>
       </c>
       <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
+      <c r="I14" s="126" t="str">
+        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/validation_sanitization_encoding.md", "Analysis done here")</f>
+        <v>Analysis done here</v>
+      </c>
       <c r="J14" s="33"/>
     </row>
-    <row r="15" spans="1:10" ht="126.75" customHeight="1">
-      <c r="A15" s="123" t="s">
-        <v>369</v>
+    <row r="15" spans="1:10" ht="126.75" customHeight="1" thickBot="1">
+      <c r="A15" s="122" t="s">
+        <v>370</v>
       </c>
       <c r="B15" s="63" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C15" s="67">
         <v>1</v>
@@ -10281,19 +11115,22 @@
       </c>
       <c r="E15" s="68"/>
       <c r="F15" s="81" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="G15" s="29" t="s">
         <v>26</v>
       </c>
       <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
+      <c r="I15" s="126" t="str">
+        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/validation_sanitization_encoding.md", "Analysis done here")</f>
+        <v>Analysis done here</v>
+      </c>
       <c r="J15" s="33"/>
     </row>
-    <row r="16" spans="1:10" ht="78">
-      <c r="A16" s="123"/>
+    <row r="16" spans="1:10" ht="69" thickBot="1">
+      <c r="A16" s="122"/>
       <c r="B16" s="63" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C16" s="67">
         <v>1</v>
@@ -10303,19 +11140,22 @@
       </c>
       <c r="E16" s="68"/>
       <c r="F16" s="81" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="G16" s="29" t="s">
         <v>56</v>
       </c>
       <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
+      <c r="I16" s="126" t="str">
+        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/validation_sanitization_encoding.md", "Analysis done here")</f>
+        <v>Analysis done here</v>
+      </c>
       <c r="J16" s="33"/>
     </row>
-    <row r="17" spans="1:10" ht="62.4">
-      <c r="A17" s="123"/>
+    <row r="17" spans="1:10" ht="69" thickBot="1">
+      <c r="A17" s="122"/>
       <c r="B17" s="63" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C17" s="67">
         <v>1</v>
@@ -10325,19 +11165,22 @@
       </c>
       <c r="E17" s="68"/>
       <c r="F17" s="81" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="G17" s="29" t="s">
         <v>26</v>
       </c>
       <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
+      <c r="I17" s="126" t="str">
+        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/validation_sanitization_encoding.md", "Analysis done here")</f>
+        <v>Analysis done here</v>
+      </c>
       <c r="J17" s="33"/>
     </row>
-    <row r="18" spans="1:10" ht="78">
-      <c r="A18" s="123"/>
+    <row r="18" spans="1:10" ht="86" thickBot="1">
+      <c r="A18" s="122"/>
       <c r="B18" s="63" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C18" s="67">
         <v>1</v>
@@ -10347,19 +11190,22 @@
       </c>
       <c r="E18" s="68"/>
       <c r="F18" s="81" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="G18" s="29" t="s">
         <v>26</v>
       </c>
       <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
+      <c r="I18" s="126" t="str">
+        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/validation_sanitization_encoding.md", "Analysis done here")</f>
+        <v>Analysis done here</v>
+      </c>
       <c r="J18" s="33"/>
     </row>
-    <row r="19" spans="1:10" ht="93.6">
-      <c r="A19" s="123"/>
+    <row r="19" spans="1:10" ht="86" thickBot="1">
+      <c r="A19" s="122"/>
       <c r="B19" s="63" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C19" s="67">
         <v>1</v>
@@ -10369,19 +11215,22 @@
       </c>
       <c r="E19" s="68"/>
       <c r="F19" s="81" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="G19" s="29" t="s">
         <v>26</v>
       </c>
       <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
+      <c r="I19" s="126" t="str">
+        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/validation_sanitization_encoding.md", "Analysis done here")</f>
+        <v>Analysis done here</v>
+      </c>
       <c r="J19" s="33"/>
     </row>
-    <row r="20" spans="1:10" ht="62.4">
-      <c r="A20" s="123"/>
+    <row r="20" spans="1:10" ht="69" thickBot="1">
+      <c r="A20" s="122"/>
       <c r="B20" s="63" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C20" s="67">
         <v>1</v>
@@ -10391,19 +11240,22 @@
       </c>
       <c r="E20" s="68"/>
       <c r="F20" s="81" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="G20" s="29" t="s">
         <v>26</v>
       </c>
       <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
+      <c r="I20" s="126" t="str">
+        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/validation_sanitization_encoding.md", "Analysis done here")</f>
+        <v>Analysis done here</v>
+      </c>
       <c r="J20" s="33"/>
     </row>
-    <row r="21" spans="1:10" ht="78">
-      <c r="A21" s="123"/>
+    <row r="21" spans="1:10" ht="69" thickBot="1">
+      <c r="A21" s="122"/>
       <c r="B21" s="63" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C21" s="67">
         <v>1</v>
@@ -10413,19 +11265,22 @@
       </c>
       <c r="E21" s="68"/>
       <c r="F21" s="81" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="G21" s="29" t="s">
-        <v>689</v>
+        <v>136</v>
       </c>
       <c r="H21" s="29"/>
-      <c r="I21" s="29"/>
+      <c r="I21" s="126" t="str">
+        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/validation_sanitization_encoding.md", "Analysis done here")</f>
+        <v>Analysis done here</v>
+      </c>
       <c r="J21" s="33"/>
     </row>
-    <row r="22" spans="1:10" ht="78">
-      <c r="A22" s="123"/>
+    <row r="22" spans="1:10" ht="86" thickBot="1">
+      <c r="A22" s="122"/>
       <c r="B22" s="63" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C22" s="67">
         <v>1</v>
@@ -10435,19 +11290,22 @@
       </c>
       <c r="E22" s="68"/>
       <c r="F22" s="81" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="G22" s="29" t="s">
         <v>56</v>
       </c>
       <c r="H22" s="29"/>
-      <c r="I22" s="29"/>
+      <c r="I22" s="126" t="str">
+        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/validation_sanitization_encoding.md", "Analysis done here")</f>
+        <v>Analysis done here</v>
+      </c>
       <c r="J22" s="33"/>
     </row>
-    <row r="23" spans="1:10" ht="31.2">
-      <c r="A23" s="123"/>
+    <row r="23" spans="1:10" ht="35" thickBot="1">
+      <c r="A23" s="122"/>
       <c r="B23" s="63" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C23" s="67">
         <v>1</v>
@@ -10457,19 +11315,22 @@
       </c>
       <c r="E23" s="28"/>
       <c r="F23" s="81" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="G23" s="29" t="s">
         <v>26</v>
       </c>
       <c r="H23" s="29"/>
-      <c r="I23" s="29"/>
+      <c r="I23" s="126" t="str">
+        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/validation_sanitization_encoding.md", "Analysis done here")</f>
+        <v>Analysis done here</v>
+      </c>
       <c r="J23" s="33"/>
     </row>
-    <row r="24" spans="1:10" ht="46.8">
-      <c r="A24" s="123"/>
+    <row r="24" spans="1:10" ht="52" thickBot="1">
+      <c r="A24" s="122"/>
       <c r="B24" s="63" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C24" s="67">
         <v>1</v>
@@ -10479,21 +11340,24 @@
       </c>
       <c r="E24" s="28"/>
       <c r="F24" s="81" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="G24" s="29" t="s">
-        <v>689</v>
+        <v>136</v>
       </c>
       <c r="H24" s="29"/>
-      <c r="I24" s="29"/>
+      <c r="I24" s="126" t="str">
+        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/validation_sanitization_encoding.md", "Analysis done here")</f>
+        <v>Analysis done here</v>
+      </c>
       <c r="J24" s="33"/>
     </row>
-    <row r="25" spans="1:10" ht="48" customHeight="1">
-      <c r="A25" s="123" t="s">
-        <v>390</v>
+    <row r="25" spans="1:10" ht="48" customHeight="1" thickBot="1">
+      <c r="A25" s="122" t="s">
+        <v>391</v>
       </c>
       <c r="B25" s="63" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C25" s="69">
         <v>2</v>
@@ -10503,19 +11367,22 @@
       </c>
       <c r="E25" s="28"/>
       <c r="F25" s="81" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="G25" s="29" t="s">
         <v>56</v>
       </c>
       <c r="H25" s="29"/>
-      <c r="I25" s="29"/>
+      <c r="I25" s="126" t="str">
+        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/validation_sanitization_encoding.md", "Analysis done here")</f>
+        <v>Analysis done here</v>
+      </c>
       <c r="J25" s="33"/>
     </row>
-    <row r="26" spans="1:10" ht="31.2">
-      <c r="A26" s="123"/>
+    <row r="26" spans="1:10" ht="35" thickBot="1">
+      <c r="A26" s="122"/>
       <c r="B26" s="63" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C26" s="69">
         <v>2</v>
@@ -10525,19 +11392,22 @@
       </c>
       <c r="E26" s="28"/>
       <c r="F26" s="81" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="G26" s="29" t="s">
         <v>56</v>
       </c>
       <c r="H26" s="29"/>
-      <c r="I26" s="29"/>
+      <c r="I26" s="126" t="str">
+        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/validation_sanitization_encoding.md", "Analysis done here")</f>
+        <v>Analysis done here</v>
+      </c>
       <c r="J26" s="33"/>
     </row>
-    <row r="27" spans="1:10" ht="31.2">
-      <c r="A27" s="123"/>
+    <row r="27" spans="1:10" ht="35" thickBot="1">
+      <c r="A27" s="122"/>
       <c r="B27" s="63" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C27" s="69">
         <v>2</v>
@@ -10547,21 +11417,24 @@
       </c>
       <c r="E27" s="28"/>
       <c r="F27" s="81" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="G27" s="29" t="s">
         <v>56</v>
       </c>
       <c r="H27" s="29"/>
-      <c r="I27" s="29"/>
+      <c r="I27" s="126" t="str">
+        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/validation_sanitization_encoding.md", "Analysis done here")</f>
+        <v>Analysis done here</v>
+      </c>
       <c r="J27" s="33"/>
     </row>
-    <row r="28" spans="1:10" ht="63.75" customHeight="1">
-      <c r="A28" s="123" t="s">
-        <v>397</v>
+    <row r="28" spans="1:10" ht="63.75" customHeight="1" thickBot="1">
+      <c r="A28" s="122" t="s">
+        <v>398</v>
       </c>
       <c r="B28" s="63" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C28" s="67">
         <v>1</v>
@@ -10571,19 +11444,22 @@
       </c>
       <c r="E28" s="28"/>
       <c r="F28" s="81" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="G28" s="29" t="s">
         <v>56</v>
       </c>
       <c r="H28" s="29"/>
-      <c r="I28" s="29"/>
+      <c r="I28" s="126" t="str">
+        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/validation_sanitization_encoding.md", "Analysis done here")</f>
+        <v>Analysis done here</v>
+      </c>
       <c r="J28" s="33"/>
     </row>
-    <row r="29" spans="1:10" ht="62.4">
-      <c r="A29" s="123"/>
+    <row r="29" spans="1:10" ht="69" thickBot="1">
+      <c r="A29" s="122"/>
       <c r="B29" s="63" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C29" s="67">
         <v>1</v>
@@ -10593,19 +11469,22 @@
       </c>
       <c r="E29" s="28"/>
       <c r="F29" s="81" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="G29" s="29" t="s">
         <v>56</v>
       </c>
       <c r="H29" s="29"/>
-      <c r="I29" s="29"/>
+      <c r="I29" s="126" t="str">
+        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/validation_sanitization_encoding.md", "Analysis done here")</f>
+        <v>Analysis done here</v>
+      </c>
       <c r="J29" s="33"/>
     </row>
-    <row r="30" spans="1:10" ht="46.8">
-      <c r="A30" s="123"/>
+    <row r="30" spans="1:10" ht="52" thickBot="1">
+      <c r="A30" s="122"/>
       <c r="B30" s="63" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C30" s="67">
         <v>1</v>
@@ -10615,19 +11494,22 @@
       </c>
       <c r="E30" s="28"/>
       <c r="F30" s="81" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="G30" s="29" t="s">
         <v>56</v>
       </c>
       <c r="H30" s="29"/>
-      <c r="I30" s="29"/>
+      <c r="I30" s="126" t="str">
+        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/validation_sanitization_encoding.md", "Analysis done here")</f>
+        <v>Analysis done here</v>
+      </c>
       <c r="J30" s="33"/>
     </row>
-    <row r="31" spans="1:10" ht="46.8">
-      <c r="A31" s="123"/>
+    <row r="31" spans="1:10" ht="52" thickBot="1">
+      <c r="A31" s="122"/>
       <c r="B31" s="63" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C31" s="71">
         <v>1</v>
@@ -10637,17 +11519,17 @@
       </c>
       <c r="E31" s="35"/>
       <c r="F31" s="82" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="G31" s="36" t="s">
         <v>26</v>
       </c>
       <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
+      <c r="I31" s="126" t="str">
+        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/validation_sanitization_encoding.md", "Analysis done here")</f>
+        <v>Analysis done here</v>
+      </c>
       <c r="J31" s="38"/>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="G32" s="121"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -10680,21 +11562,21 @@
       <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="21"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="21"/>
   <cols>
     <col min="1" max="1" width="35.33203125" style="73" customWidth="1"/>
-    <col min="2" max="2" width="6.77734375" style="26" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" style="60" customWidth="1"/>
-    <col min="4" max="5" width="8.77734375" style="60"/>
-    <col min="6" max="6" width="97.109375" style="26" customWidth="1"/>
-    <col min="7" max="7" width="8.44140625" style="26" customWidth="1"/>
-    <col min="8" max="8" width="36.109375" style="26" customWidth="1"/>
+    <col min="2" max="2" width="6.6640625" style="26" customWidth="1"/>
+    <col min="3" max="3" width="12.5" style="60" customWidth="1"/>
+    <col min="4" max="5" width="8.6640625" style="60"/>
+    <col min="6" max="6" width="97.1640625" style="26" customWidth="1"/>
+    <col min="7" max="7" width="13.1640625" style="26" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="36.1640625" style="26" customWidth="1"/>
     <col min="9" max="9" width="18" style="26" customWidth="1"/>
     <col min="10" max="10" width="27.33203125" style="26" customWidth="1"/>
-    <col min="11" max="1024" width="8.77734375" style="26"/>
+    <col min="11" max="1024" width="8.6640625" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="44" customFormat="1" ht="42">
+    <row r="1" spans="1:10" s="44" customFormat="1" ht="44">
       <c r="A1" s="41" t="s">
         <v>20</v>
       </c>
@@ -10726,12 +11608,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="48" customHeight="1">
-      <c r="A2" s="123" t="s">
-        <v>406</v>
+    <row r="2" spans="1:10" ht="48" customHeight="1" thickBot="1">
+      <c r="A2" s="122" t="s">
+        <v>407</v>
       </c>
       <c r="B2" s="63" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C2" s="83">
         <v>2</v>
@@ -10741,17 +11623,22 @@
       </c>
       <c r="E2" s="65"/>
       <c r="F2" s="80" t="s">
-        <v>408</v>
-      </c>
-      <c r="G2" s="50"/>
+        <v>409</v>
+      </c>
+      <c r="G2" s="50" t="s">
+        <v>26</v>
+      </c>
       <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
+      <c r="I2" s="126" t="str">
+        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/stored_cryptography.md", "Analysis done here")</f>
+        <v>Analysis done here</v>
+      </c>
       <c r="J2" s="66"/>
     </row>
-    <row r="3" spans="1:10" ht="31.2">
-      <c r="A3" s="123"/>
+    <row r="3" spans="1:10" ht="35" thickBot="1">
+      <c r="A3" s="122"/>
       <c r="B3" s="63" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C3" s="69">
         <v>2</v>
@@ -10761,17 +11648,22 @@
       </c>
       <c r="E3" s="68"/>
       <c r="F3" s="81" t="s">
-        <v>410</v>
-      </c>
-      <c r="G3" s="29"/>
+        <v>411</v>
+      </c>
+      <c r="G3" s="29" t="s">
+        <v>136</v>
+      </c>
       <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
+      <c r="I3" s="126" t="str">
+        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/stored_cryptography.md", "Analysis done here")</f>
+        <v>Analysis done here</v>
+      </c>
       <c r="J3" s="33"/>
     </row>
-    <row r="4" spans="1:10" ht="46.8">
-      <c r="A4" s="123"/>
+    <row r="4" spans="1:10" ht="35" thickBot="1">
+      <c r="A4" s="122"/>
       <c r="B4" s="63" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C4" s="69">
         <v>2</v>
@@ -10781,19 +11673,24 @@
       </c>
       <c r="E4" s="68"/>
       <c r="F4" s="81" t="s">
-        <v>411</v>
-      </c>
-      <c r="G4" s="29"/>
+        <v>412</v>
+      </c>
+      <c r="G4" s="29" t="s">
+        <v>136</v>
+      </c>
       <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
+      <c r="I4" s="126" t="str">
+        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/stored_cryptography.md", "Analysis done here")</f>
+        <v>Analysis done here</v>
+      </c>
       <c r="J4" s="33"/>
     </row>
-    <row r="5" spans="1:10" ht="32.25" customHeight="1">
-      <c r="A5" s="123" t="s">
-        <v>412</v>
+    <row r="5" spans="1:10" ht="32.25" customHeight="1" thickBot="1">
+      <c r="A5" s="122" t="s">
+        <v>413</v>
       </c>
       <c r="B5" s="63" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C5" s="67">
         <v>1</v>
@@ -10803,17 +11700,22 @@
       </c>
       <c r="E5" s="68"/>
       <c r="F5" s="81" t="s">
-        <v>414</v>
-      </c>
-      <c r="G5" s="29"/>
+        <v>415</v>
+      </c>
+      <c r="G5" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
+      <c r="I5" s="126" t="str">
+        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/stored_cryptography.md", "Analysis done here")</f>
+        <v>Analysis done here</v>
+      </c>
       <c r="J5" s="33"/>
     </row>
-    <row r="6" spans="1:10" ht="46.8">
-      <c r="A6" s="123"/>
+    <row r="6" spans="1:10" ht="52" thickBot="1">
+      <c r="A6" s="122"/>
       <c r="B6" s="63" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C6" s="69">
         <v>2</v>
@@ -10823,17 +11725,22 @@
       </c>
       <c r="E6" s="68"/>
       <c r="F6" s="81" t="s">
-        <v>416</v>
-      </c>
-      <c r="G6" s="29"/>
+        <v>417</v>
+      </c>
+      <c r="G6" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
+      <c r="I6" s="126" t="str">
+        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/stored_cryptography.md", "Analysis done here")</f>
+        <v>Analysis done here</v>
+      </c>
       <c r="J6" s="33"/>
     </row>
-    <row r="7" spans="1:10" ht="31.2">
-      <c r="A7" s="123"/>
+    <row r="7" spans="1:10" ht="35" thickBot="1">
+      <c r="A7" s="122"/>
       <c r="B7" s="63" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C7" s="69">
         <v>2</v>
@@ -10843,17 +11750,22 @@
       </c>
       <c r="E7" s="68"/>
       <c r="F7" s="81" t="s">
-        <v>418</v>
-      </c>
-      <c r="G7" s="29"/>
+        <v>419</v>
+      </c>
+      <c r="G7" s="29" t="s">
+        <v>136</v>
+      </c>
       <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
+      <c r="I7" s="126" t="str">
+        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/stored_cryptography.md", "Analysis done here")</f>
+        <v>Analysis done here</v>
+      </c>
       <c r="J7" s="33"/>
     </row>
-    <row r="8" spans="1:10" ht="46.8">
-      <c r="A8" s="123"/>
+    <row r="8" spans="1:10" ht="52" thickBot="1">
+      <c r="A8" s="122"/>
       <c r="B8" s="63" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C8" s="69">
         <v>2</v>
@@ -10863,17 +11775,22 @@
       </c>
       <c r="E8" s="68"/>
       <c r="F8" s="81" t="s">
-        <v>420</v>
-      </c>
-      <c r="G8" s="29"/>
+        <v>421</v>
+      </c>
+      <c r="G8" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
+      <c r="I8" s="126" t="str">
+        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/stored_cryptography.md", "Analysis done here")</f>
+        <v>Analysis done here</v>
+      </c>
       <c r="J8" s="33"/>
     </row>
-    <row r="9" spans="1:10" ht="46.8">
-      <c r="A9" s="123"/>
+    <row r="9" spans="1:10" ht="52" thickBot="1">
+      <c r="A9" s="122"/>
       <c r="B9" s="63" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C9" s="69">
         <v>2</v>
@@ -10883,17 +11800,22 @@
       </c>
       <c r="E9" s="68"/>
       <c r="F9" s="81" t="s">
-        <v>422</v>
-      </c>
-      <c r="G9" s="29"/>
+        <v>423</v>
+      </c>
+      <c r="G9" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
+      <c r="I9" s="126" t="str">
+        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/stored_cryptography.md", "Analysis done here")</f>
+        <v>Analysis done here</v>
+      </c>
       <c r="J9" s="33"/>
     </row>
-    <row r="10" spans="1:10" ht="46.8">
-      <c r="A10" s="123"/>
+    <row r="10" spans="1:10" ht="35" thickBot="1">
+      <c r="A10" s="122"/>
       <c r="B10" s="63" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C10" s="69">
         <v>2</v>
@@ -10903,17 +11825,22 @@
       </c>
       <c r="E10" s="68"/>
       <c r="F10" s="81" t="s">
-        <v>424</v>
-      </c>
-      <c r="G10" s="29"/>
+        <v>425</v>
+      </c>
+      <c r="G10" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
+      <c r="I10" s="126" t="str">
+        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/stored_cryptography.md", "Analysis done here")</f>
+        <v>Analysis done here</v>
+      </c>
       <c r="J10" s="33"/>
     </row>
-    <row r="11" spans="1:10" ht="31.2">
-      <c r="A11" s="123"/>
+    <row r="11" spans="1:10" ht="35" thickBot="1">
+      <c r="A11" s="122"/>
       <c r="B11" s="63" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C11" s="70">
         <v>3</v>
@@ -10923,17 +11850,22 @@
       </c>
       <c r="E11" s="68"/>
       <c r="F11" s="81" t="s">
-        <v>426</v>
-      </c>
-      <c r="G11" s="29"/>
+        <v>427</v>
+      </c>
+      <c r="G11" s="29" t="s">
+        <v>136</v>
+      </c>
       <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
+      <c r="I11" s="126" t="str">
+        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/stored_cryptography.md", "Analysis done here")</f>
+        <v>Analysis done here</v>
+      </c>
       <c r="J11" s="33"/>
     </row>
-    <row r="12" spans="1:10" ht="31.2">
-      <c r="A12" s="123"/>
+    <row r="12" spans="1:10" ht="35" thickBot="1">
+      <c r="A12" s="122"/>
       <c r="B12" s="63" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C12" s="70">
         <v>3</v>
@@ -10943,19 +11875,24 @@
       </c>
       <c r="E12" s="68"/>
       <c r="F12" s="81" t="s">
-        <v>428</v>
-      </c>
-      <c r="G12" s="29"/>
+        <v>429</v>
+      </c>
+      <c r="G12" s="29" t="s">
+        <v>136</v>
+      </c>
       <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
+      <c r="I12" s="126" t="str">
+        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/stored_cryptography.md", "Analysis done here")</f>
+        <v>Analysis done here</v>
+      </c>
       <c r="J12" s="33"/>
     </row>
-    <row r="13" spans="1:10" ht="48" customHeight="1">
-      <c r="A13" s="123" t="s">
-        <v>429</v>
+    <row r="13" spans="1:10" ht="48" customHeight="1" thickBot="1">
+      <c r="A13" s="122" t="s">
+        <v>430</v>
       </c>
       <c r="B13" s="63" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C13" s="69">
         <v>2</v>
@@ -10965,17 +11902,22 @@
       </c>
       <c r="E13" s="28"/>
       <c r="F13" s="81" t="s">
-        <v>431</v>
-      </c>
-      <c r="G13" s="29"/>
+        <v>432</v>
+      </c>
+      <c r="G13" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
+      <c r="I13" s="126" t="str">
+        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/stored_cryptography.md", "Analysis done here")</f>
+        <v>Analysis done here</v>
+      </c>
       <c r="J13" s="33"/>
     </row>
-    <row r="14" spans="1:10" ht="46.8">
-      <c r="A14" s="123"/>
+    <row r="14" spans="1:10" ht="52" thickBot="1">
+      <c r="A14" s="122"/>
       <c r="B14" s="63" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C14" s="69">
         <v>2</v>
@@ -10985,17 +11927,22 @@
       </c>
       <c r="E14" s="28"/>
       <c r="F14" s="81" t="s">
-        <v>433</v>
-      </c>
-      <c r="G14" s="29"/>
+        <v>434</v>
+      </c>
+      <c r="G14" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
+      <c r="I14" s="126" t="str">
+        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/stored_cryptography.md", "Analysis done here")</f>
+        <v>Analysis done here</v>
+      </c>
       <c r="J14" s="33"/>
     </row>
-    <row r="15" spans="1:10" ht="31.2">
-      <c r="A15" s="123"/>
+    <row r="15" spans="1:10" ht="35" thickBot="1">
+      <c r="A15" s="122"/>
       <c r="B15" s="63" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C15" s="70">
         <v>3</v>
@@ -11005,19 +11952,24 @@
       </c>
       <c r="E15" s="28"/>
       <c r="F15" s="81" t="s">
-        <v>435</v>
-      </c>
-      <c r="G15" s="29"/>
+        <v>436</v>
+      </c>
+      <c r="G15" s="29" t="s">
+        <v>136</v>
+      </c>
       <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
+      <c r="I15" s="126" t="str">
+        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/stored_cryptography.md", "Analysis done here")</f>
+        <v>Analysis done here</v>
+      </c>
       <c r="J15" s="33"/>
     </row>
-    <row r="16" spans="1:10" ht="48" customHeight="1">
-      <c r="A16" s="123" t="s">
-        <v>436</v>
+    <row r="16" spans="1:10" ht="48" customHeight="1" thickBot="1">
+      <c r="A16" s="122" t="s">
+        <v>437</v>
       </c>
       <c r="B16" s="63" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C16" s="69">
         <v>2</v>
@@ -11027,17 +11979,22 @@
       </c>
       <c r="E16" s="28"/>
       <c r="F16" s="81" t="s">
-        <v>438</v>
-      </c>
-      <c r="G16" s="29"/>
+        <v>439</v>
+      </c>
+      <c r="G16" s="29" t="s">
+        <v>56</v>
+      </c>
       <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
+      <c r="I16" s="126" t="str">
+        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/stored_cryptography.md", "Analysis done here")</f>
+        <v>Analysis done here</v>
+      </c>
       <c r="J16" s="33"/>
     </row>
-    <row r="17" spans="1:10" ht="46.8">
-      <c r="A17" s="123"/>
+    <row r="17" spans="1:10" ht="35" thickBot="1">
+      <c r="A17" s="122"/>
       <c r="B17" s="63" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C17" s="79">
         <v>2</v>
@@ -11047,11 +12004,16 @@
       </c>
       <c r="E17" s="35"/>
       <c r="F17" s="82" t="s">
-        <v>440</v>
-      </c>
-      <c r="G17" s="36"/>
+        <v>441</v>
+      </c>
+      <c r="G17" s="36" t="s">
+        <v>56</v>
+      </c>
       <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
+      <c r="I17" s="126" t="str">
+        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/stored_cryptography.md", "Analysis done here")</f>
+        <v>Analysis done here</v>
+      </c>
       <c r="J17" s="38"/>
     </row>
   </sheetData>
@@ -11080,25 +12042,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:AMJ14"/>
   <sheetViews>
-    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+    <sheetView topLeftCell="K1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="21"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="21"/>
   <cols>
-    <col min="1" max="1" width="31.44140625" style="73" customWidth="1"/>
-    <col min="2" max="2" width="6.77734375" style="26" customWidth="1"/>
+    <col min="1" max="1" width="31.5" style="73" customWidth="1"/>
+    <col min="2" max="2" width="6.6640625" style="26" customWidth="1"/>
     <col min="3" max="3" width="15" style="60" customWidth="1"/>
-    <col min="4" max="5" width="8.77734375" style="60"/>
+    <col min="4" max="5" width="8.6640625" style="60"/>
     <col min="6" max="6" width="80.33203125" style="26" customWidth="1"/>
     <col min="7" max="7" width="16.6640625" style="26" customWidth="1"/>
     <col min="8" max="8" width="31" style="26" customWidth="1"/>
     <col min="9" max="9" width="24" style="26" customWidth="1"/>
-    <col min="10" max="10" width="35.109375" style="26" customWidth="1"/>
-    <col min="11" max="1024" width="8.77734375" style="26"/>
+    <col min="10" max="10" width="35.1640625" style="26" customWidth="1"/>
+    <col min="11" max="1024" width="8.6640625" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="88" customFormat="1">
+    <row r="1" spans="1:10" s="88" customFormat="1" ht="23" thickBot="1">
       <c r="A1" s="84" t="s">
         <v>20</v>
       </c>
@@ -11130,12 +12092,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="48" customHeight="1">
-      <c r="A2" s="123" t="s">
-        <v>441</v>
+    <row r="2" spans="1:10" ht="48" customHeight="1" thickBot="1">
+      <c r="A2" s="122" t="s">
+        <v>442</v>
       </c>
       <c r="B2" s="63" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C2" s="89">
         <v>1</v>
@@ -11145,17 +12107,22 @@
       </c>
       <c r="E2" s="91"/>
       <c r="F2" s="92" t="s">
-        <v>442</v>
-      </c>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
+        <v>443</v>
+      </c>
+      <c r="G2" s="93" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="125"/>
+      <c r="I2" s="137" t="str">
+        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/error_handling_and_logging.md", "Analysis done here")</f>
+        <v>Analysis done here</v>
+      </c>
       <c r="J2" s="94"/>
     </row>
-    <row r="3" spans="1:10" ht="46.8">
-      <c r="A3" s="123"/>
+    <row r="3" spans="1:10" ht="52" thickBot="1">
+      <c r="A3" s="122"/>
       <c r="B3" s="63" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C3" s="67">
         <v>1</v>
@@ -11165,17 +12132,22 @@
       </c>
       <c r="E3" s="68"/>
       <c r="F3" s="81" t="s">
-        <v>443</v>
-      </c>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
+        <v>444</v>
+      </c>
+      <c r="G3" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="124"/>
+      <c r="I3" s="137" t="str">
+        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/error_handling_and_logging.md", "Analysis done here")</f>
+        <v>Analysis done here</v>
+      </c>
       <c r="J3" s="33"/>
     </row>
-    <row r="4" spans="1:10" ht="62.4">
-      <c r="A4" s="123"/>
+    <row r="4" spans="1:10" ht="51">
+      <c r="A4" s="122"/>
       <c r="B4" s="63" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C4" s="69">
         <v>2</v>
@@ -11185,17 +12157,22 @@
       </c>
       <c r="E4" s="68"/>
       <c r="F4" s="81" t="s">
-        <v>445</v>
-      </c>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
+        <v>446</v>
+      </c>
+      <c r="G4" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="H4" s="124"/>
+      <c r="I4" s="137" t="str">
+        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/error_handling_and_logging.md", "Analysis done here")</f>
+        <v>Analysis done here</v>
+      </c>
       <c r="J4" s="33"/>
     </row>
-    <row r="5" spans="1:10" ht="46.8">
-      <c r="A5" s="123"/>
+    <row r="5" spans="1:10" ht="51">
+      <c r="A5" s="122"/>
       <c r="B5" s="63" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C5" s="69">
         <v>2</v>
@@ -11205,19 +12182,24 @@
       </c>
       <c r="E5" s="68"/>
       <c r="F5" s="81" t="s">
-        <v>447</v>
-      </c>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
+        <v>448</v>
+      </c>
+      <c r="G5" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="H5" s="124"/>
+      <c r="I5" s="137" t="str">
+        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/error_handling_and_logging.md", "Analysis done here")</f>
+        <v>Analysis done here</v>
+      </c>
       <c r="J5" s="33"/>
     </row>
     <row r="6" spans="1:10" ht="48" customHeight="1">
-      <c r="A6" s="123" t="s">
-        <v>448</v>
+      <c r="A6" s="122" t="s">
+        <v>449</v>
       </c>
       <c r="B6" s="63" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C6" s="69">
         <v>2</v>
@@ -11227,17 +12209,22 @@
       </c>
       <c r="E6" s="68"/>
       <c r="F6" s="81" t="s">
-        <v>449</v>
-      </c>
-      <c r="G6" s="29"/>
+        <v>450</v>
+      </c>
+      <c r="G6" s="29" t="s">
+        <v>136</v>
+      </c>
       <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
+      <c r="I6" s="137" t="str">
+        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/error_handling_and_logging.md", "Analysis done here")</f>
+        <v>Analysis done here</v>
+      </c>
       <c r="J6" s="33"/>
     </row>
-    <row r="7" spans="1:10" ht="46.8">
-      <c r="A7" s="123"/>
+    <row r="7" spans="1:10" ht="34">
+      <c r="A7" s="122"/>
       <c r="B7" s="63" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C7" s="69">
         <v>2</v>
@@ -11247,19 +12234,24 @@
       </c>
       <c r="E7" s="68"/>
       <c r="F7" s="81" t="s">
-        <v>451</v>
-      </c>
-      <c r="G7" s="29"/>
+        <v>452</v>
+      </c>
+      <c r="G7" s="29" t="s">
+        <v>136</v>
+      </c>
       <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
+      <c r="I7" s="137" t="str">
+        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/error_handling_and_logging.md", "Analysis done here")</f>
+        <v>Analysis done here</v>
+      </c>
       <c r="J7" s="33"/>
     </row>
     <row r="8" spans="1:10" ht="48" customHeight="1">
-      <c r="A8" s="123" t="s">
-        <v>452</v>
+      <c r="A8" s="122" t="s">
+        <v>453</v>
       </c>
       <c r="B8" s="63" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C8" s="69">
         <v>2</v>
@@ -11269,17 +12261,22 @@
       </c>
       <c r="E8" s="68"/>
       <c r="F8" s="81" t="s">
-        <v>454</v>
-      </c>
-      <c r="G8" s="29"/>
+        <v>455</v>
+      </c>
+      <c r="G8" s="29" t="s">
+        <v>136</v>
+      </c>
       <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
+      <c r="I8" s="137" t="str">
+        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/error_handling_and_logging.md", "Analysis done here")</f>
+        <v>Analysis done here</v>
+      </c>
       <c r="J8" s="33"/>
     </row>
-    <row r="9" spans="1:10" ht="15.6">
-      <c r="A9" s="123"/>
+    <row r="9" spans="1:10" ht="17">
+      <c r="A9" s="122"/>
       <c r="B9" s="63" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C9" s="69">
         <v>2</v>
@@ -11289,19 +12286,22 @@
       </c>
       <c r="E9" s="68"/>
       <c r="F9" s="81" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G9" s="29" t="s">
         <v>56</v>
       </c>
       <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
+      <c r="I9" s="137" t="str">
+        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/error_handling_and_logging.md", "Analysis done here")</f>
+        <v>Analysis done here</v>
+      </c>
       <c r="J9" s="33"/>
     </row>
-    <row r="10" spans="1:10" ht="31.2">
-      <c r="A10" s="123"/>
+    <row r="10" spans="1:10" ht="34">
+      <c r="A10" s="122"/>
       <c r="B10" s="63" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C10" s="69">
         <v>2</v>
@@ -11311,17 +12311,22 @@
       </c>
       <c r="E10" s="68"/>
       <c r="F10" s="81" t="s">
-        <v>458</v>
-      </c>
-      <c r="G10" s="29"/>
+        <v>459</v>
+      </c>
+      <c r="G10" s="29" t="s">
+        <v>136</v>
+      </c>
       <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
+      <c r="I10" s="137" t="str">
+        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/error_handling_and_logging.md", "Analysis done here")</f>
+        <v>Analysis done here</v>
+      </c>
       <c r="J10" s="33"/>
     </row>
-    <row r="11" spans="1:10" ht="62.4">
-      <c r="A11" s="123"/>
+    <row r="11" spans="1:10" ht="51">
+      <c r="A11" s="122"/>
       <c r="B11" s="63" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C11" s="69">
         <v>2</v>
@@ -11329,19 +12334,24 @@
       <c r="D11" s="28"/>
       <c r="E11" s="68"/>
       <c r="F11" s="81" t="s">
-        <v>460</v>
-      </c>
-      <c r="G11" s="29"/>
+        <v>461</v>
+      </c>
+      <c r="G11" s="29" t="s">
+        <v>136</v>
+      </c>
       <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
+      <c r="I11" s="137" t="str">
+        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/error_handling_and_logging.md", "Analysis done here")</f>
+        <v>Analysis done here</v>
+      </c>
       <c r="J11" s="33"/>
     </row>
     <row r="12" spans="1:10" ht="63.75" customHeight="1">
-      <c r="A12" s="123" t="s">
-        <v>461</v>
+      <c r="A12" s="122" t="s">
+        <v>462</v>
       </c>
       <c r="B12" s="63" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C12" s="67">
         <v>1</v>
@@ -11351,17 +12361,22 @@
       </c>
       <c r="E12" s="68"/>
       <c r="F12" s="81" t="s">
-        <v>463</v>
-      </c>
-      <c r="G12" s="29"/>
+        <v>464</v>
+      </c>
+      <c r="G12" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
+      <c r="I12" s="137" t="str">
+        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/error_handling_and_logging.md", "Analysis done here")</f>
+        <v>Analysis done here</v>
+      </c>
       <c r="J12" s="33"/>
     </row>
-    <row r="13" spans="1:10" ht="46.8">
-      <c r="A13" s="123"/>
+    <row r="13" spans="1:10" ht="52" thickBot="1">
+      <c r="A13" s="122"/>
       <c r="B13" s="63" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C13" s="69">
         <v>2</v>
@@ -11371,17 +12386,22 @@
       </c>
       <c r="E13" s="68"/>
       <c r="F13" s="81" t="s">
-        <v>465</v>
-      </c>
-      <c r="G13" s="29"/>
+        <v>466</v>
+      </c>
+      <c r="G13" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
+      <c r="I13" s="137" t="str">
+        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/error_handling_and_logging.md", "Analysis done here")</f>
+        <v>Analysis done here</v>
+      </c>
       <c r="J13" s="33"/>
     </row>
-    <row r="14" spans="1:10" ht="46.8">
-      <c r="A14" s="123"/>
+    <row r="14" spans="1:10" ht="35" thickBot="1">
+      <c r="A14" s="122"/>
       <c r="B14" s="63" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C14" s="79">
         <v>2</v>
@@ -11391,11 +12411,16 @@
       </c>
       <c r="E14" s="72"/>
       <c r="F14" s="82" t="s">
-        <v>467</v>
-      </c>
-      <c r="G14" s="36"/>
+        <v>468</v>
+      </c>
+      <c r="G14" s="36" t="s">
+        <v>26</v>
+      </c>
       <c r="H14" s="36"/>
-      <c r="I14" s="36"/>
+      <c r="I14" s="137" t="str">
+        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/error_handling_and_logging.md", "Analysis done here")</f>
+        <v>Analysis done here</v>
+      </c>
       <c r="J14" s="38"/>
     </row>
   </sheetData>
@@ -11425,23 +12450,23 @@
   <dimension ref="A1:AMJ18"/>
   <sheetViews>
     <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="A11" sqref="A11:A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="21"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="21"/>
   <cols>
     <col min="1" max="1" width="30.6640625" style="73" customWidth="1"/>
-    <col min="2" max="2" width="8.77734375" style="26"/>
-    <col min="3" max="5" width="8.77734375" style="60"/>
+    <col min="2" max="2" width="8.6640625" style="26"/>
+    <col min="3" max="5" width="8.6640625" style="60"/>
     <col min="6" max="6" width="93" style="26" customWidth="1"/>
-    <col min="7" max="7" width="12.44140625" style="26" customWidth="1"/>
-    <col min="8" max="8" width="35.77734375" style="26" customWidth="1"/>
+    <col min="7" max="7" width="12.5" style="26" customWidth="1"/>
+    <col min="8" max="8" width="35.6640625" style="26" customWidth="1"/>
     <col min="9" max="9" width="17.33203125" style="26" customWidth="1"/>
-    <col min="10" max="10" width="30.77734375" style="26" customWidth="1"/>
-    <col min="11" max="1024" width="8.77734375" style="26"/>
+    <col min="10" max="10" width="30.6640625" style="26" customWidth="1"/>
+    <col min="11" max="1024" width="8.6640625" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="44" customFormat="1" ht="42">
+    <row r="1" spans="1:10" s="44" customFormat="1" ht="44">
       <c r="A1" s="95" t="s">
         <v>20</v>
       </c>
@@ -11473,12 +12498,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="32.25" customHeight="1">
-      <c r="A2" s="123" t="s">
-        <v>468</v>
+    <row r="2" spans="1:10" ht="32.25" customHeight="1" thickBot="1">
+      <c r="A2" s="122" t="s">
+        <v>469</v>
       </c>
       <c r="B2" s="63" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C2" s="83">
         <v>2</v>
@@ -11488,17 +12513,22 @@
       </c>
       <c r="E2" s="65"/>
       <c r="F2" s="80" t="s">
-        <v>470</v>
-      </c>
-      <c r="G2" s="50"/>
+        <v>471</v>
+      </c>
+      <c r="G2" s="50" t="s">
+        <v>26</v>
+      </c>
       <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
+      <c r="I2" s="126" t="str">
+        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/data_protection.md", "Analysis done here")</f>
+        <v>Analysis done here</v>
+      </c>
       <c r="J2" s="66"/>
     </row>
-    <row r="3" spans="1:10" ht="46.8">
-      <c r="A3" s="123"/>
+    <row r="3" spans="1:10" ht="35" thickBot="1">
+      <c r="A3" s="122"/>
       <c r="B3" s="63" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C3" s="69">
         <v>2</v>
@@ -11508,17 +12538,22 @@
       </c>
       <c r="E3" s="68"/>
       <c r="F3" s="81" t="s">
-        <v>472</v>
-      </c>
-      <c r="G3" s="29"/>
+        <v>473</v>
+      </c>
+      <c r="G3" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
+      <c r="I3" s="126" t="str">
+        <f t="shared" ref="I3:I17" si="0">HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/data_protection.md", "Analysis done here")</f>
+        <v>Analysis done here</v>
+      </c>
       <c r="J3" s="33"/>
     </row>
-    <row r="4" spans="1:10" ht="31.2">
-      <c r="A4" s="123"/>
+    <row r="4" spans="1:10" ht="35" thickBot="1">
+      <c r="A4" s="122"/>
       <c r="B4" s="63" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C4" s="69">
         <v>2</v>
@@ -11528,17 +12563,22 @@
       </c>
       <c r="E4" s="68"/>
       <c r="F4" s="81" t="s">
-        <v>474</v>
-      </c>
-      <c r="G4" s="29"/>
+        <v>475</v>
+      </c>
+      <c r="G4" s="29" t="s">
+        <v>136</v>
+      </c>
       <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
+      <c r="I4" s="126" t="str">
+        <f t="shared" si="0"/>
+        <v>Analysis done here</v>
+      </c>
       <c r="J4" s="33"/>
     </row>
-    <row r="5" spans="1:10" ht="31.2">
-      <c r="A5" s="123"/>
+    <row r="5" spans="1:10" ht="35" thickBot="1">
+      <c r="A5" s="122"/>
       <c r="B5" s="63" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C5" s="69">
         <v>2</v>
@@ -11548,17 +12588,22 @@
       </c>
       <c r="E5" s="68"/>
       <c r="F5" s="81" t="s">
-        <v>476</v>
-      </c>
-      <c r="G5" s="29"/>
+        <v>477</v>
+      </c>
+      <c r="G5" s="29" t="s">
+        <v>136</v>
+      </c>
       <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
+      <c r="I5" s="126" t="str">
+        <f t="shared" si="0"/>
+        <v>Analysis done here</v>
+      </c>
       <c r="J5" s="33"/>
     </row>
-    <row r="6" spans="1:10" ht="31.2">
-      <c r="A6" s="123"/>
+    <row r="6" spans="1:10" ht="18" thickBot="1">
+      <c r="A6" s="122"/>
       <c r="B6" s="63" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C6" s="70">
         <v>3</v>
@@ -11568,17 +12613,22 @@
       </c>
       <c r="E6" s="68"/>
       <c r="F6" s="81" t="s">
-        <v>478</v>
-      </c>
-      <c r="G6" s="29"/>
+        <v>479</v>
+      </c>
+      <c r="G6" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
+      <c r="I6" s="126" t="str">
+        <f t="shared" si="0"/>
+        <v>Analysis done here</v>
+      </c>
       <c r="J6" s="33"/>
     </row>
-    <row r="7" spans="1:10" ht="15.6">
-      <c r="A7" s="123"/>
+    <row r="7" spans="1:10" ht="18" thickBot="1">
+      <c r="A7" s="122"/>
       <c r="B7" s="63" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C7" s="70">
         <v>3</v>
@@ -11588,19 +12638,24 @@
       </c>
       <c r="E7" s="68"/>
       <c r="F7" s="81" t="s">
-        <v>480</v>
-      </c>
-      <c r="G7" s="29"/>
+        <v>481</v>
+      </c>
+      <c r="G7" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
+      <c r="I7" s="126" t="str">
+        <f t="shared" si="0"/>
+        <v>Analysis done here</v>
+      </c>
       <c r="J7" s="33"/>
     </row>
-    <row r="8" spans="1:10" ht="32.25" customHeight="1">
-      <c r="A8" s="123" t="s">
-        <v>481</v>
+    <row r="8" spans="1:10" ht="32.25" customHeight="1" thickBot="1">
+      <c r="A8" s="122" t="s">
+        <v>482</v>
       </c>
       <c r="B8" s="63" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C8" s="67">
         <v>1</v>
@@ -11610,17 +12665,22 @@
       </c>
       <c r="E8" s="68"/>
       <c r="F8" s="81" t="s">
-        <v>483</v>
-      </c>
-      <c r="G8" s="29"/>
+        <v>484</v>
+      </c>
+      <c r="G8" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
+      <c r="I8" s="126" t="str">
+        <f t="shared" si="0"/>
+        <v>Analysis done here</v>
+      </c>
       <c r="J8" s="33"/>
     </row>
-    <row r="9" spans="1:10" ht="31.2">
-      <c r="A9" s="123"/>
+    <row r="9" spans="1:10" ht="35" thickBot="1">
+      <c r="A9" s="122"/>
       <c r="B9" s="63" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C9" s="67">
         <v>1</v>
@@ -11630,17 +12690,22 @@
       </c>
       <c r="E9" s="68"/>
       <c r="F9" s="81" t="s">
-        <v>485</v>
-      </c>
-      <c r="G9" s="29"/>
+        <v>486</v>
+      </c>
+      <c r="G9" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
+      <c r="I9" s="126" t="str">
+        <f t="shared" si="0"/>
+        <v>Analysis done here</v>
+      </c>
       <c r="J9" s="33"/>
     </row>
-    <row r="10" spans="1:10" ht="31.2">
-      <c r="A10" s="123"/>
+    <row r="10" spans="1:10" ht="35" thickBot="1">
+      <c r="A10" s="122"/>
       <c r="B10" s="63" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C10" s="67">
         <v>1</v>
@@ -11650,19 +12715,24 @@
       </c>
       <c r="E10" s="68"/>
       <c r="F10" s="81" t="s">
-        <v>487</v>
-      </c>
-      <c r="G10" s="29"/>
+        <v>488</v>
+      </c>
+      <c r="G10" s="29" t="s">
+        <v>136</v>
+      </c>
       <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
+      <c r="I10" s="126" t="str">
+        <f t="shared" si="0"/>
+        <v>Analysis done here</v>
+      </c>
       <c r="J10" s="33"/>
     </row>
-    <row r="11" spans="1:10" ht="32.25" customHeight="1">
-      <c r="A11" s="123" t="s">
-        <v>488</v>
+    <row r="11" spans="1:10" ht="32.25" customHeight="1" thickBot="1">
+      <c r="A11" s="122" t="s">
+        <v>489</v>
       </c>
       <c r="B11" s="63" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C11" s="67">
         <v>1</v>
@@ -11672,17 +12742,22 @@
       </c>
       <c r="E11" s="68"/>
       <c r="F11" s="81" t="s">
-        <v>490</v>
-      </c>
-      <c r="G11" s="29"/>
+        <v>491</v>
+      </c>
+      <c r="G11" s="29" t="s">
+        <v>136</v>
+      </c>
       <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
+      <c r="I11" s="126" t="str">
+        <f t="shared" si="0"/>
+        <v>Analysis done here</v>
+      </c>
       <c r="J11" s="33"/>
     </row>
-    <row r="12" spans="1:10" ht="15.6">
-      <c r="A12" s="123"/>
+    <row r="12" spans="1:10" ht="18" thickBot="1">
+      <c r="A12" s="122"/>
       <c r="B12" s="63" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C12" s="67">
         <v>1</v>
@@ -11692,17 +12767,22 @@
       </c>
       <c r="E12" s="68"/>
       <c r="F12" s="81" t="s">
-        <v>492</v>
-      </c>
-      <c r="G12" s="29"/>
+        <v>493</v>
+      </c>
+      <c r="G12" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
+      <c r="I12" s="126" t="str">
+        <f t="shared" si="0"/>
+        <v>Analysis done here</v>
+      </c>
       <c r="J12" s="33"/>
     </row>
-    <row r="13" spans="1:10" ht="46.8">
-      <c r="A13" s="123"/>
+    <row r="13" spans="1:10" ht="35" thickBot="1">
+      <c r="A13" s="122"/>
       <c r="B13" s="63" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C13" s="67">
         <v>1</v>
@@ -11712,17 +12792,22 @@
       </c>
       <c r="E13" s="68"/>
       <c r="F13" s="81" t="s">
-        <v>494</v>
-      </c>
-      <c r="G13" s="29"/>
+        <v>495</v>
+      </c>
+      <c r="G13" s="29" t="s">
+        <v>136</v>
+      </c>
       <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
+      <c r="I13" s="126" t="str">
+        <f t="shared" si="0"/>
+        <v>Analysis done here</v>
+      </c>
       <c r="J13" s="33"/>
     </row>
-    <row r="14" spans="1:10" ht="46.8">
-      <c r="A14" s="123"/>
+    <row r="14" spans="1:10" ht="52" thickBot="1">
+      <c r="A14" s="122"/>
       <c r="B14" s="63" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C14" s="67">
         <v>1</v>
@@ -11732,17 +12817,22 @@
       </c>
       <c r="E14" s="68"/>
       <c r="F14" s="81" t="s">
-        <v>496</v>
-      </c>
-      <c r="G14" s="29"/>
+        <v>497</v>
+      </c>
+      <c r="G14" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
+      <c r="I14" s="126" t="str">
+        <f t="shared" si="0"/>
+        <v>Analysis done here</v>
+      </c>
       <c r="J14" s="33"/>
     </row>
-    <row r="15" spans="1:10" ht="31.2">
-      <c r="A15" s="123"/>
+    <row r="15" spans="1:10" ht="35" thickBot="1">
+      <c r="A15" s="122"/>
       <c r="B15" s="63" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C15" s="69">
         <v>2</v>
@@ -11752,17 +12842,22 @@
       </c>
       <c r="E15" s="68"/>
       <c r="F15" s="81" t="s">
-        <v>498</v>
-      </c>
-      <c r="G15" s="29"/>
+        <v>499</v>
+      </c>
+      <c r="G15" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
+      <c r="I15" s="126" t="str">
+        <f t="shared" si="0"/>
+        <v>Analysis done here</v>
+      </c>
       <c r="J15" s="33"/>
     </row>
-    <row r="16" spans="1:10" ht="31.2">
-      <c r="A16" s="123"/>
+    <row r="16" spans="1:10" ht="35" thickBot="1">
+      <c r="A16" s="122"/>
       <c r="B16" s="63" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C16" s="69">
         <v>2</v>
@@ -11772,17 +12867,22 @@
       </c>
       <c r="E16" s="28"/>
       <c r="F16" s="81" t="s">
-        <v>500</v>
-      </c>
-      <c r="G16" s="29"/>
+        <v>501</v>
+      </c>
+      <c r="G16" s="29" t="s">
+        <v>56</v>
+      </c>
       <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
+      <c r="I16" s="126" t="str">
+        <f t="shared" si="0"/>
+        <v>Analysis done here</v>
+      </c>
       <c r="J16" s="33"/>
     </row>
-    <row r="17" spans="1:10" ht="46.8">
-      <c r="A17" s="123"/>
+    <row r="17" spans="1:10" ht="52" thickBot="1">
+      <c r="A17" s="122"/>
       <c r="B17" s="63" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C17" s="69">
         <v>2</v>
@@ -11792,17 +12892,22 @@
       </c>
       <c r="E17" s="28"/>
       <c r="F17" s="81" t="s">
-        <v>502</v>
-      </c>
-      <c r="G17" s="29"/>
+        <v>503</v>
+      </c>
+      <c r="G17" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
+      <c r="I17" s="126" t="str">
+        <f t="shared" si="0"/>
+        <v>Analysis done here</v>
+      </c>
       <c r="J17" s="33"/>
     </row>
-    <row r="18" spans="1:10" ht="31.2">
-      <c r="A18" s="123"/>
+    <row r="18" spans="1:10" ht="35" thickBot="1">
+      <c r="A18" s="122"/>
       <c r="B18" s="63" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C18" s="79">
         <v>2</v>
@@ -11812,11 +12917,16 @@
       </c>
       <c r="E18" s="35"/>
       <c r="F18" s="82" t="s">
-        <v>504</v>
-      </c>
-      <c r="G18" s="36"/>
+        <v>505</v>
+      </c>
+      <c r="G18" s="36" t="s">
+        <v>26</v>
+      </c>
       <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
+      <c r="I18" s="135" t="str">
+        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/data_protection.md", "Analysis done here")</f>
+        <v>Analysis done here</v>
+      </c>
       <c r="J18" s="38"/>
     </row>
   </sheetData>
@@ -11825,7 +12935,7 @@
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="A11:A18"/>
   </mergeCells>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" operator="equal" showErrorMessage="1" sqref="G2:G18" xr:uid="{00000000-0002-0000-0800-000000000000}">
       <formula1>"Valid,Non-valid,Not Applicable"</formula1>
       <formula2>0</formula2>

--- a/v4-ASVS-checklist-en.xlsx
+++ b/v4-ASVS-checklist-en.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ctw02447/Documents/Mestrado/DESOFS/desofs2024_M1C_1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guicota/Desktop/MEI/desofs-2024/project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0DD752C-5F27-0546-8A5F-7CA2DCA6BE0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D50ED19D-4EE6-E748-B818-57D62F90B650}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="500" windowWidth="38400" windowHeight="20240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16460" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ASVS Results" sheetId="1" r:id="rId1"/>
@@ -41,8 +41,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -3270,15 +3268,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="1" applyBorder="1"/>
@@ -3300,6 +3289,15 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3564,7 +3562,7 @@
                   <c:v>61.111111111111114</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>76.744186046511629</c:v>
+                  <c:v>77.272727272727266</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>75</c:v>
@@ -3603,7 +3601,7 @@
                   <c:v>91.666666666666657</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>73.191489361702125</c:v>
+                  <c:v>73.305084745762713</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3819,14 +3817,10 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3864,7 +3858,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -3970,7 +3964,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4112,7 +4106,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4122,7 +4116,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMJ16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
@@ -4177,15 +4171,15 @@
       </c>
       <c r="B3" s="9">
         <f>COUNTIF(Authentication!G2:G58,"Valid")</f>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C3" s="10">
         <f>COUNTIF(Authentication!G2:G58,"&lt;&gt;Not Applicable")</f>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D3" s="11">
         <f t="shared" si="0"/>
-        <v>76.744186046511629</v>
+        <v>77.272727272727266</v>
       </c>
       <c r="E3" s="12"/>
     </row>
@@ -4412,15 +4406,15 @@
       </c>
       <c r="B16" s="9">
         <f>SUM(B2:B15)</f>
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C16" s="10">
         <f>SUM(C2:C15)</f>
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D16" s="11">
         <f t="shared" si="0"/>
-        <v>73.191489361702125</v>
+        <v>73.305084745762713</v>
       </c>
       <c r="E16" s="12"/>
     </row>
@@ -4489,7 +4483,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="48" customHeight="1" thickBot="1">
-      <c r="A2" s="122" t="s">
+      <c r="A2" s="138" t="s">
         <v>506</v>
       </c>
       <c r="B2" s="63" t="s">
@@ -4509,14 +4503,14 @@
         <v>56</v>
       </c>
       <c r="H2" s="50"/>
-      <c r="I2" s="126" t="str">
-        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/communication.md", "Analysis done here")</f>
+      <c r="I2" s="123" t="str">
+        <f t="shared" ref="I2:I9" si="0">HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/communication.md", "Analysis done here")</f>
         <v>Analysis done here</v>
       </c>
       <c r="J2" s="66"/>
     </row>
     <row r="3" spans="1:10" ht="35" thickBot="1">
-      <c r="A3" s="122"/>
+      <c r="A3" s="138"/>
       <c r="B3" s="63" t="s">
         <v>509</v>
       </c>
@@ -4534,14 +4528,14 @@
         <v>56</v>
       </c>
       <c r="H3" s="29"/>
-      <c r="I3" s="126" t="str">
-        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/communication.md", "Analysis done here")</f>
+      <c r="I3" s="123" t="str">
+        <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J3" s="33"/>
     </row>
     <row r="4" spans="1:10" ht="35" thickBot="1">
-      <c r="A4" s="122"/>
+      <c r="A4" s="138"/>
       <c r="B4" s="63" t="s">
         <v>511</v>
       </c>
@@ -4559,14 +4553,14 @@
         <v>56</v>
       </c>
       <c r="H4" s="29"/>
-      <c r="I4" s="126" t="str">
-        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/communication.md", "Analysis done here")</f>
+      <c r="I4" s="123" t="str">
+        <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J4" s="33"/>
     </row>
     <row r="5" spans="1:10" ht="63.75" customHeight="1" thickBot="1">
-      <c r="A5" s="122" t="s">
+      <c r="A5" s="138" t="s">
         <v>513</v>
       </c>
       <c r="B5" s="63" t="s">
@@ -4586,14 +4580,14 @@
         <v>56</v>
       </c>
       <c r="H5" s="29"/>
-      <c r="I5" s="126" t="str">
-        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/communication.md", "Analysis done here")</f>
+      <c r="I5" s="123" t="str">
+        <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J5" s="33"/>
     </row>
     <row r="6" spans="1:10" ht="69" thickBot="1">
-      <c r="A6" s="122"/>
+      <c r="A6" s="138"/>
       <c r="B6" s="63" t="s">
         <v>516</v>
       </c>
@@ -4611,14 +4605,14 @@
         <v>56</v>
       </c>
       <c r="H6" s="29"/>
-      <c r="I6" s="126" t="str">
-        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/communication.md", "Analysis done here")</f>
+      <c r="I6" s="123" t="str">
+        <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J6" s="33"/>
     </row>
     <row r="7" spans="1:10" ht="35" thickBot="1">
-      <c r="A7" s="122"/>
+      <c r="A7" s="138"/>
       <c r="B7" s="63" t="s">
         <v>518</v>
       </c>
@@ -4636,14 +4630,14 @@
         <v>56</v>
       </c>
       <c r="H7" s="29"/>
-      <c r="I7" s="126" t="str">
-        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/communication.md", "Analysis done here")</f>
+      <c r="I7" s="123" t="str">
+        <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J7" s="33"/>
     </row>
     <row r="8" spans="1:10" ht="35" thickBot="1">
-      <c r="A8" s="122"/>
+      <c r="A8" s="138"/>
       <c r="B8" s="63" t="s">
         <v>520</v>
       </c>
@@ -4661,14 +4655,14 @@
         <v>56</v>
       </c>
       <c r="H8" s="29"/>
-      <c r="I8" s="126" t="str">
-        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/communication.md", "Analysis done here")</f>
+      <c r="I8" s="123" t="str">
+        <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J8" s="33"/>
     </row>
     <row r="9" spans="1:10" ht="18" thickBot="1">
-      <c r="A9" s="122"/>
+      <c r="A9" s="138"/>
       <c r="B9" s="63" t="s">
         <v>522</v>
       </c>
@@ -4686,8 +4680,8 @@
         <v>56</v>
       </c>
       <c r="H9" s="36"/>
-      <c r="I9" s="126" t="str">
-        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/communication.md", "Analysis done here")</f>
+      <c r="I9" s="123" t="str">
+        <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J9" s="38"/>
@@ -4786,14 +4780,14 @@
         <v>26</v>
       </c>
       <c r="H2" s="50"/>
-      <c r="I2" s="126" t="str">
-        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/malicious_code.md", "Analysis done here")</f>
+      <c r="I2" s="123" t="str">
+        <f t="shared" ref="I2:I11" si="0">HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/malicious_code.md", "Analysis done here")</f>
         <v>Analysis done here</v>
       </c>
       <c r="J2" s="66"/>
     </row>
     <row r="3" spans="1:10" ht="48" customHeight="1" thickBot="1">
-      <c r="A3" s="122" t="s">
+      <c r="A3" s="138" t="s">
         <v>527</v>
       </c>
       <c r="B3" s="63" t="s">
@@ -4813,14 +4807,14 @@
         <v>26</v>
       </c>
       <c r="H3" s="29"/>
-      <c r="I3" s="126" t="str">
-        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/malicious_code.md", "Analysis done here")</f>
+      <c r="I3" s="123" t="str">
+        <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J3" s="33"/>
     </row>
     <row r="4" spans="1:10" ht="35" thickBot="1">
-      <c r="A4" s="122"/>
+      <c r="A4" s="138"/>
       <c r="B4" s="63" t="s">
         <v>530</v>
       </c>
@@ -4838,14 +4832,14 @@
         <v>26</v>
       </c>
       <c r="H4" s="29"/>
-      <c r="I4" s="126" t="str">
-        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/malicious_code.md", "Analysis done here")</f>
+      <c r="I4" s="123" t="str">
+        <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J4" s="33"/>
     </row>
     <row r="5" spans="1:10" ht="69" thickBot="1">
-      <c r="A5" s="122"/>
+      <c r="A5" s="138"/>
       <c r="B5" s="63" t="s">
         <v>532</v>
       </c>
@@ -4863,14 +4857,14 @@
         <v>26</v>
       </c>
       <c r="H5" s="29"/>
-      <c r="I5" s="126" t="str">
-        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/malicious_code.md", "Analysis done here")</f>
+      <c r="I5" s="123" t="str">
+        <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J5" s="33"/>
     </row>
     <row r="6" spans="1:10" ht="35" thickBot="1">
-      <c r="A6" s="122"/>
+      <c r="A6" s="138"/>
       <c r="B6" s="63" t="s">
         <v>534</v>
       </c>
@@ -4888,14 +4882,14 @@
         <v>26</v>
       </c>
       <c r="H6" s="29"/>
-      <c r="I6" s="126" t="str">
-        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/malicious_code.md", "Analysis done here")</f>
+      <c r="I6" s="123" t="str">
+        <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J6" s="33"/>
     </row>
     <row r="7" spans="1:10" ht="35" thickBot="1">
-      <c r="A7" s="122"/>
+      <c r="A7" s="138"/>
       <c r="B7" s="63" t="s">
         <v>536</v>
       </c>
@@ -4913,14 +4907,14 @@
         <v>26</v>
       </c>
       <c r="H7" s="29"/>
-      <c r="I7" s="126" t="str">
-        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/malicious_code.md", "Analysis done here")</f>
+      <c r="I7" s="123" t="str">
+        <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J7" s="33"/>
     </row>
     <row r="8" spans="1:10" ht="35" thickBot="1">
-      <c r="A8" s="122"/>
+      <c r="A8" s="138"/>
       <c r="B8" s="63" t="s">
         <v>538</v>
       </c>
@@ -4938,14 +4932,14 @@
         <v>26</v>
       </c>
       <c r="H8" s="29"/>
-      <c r="I8" s="126" t="str">
-        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/malicious_code.md", "Analysis done here")</f>
+      <c r="I8" s="123" t="str">
+        <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J8" s="33"/>
     </row>
     <row r="9" spans="1:10" ht="48" customHeight="1" thickBot="1">
-      <c r="A9" s="122" t="s">
+      <c r="A9" s="138" t="s">
         <v>540</v>
       </c>
       <c r="B9" s="63" t="s">
@@ -4965,14 +4959,14 @@
         <v>56</v>
       </c>
       <c r="H9" s="29"/>
-      <c r="I9" s="126" t="str">
-        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/malicious_code.md", "Analysis done here")</f>
+      <c r="I9" s="123" t="str">
+        <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J9" s="33"/>
     </row>
     <row r="10" spans="1:10" ht="52" thickBot="1">
-      <c r="A10" s="122"/>
+      <c r="A10" s="138"/>
       <c r="B10" s="63" t="s">
         <v>543</v>
       </c>
@@ -4990,14 +4984,14 @@
         <v>56</v>
       </c>
       <c r="H10" s="29"/>
-      <c r="I10" s="126" t="str">
-        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/malicious_code.md", "Analysis done here")</f>
+      <c r="I10" s="123" t="str">
+        <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J10" s="33"/>
     </row>
     <row r="11" spans="1:10" ht="86" thickBot="1">
-      <c r="A11" s="122"/>
+      <c r="A11" s="138"/>
       <c r="B11" s="63" t="s">
         <v>545</v>
       </c>
@@ -5015,8 +5009,8 @@
         <v>56</v>
       </c>
       <c r="H11" s="36"/>
-      <c r="I11" s="126" t="str">
-        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/malicious_code.md", "Analysis done here")</f>
+      <c r="I11" s="123" t="str">
+        <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J11" s="38"/>
@@ -5095,7 +5089,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="32.25" customHeight="1" thickBot="1">
-      <c r="A2" s="122" t="s">
+      <c r="A2" s="138" t="s">
         <v>547</v>
       </c>
       <c r="B2" s="63" t="s">
@@ -5115,14 +5109,14 @@
         <v>26</v>
       </c>
       <c r="H2" s="50"/>
-      <c r="I2" s="126" t="str">
-        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/business_logic.md", "Analysis done here")</f>
+      <c r="I2" s="123" t="str">
+        <f t="shared" ref="I2:I9" si="0">HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/business_logic.md", "Analysis done here")</f>
         <v>Analysis done here</v>
       </c>
       <c r="J2" s="66"/>
     </row>
     <row r="3" spans="1:10" ht="52" thickBot="1">
-      <c r="A3" s="122"/>
+      <c r="A3" s="138"/>
       <c r="B3" s="63" t="s">
         <v>550</v>
       </c>
@@ -5140,14 +5134,14 @@
         <v>136</v>
       </c>
       <c r="H3" s="29"/>
-      <c r="I3" s="126" t="str">
-        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/business_logic.md", "Analysis done here")</f>
+      <c r="I3" s="123" t="str">
+        <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J3" s="33"/>
     </row>
     <row r="4" spans="1:10" ht="35" thickBot="1">
-      <c r="A4" s="122"/>
+      <c r="A4" s="138"/>
       <c r="B4" s="63" t="s">
         <v>552</v>
       </c>
@@ -5165,14 +5159,14 @@
         <v>26</v>
       </c>
       <c r="H4" s="29"/>
-      <c r="I4" s="126" t="str">
-        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/business_logic.md", "Analysis done here")</f>
+      <c r="I4" s="123" t="str">
+        <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J4" s="33"/>
     </row>
     <row r="5" spans="1:10" ht="52" thickBot="1">
-      <c r="A5" s="122"/>
+      <c r="A5" s="138"/>
       <c r="B5" s="63" t="s">
         <v>554</v>
       </c>
@@ -5190,14 +5184,14 @@
         <v>136</v>
       </c>
       <c r="H5" s="29"/>
-      <c r="I5" s="126" t="str">
-        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/business_logic.md", "Analysis done here")</f>
+      <c r="I5" s="123" t="str">
+        <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J5" s="33"/>
     </row>
     <row r="6" spans="1:10" ht="52" thickBot="1">
-      <c r="A6" s="122"/>
+      <c r="A6" s="138"/>
       <c r="B6" s="63" t="s">
         <v>556</v>
       </c>
@@ -5215,14 +5209,14 @@
         <v>26</v>
       </c>
       <c r="H6" s="29"/>
-      <c r="I6" s="126" t="str">
-        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/business_logic.md", "Analysis done here")</f>
+      <c r="I6" s="123" t="str">
+        <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J6" s="33"/>
     </row>
     <row r="7" spans="1:10" ht="36" customHeight="1" thickBot="1">
-      <c r="A7" s="122"/>
+      <c r="A7" s="138"/>
       <c r="B7" s="63" t="s">
         <v>558</v>
       </c>
@@ -5240,14 +5234,14 @@
         <v>136</v>
       </c>
       <c r="H7" s="29"/>
-      <c r="I7" s="126" t="str">
-        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/business_logic.md", "Analysis done here")</f>
+      <c r="I7" s="123" t="str">
+        <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J7" s="33"/>
     </row>
     <row r="8" spans="1:10" ht="66.75" customHeight="1" thickBot="1">
-      <c r="A8" s="122"/>
+      <c r="A8" s="138"/>
       <c r="B8" s="63" t="s">
         <v>560</v>
       </c>
@@ -5265,14 +5259,14 @@
         <v>136</v>
       </c>
       <c r="H8" s="29"/>
-      <c r="I8" s="126" t="str">
-        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/business_logic.md", "Analysis done here")</f>
+      <c r="I8" s="123" t="str">
+        <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J8" s="33"/>
     </row>
     <row r="9" spans="1:10" ht="35" thickBot="1">
-      <c r="A9" s="122"/>
+      <c r="A9" s="138"/>
       <c r="B9" s="63" t="s">
         <v>562</v>
       </c>
@@ -5290,8 +5284,8 @@
         <v>26</v>
       </c>
       <c r="H9" s="36"/>
-      <c r="I9" s="126" t="str">
-        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/business_logic.md", "Analysis done here")</f>
+      <c r="I9" s="123" t="str">
+        <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J9" s="38"/>
@@ -5369,7 +5363,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="32.25" customHeight="1" thickBot="1">
-      <c r="A2" s="122" t="s">
+      <c r="A2" s="138" t="s">
         <v>564</v>
       </c>
       <c r="B2" s="63" t="s">
@@ -5389,14 +5383,14 @@
         <v>136</v>
       </c>
       <c r="H2" s="50"/>
-      <c r="I2" s="126" t="str">
-        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/file_and_resources.md", "Analysis done here")</f>
+      <c r="I2" s="123" t="str">
+        <f t="shared" ref="I2:I16" si="0">HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/file_and_resources.md", "Analysis done here")</f>
         <v>Analysis done here</v>
       </c>
       <c r="J2" s="66"/>
     </row>
     <row r="3" spans="1:10" ht="52" thickBot="1">
-      <c r="A3" s="122"/>
+      <c r="A3" s="138"/>
       <c r="B3" s="63" t="s">
         <v>567</v>
       </c>
@@ -5414,14 +5408,14 @@
         <v>136</v>
       </c>
       <c r="H3" s="29"/>
-      <c r="I3" s="126" t="str">
-        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/file_and_resources.md", "Analysis done here")</f>
+      <c r="I3" s="123" t="str">
+        <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J3" s="33"/>
     </row>
     <row r="4" spans="1:10" ht="35" thickBot="1">
-      <c r="A4" s="122"/>
+      <c r="A4" s="138"/>
       <c r="B4" s="63" t="s">
         <v>569</v>
       </c>
@@ -5439,8 +5433,8 @@
         <v>136</v>
       </c>
       <c r="H4" s="29"/>
-      <c r="I4" s="126" t="str">
-        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/file_and_resources.md", "Analysis done here")</f>
+      <c r="I4" s="123" t="str">
+        <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J4" s="33"/>
@@ -5466,14 +5460,14 @@
         <v>26</v>
       </c>
       <c r="H5" s="29"/>
-      <c r="I5" s="126" t="str">
-        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/file_and_resources.md", "Analysis done here")</f>
+      <c r="I5" s="123" t="str">
+        <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J5" s="33"/>
     </row>
     <row r="6" spans="1:10" ht="48" customHeight="1" thickBot="1">
-      <c r="A6" s="122" t="s">
+      <c r="A6" s="138" t="s">
         <v>574</v>
       </c>
       <c r="B6" s="63" t="s">
@@ -5493,14 +5487,14 @@
         <v>26</v>
       </c>
       <c r="H6" s="29"/>
-      <c r="I6" s="126" t="str">
-        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/file_and_resources.md", "Analysis done here")</f>
+      <c r="I6" s="123" t="str">
+        <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J6" s="33"/>
     </row>
     <row r="7" spans="1:10" ht="35" thickBot="1">
-      <c r="A7" s="122"/>
+      <c r="A7" s="138"/>
       <c r="B7" s="63" t="s">
         <v>577</v>
       </c>
@@ -5518,14 +5512,14 @@
         <v>26</v>
       </c>
       <c r="H7" s="29"/>
-      <c r="I7" s="126" t="str">
-        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/file_and_resources.md", "Analysis done here")</f>
+      <c r="I7" s="123" t="str">
+        <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J7" s="33"/>
     </row>
     <row r="8" spans="1:10" ht="52" thickBot="1">
-      <c r="A8" s="122"/>
+      <c r="A8" s="138"/>
       <c r="B8" s="63" t="s">
         <v>579</v>
       </c>
@@ -5543,14 +5537,14 @@
         <v>26</v>
       </c>
       <c r="H8" s="29"/>
-      <c r="I8" s="126" t="str">
-        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/file_and_resources.md", "Analysis done here")</f>
+      <c r="I8" s="123" t="str">
+        <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J8" s="33"/>
     </row>
     <row r="9" spans="1:10" ht="69" thickBot="1">
-      <c r="A9" s="122"/>
+      <c r="A9" s="138"/>
       <c r="B9" s="63" t="s">
         <v>581</v>
       </c>
@@ -5568,14 +5562,14 @@
         <v>136</v>
       </c>
       <c r="H9" s="29"/>
-      <c r="I9" s="126" t="str">
-        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/file_and_resources.md", "Analysis done here")</f>
+      <c r="I9" s="123" t="str">
+        <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J9" s="33"/>
     </row>
     <row r="10" spans="1:10" ht="35" thickBot="1">
-      <c r="A10" s="122"/>
+      <c r="A10" s="138"/>
       <c r="B10" s="63" t="s">
         <v>583</v>
       </c>
@@ -5593,14 +5587,14 @@
         <v>26</v>
       </c>
       <c r="H10" s="29"/>
-      <c r="I10" s="126" t="str">
-        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/file_and_resources.md", "Analysis done here")</f>
+      <c r="I10" s="123" t="str">
+        <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J10" s="33"/>
     </row>
     <row r="11" spans="1:10" ht="52" thickBot="1">
-      <c r="A11" s="122"/>
+      <c r="A11" s="138"/>
       <c r="B11" s="63" t="s">
         <v>585</v>
       </c>
@@ -5618,14 +5612,14 @@
         <v>26</v>
       </c>
       <c r="H11" s="29"/>
-      <c r="I11" s="126" t="str">
-        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/file_and_resources.md", "Analysis done here")</f>
+      <c r="I11" s="123" t="str">
+        <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J11" s="33"/>
     </row>
     <row r="12" spans="1:10" ht="32.25" customHeight="1" thickBot="1">
-      <c r="A12" s="122" t="s">
+      <c r="A12" s="138" t="s">
         <v>587</v>
       </c>
       <c r="B12" s="63" t="s">
@@ -5645,14 +5639,14 @@
         <v>26</v>
       </c>
       <c r="H12" s="29"/>
-      <c r="I12" s="126" t="str">
-        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/file_and_resources.md", "Analysis done here")</f>
+      <c r="I12" s="123" t="str">
+        <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J12" s="33"/>
     </row>
     <row r="13" spans="1:10" ht="35" thickBot="1">
-      <c r="A13" s="122"/>
+      <c r="A13" s="138"/>
       <c r="B13" s="63" t="s">
         <v>590</v>
       </c>
@@ -5670,14 +5664,14 @@
         <v>136</v>
       </c>
       <c r="H13" s="29"/>
-      <c r="I13" s="126" t="str">
-        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/file_and_resources.md", "Analysis done here")</f>
+      <c r="I13" s="123" t="str">
+        <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J13" s="33"/>
     </row>
     <row r="14" spans="1:10" ht="79.5" customHeight="1" thickBot="1">
-      <c r="A14" s="122" t="s">
+      <c r="A14" s="138" t="s">
         <v>592</v>
       </c>
       <c r="B14" s="63" t="s">
@@ -5697,14 +5691,14 @@
         <v>26</v>
       </c>
       <c r="H14" s="29"/>
-      <c r="I14" s="126" t="str">
-        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/file_and_resources.md", "Analysis done here")</f>
+      <c r="I14" s="123" t="str">
+        <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J14" s="33"/>
     </row>
     <row r="15" spans="1:10" ht="35" thickBot="1">
-      <c r="A15" s="122"/>
+      <c r="A15" s="138"/>
       <c r="B15" s="63" t="s">
         <v>595</v>
       </c>
@@ -5722,8 +5716,8 @@
         <v>26</v>
       </c>
       <c r="H15" s="29"/>
-      <c r="I15" s="126" t="str">
-        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/file_and_resources.md", "Analysis done here")</f>
+      <c r="I15" s="123" t="str">
+        <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J15" s="33"/>
@@ -5749,8 +5743,8 @@
         <v>136</v>
       </c>
       <c r="H16" s="36"/>
-      <c r="I16" s="126" t="str">
-        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/file_and_resources.md", "Analysis done here")</f>
+      <c r="I16" s="123" t="str">
+        <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J16" s="38"/>
@@ -5830,7 +5824,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="48" customHeight="1" thickBot="1">
-      <c r="A2" s="122" t="s">
+      <c r="A2" s="138" t="s">
         <v>600</v>
       </c>
       <c r="B2" s="63" t="s">
@@ -5850,14 +5844,14 @@
         <v>26</v>
       </c>
       <c r="H2" s="50"/>
-      <c r="I2" s="126" t="str">
-        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/api_and_webservice.md", "Analysis done here")</f>
+      <c r="I2" s="123" t="str">
+        <f t="shared" ref="I2:I16" si="0">HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/api_and_webservice.md", "Analysis done here")</f>
         <v>Analysis done here</v>
       </c>
       <c r="J2" s="66"/>
     </row>
     <row r="3" spans="1:10" ht="18" thickBot="1">
-      <c r="A3" s="122"/>
+      <c r="A3" s="138"/>
       <c r="B3" s="63" t="s">
         <v>603</v>
       </c>
@@ -5875,14 +5869,14 @@
         <v>56</v>
       </c>
       <c r="H3" s="29"/>
-      <c r="I3" s="126" t="str">
-        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/api_and_webservice.md", "Analysis done here")</f>
+      <c r="I3" s="123" t="str">
+        <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J3" s="33"/>
     </row>
     <row r="4" spans="1:10" ht="18" thickBot="1">
-      <c r="A4" s="122"/>
+      <c r="A4" s="138"/>
       <c r="B4" s="63" t="s">
         <v>605</v>
       </c>
@@ -5900,14 +5894,14 @@
         <v>26</v>
       </c>
       <c r="H4" s="29"/>
-      <c r="I4" s="126" t="str">
-        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/api_and_webservice.md", "Analysis done here")</f>
+      <c r="I4" s="123" t="str">
+        <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J4" s="33"/>
     </row>
     <row r="5" spans="1:10" ht="52" thickBot="1">
-      <c r="A5" s="122"/>
+      <c r="A5" s="138"/>
       <c r="B5" s="63" t="s">
         <v>607</v>
       </c>
@@ -5925,14 +5919,14 @@
         <v>26</v>
       </c>
       <c r="H5" s="29"/>
-      <c r="I5" s="126" t="str">
-        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/api_and_webservice.md", "Analysis done here")</f>
+      <c r="I5" s="123" t="str">
+        <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J5" s="33"/>
     </row>
     <row r="6" spans="1:10" ht="35" thickBot="1">
-      <c r="A6" s="122"/>
+      <c r="A6" s="138"/>
       <c r="B6" s="63" t="s">
         <v>609</v>
       </c>
@@ -5950,14 +5944,14 @@
         <v>136</v>
       </c>
       <c r="H6" s="29"/>
-      <c r="I6" s="126" t="str">
-        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/api_and_webservice.md", "Analysis done here")</f>
+      <c r="I6" s="123" t="str">
+        <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J6" s="33"/>
     </row>
     <row r="7" spans="1:10" ht="32.25" customHeight="1" thickBot="1">
-      <c r="A7" s="122" t="s">
+      <c r="A7" s="138" t="s">
         <v>611</v>
       </c>
       <c r="B7" s="63" t="s">
@@ -5977,14 +5971,14 @@
         <v>26</v>
       </c>
       <c r="H7" s="29"/>
-      <c r="I7" s="126" t="str">
-        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/api_and_webservice.md", "Analysis done here")</f>
+      <c r="I7" s="123" t="str">
+        <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J7" s="33"/>
     </row>
     <row r="8" spans="1:10" ht="18" thickBot="1">
-      <c r="A8" s="122"/>
+      <c r="A8" s="138"/>
       <c r="B8" s="63" t="s">
         <v>614</v>
       </c>
@@ -6002,14 +5996,14 @@
         <v>26</v>
       </c>
       <c r="H8" s="29"/>
-      <c r="I8" s="126" t="str">
-        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/api_and_webservice.md", "Analysis done here")</f>
+      <c r="I8" s="123" t="str">
+        <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J8" s="33"/>
     </row>
     <row r="9" spans="1:10" ht="52" thickBot="1">
-      <c r="A9" s="122"/>
+      <c r="A9" s="138"/>
       <c r="B9" s="63" t="s">
         <v>616</v>
       </c>
@@ -6027,14 +6021,14 @@
         <v>26</v>
       </c>
       <c r="H9" s="29"/>
-      <c r="I9" s="126" t="str">
-        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/api_and_webservice.md", "Analysis done here")</f>
+      <c r="I9" s="123" t="str">
+        <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J9" s="33"/>
     </row>
     <row r="10" spans="1:10" ht="18" thickBot="1">
-      <c r="A10" s="122"/>
+      <c r="A10" s="138"/>
       <c r="B10" s="63" t="s">
         <v>618</v>
       </c>
@@ -6052,14 +6046,14 @@
         <v>56</v>
       </c>
       <c r="H10" s="29"/>
-      <c r="I10" s="126" t="str">
-        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/api_and_webservice.md", "Analysis done here")</f>
+      <c r="I10" s="123" t="str">
+        <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J10" s="33"/>
     </row>
     <row r="11" spans="1:10" ht="35" thickBot="1">
-      <c r="A11" s="122"/>
+      <c r="A11" s="138"/>
       <c r="B11" s="63" t="s">
         <v>620</v>
       </c>
@@ -6077,14 +6071,14 @@
         <v>26</v>
       </c>
       <c r="H11" s="29"/>
-      <c r="I11" s="126" t="str">
-        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/api_and_webservice.md", "Analysis done here")</f>
+      <c r="I11" s="123" t="str">
+        <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J11" s="33"/>
     </row>
     <row r="12" spans="1:10" ht="86" thickBot="1">
-      <c r="A12" s="122"/>
+      <c r="A12" s="138"/>
       <c r="B12" s="63" t="s">
         <v>622</v>
       </c>
@@ -6102,14 +6096,14 @@
         <v>136</v>
       </c>
       <c r="H12" s="29"/>
-      <c r="I12" s="126" t="str">
-        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/api_and_webservice.md", "Analysis done here")</f>
+      <c r="I12" s="123" t="str">
+        <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J12" s="33"/>
     </row>
     <row r="13" spans="1:10" ht="48" customHeight="1" thickBot="1">
-      <c r="A13" s="122" t="s">
+      <c r="A13" s="138" t="s">
         <v>624</v>
       </c>
       <c r="B13" s="63" t="s">
@@ -6129,14 +6123,14 @@
         <v>26</v>
       </c>
       <c r="H13" s="29"/>
-      <c r="I13" s="126" t="str">
-        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/api_and_webservice.md", "Analysis done here")</f>
+      <c r="I13" s="123" t="str">
+        <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J13" s="33"/>
     </row>
     <row r="14" spans="1:10" ht="35" thickBot="1">
-      <c r="A14" s="122"/>
+      <c r="A14" s="138"/>
       <c r="B14" s="63" t="s">
         <v>627</v>
       </c>
@@ -6154,14 +6148,14 @@
         <v>26</v>
       </c>
       <c r="H14" s="29"/>
-      <c r="I14" s="126" t="str">
-        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/api_and_webservice.md", "Analysis done here")</f>
+      <c r="I14" s="123" t="str">
+        <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J14" s="33"/>
     </row>
     <row r="15" spans="1:10" ht="63.75" customHeight="1" thickBot="1">
-      <c r="A15" s="122" t="s">
+      <c r="A15" s="138" t="s">
         <v>629</v>
       </c>
       <c r="B15" s="63" t="s">
@@ -6181,14 +6175,14 @@
         <v>26</v>
       </c>
       <c r="H15" s="29"/>
-      <c r="I15" s="126" t="str">
-        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/api_and_webservice.md", "Analysis done here")</f>
+      <c r="I15" s="123" t="str">
+        <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J15" s="33"/>
     </row>
     <row r="16" spans="1:10" ht="35" thickBot="1">
-      <c r="A16" s="122"/>
+      <c r="A16" s="138"/>
       <c r="B16" s="63" t="s">
         <v>632</v>
       </c>
@@ -6206,71 +6200,71 @@
         <v>26</v>
       </c>
       <c r="H16" s="36"/>
-      <c r="I16" s="126" t="str">
-        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/api_and_webservice.md", "Analysis done here")</f>
+      <c r="I16" s="123" t="str">
+        <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J16" s="38"/>
     </row>
     <row r="17" spans="9:9">
-      <c r="I17" s="131"/>
+      <c r="I17" s="128"/>
     </row>
     <row r="18" spans="9:9">
-      <c r="I18" s="131"/>
+      <c r="I18" s="128"/>
     </row>
     <row r="19" spans="9:9">
-      <c r="I19" s="131"/>
+      <c r="I19" s="128"/>
     </row>
     <row r="20" spans="9:9">
-      <c r="I20" s="131"/>
+      <c r="I20" s="128"/>
     </row>
     <row r="21" spans="9:9">
-      <c r="I21" s="131"/>
+      <c r="I21" s="128"/>
     </row>
     <row r="22" spans="9:9">
-      <c r="I22" s="131"/>
+      <c r="I22" s="128"/>
     </row>
     <row r="23" spans="9:9">
-      <c r="I23" s="131"/>
+      <c r="I23" s="128"/>
     </row>
     <row r="24" spans="9:9">
-      <c r="I24" s="131"/>
+      <c r="I24" s="128"/>
     </row>
     <row r="25" spans="9:9">
-      <c r="I25" s="131"/>
+      <c r="I25" s="128"/>
     </row>
     <row r="26" spans="9:9">
-      <c r="I26" s="131"/>
+      <c r="I26" s="128"/>
     </row>
     <row r="27" spans="9:9">
-      <c r="I27" s="131"/>
+      <c r="I27" s="128"/>
     </row>
     <row r="28" spans="9:9">
-      <c r="I28" s="131"/>
+      <c r="I28" s="128"/>
     </row>
     <row r="29" spans="9:9">
-      <c r="I29" s="131"/>
+      <c r="I29" s="128"/>
     </row>
     <row r="30" spans="9:9">
-      <c r="I30" s="131"/>
+      <c r="I30" s="128"/>
     </row>
     <row r="31" spans="9:9">
-      <c r="I31" s="131"/>
+      <c r="I31" s="128"/>
     </row>
     <row r="32" spans="9:9">
-      <c r="I32" s="131"/>
+      <c r="I32" s="128"/>
     </row>
     <row r="33" spans="9:9">
-      <c r="I33" s="131"/>
+      <c r="I33" s="128"/>
     </row>
     <row r="34" spans="9:9">
-      <c r="I34" s="131"/>
+      <c r="I34" s="128"/>
     </row>
     <row r="35" spans="9:9">
-      <c r="I35" s="131"/>
+      <c r="I35" s="128"/>
     </row>
     <row r="36" spans="9:9">
-      <c r="I36" s="131"/>
+      <c r="I36" s="128"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -6348,7 +6342,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="48" customHeight="1" thickBot="1">
-      <c r="A2" s="123" t="s">
+      <c r="A2" s="139" t="s">
         <v>634</v>
       </c>
       <c r="B2" s="100" t="s">
@@ -6366,14 +6360,14 @@
         <v>26</v>
       </c>
       <c r="H2" s="105"/>
-      <c r="I2" s="133" t="str">
-        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/configuration.md", "Analysis done here")</f>
+      <c r="I2" s="130" t="str">
+        <f t="shared" ref="I2:I26" si="0">HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/configuration.md", "Analysis done here")</f>
         <v>Analysis done here</v>
       </c>
       <c r="J2" s="106"/>
     </row>
     <row r="3" spans="1:10" ht="52" thickBot="1">
-      <c r="A3" s="123"/>
+      <c r="A3" s="139"/>
       <c r="B3" s="63" t="s">
         <v>637</v>
       </c>
@@ -6391,14 +6385,14 @@
         <v>26</v>
       </c>
       <c r="H3" s="111"/>
-      <c r="I3" s="132" t="str">
-        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/configuration.md", "Analysis done here")</f>
+      <c r="I3" s="129" t="str">
+        <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J3" s="112"/>
     </row>
     <row r="4" spans="1:10" ht="35" thickBot="1">
-      <c r="A4" s="123"/>
+      <c r="A4" s="139"/>
       <c r="B4" s="63" t="s">
         <v>639</v>
       </c>
@@ -6416,14 +6410,14 @@
         <v>26</v>
       </c>
       <c r="H4" s="111"/>
-      <c r="I4" s="132" t="str">
-        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/configuration.md", "Analysis done here")</f>
+      <c r="I4" s="129" t="str">
+        <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J4" s="112"/>
     </row>
     <row r="5" spans="1:10" ht="52" thickBot="1">
-      <c r="A5" s="123"/>
+      <c r="A5" s="139"/>
       <c r="B5" s="63" t="s">
         <v>641</v>
       </c>
@@ -6439,14 +6433,14 @@
         <v>26</v>
       </c>
       <c r="H5" s="111"/>
-      <c r="I5" s="132" t="str">
-        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/configuration.md", "Analysis done here")</f>
+      <c r="I5" s="129" t="str">
+        <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J5" s="112"/>
     </row>
     <row r="6" spans="1:10" ht="35" thickBot="1">
-      <c r="A6" s="123"/>
+      <c r="A6" s="139"/>
       <c r="B6" s="63" t="s">
         <v>643</v>
       </c>
@@ -6462,14 +6456,14 @@
         <v>136</v>
       </c>
       <c r="H6" s="111"/>
-      <c r="I6" s="132" t="str">
-        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/configuration.md", "Analysis done here")</f>
+      <c r="I6" s="129" t="str">
+        <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J6" s="112"/>
     </row>
     <row r="7" spans="1:10" ht="48" customHeight="1" thickBot="1">
-      <c r="A7" s="122" t="s">
+      <c r="A7" s="138" t="s">
         <v>645</v>
       </c>
       <c r="B7" s="63" t="s">
@@ -6489,14 +6483,14 @@
         <v>26</v>
       </c>
       <c r="H7" s="111"/>
-      <c r="I7" s="132" t="str">
-        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/configuration.md", "Analysis done here")</f>
+      <c r="I7" s="129" t="str">
+        <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J7" s="112"/>
     </row>
     <row r="8" spans="1:10" ht="35" thickBot="1">
-      <c r="A8" s="122"/>
+      <c r="A8" s="138"/>
       <c r="B8" s="63" t="s">
         <v>648</v>
       </c>
@@ -6514,14 +6508,14 @@
         <v>26</v>
       </c>
       <c r="H8" s="111"/>
-      <c r="I8" s="132" t="str">
-        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/configuration.md", "Analysis done here")</f>
+      <c r="I8" s="129" t="str">
+        <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J8" s="112"/>
     </row>
     <row r="9" spans="1:10" ht="52" thickBot="1">
-      <c r="A9" s="122"/>
+      <c r="A9" s="138"/>
       <c r="B9" s="63" t="s">
         <v>650</v>
       </c>
@@ -6539,14 +6533,14 @@
         <v>26</v>
       </c>
       <c r="H9" s="111"/>
-      <c r="I9" s="132" t="str">
-        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/configuration.md", "Analysis done here")</f>
+      <c r="I9" s="129" t="str">
+        <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J9" s="112"/>
     </row>
     <row r="10" spans="1:10" ht="35" thickBot="1">
-      <c r="A10" s="122"/>
+      <c r="A10" s="138"/>
       <c r="B10" s="63" t="s">
         <v>652</v>
       </c>
@@ -6564,14 +6558,14 @@
         <v>26</v>
       </c>
       <c r="H10" s="111"/>
-      <c r="I10" s="132" t="str">
-        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/configuration.md", "Analysis done here")</f>
+      <c r="I10" s="129" t="str">
+        <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J10" s="112"/>
     </row>
     <row r="11" spans="1:10" ht="35" thickBot="1">
-      <c r="A11" s="122"/>
+      <c r="A11" s="138"/>
       <c r="B11" s="63" t="s">
         <v>654</v>
       </c>
@@ -6587,14 +6581,14 @@
         <v>136</v>
       </c>
       <c r="H11" s="111"/>
-      <c r="I11" s="132" t="str">
-        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/configuration.md", "Analysis done here")</f>
+      <c r="I11" s="129" t="str">
+        <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J11" s="112"/>
     </row>
     <row r="12" spans="1:10" ht="52" thickBot="1">
-      <c r="A12" s="122"/>
+      <c r="A12" s="138"/>
       <c r="B12" s="63" t="s">
         <v>656</v>
       </c>
@@ -6612,14 +6606,14 @@
         <v>26</v>
       </c>
       <c r="H12" s="111"/>
-      <c r="I12" s="132" t="str">
-        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/configuration.md", "Analysis done here")</f>
+      <c r="I12" s="129" t="str">
+        <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J12" s="112"/>
     </row>
     <row r="13" spans="1:10" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A13" s="122" t="s">
+      <c r="A13" s="138" t="s">
         <v>658</v>
       </c>
       <c r="B13" s="63" t="s">
@@ -6639,14 +6633,14 @@
         <v>56</v>
       </c>
       <c r="H13" s="111"/>
-      <c r="I13" s="132" t="str">
-        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/configuration.md", "Analysis done here")</f>
+      <c r="I13" s="129" t="str">
+        <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J13" s="112"/>
     </row>
     <row r="14" spans="1:10" ht="35" thickBot="1">
-      <c r="A14" s="122"/>
+      <c r="A14" s="138"/>
       <c r="B14" s="63" t="s">
         <v>661</v>
       </c>
@@ -6664,14 +6658,14 @@
         <v>26</v>
       </c>
       <c r="H14" s="111"/>
-      <c r="I14" s="132" t="str">
-        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/configuration.md", "Analysis done here")</f>
+      <c r="I14" s="129" t="str">
+        <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J14" s="112"/>
     </row>
     <row r="15" spans="1:10" ht="35" thickBot="1">
-      <c r="A15" s="122"/>
+      <c r="A15" s="138"/>
       <c r="B15" s="63" t="s">
         <v>663</v>
       </c>
@@ -6689,14 +6683,14 @@
         <v>26</v>
       </c>
       <c r="H15" s="111"/>
-      <c r="I15" s="132" t="str">
-        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/configuration.md", "Analysis done here")</f>
+      <c r="I15" s="129" t="str">
+        <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J15" s="112"/>
     </row>
     <row r="16" spans="1:10" ht="48" customHeight="1" thickBot="1">
-      <c r="A16" s="122" t="s">
+      <c r="A16" s="138" t="s">
         <v>665</v>
       </c>
       <c r="B16" s="63" t="s">
@@ -6716,14 +6710,14 @@
         <v>26</v>
       </c>
       <c r="H16" s="111"/>
-      <c r="I16" s="132" t="str">
-        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/configuration.md", "Analysis done here")</f>
+      <c r="I16" s="129" t="str">
+        <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J16" s="112"/>
     </row>
     <row r="17" spans="1:10" ht="35" thickBot="1">
-      <c r="A17" s="122"/>
+      <c r="A17" s="138"/>
       <c r="B17" s="63" t="s">
         <v>668</v>
       </c>
@@ -6741,14 +6735,14 @@
         <v>26</v>
       </c>
       <c r="H17" s="111"/>
-      <c r="I17" s="132" t="str">
-        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/configuration.md", "Analysis done here")</f>
+      <c r="I17" s="129" t="str">
+        <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J17" s="112"/>
     </row>
     <row r="18" spans="1:10" ht="35" thickBot="1">
-      <c r="A18" s="122"/>
+      <c r="A18" s="138"/>
       <c r="B18" s="63" t="s">
         <v>670</v>
       </c>
@@ -6766,14 +6760,14 @@
         <v>26</v>
       </c>
       <c r="H18" s="111"/>
-      <c r="I18" s="132" t="str">
-        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/configuration.md", "Analysis done here")</f>
+      <c r="I18" s="129" t="str">
+        <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J18" s="112"/>
     </row>
     <row r="19" spans="1:10" ht="18" thickBot="1">
-      <c r="A19" s="122"/>
+      <c r="A19" s="138"/>
       <c r="B19" s="63" t="s">
         <v>672</v>
       </c>
@@ -6791,14 +6785,14 @@
         <v>26</v>
       </c>
       <c r="H19" s="111"/>
-      <c r="I19" s="132" t="str">
-        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/configuration.md", "Analysis done here")</f>
+      <c r="I19" s="129" t="str">
+        <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J19" s="112"/>
     </row>
     <row r="20" spans="1:10" ht="35" thickBot="1">
-      <c r="A20" s="122"/>
+      <c r="A20" s="138"/>
       <c r="B20" s="63" t="s">
         <v>674</v>
       </c>
@@ -6816,14 +6810,14 @@
         <v>26</v>
       </c>
       <c r="H20" s="111"/>
-      <c r="I20" s="132" t="str">
-        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/configuration.md", "Analysis done here")</f>
+      <c r="I20" s="129" t="str">
+        <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J20" s="112"/>
     </row>
     <row r="21" spans="1:10" ht="35" thickBot="1">
-      <c r="A21" s="122"/>
+      <c r="A21" s="138"/>
       <c r="B21" s="63" t="s">
         <v>676</v>
       </c>
@@ -6841,14 +6835,14 @@
         <v>26</v>
       </c>
       <c r="H21" s="111"/>
-      <c r="I21" s="132" t="str">
-        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/configuration.md", "Analysis done here")</f>
+      <c r="I21" s="129" t="str">
+        <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J21" s="112"/>
     </row>
     <row r="22" spans="1:10" ht="52" thickBot="1">
-      <c r="A22" s="122"/>
+      <c r="A22" s="138"/>
       <c r="B22" s="63" t="s">
         <v>678</v>
       </c>
@@ -6866,14 +6860,14 @@
         <v>26</v>
       </c>
       <c r="H22" s="111"/>
-      <c r="I22" s="132" t="str">
-        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/configuration.md", "Analysis done here")</f>
+      <c r="I22" s="129" t="str">
+        <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J22" s="112"/>
     </row>
     <row r="23" spans="1:10" ht="48" customHeight="1" thickBot="1">
-      <c r="A23" s="122" t="s">
+      <c r="A23" s="138" t="s">
         <v>680</v>
       </c>
       <c r="B23" s="63" t="s">
@@ -6893,14 +6887,14 @@
         <v>26</v>
       </c>
       <c r="H23" s="111"/>
-      <c r="I23" s="132" t="str">
-        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/configuration.md", "Analysis done here")</f>
+      <c r="I23" s="129" t="str">
+        <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J23" s="112"/>
     </row>
     <row r="24" spans="1:10" ht="35" thickBot="1">
-      <c r="A24" s="122"/>
+      <c r="A24" s="138"/>
       <c r="B24" s="63" t="s">
         <v>683</v>
       </c>
@@ -6918,14 +6912,14 @@
         <v>26</v>
       </c>
       <c r="H24" s="111"/>
-      <c r="I24" s="132" t="str">
-        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/configuration.md", "Analysis done here")</f>
+      <c r="I24" s="129" t="str">
+        <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J24" s="112"/>
     </row>
     <row r="25" spans="1:10" ht="35" thickBot="1">
-      <c r="A25" s="122"/>
+      <c r="A25" s="138"/>
       <c r="B25" s="63" t="s">
         <v>685</v>
       </c>
@@ -6943,14 +6937,14 @@
         <v>26</v>
       </c>
       <c r="H25" s="111"/>
-      <c r="I25" s="132" t="str">
-        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/configuration.md", "Analysis done here")</f>
+      <c r="I25" s="129" t="str">
+        <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J25" s="112"/>
     </row>
     <row r="26" spans="1:10" ht="35" thickBot="1">
-      <c r="A26" s="122"/>
+      <c r="A26" s="138"/>
       <c r="B26" s="63" t="s">
         <v>687</v>
       </c>
@@ -6968,8 +6962,8 @@
         <v>26</v>
       </c>
       <c r="H26" s="119"/>
-      <c r="I26" s="132" t="str">
-        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/configuration.md", "Analysis done here")</f>
+      <c r="I26" s="129" t="str">
+        <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J26" s="120"/>
@@ -7002,7 +6996,7 @@
   <dimension ref="A1:AMJ45"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40:A45"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="21"/>
@@ -7052,7 +7046,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" s="26" customFormat="1" ht="58.25" customHeight="1">
-      <c r="A2" s="121" t="s">
+      <c r="A2" s="137" t="s">
         <v>30</v>
       </c>
       <c r="B2" s="19" t="s">
@@ -7070,14 +7064,14 @@
         <v>26</v>
       </c>
       <c r="H2" s="24"/>
-      <c r="I2" s="134" t="str">
+      <c r="I2" s="131" t="str">
         <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/Arch_Design_Threat_analysis.md", "Analysis done here")</f>
         <v>Analysis done here</v>
       </c>
       <c r="J2" s="25"/>
     </row>
     <row r="3" spans="1:10" s="26" customFormat="1" ht="51">
-      <c r="A3" s="121"/>
+      <c r="A3" s="137"/>
       <c r="B3" s="19" t="s">
         <v>33</v>
       </c>
@@ -7095,14 +7089,14 @@
         <v>26</v>
       </c>
       <c r="H3" s="31"/>
-      <c r="I3" s="134" t="str">
-        <f t="shared" ref="I3:I45" si="0">HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/Arch_Design_Threat_analysis.md", "Analysis done here")</f>
+      <c r="I3" s="131" t="str">
+        <f t="shared" ref="I3:I44" si="0">HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/Arch_Design_Threat_analysis.md", "Analysis done here")</f>
         <v>Analysis done here</v>
       </c>
       <c r="J3" s="32"/>
     </row>
     <row r="4" spans="1:10" s="26" customFormat="1" ht="51">
-      <c r="A4" s="121"/>
+      <c r="A4" s="137"/>
       <c r="B4" s="19" t="s">
         <v>35</v>
       </c>
@@ -7120,14 +7114,14 @@
         <v>26</v>
       </c>
       <c r="H4" s="31"/>
-      <c r="I4" s="134" t="str">
+      <c r="I4" s="131" t="str">
         <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J4" s="32"/>
     </row>
     <row r="5" spans="1:10" s="26" customFormat="1" ht="34">
-      <c r="A5" s="121"/>
+      <c r="A5" s="137"/>
       <c r="B5" s="19" t="s">
         <v>37</v>
       </c>
@@ -7145,14 +7139,14 @@
         <v>26</v>
       </c>
       <c r="H5" s="31"/>
-      <c r="I5" s="134" t="str">
+      <c r="I5" s="131" t="str">
         <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J5" s="32"/>
     </row>
     <row r="6" spans="1:10" s="26" customFormat="1" ht="68">
-      <c r="A6" s="121"/>
+      <c r="A6" s="137"/>
       <c r="B6" s="19" t="s">
         <v>39</v>
       </c>
@@ -7170,14 +7164,14 @@
         <v>26</v>
       </c>
       <c r="H6" s="31"/>
-      <c r="I6" s="134" t="str">
+      <c r="I6" s="131" t="str">
         <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J6" s="32"/>
     </row>
     <row r="7" spans="1:10" s="26" customFormat="1" ht="85">
-      <c r="A7" s="121"/>
+      <c r="A7" s="137"/>
       <c r="B7" s="19" t="s">
         <v>41</v>
       </c>
@@ -7195,14 +7189,14 @@
         <v>136</v>
       </c>
       <c r="H7" s="31"/>
-      <c r="I7" s="134" t="str">
+      <c r="I7" s="131" t="str">
         <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J7" s="32"/>
     </row>
     <row r="8" spans="1:10" s="26" customFormat="1" ht="34">
-      <c r="A8" s="121"/>
+      <c r="A8" s="137"/>
       <c r="B8" s="19" t="s">
         <v>43</v>
       </c>
@@ -7220,14 +7214,14 @@
         <v>26</v>
       </c>
       <c r="H8" s="31"/>
-      <c r="I8" s="134" t="str">
+      <c r="I8" s="131" t="str">
         <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J8" s="32"/>
     </row>
     <row r="9" spans="1:10" s="26" customFormat="1" ht="63.75" customHeight="1">
-      <c r="A9" s="121" t="s">
+      <c r="A9" s="137" t="s">
         <v>45</v>
       </c>
       <c r="B9" s="19" t="s">
@@ -7247,14 +7241,14 @@
         <v>26</v>
       </c>
       <c r="H9" s="31"/>
-      <c r="I9" s="134" t="str">
+      <c r="I9" s="131" t="str">
         <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J9" s="32"/>
     </row>
     <row r="10" spans="1:10" s="26" customFormat="1" ht="85">
-      <c r="A10" s="121"/>
+      <c r="A10" s="137"/>
       <c r="B10" s="19" t="s">
         <v>48</v>
       </c>
@@ -7272,14 +7266,14 @@
         <v>26</v>
       </c>
       <c r="H10" s="31"/>
-      <c r="I10" s="134" t="str">
+      <c r="I10" s="131" t="str">
         <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J10" s="32"/>
     </row>
     <row r="11" spans="1:10" s="26" customFormat="1" ht="68">
-      <c r="A11" s="121"/>
+      <c r="A11" s="137"/>
       <c r="B11" s="19" t="s">
         <v>50</v>
       </c>
@@ -7297,14 +7291,14 @@
         <v>26</v>
       </c>
       <c r="H11" s="31"/>
-      <c r="I11" s="134" t="str">
+      <c r="I11" s="131" t="str">
         <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J11" s="32"/>
     </row>
     <row r="12" spans="1:10" s="26" customFormat="1" ht="51">
-      <c r="A12" s="121"/>
+      <c r="A12" s="137"/>
       <c r="B12" s="19" t="s">
         <v>52</v>
       </c>
@@ -7322,7 +7316,7 @@
         <v>136</v>
       </c>
       <c r="H12" s="31"/>
-      <c r="I12" s="134" t="str">
+      <c r="I12" s="131" t="str">
         <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
@@ -7343,11 +7337,11 @@
         <v>56</v>
       </c>
       <c r="H13" s="31"/>
-      <c r="I13" s="134"/>
+      <c r="I13" s="131"/>
       <c r="J13" s="32"/>
     </row>
     <row r="14" spans="1:10" s="26" customFormat="1" ht="48" customHeight="1">
-      <c r="A14" s="121" t="s">
+      <c r="A14" s="137" t="s">
         <v>57</v>
       </c>
       <c r="B14" s="19" t="s">
@@ -7367,14 +7361,14 @@
         <v>136</v>
       </c>
       <c r="H14" s="29"/>
-      <c r="I14" s="134" t="str">
+      <c r="I14" s="131" t="str">
         <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J14" s="33"/>
     </row>
     <row r="15" spans="1:10" s="26" customFormat="1" ht="17">
-      <c r="A15" s="121"/>
+      <c r="A15" s="137"/>
       <c r="B15" s="19" t="s">
         <v>60</v>
       </c>
@@ -7392,11 +7386,11 @@
         <v>56</v>
       </c>
       <c r="H15" s="29"/>
-      <c r="I15" s="134"/>
+      <c r="I15" s="131"/>
       <c r="J15" s="33"/>
     </row>
     <row r="16" spans="1:10" s="26" customFormat="1" ht="17">
-      <c r="A16" s="121"/>
+      <c r="A16" s="137"/>
       <c r="B16" s="19" t="s">
         <v>62</v>
       </c>
@@ -7414,11 +7408,11 @@
         <v>56</v>
       </c>
       <c r="H16" s="29"/>
-      <c r="I16" s="134"/>
+      <c r="I16" s="131"/>
       <c r="J16" s="33"/>
     </row>
     <row r="17" spans="1:10" s="26" customFormat="1" ht="85">
-      <c r="A17" s="121"/>
+      <c r="A17" s="137"/>
       <c r="B17" s="19" t="s">
         <v>64</v>
       </c>
@@ -7436,14 +7430,14 @@
         <v>136</v>
       </c>
       <c r="H17" s="29"/>
-      <c r="I17" s="134" t="str">
+      <c r="I17" s="131" t="str">
         <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J17" s="33"/>
     </row>
     <row r="18" spans="1:10" s="26" customFormat="1" ht="85">
-      <c r="A18" s="121"/>
+      <c r="A18" s="137"/>
       <c r="B18" s="19" t="s">
         <v>66</v>
       </c>
@@ -7461,14 +7455,14 @@
         <v>26</v>
       </c>
       <c r="H18" s="29"/>
-      <c r="I18" s="134" t="str">
+      <c r="I18" s="131" t="str">
         <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J18" s="33"/>
     </row>
     <row r="19" spans="1:10" s="26" customFormat="1" ht="48" customHeight="1">
-      <c r="A19" s="121" t="s">
+      <c r="A19" s="137" t="s">
         <v>68</v>
       </c>
       <c r="B19" s="19" t="s">
@@ -7488,14 +7482,14 @@
         <v>26</v>
       </c>
       <c r="H19" s="29"/>
-      <c r="I19" s="134" t="str">
+      <c r="I19" s="131" t="str">
         <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J19" s="33"/>
     </row>
     <row r="20" spans="1:10" s="26" customFormat="1" ht="68">
-      <c r="A20" s="121"/>
+      <c r="A20" s="137"/>
       <c r="B20" s="19" t="s">
         <v>71</v>
       </c>
@@ -7513,14 +7507,14 @@
         <v>136</v>
       </c>
       <c r="H20" s="29"/>
-      <c r="I20" s="134" t="str">
+      <c r="I20" s="131" t="str">
         <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J20" s="33"/>
     </row>
     <row r="21" spans="1:10" s="26" customFormat="1" ht="51">
-      <c r="A21" s="121"/>
+      <c r="A21" s="137"/>
       <c r="B21" s="19" t="s">
         <v>73</v>
       </c>
@@ -7538,14 +7532,14 @@
         <v>136</v>
       </c>
       <c r="H21" s="29"/>
-      <c r="I21" s="134" t="str">
+      <c r="I21" s="131" t="str">
         <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J21" s="33"/>
     </row>
     <row r="22" spans="1:10" s="26" customFormat="1" ht="68">
-      <c r="A22" s="121"/>
+      <c r="A22" s="137"/>
       <c r="B22" s="19" t="s">
         <v>75</v>
       </c>
@@ -7563,14 +7557,14 @@
         <v>136</v>
       </c>
       <c r="H22" s="29"/>
-      <c r="I22" s="134" t="str">
+      <c r="I22" s="131" t="str">
         <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J22" s="33"/>
     </row>
     <row r="23" spans="1:10" s="26" customFormat="1" ht="48" customHeight="1">
-      <c r="A23" s="121" t="s">
+      <c r="A23" s="137" t="s">
         <v>77</v>
       </c>
       <c r="B23" s="19" t="s">
@@ -7590,14 +7584,14 @@
         <v>136</v>
       </c>
       <c r="H23" s="29"/>
-      <c r="I23" s="134" t="str">
+      <c r="I23" s="131" t="str">
         <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J23" s="33"/>
     </row>
     <row r="24" spans="1:10" s="26" customFormat="1" ht="34">
-      <c r="A24" s="121"/>
+      <c r="A24" s="137"/>
       <c r="B24" s="19" t="s">
         <v>80</v>
       </c>
@@ -7615,14 +7609,14 @@
         <v>136</v>
       </c>
       <c r="H24" s="29"/>
-      <c r="I24" s="134" t="str">
+      <c r="I24" s="131" t="str">
         <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J24" s="33"/>
     </row>
     <row r="25" spans="1:10" s="26" customFormat="1" ht="34">
-      <c r="A25" s="121"/>
+      <c r="A25" s="137"/>
       <c r="B25" s="19" t="s">
         <v>82</v>
       </c>
@@ -7640,14 +7634,14 @@
         <v>26</v>
       </c>
       <c r="H25" s="29"/>
-      <c r="I25" s="134" t="str">
+      <c r="I25" s="131" t="str">
         <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J25" s="33"/>
     </row>
     <row r="26" spans="1:10" s="26" customFormat="1" ht="51">
-      <c r="A26" s="121"/>
+      <c r="A26" s="137"/>
       <c r="B26" s="19" t="s">
         <v>84</v>
       </c>
@@ -7665,14 +7659,14 @@
         <v>136</v>
       </c>
       <c r="H26" s="29"/>
-      <c r="I26" s="134" t="str">
+      <c r="I26" s="131" t="str">
         <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J26" s="33"/>
     </row>
     <row r="27" spans="1:10" s="26" customFormat="1" ht="48" customHeight="1">
-      <c r="A27" s="121" t="s">
+      <c r="A27" s="137" t="s">
         <v>86</v>
       </c>
       <c r="B27" s="19" t="s">
@@ -7692,14 +7686,14 @@
         <v>26</v>
       </c>
       <c r="H27" s="29"/>
-      <c r="I27" s="134" t="str">
+      <c r="I27" s="131" t="str">
         <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J27" s="33"/>
     </row>
     <row r="28" spans="1:10" s="26" customFormat="1" ht="68">
-      <c r="A28" s="121"/>
+      <c r="A28" s="137"/>
       <c r="B28" s="19" t="s">
         <v>89</v>
       </c>
@@ -7715,14 +7709,14 @@
         <v>26</v>
       </c>
       <c r="H28" s="29"/>
-      <c r="I28" s="134" t="str">
+      <c r="I28" s="131" t="str">
         <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J28" s="33"/>
     </row>
     <row r="29" spans="1:10" s="26" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A29" s="121" t="s">
+      <c r="A29" s="137" t="s">
         <v>91</v>
       </c>
       <c r="B29" s="19" t="s">
@@ -7740,14 +7734,14 @@
         <v>26</v>
       </c>
       <c r="H29" s="29"/>
-      <c r="I29" s="134" t="str">
+      <c r="I29" s="131" t="str">
         <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J29" s="33"/>
     </row>
     <row r="30" spans="1:10" s="26" customFormat="1" ht="68">
-      <c r="A30" s="121"/>
+      <c r="A30" s="137"/>
       <c r="B30" s="19" t="s">
         <v>94</v>
       </c>
@@ -7763,14 +7757,14 @@
         <v>26</v>
       </c>
       <c r="H30" s="29"/>
-      <c r="I30" s="134" t="str">
+      <c r="I30" s="131" t="str">
         <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J30" s="33"/>
     </row>
     <row r="31" spans="1:10" s="26" customFormat="1" ht="79.5" customHeight="1">
-      <c r="A31" s="121" t="s">
+      <c r="A31" s="137" t="s">
         <v>96</v>
       </c>
       <c r="B31" s="19" t="s">
@@ -7790,14 +7784,14 @@
         <v>136</v>
       </c>
       <c r="H31" s="29"/>
-      <c r="I31" s="134" t="str">
+      <c r="I31" s="131" t="str">
         <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J31" s="33"/>
     </row>
     <row r="32" spans="1:10" s="26" customFormat="1" ht="68">
-      <c r="A32" s="121"/>
+      <c r="A32" s="137"/>
       <c r="B32" s="19" t="s">
         <v>99</v>
       </c>
@@ -7815,7 +7809,7 @@
         <v>26</v>
       </c>
       <c r="H32" s="29"/>
-      <c r="I32" s="134" t="str">
+      <c r="I32" s="131" t="str">
         <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
@@ -7842,14 +7836,14 @@
         <v>26</v>
       </c>
       <c r="H33" s="29"/>
-      <c r="I33" s="134" t="str">
+      <c r="I33" s="131" t="str">
         <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J33" s="33"/>
     </row>
     <row r="34" spans="1:10" s="26" customFormat="1" ht="48" customHeight="1">
-      <c r="A34" s="121" t="s">
+      <c r="A34" s="137" t="s">
         <v>104</v>
       </c>
       <c r="B34" s="19" t="s">
@@ -7869,14 +7863,14 @@
         <v>26</v>
       </c>
       <c r="H34" s="29"/>
-      <c r="I34" s="134" t="str">
+      <c r="I34" s="131" t="str">
         <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J34" s="33"/>
     </row>
     <row r="35" spans="1:10" s="26" customFormat="1" ht="51">
-      <c r="A35" s="121"/>
+      <c r="A35" s="137"/>
       <c r="B35" s="19" t="s">
         <v>107</v>
       </c>
@@ -7894,14 +7888,14 @@
         <v>26</v>
       </c>
       <c r="H35" s="29"/>
-      <c r="I35" s="134" t="str">
+      <c r="I35" s="131" t="str">
         <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J35" s="33"/>
     </row>
     <row r="36" spans="1:10" s="26" customFormat="1" ht="51">
-      <c r="A36" s="121"/>
+      <c r="A36" s="137"/>
       <c r="B36" s="19" t="s">
         <v>109</v>
       </c>
@@ -7919,14 +7913,14 @@
         <v>136</v>
       </c>
       <c r="H36" s="29"/>
-      <c r="I36" s="134" t="str">
+      <c r="I36" s="131" t="str">
         <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J36" s="33"/>
     </row>
     <row r="37" spans="1:10" s="26" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A37" s="121" t="s">
+      <c r="A37" s="137" t="s">
         <v>111</v>
       </c>
       <c r="B37" s="19" t="s">
@@ -7946,11 +7940,11 @@
         <v>56</v>
       </c>
       <c r="H37" s="29"/>
-      <c r="I37" s="134"/>
+      <c r="I37" s="131"/>
       <c r="J37" s="33"/>
     </row>
     <row r="38" spans="1:10" s="26" customFormat="1" ht="85">
-      <c r="A38" s="121"/>
+      <c r="A38" s="137"/>
       <c r="B38" s="19" t="s">
         <v>114</v>
       </c>
@@ -7968,7 +7962,7 @@
         <v>56</v>
       </c>
       <c r="H38" s="29"/>
-      <c r="I38" s="134" t="str">
+      <c r="I38" s="131" t="str">
         <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
@@ -7989,11 +7983,11 @@
         <v>56</v>
       </c>
       <c r="H39" s="29"/>
-      <c r="I39" s="134"/>
+      <c r="I39" s="131"/>
       <c r="J39" s="33"/>
     </row>
     <row r="40" spans="1:10" s="26" customFormat="1" ht="59" customHeight="1">
-      <c r="A40" s="121" t="s">
+      <c r="A40" s="137" t="s">
         <v>117</v>
       </c>
       <c r="B40" s="19" t="s">
@@ -8013,14 +8007,14 @@
         <v>56</v>
       </c>
       <c r="H40" s="29"/>
-      <c r="I40" s="134" t="str">
+      <c r="I40" s="131" t="str">
         <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J40" s="33"/>
     </row>
     <row r="41" spans="1:10" s="26" customFormat="1" ht="34">
-      <c r="A41" s="121"/>
+      <c r="A41" s="137"/>
       <c r="B41" s="19" t="s">
         <v>120</v>
       </c>
@@ -8038,14 +8032,14 @@
         <v>56</v>
       </c>
       <c r="H41" s="29"/>
-      <c r="I41" s="134" t="str">
+      <c r="I41" s="131" t="str">
         <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J41" s="33"/>
     </row>
     <row r="42" spans="1:10" s="26" customFormat="1" ht="34">
-      <c r="A42" s="121"/>
+      <c r="A42" s="137"/>
       <c r="B42" s="19" t="s">
         <v>122</v>
       </c>
@@ -8063,14 +8057,14 @@
         <v>136</v>
       </c>
       <c r="H42" s="29"/>
-      <c r="I42" s="134" t="str">
+      <c r="I42" s="131" t="str">
         <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J42" s="33"/>
     </row>
     <row r="43" spans="1:10" s="26" customFormat="1" ht="68">
-      <c r="A43" s="121"/>
+      <c r="A43" s="137"/>
       <c r="B43" s="19" t="s">
         <v>124</v>
       </c>
@@ -8086,14 +8080,14 @@
         <v>26</v>
       </c>
       <c r="H43" s="29"/>
-      <c r="I43" s="134" t="str">
+      <c r="I43" s="131" t="str">
         <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J43" s="33"/>
     </row>
     <row r="44" spans="1:10" s="26" customFormat="1" ht="103" thickBot="1">
-      <c r="A44" s="121"/>
+      <c r="A44" s="137"/>
       <c r="B44" s="19" t="s">
         <v>126</v>
       </c>
@@ -8111,14 +8105,14 @@
         <v>26</v>
       </c>
       <c r="H44" s="29"/>
-      <c r="I44" s="134" t="str">
+      <c r="I44" s="131" t="str">
         <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J44" s="33"/>
     </row>
     <row r="45" spans="1:10" s="26" customFormat="1" ht="52" thickBot="1">
-      <c r="A45" s="121"/>
+      <c r="A45" s="137"/>
       <c r="B45" s="19" t="s">
         <v>128</v>
       </c>
@@ -8136,7 +8130,7 @@
         <v>136</v>
       </c>
       <c r="H45" s="36"/>
-      <c r="I45" s="135" t="str">
+      <c r="I45" s="132" t="str">
         <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/Arch_Design_Threat_analysis.md", "Analysis done here")</f>
         <v>Analysis done here</v>
       </c>
@@ -8144,17 +8138,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="A23:A26"/>
     <mergeCell ref="A40:A45"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="A29:A30"/>
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="A34:A36"/>
     <mergeCell ref="A37:A38"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="A23:A26"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" operator="equal" showErrorMessage="1" sqref="G2:G45" xr:uid="{00000000-0002-0000-0100-000000000000}">
@@ -8175,8 +8169,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AMJ58"/>
   <sheetViews>
-    <sheetView zoomScale="97" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="97" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="21"/>
@@ -8226,7 +8220,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" s="26" customFormat="1" ht="48" customHeight="1">
-      <c r="A2" s="122" t="s">
+      <c r="A2" s="138" t="s">
         <v>130</v>
       </c>
       <c r="B2" s="45" t="s">
@@ -8248,13 +8242,13 @@
         <v>26</v>
       </c>
       <c r="H2" s="51"/>
-      <c r="I2" s="139" t="s">
+      <c r="I2" s="136" t="s">
         <v>689</v>
       </c>
       <c r="J2" s="52"/>
     </row>
     <row r="3" spans="1:10" s="26" customFormat="1" ht="51">
-      <c r="A3" s="122"/>
+      <c r="A3" s="138"/>
       <c r="B3" s="45" t="s">
         <v>134</v>
       </c>
@@ -8274,13 +8268,13 @@
         <v>136</v>
       </c>
       <c r="H3" s="31"/>
-      <c r="I3" s="139" t="s">
+      <c r="I3" s="136" t="s">
         <v>689</v>
       </c>
       <c r="J3" s="32"/>
     </row>
     <row r="4" spans="1:10" s="26" customFormat="1" ht="51">
-      <c r="A4" s="122"/>
+      <c r="A4" s="138"/>
       <c r="B4" s="45" t="s">
         <v>137</v>
       </c>
@@ -8300,13 +8294,13 @@
         <v>136</v>
       </c>
       <c r="H4" s="31"/>
-      <c r="I4" s="139" t="s">
+      <c r="I4" s="136" t="s">
         <v>689</v>
       </c>
       <c r="J4" s="32"/>
     </row>
     <row r="5" spans="1:10" s="26" customFormat="1" ht="34">
-      <c r="A5" s="122"/>
+      <c r="A5" s="138"/>
       <c r="B5" s="45" t="s">
         <v>139</v>
       </c>
@@ -8326,13 +8320,13 @@
         <v>26</v>
       </c>
       <c r="H5" s="31"/>
-      <c r="I5" s="139" t="s">
+      <c r="I5" s="136" t="s">
         <v>689</v>
       </c>
       <c r="J5" s="32"/>
     </row>
     <row r="6" spans="1:10" s="26" customFormat="1" ht="17">
-      <c r="A6" s="122"/>
+      <c r="A6" s="138"/>
       <c r="B6" s="45" t="s">
         <v>141</v>
       </c>
@@ -8352,13 +8346,13 @@
         <v>26</v>
       </c>
       <c r="H6" s="31"/>
-      <c r="I6" s="139" t="s">
+      <c r="I6" s="136" t="s">
         <v>689</v>
       </c>
       <c r="J6" s="32"/>
     </row>
     <row r="7" spans="1:10" s="26" customFormat="1" ht="34">
-      <c r="A7" s="122"/>
+      <c r="A7" s="138"/>
       <c r="B7" s="45" t="s">
         <v>143</v>
       </c>
@@ -8378,13 +8372,13 @@
         <v>26</v>
       </c>
       <c r="H7" s="31"/>
-      <c r="I7" s="139" t="s">
+      <c r="I7" s="136" t="s">
         <v>689</v>
       </c>
       <c r="J7" s="32"/>
     </row>
     <row r="8" spans="1:10" s="26" customFormat="1" ht="136">
-      <c r="A8" s="122"/>
+      <c r="A8" s="138"/>
       <c r="B8" s="45" t="s">
         <v>145</v>
       </c>
@@ -8404,13 +8398,13 @@
         <v>136</v>
       </c>
       <c r="H8" s="31"/>
-      <c r="I8" s="139" t="s">
+      <c r="I8" s="136" t="s">
         <v>689</v>
       </c>
       <c r="J8" s="32"/>
     </row>
     <row r="9" spans="1:10" s="26" customFormat="1" ht="34">
-      <c r="A9" s="122"/>
+      <c r="A9" s="138"/>
       <c r="B9" s="45" t="s">
         <v>147</v>
       </c>
@@ -8430,13 +8424,13 @@
         <v>136</v>
       </c>
       <c r="H9" s="31"/>
-      <c r="I9" s="139" t="s">
+      <c r="I9" s="136" t="s">
         <v>689</v>
       </c>
       <c r="J9" s="32"/>
     </row>
     <row r="10" spans="1:10" s="26" customFormat="1" ht="68">
-      <c r="A10" s="122"/>
+      <c r="A10" s="138"/>
       <c r="B10" s="45" t="s">
         <v>149</v>
       </c>
@@ -8456,13 +8450,13 @@
         <v>26</v>
       </c>
       <c r="H10" s="31"/>
-      <c r="I10" s="139" t="s">
+      <c r="I10" s="136" t="s">
         <v>689</v>
       </c>
       <c r="J10" s="32"/>
     </row>
     <row r="11" spans="1:10" s="26" customFormat="1" ht="34">
-      <c r="A11" s="122"/>
+      <c r="A11" s="138"/>
       <c r="B11" s="45" t="s">
         <v>151</v>
       </c>
@@ -8482,13 +8476,13 @@
         <v>26</v>
       </c>
       <c r="H11" s="31"/>
-      <c r="I11" s="139" t="s">
+      <c r="I11" s="136" t="s">
         <v>689</v>
       </c>
       <c r="J11" s="32"/>
     </row>
     <row r="12" spans="1:10" s="26" customFormat="1" ht="34">
-      <c r="A12" s="122"/>
+      <c r="A12" s="138"/>
       <c r="B12" s="45" t="s">
         <v>153</v>
       </c>
@@ -8508,13 +8502,13 @@
         <v>26</v>
       </c>
       <c r="H12" s="31"/>
-      <c r="I12" s="139" t="s">
+      <c r="I12" s="136" t="s">
         <v>689</v>
       </c>
       <c r="J12" s="32"/>
     </row>
     <row r="13" spans="1:10" s="26" customFormat="1" ht="51">
-      <c r="A13" s="122"/>
+      <c r="A13" s="138"/>
       <c r="B13" s="45" t="s">
         <v>155</v>
       </c>
@@ -8534,13 +8528,13 @@
         <v>26</v>
       </c>
       <c r="H13" s="31"/>
-      <c r="I13" s="139" t="s">
+      <c r="I13" s="136" t="s">
         <v>689</v>
       </c>
       <c r="J13" s="32"/>
     </row>
     <row r="14" spans="1:10" s="26" customFormat="1" ht="111" customHeight="1">
-      <c r="A14" s="122" t="s">
+      <c r="A14" s="138" t="s">
         <v>157</v>
       </c>
       <c r="B14" s="45" t="s">
@@ -8559,16 +8553,16 @@
         <v>160</v>
       </c>
       <c r="G14" s="29" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="H14" s="31"/>
-      <c r="I14" s="139" t="s">
+      <c r="I14" s="136" t="s">
         <v>689</v>
       </c>
       <c r="J14" s="32"/>
     </row>
     <row r="15" spans="1:10" s="26" customFormat="1" ht="85">
-      <c r="A15" s="122"/>
+      <c r="A15" s="138"/>
       <c r="B15" s="45" t="s">
         <v>161</v>
       </c>
@@ -8588,13 +8582,13 @@
         <v>26</v>
       </c>
       <c r="H15" s="31"/>
-      <c r="I15" s="139" t="s">
+      <c r="I15" s="136" t="s">
         <v>689</v>
       </c>
       <c r="J15" s="32"/>
     </row>
     <row r="16" spans="1:10" s="26" customFormat="1" ht="85">
-      <c r="A16" s="122"/>
+      <c r="A16" s="138"/>
       <c r="B16" s="45" t="s">
         <v>164</v>
       </c>
@@ -8612,13 +8606,13 @@
         <v>26</v>
       </c>
       <c r="H16" s="31"/>
-      <c r="I16" s="139" t="s">
+      <c r="I16" s="136" t="s">
         <v>689</v>
       </c>
       <c r="J16" s="32"/>
     </row>
     <row r="17" spans="1:10" s="26" customFormat="1" ht="51">
-      <c r="A17" s="122"/>
+      <c r="A17" s="138"/>
       <c r="B17" s="45" t="s">
         <v>166</v>
       </c>
@@ -8638,13 +8632,13 @@
         <v>26</v>
       </c>
       <c r="H17" s="31"/>
-      <c r="I17" s="139" t="s">
+      <c r="I17" s="136" t="s">
         <v>689</v>
       </c>
       <c r="J17" s="32"/>
     </row>
     <row r="18" spans="1:10" s="26" customFormat="1" ht="51">
-      <c r="A18" s="122"/>
+      <c r="A18" s="138"/>
       <c r="B18" s="45" t="s">
         <v>169</v>
       </c>
@@ -8664,13 +8658,13 @@
         <v>56</v>
       </c>
       <c r="H18" s="31"/>
-      <c r="I18" s="139" t="s">
+      <c r="I18" s="136" t="s">
         <v>689</v>
       </c>
       <c r="J18" s="32"/>
     </row>
     <row r="19" spans="1:10" s="26" customFormat="1" ht="34">
-      <c r="A19" s="122"/>
+      <c r="A19" s="138"/>
       <c r="B19" s="45" t="s">
         <v>172</v>
       </c>
@@ -8690,13 +8684,13 @@
         <v>56</v>
       </c>
       <c r="H19" s="31"/>
-      <c r="I19" s="139" t="s">
+      <c r="I19" s="136" t="s">
         <v>689</v>
       </c>
       <c r="J19" s="32"/>
     </row>
     <row r="20" spans="1:10" s="26" customFormat="1" ht="34">
-      <c r="A20" s="122"/>
+      <c r="A20" s="138"/>
       <c r="B20" s="45" t="s">
         <v>175</v>
       </c>
@@ -8716,13 +8710,13 @@
         <v>56</v>
       </c>
       <c r="H20" s="31"/>
-      <c r="I20" s="139" t="s">
+      <c r="I20" s="136" t="s">
         <v>689</v>
       </c>
       <c r="J20" s="32"/>
     </row>
     <row r="21" spans="1:10" s="26" customFormat="1" ht="79.5" customHeight="1">
-      <c r="A21" s="122" t="s">
+      <c r="A21" s="138" t="s">
         <v>178</v>
       </c>
       <c r="B21" s="45" t="s">
@@ -8744,13 +8738,13 @@
         <v>56</v>
       </c>
       <c r="H21" s="31"/>
-      <c r="I21" s="139" t="s">
+      <c r="I21" s="136" t="s">
         <v>689</v>
       </c>
       <c r="J21" s="32"/>
     </row>
     <row r="22" spans="1:10" s="26" customFormat="1" ht="34">
-      <c r="A22" s="122"/>
+      <c r="A22" s="138"/>
       <c r="B22" s="45" t="s">
         <v>182</v>
       </c>
@@ -8770,13 +8764,13 @@
         <v>56</v>
       </c>
       <c r="H22" s="31"/>
-      <c r="I22" s="139" t="s">
+      <c r="I22" s="136" t="s">
         <v>689</v>
       </c>
       <c r="J22" s="32"/>
     </row>
     <row r="23" spans="1:10" s="26" customFormat="1" ht="34">
-      <c r="A23" s="122"/>
+      <c r="A23" s="138"/>
       <c r="B23" s="45" t="s">
         <v>185</v>
       </c>
@@ -8796,13 +8790,13 @@
         <v>26</v>
       </c>
       <c r="H23" s="31"/>
-      <c r="I23" s="139" t="s">
+      <c r="I23" s="136" t="s">
         <v>689</v>
       </c>
       <c r="J23" s="32"/>
     </row>
     <row r="24" spans="1:10" s="26" customFormat="1" ht="95.25" customHeight="1">
-      <c r="A24" s="122" t="s">
+      <c r="A24" s="138" t="s">
         <v>188</v>
       </c>
       <c r="B24" s="45" t="s">
@@ -8824,13 +8818,13 @@
         <v>26</v>
       </c>
       <c r="H24" s="31"/>
-      <c r="I24" s="139" t="s">
+      <c r="I24" s="136" t="s">
         <v>689</v>
       </c>
       <c r="J24" s="32"/>
     </row>
     <row r="25" spans="1:10" s="26" customFormat="1" ht="68">
-      <c r="A25" s="122"/>
+      <c r="A25" s="138"/>
       <c r="B25" s="45" t="s">
         <v>191</v>
       </c>
@@ -8850,13 +8844,13 @@
         <v>56</v>
       </c>
       <c r="H25" s="31"/>
-      <c r="I25" s="139" t="s">
+      <c r="I25" s="136" t="s">
         <v>689</v>
       </c>
       <c r="J25" s="32"/>
     </row>
     <row r="26" spans="1:10" s="26" customFormat="1" ht="51">
-      <c r="A26" s="122"/>
+      <c r="A26" s="138"/>
       <c r="B26" s="45" t="s">
         <v>193</v>
       </c>
@@ -8876,13 +8870,13 @@
         <v>26</v>
       </c>
       <c r="H26" s="31"/>
-      <c r="I26" s="139" t="s">
+      <c r="I26" s="136" t="s">
         <v>689</v>
       </c>
       <c r="J26" s="32"/>
     </row>
     <row r="27" spans="1:10" s="26" customFormat="1" ht="51">
-      <c r="A27" s="122"/>
+      <c r="A27" s="138"/>
       <c r="B27" s="45" t="s">
         <v>195</v>
       </c>
@@ -8902,13 +8896,13 @@
         <v>56</v>
       </c>
       <c r="H27" s="31"/>
-      <c r="I27" s="139" t="s">
+      <c r="I27" s="136" t="s">
         <v>689</v>
       </c>
       <c r="J27" s="32"/>
     </row>
     <row r="28" spans="1:10" s="26" customFormat="1" ht="102">
-      <c r="A28" s="122"/>
+      <c r="A28" s="138"/>
       <c r="B28" s="45" t="s">
         <v>197</v>
       </c>
@@ -8928,13 +8922,13 @@
         <v>56</v>
       </c>
       <c r="H28" s="29"/>
-      <c r="I28" s="139" t="s">
+      <c r="I28" s="136" t="s">
         <v>689</v>
       </c>
       <c r="J28" s="33"/>
     </row>
     <row r="29" spans="1:10" s="26" customFormat="1" ht="48" customHeight="1">
-      <c r="A29" s="122" t="s">
+      <c r="A29" s="138" t="s">
         <v>199</v>
       </c>
       <c r="B29" s="45" t="s">
@@ -8956,13 +8950,13 @@
         <v>26</v>
       </c>
       <c r="H29" s="29"/>
-      <c r="I29" s="139" t="s">
+      <c r="I29" s="136" t="s">
         <v>689</v>
       </c>
       <c r="J29" s="33"/>
     </row>
     <row r="30" spans="1:10" s="26" customFormat="1" ht="34">
-      <c r="A30" s="122"/>
+      <c r="A30" s="138"/>
       <c r="B30" s="45" t="s">
         <v>202</v>
       </c>
@@ -8982,13 +8976,13 @@
         <v>26</v>
       </c>
       <c r="H30" s="29"/>
-      <c r="I30" s="139" t="s">
+      <c r="I30" s="136" t="s">
         <v>689</v>
       </c>
       <c r="J30" s="33"/>
     </row>
     <row r="31" spans="1:10" s="26" customFormat="1" ht="34">
-      <c r="A31" s="122"/>
+      <c r="A31" s="138"/>
       <c r="B31" s="45" t="s">
         <v>204</v>
       </c>
@@ -9008,13 +9002,13 @@
         <v>26</v>
       </c>
       <c r="H31" s="29"/>
-      <c r="I31" s="139" t="s">
+      <c r="I31" s="136" t="s">
         <v>689</v>
       </c>
       <c r="J31" s="33"/>
     </row>
     <row r="32" spans="1:10" s="26" customFormat="1" ht="34">
-      <c r="A32" s="122"/>
+      <c r="A32" s="138"/>
       <c r="B32" s="45" t="s">
         <v>206</v>
       </c>
@@ -9034,13 +9028,13 @@
         <v>26</v>
       </c>
       <c r="H32" s="29"/>
-      <c r="I32" s="139" t="s">
+      <c r="I32" s="136" t="s">
         <v>689</v>
       </c>
       <c r="J32" s="33"/>
     </row>
     <row r="33" spans="1:10" s="26" customFormat="1" ht="34">
-      <c r="A33" s="122"/>
+      <c r="A33" s="138"/>
       <c r="B33" s="45" t="s">
         <v>208</v>
       </c>
@@ -9060,13 +9054,13 @@
         <v>26</v>
       </c>
       <c r="H33" s="29"/>
-      <c r="I33" s="139" t="s">
+      <c r="I33" s="136" t="s">
         <v>689</v>
       </c>
       <c r="J33" s="33"/>
     </row>
     <row r="34" spans="1:10" s="26" customFormat="1" ht="68">
-      <c r="A34" s="122"/>
+      <c r="A34" s="138"/>
       <c r="B34" s="45" t="s">
         <v>211</v>
       </c>
@@ -9086,13 +9080,13 @@
         <v>26</v>
       </c>
       <c r="H34" s="29"/>
-      <c r="I34" s="139" t="s">
+      <c r="I34" s="136" t="s">
         <v>689</v>
       </c>
       <c r="J34" s="33"/>
     </row>
     <row r="35" spans="1:10" s="26" customFormat="1" ht="34">
-      <c r="A35" s="122"/>
+      <c r="A35" s="138"/>
       <c r="B35" s="45" t="s">
         <v>213</v>
       </c>
@@ -9112,13 +9106,13 @@
         <v>56</v>
       </c>
       <c r="H35" s="29"/>
-      <c r="I35" s="139" t="s">
+      <c r="I35" s="136" t="s">
         <v>689</v>
       </c>
       <c r="J35" s="33"/>
     </row>
     <row r="36" spans="1:10" s="26" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A36" s="122" t="s">
+      <c r="A36" s="138" t="s">
         <v>215</v>
       </c>
       <c r="B36" s="45" t="s">
@@ -9140,13 +9134,13 @@
         <v>26</v>
       </c>
       <c r="H36" s="29"/>
-      <c r="I36" s="139" t="s">
+      <c r="I36" s="136" t="s">
         <v>689</v>
       </c>
       <c r="J36" s="33"/>
     </row>
     <row r="37" spans="1:10" s="26" customFormat="1" ht="51">
-      <c r="A37" s="122"/>
+      <c r="A37" s="138"/>
       <c r="B37" s="45" t="s">
         <v>219</v>
       </c>
@@ -9166,13 +9160,13 @@
         <v>56</v>
       </c>
       <c r="H37" s="29"/>
-      <c r="I37" s="139" t="s">
+      <c r="I37" s="136" t="s">
         <v>689</v>
       </c>
       <c r="J37" s="33"/>
     </row>
     <row r="38" spans="1:10" s="26" customFormat="1" ht="17">
-      <c r="A38" s="122"/>
+      <c r="A38" s="138"/>
       <c r="B38" s="45" t="s">
         <v>221</v>
       </c>
@@ -9192,13 +9186,13 @@
         <v>56</v>
       </c>
       <c r="H38" s="29"/>
-      <c r="I38" s="139" t="s">
+      <c r="I38" s="136" t="s">
         <v>689</v>
       </c>
       <c r="J38" s="33"/>
     </row>
     <row r="39" spans="1:10" s="26" customFormat="1" ht="48" customHeight="1">
-      <c r="A39" s="122" t="s">
+      <c r="A39" s="138" t="s">
         <v>223</v>
       </c>
       <c r="B39" s="45" t="s">
@@ -9220,13 +9214,13 @@
         <v>26</v>
       </c>
       <c r="H39" s="29"/>
-      <c r="I39" s="139" t="s">
+      <c r="I39" s="136" t="s">
         <v>689</v>
       </c>
       <c r="J39" s="33"/>
     </row>
     <row r="40" spans="1:10" s="26" customFormat="1" ht="34">
-      <c r="A40" s="122"/>
+      <c r="A40" s="138"/>
       <c r="B40" s="45" t="s">
         <v>227</v>
       </c>
@@ -9246,13 +9240,13 @@
         <v>26</v>
       </c>
       <c r="H40" s="29"/>
-      <c r="I40" s="139" t="s">
+      <c r="I40" s="136" t="s">
         <v>689</v>
       </c>
       <c r="J40" s="33"/>
     </row>
     <row r="41" spans="1:10" s="26" customFormat="1" ht="34">
-      <c r="A41" s="122"/>
+      <c r="A41" s="138"/>
       <c r="B41" s="45" t="s">
         <v>229</v>
       </c>
@@ -9272,13 +9266,13 @@
         <v>26</v>
       </c>
       <c r="H41" s="29"/>
-      <c r="I41" s="139" t="s">
+      <c r="I41" s="136" t="s">
         <v>689</v>
       </c>
       <c r="J41" s="33"/>
     </row>
     <row r="42" spans="1:10" s="26" customFormat="1" ht="34">
-      <c r="A42" s="122"/>
+      <c r="A42" s="138"/>
       <c r="B42" s="45" t="s">
         <v>231</v>
       </c>
@@ -9298,13 +9292,13 @@
         <v>26</v>
       </c>
       <c r="H42" s="29"/>
-      <c r="I42" s="139" t="s">
+      <c r="I42" s="136" t="s">
         <v>689</v>
       </c>
       <c r="J42" s="33"/>
     </row>
     <row r="43" spans="1:10" s="26" customFormat="1" ht="34">
-      <c r="A43" s="122"/>
+      <c r="A43" s="138"/>
       <c r="B43" s="45" t="s">
         <v>233</v>
       </c>
@@ -9324,13 +9318,13 @@
         <v>26</v>
       </c>
       <c r="H43" s="29"/>
-      <c r="I43" s="139" t="s">
+      <c r="I43" s="136" t="s">
         <v>689</v>
       </c>
       <c r="J43" s="33"/>
     </row>
     <row r="44" spans="1:10" s="26" customFormat="1" ht="51">
-      <c r="A44" s="122"/>
+      <c r="A44" s="138"/>
       <c r="B44" s="45" t="s">
         <v>235</v>
       </c>
@@ -9350,13 +9344,13 @@
         <v>26</v>
       </c>
       <c r="H44" s="29"/>
-      <c r="I44" s="139" t="s">
+      <c r="I44" s="136" t="s">
         <v>689</v>
       </c>
       <c r="J44" s="33"/>
     </row>
     <row r="45" spans="1:10" s="26" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A45" s="122" t="s">
+      <c r="A45" s="138" t="s">
         <v>237</v>
       </c>
       <c r="B45" s="45" t="s">
@@ -9378,13 +9372,13 @@
         <v>26</v>
       </c>
       <c r="H45" s="29"/>
-      <c r="I45" s="139" t="s">
+      <c r="I45" s="136" t="s">
         <v>689</v>
       </c>
       <c r="J45" s="33"/>
     </row>
     <row r="46" spans="1:10" s="26" customFormat="1" ht="51">
-      <c r="A46" s="122"/>
+      <c r="A46" s="138"/>
       <c r="B46" s="45" t="s">
         <v>241</v>
       </c>
@@ -9404,13 +9398,13 @@
         <v>56</v>
       </c>
       <c r="H46" s="29"/>
-      <c r="I46" s="139" t="s">
+      <c r="I46" s="136" t="s">
         <v>689</v>
       </c>
       <c r="J46" s="33"/>
     </row>
     <row r="47" spans="1:10" s="26" customFormat="1" ht="34">
-      <c r="A47" s="122"/>
+      <c r="A47" s="138"/>
       <c r="B47" s="45" t="s">
         <v>243</v>
       </c>
@@ -9430,13 +9424,13 @@
         <v>26</v>
       </c>
       <c r="H47" s="29"/>
-      <c r="I47" s="139" t="s">
+      <c r="I47" s="136" t="s">
         <v>689</v>
       </c>
       <c r="J47" s="33"/>
     </row>
     <row r="48" spans="1:10" s="26" customFormat="1" ht="34">
-      <c r="A48" s="122"/>
+      <c r="A48" s="138"/>
       <c r="B48" s="45" t="s">
         <v>245</v>
       </c>
@@ -9456,13 +9450,13 @@
         <v>26</v>
       </c>
       <c r="H48" s="29"/>
-      <c r="I48" s="139" t="s">
+      <c r="I48" s="136" t="s">
         <v>689</v>
       </c>
       <c r="J48" s="33"/>
     </row>
     <row r="49" spans="1:10" s="26" customFormat="1" ht="51">
-      <c r="A49" s="122"/>
+      <c r="A49" s="138"/>
       <c r="B49" s="45" t="s">
         <v>247</v>
       </c>
@@ -9482,13 +9476,13 @@
         <v>26</v>
       </c>
       <c r="H49" s="29"/>
-      <c r="I49" s="139" t="s">
+      <c r="I49" s="136" t="s">
         <v>689</v>
       </c>
       <c r="J49" s="33"/>
     </row>
     <row r="50" spans="1:10" s="26" customFormat="1" ht="51">
-      <c r="A50" s="122"/>
+      <c r="A50" s="138"/>
       <c r="B50" s="45" t="s">
         <v>250</v>
       </c>
@@ -9508,13 +9502,13 @@
         <v>56</v>
       </c>
       <c r="H50" s="29"/>
-      <c r="I50" s="139" t="s">
+      <c r="I50" s="136" t="s">
         <v>689</v>
       </c>
       <c r="J50" s="33"/>
     </row>
     <row r="51" spans="1:10" s="26" customFormat="1" ht="34">
-      <c r="A51" s="122"/>
+      <c r="A51" s="138"/>
       <c r="B51" s="45" t="s">
         <v>253</v>
       </c>
@@ -9534,13 +9528,13 @@
         <v>26</v>
       </c>
       <c r="H51" s="29"/>
-      <c r="I51" s="139" t="s">
+      <c r="I51" s="136" t="s">
         <v>689</v>
       </c>
       <c r="J51" s="33"/>
     </row>
     <row r="52" spans="1:10" s="26" customFormat="1" ht="63.75" customHeight="1">
-      <c r="A52" s="122" t="s">
+      <c r="A52" s="138" t="s">
         <v>256</v>
       </c>
       <c r="B52" s="45" t="s">
@@ -9562,13 +9556,13 @@
         <v>136</v>
       </c>
       <c r="H52" s="29"/>
-      <c r="I52" s="139" t="s">
+      <c r="I52" s="136" t="s">
         <v>689</v>
       </c>
       <c r="J52" s="33"/>
     </row>
     <row r="53" spans="1:10" s="26" customFormat="1" ht="34">
-      <c r="A53" s="122"/>
+      <c r="A53" s="138"/>
       <c r="B53" s="45" t="s">
         <v>260</v>
       </c>
@@ -9588,13 +9582,13 @@
         <v>136</v>
       </c>
       <c r="H53" s="29"/>
-      <c r="I53" s="139" t="s">
+      <c r="I53" s="136" t="s">
         <v>689</v>
       </c>
       <c r="J53" s="33"/>
     </row>
     <row r="54" spans="1:10" s="26" customFormat="1" ht="34">
-      <c r="A54" s="122"/>
+      <c r="A54" s="138"/>
       <c r="B54" s="45" t="s">
         <v>262</v>
       </c>
@@ -9614,13 +9608,13 @@
         <v>136</v>
       </c>
       <c r="H54" s="29"/>
-      <c r="I54" s="139" t="s">
+      <c r="I54" s="136" t="s">
         <v>689</v>
       </c>
       <c r="J54" s="33"/>
     </row>
     <row r="55" spans="1:10" s="26" customFormat="1" ht="79.5" customHeight="1">
-      <c r="A55" s="122" t="s">
+      <c r="A55" s="138" t="s">
         <v>264</v>
       </c>
       <c r="B55" s="45" t="s">
@@ -9642,13 +9636,13 @@
         <v>136</v>
       </c>
       <c r="H55" s="29"/>
-      <c r="I55" s="139" t="s">
+      <c r="I55" s="136" t="s">
         <v>689</v>
       </c>
       <c r="J55" s="33"/>
     </row>
     <row r="56" spans="1:10" s="26" customFormat="1" ht="51">
-      <c r="A56" s="122"/>
+      <c r="A56" s="138"/>
       <c r="B56" s="45" t="s">
         <v>269</v>
       </c>
@@ -9668,13 +9662,13 @@
         <v>26</v>
       </c>
       <c r="H56" s="29"/>
-      <c r="I56" s="139" t="s">
+      <c r="I56" s="136" t="s">
         <v>689</v>
       </c>
       <c r="J56" s="33"/>
     </row>
     <row r="57" spans="1:10" s="26" customFormat="1" ht="51">
-      <c r="A57" s="122"/>
+      <c r="A57" s="138"/>
       <c r="B57" s="45" t="s">
         <v>271</v>
       </c>
@@ -9694,13 +9688,13 @@
         <v>136</v>
       </c>
       <c r="H57" s="29"/>
-      <c r="I57" s="139" t="s">
+      <c r="I57" s="136" t="s">
         <v>689</v>
       </c>
       <c r="J57" s="33"/>
     </row>
     <row r="58" spans="1:10" s="26" customFormat="1" ht="85">
-      <c r="A58" s="122"/>
+      <c r="A58" s="138"/>
       <c r="B58" s="45" t="s">
         <v>273</v>
       </c>
@@ -9718,25 +9712,25 @@
         <v>136</v>
       </c>
       <c r="H58" s="36"/>
-      <c r="I58" s="139" t="s">
+      <c r="I58" s="136" t="s">
         <v>689</v>
       </c>
       <c r="J58" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="A39:A44"/>
+    <mergeCell ref="A45:A51"/>
+    <mergeCell ref="A52:A54"/>
+    <mergeCell ref="A55:A58"/>
     <mergeCell ref="A2:A13"/>
     <mergeCell ref="A14:A20"/>
     <mergeCell ref="A21:A23"/>
     <mergeCell ref="A24:A28"/>
     <mergeCell ref="A29:A35"/>
-    <mergeCell ref="A36:A38"/>
-    <mergeCell ref="A39:A44"/>
-    <mergeCell ref="A45:A51"/>
-    <mergeCell ref="A52:A54"/>
-    <mergeCell ref="A55:A58"/>
   </mergeCells>
-  <dataValidations disablePrompts="1" count="1">
+  <dataValidations count="1">
     <dataValidation type="list" operator="equal" showErrorMessage="1" sqref="G2:G58" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"Valid,Non-valid,Not Applicable"</formula1>
       <formula2>0</formula2>
@@ -9803,8 +9797,8 @@
       <c r="H1" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="136" t="str">
-        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/session_management.md", "Analysis done here")</f>
+      <c r="I1" s="133" t="str">
+        <f t="shared" ref="I1:I21" si="0">HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/session_management.md", "Analysis done here")</f>
         <v>Analysis done here</v>
       </c>
       <c r="J1" s="62" t="s">
@@ -9832,14 +9826,14 @@
         <v>26</v>
       </c>
       <c r="H2" s="50"/>
-      <c r="I2" s="126" t="str">
-        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/session_management.md", "Analysis done here")</f>
+      <c r="I2" s="123" t="str">
+        <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J2" s="66"/>
     </row>
     <row r="3" spans="1:10" ht="63.75" customHeight="1">
-      <c r="A3" s="122" t="s">
+      <c r="A3" s="138" t="s">
         <v>278</v>
       </c>
       <c r="B3" s="63" t="s">
@@ -9861,14 +9855,14 @@
         <v>26</v>
       </c>
       <c r="H3" s="29"/>
-      <c r="I3" s="137" t="str">
-        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/session_management.md", "Analysis done here")</f>
+      <c r="I3" s="134" t="str">
+        <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J3" s="33"/>
     </row>
     <row r="4" spans="1:10" ht="51">
-      <c r="A4" s="122"/>
+      <c r="A4" s="138"/>
       <c r="B4" s="63" t="s">
         <v>281</v>
       </c>
@@ -9888,14 +9882,14 @@
         <v>26</v>
       </c>
       <c r="H4" s="29"/>
-      <c r="I4" s="137" t="str">
-        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/session_management.md", "Analysis done here")</f>
+      <c r="I4" s="134" t="str">
+        <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J4" s="33"/>
     </row>
     <row r="5" spans="1:10" ht="51">
-      <c r="A5" s="122"/>
+      <c r="A5" s="138"/>
       <c r="B5" s="63" t="s">
         <v>283</v>
       </c>
@@ -9915,14 +9909,14 @@
         <v>26</v>
       </c>
       <c r="H5" s="29"/>
-      <c r="I5" s="137" t="str">
-        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/session_management.md", "Analysis done here")</f>
+      <c r="I5" s="134" t="str">
+        <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J5" s="33"/>
     </row>
     <row r="6" spans="1:10" ht="68">
-      <c r="A6" s="122"/>
+      <c r="A6" s="138"/>
       <c r="B6" s="63" t="s">
         <v>285</v>
       </c>
@@ -9942,14 +9936,14 @@
         <v>26</v>
       </c>
       <c r="H6" s="29"/>
-      <c r="I6" s="137" t="str">
-        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/session_management.md", "Analysis done here")</f>
+      <c r="I6" s="134" t="str">
+        <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J6" s="33"/>
     </row>
     <row r="7" spans="1:10" ht="79.5" customHeight="1">
-      <c r="A7" s="122" t="s">
+      <c r="A7" s="138" t="s">
         <v>287</v>
       </c>
       <c r="B7" s="63" t="s">
@@ -9971,14 +9965,14 @@
         <v>26</v>
       </c>
       <c r="H7" s="29"/>
-      <c r="I7" s="137" t="str">
-        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/session_management.md", "Analysis done here")</f>
+      <c r="I7" s="134" t="str">
+        <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J7" s="33"/>
     </row>
     <row r="8" spans="1:10" ht="102">
-      <c r="A8" s="122"/>
+      <c r="A8" s="138"/>
       <c r="B8" s="63" t="s">
         <v>290</v>
       </c>
@@ -9998,14 +9992,14 @@
         <v>26</v>
       </c>
       <c r="H8" s="29"/>
-      <c r="I8" s="137" t="str">
-        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/session_management.md", "Analysis done here")</f>
+      <c r="I8" s="134" t="str">
+        <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J8" s="33"/>
     </row>
     <row r="9" spans="1:10" ht="68">
-      <c r="A9" s="122"/>
+      <c r="A9" s="138"/>
       <c r="B9" s="63" t="s">
         <v>292</v>
       </c>
@@ -10023,14 +10017,14 @@
         <v>136</v>
       </c>
       <c r="H9" s="29"/>
-      <c r="I9" s="137" t="str">
-        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/session_management.md", "Analysis done here")</f>
+      <c r="I9" s="134" t="str">
+        <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J9" s="33"/>
     </row>
     <row r="10" spans="1:10" ht="34">
-      <c r="A10" s="122"/>
+      <c r="A10" s="138"/>
       <c r="B10" s="63" t="s">
         <v>294</v>
       </c>
@@ -10050,14 +10044,14 @@
         <v>136</v>
       </c>
       <c r="H10" s="29"/>
-      <c r="I10" s="137" t="str">
-        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/session_management.md", "Analysis done here")</f>
+      <c r="I10" s="134" t="str">
+        <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J10" s="33"/>
     </row>
     <row r="11" spans="1:10" ht="48" customHeight="1">
-      <c r="A11" s="122" t="s">
+      <c r="A11" s="138" t="s">
         <v>296</v>
       </c>
       <c r="B11" s="63" t="s">
@@ -10079,14 +10073,14 @@
         <v>26</v>
       </c>
       <c r="H11" s="29"/>
-      <c r="I11" s="137" t="str">
-        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/session_management.md", "Analysis done here")</f>
+      <c r="I11" s="134" t="str">
+        <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J11" s="33"/>
     </row>
     <row r="12" spans="1:10" ht="34">
-      <c r="A12" s="122"/>
+      <c r="A12" s="138"/>
       <c r="B12" s="63" t="s">
         <v>300</v>
       </c>
@@ -10106,14 +10100,14 @@
         <v>26</v>
       </c>
       <c r="H12" s="29"/>
-      <c r="I12" s="137" t="str">
-        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/session_management.md", "Analysis done here")</f>
+      <c r="I12" s="134" t="str">
+        <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J12" s="33"/>
     </row>
     <row r="13" spans="1:10" ht="51">
-      <c r="A13" s="122"/>
+      <c r="A13" s="138"/>
       <c r="B13" s="63" t="s">
         <v>302</v>
       </c>
@@ -10133,14 +10127,14 @@
         <v>26</v>
       </c>
       <c r="H13" s="29"/>
-      <c r="I13" s="137" t="str">
-        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/session_management.md", "Analysis done here")</f>
+      <c r="I13" s="134" t="str">
+        <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J13" s="33"/>
     </row>
     <row r="14" spans="1:10" ht="34">
-      <c r="A14" s="122"/>
+      <c r="A14" s="138"/>
       <c r="B14" s="63" t="s">
         <v>304</v>
       </c>
@@ -10160,14 +10154,14 @@
         <v>26</v>
       </c>
       <c r="H14" s="29"/>
-      <c r="I14" s="137" t="str">
-        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/session_management.md", "Analysis done here")</f>
+      <c r="I14" s="134" t="str">
+        <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J14" s="33"/>
     </row>
     <row r="15" spans="1:10" ht="85">
-      <c r="A15" s="122"/>
+      <c r="A15" s="138"/>
       <c r="B15" s="63" t="s">
         <v>306</v>
       </c>
@@ -10187,14 +10181,14 @@
         <v>136</v>
       </c>
       <c r="H15" s="29"/>
-      <c r="I15" s="137" t="str">
-        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/session_management.md", "Analysis done here")</f>
+      <c r="I15" s="134" t="str">
+        <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J15" s="33"/>
     </row>
     <row r="16" spans="1:10" ht="32.25" customHeight="1">
-      <c r="A16" s="122" t="s">
+      <c r="A16" s="138" t="s">
         <v>308</v>
       </c>
       <c r="B16" s="63" t="s">
@@ -10216,14 +10210,14 @@
         <v>26</v>
       </c>
       <c r="H16" s="29"/>
-      <c r="I16" s="137" t="str">
-        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/session_management.md", "Analysis done here")</f>
+      <c r="I16" s="134" t="str">
+        <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J16" s="33"/>
     </row>
     <row r="17" spans="1:10" ht="34">
-      <c r="A17" s="122"/>
+      <c r="A17" s="138"/>
       <c r="B17" s="63" t="s">
         <v>312</v>
       </c>
@@ -10241,14 +10235,14 @@
         <v>26</v>
       </c>
       <c r="H17" s="29"/>
-      <c r="I17" s="137" t="str">
-        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/session_management.md", "Analysis done here")</f>
+      <c r="I17" s="134" t="str">
+        <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J17" s="33"/>
     </row>
     <row r="18" spans="1:10" ht="51">
-      <c r="A18" s="122"/>
+      <c r="A18" s="138"/>
       <c r="B18" s="63" t="s">
         <v>314</v>
       </c>
@@ -10266,14 +10260,14 @@
         <v>26</v>
       </c>
       <c r="H18" s="29"/>
-      <c r="I18" s="137" t="str">
-        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/session_management.md", "Analysis done here")</f>
+      <c r="I18" s="134" t="str">
+        <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J18" s="33"/>
     </row>
     <row r="19" spans="1:10" ht="63.75" customHeight="1">
-      <c r="A19" s="122" t="s">
+      <c r="A19" s="138" t="s">
         <v>316</v>
       </c>
       <c r="B19" s="63" t="s">
@@ -10295,14 +10289,14 @@
         <v>136</v>
       </c>
       <c r="H19" s="29"/>
-      <c r="I19" s="137" t="str">
-        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/session_management.md", "Analysis done here")</f>
+      <c r="I19" s="134" t="str">
+        <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J19" s="33"/>
     </row>
     <row r="20" spans="1:10" ht="52" thickBot="1">
-      <c r="A20" s="122"/>
+      <c r="A20" s="138"/>
       <c r="B20" s="63" t="s">
         <v>320</v>
       </c>
@@ -10322,8 +10316,8 @@
         <v>136</v>
       </c>
       <c r="H20" s="29"/>
-      <c r="I20" s="137" t="str">
-        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/session_management.md", "Analysis done here")</f>
+      <c r="I20" s="134" t="str">
+        <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J20" s="33"/>
@@ -10349,8 +10343,8 @@
         <v>26</v>
       </c>
       <c r="H21" s="36"/>
-      <c r="I21" s="138" t="str">
-        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/session_management.md", "Analysis done here")</f>
+      <c r="I21" s="135" t="str">
+        <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J21" s="38"/>
@@ -10442,7 +10436,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="48" customHeight="1" thickBot="1">
-      <c r="A2" s="122" t="s">
+      <c r="A2" s="138" t="s">
         <v>325</v>
       </c>
       <c r="B2" s="78" t="s">
@@ -10462,14 +10456,14 @@
         <v>26</v>
       </c>
       <c r="H2" s="50"/>
-      <c r="I2" s="126" t="str">
-        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/access_control.md", "Analysis done here")</f>
-        <v>Analysis done here</v>
-      </c>
-      <c r="J2" s="129"/>
+      <c r="I2" s="123" t="str">
+        <f t="shared" ref="I2:I11" si="0">HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/access_control.md", "Analysis done here")</f>
+        <v>Analysis done here</v>
+      </c>
+      <c r="J2" s="126"/>
     </row>
     <row r="3" spans="1:10" ht="35" thickBot="1">
-      <c r="A3" s="122"/>
+      <c r="A3" s="138"/>
       <c r="B3" s="78" t="s">
         <v>328</v>
       </c>
@@ -10487,14 +10481,14 @@
         <v>26</v>
       </c>
       <c r="H3" s="29"/>
-      <c r="I3" s="126" t="str">
-        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/access_control.md", "Analysis done here")</f>
-        <v>Analysis done here</v>
-      </c>
-      <c r="J3" s="128"/>
+      <c r="I3" s="123" t="str">
+        <f t="shared" si="0"/>
+        <v>Analysis done here</v>
+      </c>
+      <c r="J3" s="125"/>
     </row>
     <row r="4" spans="1:10" ht="86" thickBot="1">
-      <c r="A4" s="122"/>
+      <c r="A4" s="138"/>
       <c r="B4" s="78" t="s">
         <v>330</v>
       </c>
@@ -10512,14 +10506,14 @@
         <v>26</v>
       </c>
       <c r="H4" s="29"/>
-      <c r="I4" s="126" t="str">
-        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/access_control.md", "Analysis done here")</f>
-        <v>Analysis done here</v>
-      </c>
-      <c r="J4" s="128"/>
+      <c r="I4" s="123" t="str">
+        <f t="shared" si="0"/>
+        <v>Analysis done here</v>
+      </c>
+      <c r="J4" s="125"/>
     </row>
     <row r="5" spans="1:10" ht="18" thickBot="1">
-      <c r="A5" s="122"/>
+      <c r="A5" s="138"/>
       <c r="B5" s="78" t="s">
         <v>332</v>
       </c>
@@ -10537,14 +10531,14 @@
         <v>56</v>
       </c>
       <c r="H5" s="29"/>
-      <c r="I5" s="126" t="str">
-        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/access_control.md", "Analysis done here")</f>
-        <v>Analysis done here</v>
-      </c>
-      <c r="J5" s="128"/>
+      <c r="I5" s="123" t="str">
+        <f t="shared" si="0"/>
+        <v>Analysis done here</v>
+      </c>
+      <c r="J5" s="125"/>
     </row>
     <row r="6" spans="1:10" ht="35" thickBot="1">
-      <c r="A6" s="122"/>
+      <c r="A6" s="138"/>
       <c r="B6" s="78" t="s">
         <v>333</v>
       </c>
@@ -10562,14 +10556,14 @@
         <v>26</v>
       </c>
       <c r="H6" s="29"/>
-      <c r="I6" s="126" t="str">
-        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/access_control.md", "Analysis done here")</f>
-        <v>Analysis done here</v>
-      </c>
-      <c r="J6" s="128"/>
+      <c r="I6" s="123" t="str">
+        <f t="shared" si="0"/>
+        <v>Analysis done here</v>
+      </c>
+      <c r="J6" s="125"/>
     </row>
     <row r="7" spans="1:10" ht="79.5" customHeight="1" thickBot="1">
-      <c r="A7" s="122" t="s">
+      <c r="A7" s="138" t="s">
         <v>335</v>
       </c>
       <c r="B7" s="78" t="s">
@@ -10589,14 +10583,14 @@
         <v>26</v>
       </c>
       <c r="H7" s="29"/>
-      <c r="I7" s="126" t="str">
-        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/access_control.md", "Analysis done here")</f>
-        <v>Analysis done here</v>
-      </c>
-      <c r="J7" s="128"/>
+      <c r="I7" s="123" t="str">
+        <f t="shared" si="0"/>
+        <v>Analysis done here</v>
+      </c>
+      <c r="J7" s="125"/>
     </row>
     <row r="8" spans="1:10" ht="52" thickBot="1">
-      <c r="A8" s="122"/>
+      <c r="A8" s="138"/>
       <c r="B8" s="78" t="s">
         <v>338</v>
       </c>
@@ -10614,14 +10608,14 @@
         <v>26</v>
       </c>
       <c r="H8" s="29"/>
-      <c r="I8" s="126" t="str">
-        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/access_control.md", "Analysis done here")</f>
-        <v>Analysis done here</v>
-      </c>
-      <c r="J8" s="128"/>
+      <c r="I8" s="123" t="str">
+        <f t="shared" si="0"/>
+        <v>Analysis done here</v>
+      </c>
+      <c r="J8" s="125"/>
     </row>
     <row r="9" spans="1:10" ht="32.25" customHeight="1" thickBot="1">
-      <c r="A9" s="122" t="s">
+      <c r="A9" s="138" t="s">
         <v>340</v>
       </c>
       <c r="B9" s="78" t="s">
@@ -10641,14 +10635,14 @@
         <v>26</v>
       </c>
       <c r="H9" s="29"/>
-      <c r="I9" s="126" t="str">
-        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/access_control.md", "Analysis done here")</f>
-        <v>Analysis done here</v>
-      </c>
-      <c r="J9" s="128"/>
+      <c r="I9" s="123" t="str">
+        <f t="shared" si="0"/>
+        <v>Analysis done here</v>
+      </c>
+      <c r="J9" s="125"/>
     </row>
     <row r="10" spans="1:10" ht="52" thickBot="1">
-      <c r="A10" s="122"/>
+      <c r="A10" s="138"/>
       <c r="B10" s="78" t="s">
         <v>343</v>
       </c>
@@ -10666,14 +10660,14 @@
         <v>26</v>
       </c>
       <c r="H10" s="29"/>
-      <c r="I10" s="126" t="str">
-        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/access_control.md", "Analysis done here")</f>
-        <v>Analysis done here</v>
-      </c>
-      <c r="J10" s="128"/>
+      <c r="I10" s="123" t="str">
+        <f t="shared" si="0"/>
+        <v>Analysis done here</v>
+      </c>
+      <c r="J10" s="125"/>
     </row>
     <row r="11" spans="1:10" ht="69" thickBot="1">
-      <c r="A11" s="122"/>
+      <c r="A11" s="138"/>
       <c r="B11" s="78" t="s">
         <v>345</v>
       </c>
@@ -10691,11 +10685,11 @@
         <v>26</v>
       </c>
       <c r="H11" s="36"/>
-      <c r="I11" s="126" t="str">
-        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/access_control.md", "Analysis done here")</f>
-        <v>Analysis done here</v>
-      </c>
-      <c r="J11" s="127"/>
+      <c r="I11" s="123" t="str">
+        <f t="shared" si="0"/>
+        <v>Analysis done here</v>
+      </c>
+      <c r="J11" s="124"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -10772,7 +10766,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="79.5" customHeight="1" thickBot="1">
-      <c r="A2" s="122" t="s">
+      <c r="A2" s="138" t="s">
         <v>347</v>
       </c>
       <c r="B2" s="63" t="s">
@@ -10791,15 +10785,15 @@
       <c r="G2" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="130"/>
-      <c r="I2" s="126" t="str">
-        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/validation_sanitization_encoding.md", "Analysis done here")</f>
-        <v>Analysis done here</v>
-      </c>
-      <c r="J2" s="129"/>
+      <c r="H2" s="127"/>
+      <c r="I2" s="123" t="str">
+        <f t="shared" ref="I2:I31" si="0">HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/validation_sanitization_encoding.md", "Analysis done here")</f>
+        <v>Analysis done here</v>
+      </c>
+      <c r="J2" s="126"/>
     </row>
     <row r="3" spans="1:10" ht="86" thickBot="1">
-      <c r="A3" s="122"/>
+      <c r="A3" s="138"/>
       <c r="B3" s="63" t="s">
         <v>350</v>
       </c>
@@ -10817,14 +10811,14 @@
         <v>26</v>
       </c>
       <c r="H3" s="29"/>
-      <c r="I3" s="126" t="str">
-        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/validation_sanitization_encoding.md", "Analysis done here")</f>
+      <c r="I3" s="123" t="str">
+        <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J3" s="33"/>
     </row>
     <row r="4" spans="1:10" ht="86" thickBot="1">
-      <c r="A4" s="122"/>
+      <c r="A4" s="138"/>
       <c r="B4" s="63" t="s">
         <v>352</v>
       </c>
@@ -10842,14 +10836,14 @@
         <v>26</v>
       </c>
       <c r="H4" s="29"/>
-      <c r="I4" s="126" t="str">
-        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/validation_sanitization_encoding.md", "Analysis done here")</f>
+      <c r="I4" s="123" t="str">
+        <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J4" s="33"/>
     </row>
     <row r="5" spans="1:10" ht="103" thickBot="1">
-      <c r="A5" s="122"/>
+      <c r="A5" s="138"/>
       <c r="B5" s="63" t="s">
         <v>354</v>
       </c>
@@ -10867,14 +10861,14 @@
         <v>26</v>
       </c>
       <c r="H5" s="29"/>
-      <c r="I5" s="126" t="str">
-        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/validation_sanitization_encoding.md", "Analysis done here")</f>
+      <c r="I5" s="123" t="str">
+        <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J5" s="33"/>
     </row>
     <row r="6" spans="1:10" ht="52" thickBot="1">
-      <c r="A6" s="122"/>
+      <c r="A6" s="138"/>
       <c r="B6" s="63" t="s">
         <v>356</v>
       </c>
@@ -10892,14 +10886,14 @@
         <v>26</v>
       </c>
       <c r="H6" s="29"/>
-      <c r="I6" s="126" t="str">
-        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/validation_sanitization_encoding.md", "Analysis done here")</f>
+      <c r="I6" s="123" t="str">
+        <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J6" s="33"/>
     </row>
     <row r="7" spans="1:10" ht="63.75" customHeight="1" thickBot="1">
-      <c r="A7" s="122" t="s">
+      <c r="A7" s="138" t="s">
         <v>358</v>
       </c>
       <c r="B7" s="63" t="s">
@@ -10919,14 +10913,14 @@
         <v>56</v>
       </c>
       <c r="H7" s="29"/>
-      <c r="I7" s="126" t="str">
-        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/validation_sanitization_encoding.md", "Analysis done here")</f>
+      <c r="I7" s="123" t="str">
+        <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J7" s="33"/>
     </row>
     <row r="8" spans="1:10" ht="35" thickBot="1">
-      <c r="A8" s="122"/>
+      <c r="A8" s="138"/>
       <c r="B8" s="63" t="s">
         <v>360</v>
       </c>
@@ -10944,14 +10938,14 @@
         <v>26</v>
       </c>
       <c r="H8" s="29"/>
-      <c r="I8" s="126" t="str">
-        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/validation_sanitization_encoding.md", "Analysis done here")</f>
+      <c r="I8" s="123" t="str">
+        <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J8" s="33"/>
     </row>
     <row r="9" spans="1:10" ht="35" thickBot="1">
-      <c r="A9" s="122"/>
+      <c r="A9" s="138"/>
       <c r="B9" s="63" t="s">
         <v>254</v>
       </c>
@@ -10969,14 +10963,14 @@
         <v>56</v>
       </c>
       <c r="H9" s="29"/>
-      <c r="I9" s="126" t="str">
-        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/validation_sanitization_encoding.md", "Analysis done here")</f>
+      <c r="I9" s="123" t="str">
+        <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J9" s="33"/>
     </row>
     <row r="10" spans="1:10" ht="52" thickBot="1">
-      <c r="A10" s="122"/>
+      <c r="A10" s="138"/>
       <c r="B10" s="63" t="s">
         <v>363</v>
       </c>
@@ -10994,14 +10988,14 @@
         <v>26</v>
       </c>
       <c r="H10" s="29"/>
-      <c r="I10" s="126" t="str">
-        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/validation_sanitization_encoding.md", "Analysis done here")</f>
+      <c r="I10" s="123" t="str">
+        <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J10" s="33"/>
     </row>
     <row r="11" spans="1:10" ht="52" thickBot="1">
-      <c r="A11" s="122"/>
+      <c r="A11" s="138"/>
       <c r="B11" s="63" t="s">
         <v>167</v>
       </c>
@@ -11019,14 +11013,14 @@
         <v>56</v>
       </c>
       <c r="H11" s="29"/>
-      <c r="I11" s="126" t="str">
-        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/validation_sanitization_encoding.md", "Analysis done here")</f>
+      <c r="I11" s="123" t="str">
+        <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J11" s="33"/>
     </row>
     <row r="12" spans="1:10" ht="69" thickBot="1">
-      <c r="A12" s="122"/>
+      <c r="A12" s="138"/>
       <c r="B12" s="63" t="s">
         <v>170</v>
       </c>
@@ -11044,14 +11038,14 @@
         <v>26</v>
       </c>
       <c r="H12" s="29"/>
-      <c r="I12" s="126" t="str">
-        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/validation_sanitization_encoding.md", "Analysis done here")</f>
+      <c r="I12" s="123" t="str">
+        <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J12" s="33"/>
     </row>
     <row r="13" spans="1:10" ht="52" thickBot="1">
-      <c r="A13" s="122"/>
+      <c r="A13" s="138"/>
       <c r="B13" s="63" t="s">
         <v>367</v>
       </c>
@@ -11069,14 +11063,14 @@
         <v>56</v>
       </c>
       <c r="H13" s="29"/>
-      <c r="I13" s="126" t="str">
-        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/validation_sanitization_encoding.md", "Analysis done here")</f>
+      <c r="I13" s="123" t="str">
+        <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J13" s="33"/>
     </row>
     <row r="14" spans="1:10" ht="52" thickBot="1">
-      <c r="A14" s="122"/>
+      <c r="A14" s="138"/>
       <c r="B14" s="63" t="s">
         <v>173</v>
       </c>
@@ -11094,14 +11088,14 @@
         <v>26</v>
       </c>
       <c r="H14" s="29"/>
-      <c r="I14" s="126" t="str">
-        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/validation_sanitization_encoding.md", "Analysis done here")</f>
+      <c r="I14" s="123" t="str">
+        <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J14" s="33"/>
     </row>
     <row r="15" spans="1:10" ht="126.75" customHeight="1" thickBot="1">
-      <c r="A15" s="122" t="s">
+      <c r="A15" s="138" t="s">
         <v>370</v>
       </c>
       <c r="B15" s="63" t="s">
@@ -11121,14 +11115,14 @@
         <v>26</v>
       </c>
       <c r="H15" s="29"/>
-      <c r="I15" s="126" t="str">
-        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/validation_sanitization_encoding.md", "Analysis done here")</f>
+      <c r="I15" s="123" t="str">
+        <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J15" s="33"/>
     </row>
     <row r="16" spans="1:10" ht="69" thickBot="1">
-      <c r="A16" s="122"/>
+      <c r="A16" s="138"/>
       <c r="B16" s="63" t="s">
         <v>373</v>
       </c>
@@ -11146,14 +11140,14 @@
         <v>56</v>
       </c>
       <c r="H16" s="29"/>
-      <c r="I16" s="126" t="str">
-        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/validation_sanitization_encoding.md", "Analysis done here")</f>
+      <c r="I16" s="123" t="str">
+        <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J16" s="33"/>
     </row>
     <row r="17" spans="1:10" ht="69" thickBot="1">
-      <c r="A17" s="122"/>
+      <c r="A17" s="138"/>
       <c r="B17" s="63" t="s">
         <v>375</v>
       </c>
@@ -11171,14 +11165,14 @@
         <v>26</v>
       </c>
       <c r="H17" s="29"/>
-      <c r="I17" s="126" t="str">
-        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/validation_sanitization_encoding.md", "Analysis done here")</f>
+      <c r="I17" s="123" t="str">
+        <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J17" s="33"/>
     </row>
     <row r="18" spans="1:10" ht="86" thickBot="1">
-      <c r="A18" s="122"/>
+      <c r="A18" s="138"/>
       <c r="B18" s="63" t="s">
         <v>377</v>
       </c>
@@ -11196,14 +11190,14 @@
         <v>26</v>
       </c>
       <c r="H18" s="29"/>
-      <c r="I18" s="126" t="str">
-        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/validation_sanitization_encoding.md", "Analysis done here")</f>
+      <c r="I18" s="123" t="str">
+        <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J18" s="33"/>
     </row>
     <row r="19" spans="1:10" ht="86" thickBot="1">
-      <c r="A19" s="122"/>
+      <c r="A19" s="138"/>
       <c r="B19" s="63" t="s">
         <v>379</v>
       </c>
@@ -11221,14 +11215,14 @@
         <v>26</v>
       </c>
       <c r="H19" s="29"/>
-      <c r="I19" s="126" t="str">
-        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/validation_sanitization_encoding.md", "Analysis done here")</f>
+      <c r="I19" s="123" t="str">
+        <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J19" s="33"/>
     </row>
     <row r="20" spans="1:10" ht="69" thickBot="1">
-      <c r="A20" s="122"/>
+      <c r="A20" s="138"/>
       <c r="B20" s="63" t="s">
         <v>381</v>
       </c>
@@ -11246,14 +11240,14 @@
         <v>26</v>
       </c>
       <c r="H20" s="29"/>
-      <c r="I20" s="126" t="str">
-        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/validation_sanitization_encoding.md", "Analysis done here")</f>
+      <c r="I20" s="123" t="str">
+        <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J20" s="33"/>
     </row>
     <row r="21" spans="1:10" ht="69" thickBot="1">
-      <c r="A21" s="122"/>
+      <c r="A21" s="138"/>
       <c r="B21" s="63" t="s">
         <v>383</v>
       </c>
@@ -11271,14 +11265,14 @@
         <v>136</v>
       </c>
       <c r="H21" s="29"/>
-      <c r="I21" s="126" t="str">
-        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/validation_sanitization_encoding.md", "Analysis done here")</f>
+      <c r="I21" s="123" t="str">
+        <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J21" s="33"/>
     </row>
     <row r="22" spans="1:10" ht="86" thickBot="1">
-      <c r="A22" s="122"/>
+      <c r="A22" s="138"/>
       <c r="B22" s="63" t="s">
         <v>385</v>
       </c>
@@ -11296,14 +11290,14 @@
         <v>56</v>
       </c>
       <c r="H22" s="29"/>
-      <c r="I22" s="126" t="str">
-        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/validation_sanitization_encoding.md", "Analysis done here")</f>
+      <c r="I22" s="123" t="str">
+        <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J22" s="33"/>
     </row>
     <row r="23" spans="1:10" ht="35" thickBot="1">
-      <c r="A23" s="122"/>
+      <c r="A23" s="138"/>
       <c r="B23" s="63" t="s">
         <v>387</v>
       </c>
@@ -11321,14 +11315,14 @@
         <v>26</v>
       </c>
       <c r="H23" s="29"/>
-      <c r="I23" s="126" t="str">
-        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/validation_sanitization_encoding.md", "Analysis done here")</f>
+      <c r="I23" s="123" t="str">
+        <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J23" s="33"/>
     </row>
     <row r="24" spans="1:10" ht="52" thickBot="1">
-      <c r="A24" s="122"/>
+      <c r="A24" s="138"/>
       <c r="B24" s="63" t="s">
         <v>389</v>
       </c>
@@ -11346,14 +11340,14 @@
         <v>136</v>
       </c>
       <c r="H24" s="29"/>
-      <c r="I24" s="126" t="str">
-        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/validation_sanitization_encoding.md", "Analysis done here")</f>
+      <c r="I24" s="123" t="str">
+        <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J24" s="33"/>
     </row>
     <row r="25" spans="1:10" ht="48" customHeight="1" thickBot="1">
-      <c r="A25" s="122" t="s">
+      <c r="A25" s="138" t="s">
         <v>391</v>
       </c>
       <c r="B25" s="63" t="s">
@@ -11373,14 +11367,14 @@
         <v>56</v>
       </c>
       <c r="H25" s="29"/>
-      <c r="I25" s="126" t="str">
-        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/validation_sanitization_encoding.md", "Analysis done here")</f>
+      <c r="I25" s="123" t="str">
+        <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J25" s="33"/>
     </row>
     <row r="26" spans="1:10" ht="35" thickBot="1">
-      <c r="A26" s="122"/>
+      <c r="A26" s="138"/>
       <c r="B26" s="63" t="s">
         <v>394</v>
       </c>
@@ -11398,14 +11392,14 @@
         <v>56</v>
       </c>
       <c r="H26" s="29"/>
-      <c r="I26" s="126" t="str">
-        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/validation_sanitization_encoding.md", "Analysis done here")</f>
+      <c r="I26" s="123" t="str">
+        <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J26" s="33"/>
     </row>
     <row r="27" spans="1:10" ht="35" thickBot="1">
-      <c r="A27" s="122"/>
+      <c r="A27" s="138"/>
       <c r="B27" s="63" t="s">
         <v>396</v>
       </c>
@@ -11423,14 +11417,14 @@
         <v>56</v>
       </c>
       <c r="H27" s="29"/>
-      <c r="I27" s="126" t="str">
-        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/validation_sanitization_encoding.md", "Analysis done here")</f>
+      <c r="I27" s="123" t="str">
+        <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J27" s="33"/>
     </row>
     <row r="28" spans="1:10" ht="63.75" customHeight="1" thickBot="1">
-      <c r="A28" s="122" t="s">
+      <c r="A28" s="138" t="s">
         <v>398</v>
       </c>
       <c r="B28" s="63" t="s">
@@ -11450,14 +11444,14 @@
         <v>56</v>
       </c>
       <c r="H28" s="29"/>
-      <c r="I28" s="126" t="str">
-        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/validation_sanitization_encoding.md", "Analysis done here")</f>
+      <c r="I28" s="123" t="str">
+        <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J28" s="33"/>
     </row>
     <row r="29" spans="1:10" ht="69" thickBot="1">
-      <c r="A29" s="122"/>
+      <c r="A29" s="138"/>
       <c r="B29" s="63" t="s">
         <v>401</v>
       </c>
@@ -11475,14 +11469,14 @@
         <v>56</v>
       </c>
       <c r="H29" s="29"/>
-      <c r="I29" s="126" t="str">
-        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/validation_sanitization_encoding.md", "Analysis done here")</f>
+      <c r="I29" s="123" t="str">
+        <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J29" s="33"/>
     </row>
     <row r="30" spans="1:10" ht="52" thickBot="1">
-      <c r="A30" s="122"/>
+      <c r="A30" s="138"/>
       <c r="B30" s="63" t="s">
         <v>403</v>
       </c>
@@ -11500,14 +11494,14 @@
         <v>56</v>
       </c>
       <c r="H30" s="29"/>
-      <c r="I30" s="126" t="str">
-        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/validation_sanitization_encoding.md", "Analysis done here")</f>
+      <c r="I30" s="123" t="str">
+        <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J30" s="33"/>
     </row>
     <row r="31" spans="1:10" ht="52" thickBot="1">
-      <c r="A31" s="122"/>
+      <c r="A31" s="138"/>
       <c r="B31" s="63" t="s">
         <v>405</v>
       </c>
@@ -11525,8 +11519,8 @@
         <v>26</v>
       </c>
       <c r="H31" s="36"/>
-      <c r="I31" s="126" t="str">
-        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/validation_sanitization_encoding.md", "Analysis done here")</f>
+      <c r="I31" s="123" t="str">
+        <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J31" s="38"/>
@@ -11609,7 +11603,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="48" customHeight="1" thickBot="1">
-      <c r="A2" s="122" t="s">
+      <c r="A2" s="138" t="s">
         <v>407</v>
       </c>
       <c r="B2" s="63" t="s">
@@ -11629,14 +11623,14 @@
         <v>26</v>
       </c>
       <c r="H2" s="50"/>
-      <c r="I2" s="126" t="str">
-        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/stored_cryptography.md", "Analysis done here")</f>
+      <c r="I2" s="123" t="str">
+        <f t="shared" ref="I2:I17" si="0">HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/stored_cryptography.md", "Analysis done here")</f>
         <v>Analysis done here</v>
       </c>
       <c r="J2" s="66"/>
     </row>
     <row r="3" spans="1:10" ht="35" thickBot="1">
-      <c r="A3" s="122"/>
+      <c r="A3" s="138"/>
       <c r="B3" s="63" t="s">
         <v>410</v>
       </c>
@@ -11654,14 +11648,14 @@
         <v>136</v>
       </c>
       <c r="H3" s="29"/>
-      <c r="I3" s="126" t="str">
-        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/stored_cryptography.md", "Analysis done here")</f>
+      <c r="I3" s="123" t="str">
+        <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J3" s="33"/>
     </row>
     <row r="4" spans="1:10" ht="35" thickBot="1">
-      <c r="A4" s="122"/>
+      <c r="A4" s="138"/>
       <c r="B4" s="63" t="s">
         <v>183</v>
       </c>
@@ -11679,14 +11673,14 @@
         <v>136</v>
       </c>
       <c r="H4" s="29"/>
-      <c r="I4" s="126" t="str">
-        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/stored_cryptography.md", "Analysis done here")</f>
+      <c r="I4" s="123" t="str">
+        <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J4" s="33"/>
     </row>
     <row r="5" spans="1:10" ht="32.25" customHeight="1" thickBot="1">
-      <c r="A5" s="122" t="s">
+      <c r="A5" s="138" t="s">
         <v>413</v>
       </c>
       <c r="B5" s="63" t="s">
@@ -11706,14 +11700,14 @@
         <v>26</v>
       </c>
       <c r="H5" s="29"/>
-      <c r="I5" s="126" t="str">
-        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/stored_cryptography.md", "Analysis done here")</f>
+      <c r="I5" s="123" t="str">
+        <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J5" s="33"/>
     </row>
     <row r="6" spans="1:10" ht="52" thickBot="1">
-      <c r="A6" s="122"/>
+      <c r="A6" s="138"/>
       <c r="B6" s="63" t="s">
         <v>416</v>
       </c>
@@ -11731,14 +11725,14 @@
         <v>26</v>
       </c>
       <c r="H6" s="29"/>
-      <c r="I6" s="126" t="str">
-        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/stored_cryptography.md", "Analysis done here")</f>
+      <c r="I6" s="123" t="str">
+        <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J6" s="33"/>
     </row>
     <row r="7" spans="1:10" ht="35" thickBot="1">
-      <c r="A7" s="122"/>
+      <c r="A7" s="138"/>
       <c r="B7" s="63" t="s">
         <v>418</v>
       </c>
@@ -11756,14 +11750,14 @@
         <v>136</v>
       </c>
       <c r="H7" s="29"/>
-      <c r="I7" s="126" t="str">
-        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/stored_cryptography.md", "Analysis done here")</f>
+      <c r="I7" s="123" t="str">
+        <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J7" s="33"/>
     </row>
     <row r="8" spans="1:10" ht="52" thickBot="1">
-      <c r="A8" s="122"/>
+      <c r="A8" s="138"/>
       <c r="B8" s="63" t="s">
         <v>420</v>
       </c>
@@ -11781,14 +11775,14 @@
         <v>26</v>
       </c>
       <c r="H8" s="29"/>
-      <c r="I8" s="126" t="str">
-        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/stored_cryptography.md", "Analysis done here")</f>
+      <c r="I8" s="123" t="str">
+        <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J8" s="33"/>
     </row>
     <row r="9" spans="1:10" ht="52" thickBot="1">
-      <c r="A9" s="122"/>
+      <c r="A9" s="138"/>
       <c r="B9" s="63" t="s">
         <v>422</v>
       </c>
@@ -11806,14 +11800,14 @@
         <v>26</v>
       </c>
       <c r="H9" s="29"/>
-      <c r="I9" s="126" t="str">
-        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/stored_cryptography.md", "Analysis done here")</f>
+      <c r="I9" s="123" t="str">
+        <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J9" s="33"/>
     </row>
     <row r="10" spans="1:10" ht="35" thickBot="1">
-      <c r="A10" s="122"/>
+      <c r="A10" s="138"/>
       <c r="B10" s="63" t="s">
         <v>424</v>
       </c>
@@ -11831,14 +11825,14 @@
         <v>26</v>
       </c>
       <c r="H10" s="29"/>
-      <c r="I10" s="126" t="str">
-        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/stored_cryptography.md", "Analysis done here")</f>
+      <c r="I10" s="123" t="str">
+        <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J10" s="33"/>
     </row>
     <row r="11" spans="1:10" ht="35" thickBot="1">
-      <c r="A11" s="122"/>
+      <c r="A11" s="138"/>
       <c r="B11" s="63" t="s">
         <v>426</v>
       </c>
@@ -11856,14 +11850,14 @@
         <v>136</v>
       </c>
       <c r="H11" s="29"/>
-      <c r="I11" s="126" t="str">
-        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/stored_cryptography.md", "Analysis done here")</f>
+      <c r="I11" s="123" t="str">
+        <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J11" s="33"/>
     </row>
     <row r="12" spans="1:10" ht="35" thickBot="1">
-      <c r="A12" s="122"/>
+      <c r="A12" s="138"/>
       <c r="B12" s="63" t="s">
         <v>428</v>
       </c>
@@ -11881,14 +11875,14 @@
         <v>136</v>
       </c>
       <c r="H12" s="29"/>
-      <c r="I12" s="126" t="str">
-        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/stored_cryptography.md", "Analysis done here")</f>
+      <c r="I12" s="123" t="str">
+        <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J12" s="33"/>
     </row>
     <row r="13" spans="1:10" ht="48" customHeight="1" thickBot="1">
-      <c r="A13" s="122" t="s">
+      <c r="A13" s="138" t="s">
         <v>430</v>
       </c>
       <c r="B13" s="63" t="s">
@@ -11908,14 +11902,14 @@
         <v>26</v>
       </c>
       <c r="H13" s="29"/>
-      <c r="I13" s="126" t="str">
-        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/stored_cryptography.md", "Analysis done here")</f>
+      <c r="I13" s="123" t="str">
+        <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J13" s="33"/>
     </row>
     <row r="14" spans="1:10" ht="52" thickBot="1">
-      <c r="A14" s="122"/>
+      <c r="A14" s="138"/>
       <c r="B14" s="63" t="s">
         <v>433</v>
       </c>
@@ -11933,14 +11927,14 @@
         <v>26</v>
       </c>
       <c r="H14" s="29"/>
-      <c r="I14" s="126" t="str">
-        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/stored_cryptography.md", "Analysis done here")</f>
+      <c r="I14" s="123" t="str">
+        <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J14" s="33"/>
     </row>
     <row r="15" spans="1:10" ht="35" thickBot="1">
-      <c r="A15" s="122"/>
+      <c r="A15" s="138"/>
       <c r="B15" s="63" t="s">
         <v>435</v>
       </c>
@@ -11958,14 +11952,14 @@
         <v>136</v>
       </c>
       <c r="H15" s="29"/>
-      <c r="I15" s="126" t="str">
-        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/stored_cryptography.md", "Analysis done here")</f>
+      <c r="I15" s="123" t="str">
+        <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J15" s="33"/>
     </row>
     <row r="16" spans="1:10" ht="48" customHeight="1" thickBot="1">
-      <c r="A16" s="122" t="s">
+      <c r="A16" s="138" t="s">
         <v>437</v>
       </c>
       <c r="B16" s="63" t="s">
@@ -11985,14 +11979,14 @@
         <v>56</v>
       </c>
       <c r="H16" s="29"/>
-      <c r="I16" s="126" t="str">
-        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/stored_cryptography.md", "Analysis done here")</f>
+      <c r="I16" s="123" t="str">
+        <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J16" s="33"/>
     </row>
     <row r="17" spans="1:10" ht="35" thickBot="1">
-      <c r="A17" s="122"/>
+      <c r="A17" s="138"/>
       <c r="B17" s="63" t="s">
         <v>440</v>
       </c>
@@ -12010,8 +12004,8 @@
         <v>56</v>
       </c>
       <c r="H17" s="36"/>
-      <c r="I17" s="126" t="str">
-        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/stored_cryptography.md", "Analysis done here")</f>
+      <c r="I17" s="123" t="str">
+        <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J17" s="38"/>
@@ -12093,7 +12087,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="48" customHeight="1" thickBot="1">
-      <c r="A2" s="122" t="s">
+      <c r="A2" s="138" t="s">
         <v>442</v>
       </c>
       <c r="B2" s="63" t="s">
@@ -12112,15 +12106,15 @@
       <c r="G2" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="125"/>
-      <c r="I2" s="137" t="str">
-        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/error_handling_and_logging.md", "Analysis done here")</f>
+      <c r="H2" s="122"/>
+      <c r="I2" s="134" t="str">
+        <f t="shared" ref="I2:I14" si="0">HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/error_handling_and_logging.md", "Analysis done here")</f>
         <v>Analysis done here</v>
       </c>
       <c r="J2" s="94"/>
     </row>
     <row r="3" spans="1:10" ht="52" thickBot="1">
-      <c r="A3" s="122"/>
+      <c r="A3" s="138"/>
       <c r="B3" s="63" t="s">
         <v>310</v>
       </c>
@@ -12137,15 +12131,15 @@
       <c r="G3" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="124"/>
-      <c r="I3" s="137" t="str">
-        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/error_handling_and_logging.md", "Analysis done here")</f>
+      <c r="H3" s="121"/>
+      <c r="I3" s="134" t="str">
+        <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J3" s="33"/>
     </row>
     <row r="4" spans="1:10" ht="51">
-      <c r="A4" s="122"/>
+      <c r="A4" s="138"/>
       <c r="B4" s="63" t="s">
         <v>445</v>
       </c>
@@ -12162,15 +12156,15 @@
       <c r="G4" s="29" t="s">
         <v>136</v>
       </c>
-      <c r="H4" s="124"/>
-      <c r="I4" s="137" t="str">
-        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/error_handling_and_logging.md", "Analysis done here")</f>
+      <c r="H4" s="121"/>
+      <c r="I4" s="134" t="str">
+        <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J4" s="33"/>
     </row>
     <row r="5" spans="1:10" ht="51">
-      <c r="A5" s="122"/>
+      <c r="A5" s="138"/>
       <c r="B5" s="63" t="s">
         <v>447</v>
       </c>
@@ -12187,15 +12181,15 @@
       <c r="G5" s="29" t="s">
         <v>136</v>
       </c>
-      <c r="H5" s="124"/>
-      <c r="I5" s="137" t="str">
-        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/error_handling_and_logging.md", "Analysis done here")</f>
+      <c r="H5" s="121"/>
+      <c r="I5" s="134" t="str">
+        <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J5" s="33"/>
     </row>
     <row r="6" spans="1:10" ht="48" customHeight="1">
-      <c r="A6" s="122" t="s">
+      <c r="A6" s="138" t="s">
         <v>449</v>
       </c>
       <c r="B6" s="63" t="s">
@@ -12215,14 +12209,14 @@
         <v>136</v>
       </c>
       <c r="H6" s="29"/>
-      <c r="I6" s="137" t="str">
-        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/error_handling_and_logging.md", "Analysis done here")</f>
+      <c r="I6" s="134" t="str">
+        <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J6" s="33"/>
     </row>
     <row r="7" spans="1:10" ht="34">
-      <c r="A7" s="122"/>
+      <c r="A7" s="138"/>
       <c r="B7" s="63" t="s">
         <v>451</v>
       </c>
@@ -12240,14 +12234,14 @@
         <v>136</v>
       </c>
       <c r="H7" s="29"/>
-      <c r="I7" s="137" t="str">
-        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/error_handling_and_logging.md", "Analysis done here")</f>
+      <c r="I7" s="134" t="str">
+        <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J7" s="33"/>
     </row>
     <row r="8" spans="1:10" ht="48" customHeight="1">
-      <c r="A8" s="122" t="s">
+      <c r="A8" s="138" t="s">
         <v>453</v>
       </c>
       <c r="B8" s="63" t="s">
@@ -12267,14 +12261,14 @@
         <v>136</v>
       </c>
       <c r="H8" s="29"/>
-      <c r="I8" s="137" t="str">
-        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/error_handling_and_logging.md", "Analysis done here")</f>
+      <c r="I8" s="134" t="str">
+        <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J8" s="33"/>
     </row>
     <row r="9" spans="1:10" ht="17">
-      <c r="A9" s="122"/>
+      <c r="A9" s="138"/>
       <c r="B9" s="63" t="s">
         <v>456</v>
       </c>
@@ -12292,14 +12286,14 @@
         <v>56</v>
       </c>
       <c r="H9" s="29"/>
-      <c r="I9" s="137" t="str">
-        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/error_handling_and_logging.md", "Analysis done here")</f>
+      <c r="I9" s="134" t="str">
+        <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J9" s="33"/>
     </row>
     <row r="10" spans="1:10" ht="34">
-      <c r="A10" s="122"/>
+      <c r="A10" s="138"/>
       <c r="B10" s="63" t="s">
         <v>458</v>
       </c>
@@ -12317,14 +12311,14 @@
         <v>136</v>
       </c>
       <c r="H10" s="29"/>
-      <c r="I10" s="137" t="str">
-        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/error_handling_and_logging.md", "Analysis done here")</f>
+      <c r="I10" s="134" t="str">
+        <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J10" s="33"/>
     </row>
     <row r="11" spans="1:10" ht="51">
-      <c r="A11" s="122"/>
+      <c r="A11" s="138"/>
       <c r="B11" s="63" t="s">
         <v>460</v>
       </c>
@@ -12340,14 +12334,14 @@
         <v>136</v>
       </c>
       <c r="H11" s="29"/>
-      <c r="I11" s="137" t="str">
-        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/error_handling_and_logging.md", "Analysis done here")</f>
+      <c r="I11" s="134" t="str">
+        <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J11" s="33"/>
     </row>
     <row r="12" spans="1:10" ht="63.75" customHeight="1">
-      <c r="A12" s="122" t="s">
+      <c r="A12" s="138" t="s">
         <v>462</v>
       </c>
       <c r="B12" s="63" t="s">
@@ -12367,14 +12361,14 @@
         <v>26</v>
       </c>
       <c r="H12" s="29"/>
-      <c r="I12" s="137" t="str">
-        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/error_handling_and_logging.md", "Analysis done here")</f>
+      <c r="I12" s="134" t="str">
+        <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J12" s="33"/>
     </row>
     <row r="13" spans="1:10" ht="52" thickBot="1">
-      <c r="A13" s="122"/>
+      <c r="A13" s="138"/>
       <c r="B13" s="63" t="s">
         <v>465</v>
       </c>
@@ -12392,14 +12386,14 @@
         <v>26</v>
       </c>
       <c r="H13" s="29"/>
-      <c r="I13" s="137" t="str">
-        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/error_handling_and_logging.md", "Analysis done here")</f>
+      <c r="I13" s="134" t="str">
+        <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J13" s="33"/>
     </row>
     <row r="14" spans="1:10" ht="35" thickBot="1">
-      <c r="A14" s="122"/>
+      <c r="A14" s="138"/>
       <c r="B14" s="63" t="s">
         <v>467</v>
       </c>
@@ -12417,8 +12411,8 @@
         <v>26</v>
       </c>
       <c r="H14" s="36"/>
-      <c r="I14" s="137" t="str">
-        <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/error_handling_and_logging.md", "Analysis done here")</f>
+      <c r="I14" s="134" t="str">
+        <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J14" s="38"/>
@@ -12499,7 +12493,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="32.25" customHeight="1" thickBot="1">
-      <c r="A2" s="122" t="s">
+      <c r="A2" s="138" t="s">
         <v>469</v>
       </c>
       <c r="B2" s="63" t="s">
@@ -12519,14 +12513,14 @@
         <v>26</v>
       </c>
       <c r="H2" s="50"/>
-      <c r="I2" s="126" t="str">
+      <c r="I2" s="123" t="str">
         <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/data_protection.md", "Analysis done here")</f>
         <v>Analysis done here</v>
       </c>
       <c r="J2" s="66"/>
     </row>
     <row r="3" spans="1:10" ht="35" thickBot="1">
-      <c r="A3" s="122"/>
+      <c r="A3" s="138"/>
       <c r="B3" s="63" t="s">
         <v>472</v>
       </c>
@@ -12544,14 +12538,14 @@
         <v>26</v>
       </c>
       <c r="H3" s="29"/>
-      <c r="I3" s="126" t="str">
+      <c r="I3" s="123" t="str">
         <f t="shared" ref="I3:I17" si="0">HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/data_protection.md", "Analysis done here")</f>
         <v>Analysis done here</v>
       </c>
       <c r="J3" s="33"/>
     </row>
     <row r="4" spans="1:10" ht="35" thickBot="1">
-      <c r="A4" s="122"/>
+      <c r="A4" s="138"/>
       <c r="B4" s="63" t="s">
         <v>474</v>
       </c>
@@ -12569,14 +12563,14 @@
         <v>136</v>
       </c>
       <c r="H4" s="29"/>
-      <c r="I4" s="126" t="str">
+      <c r="I4" s="123" t="str">
         <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J4" s="33"/>
     </row>
     <row r="5" spans="1:10" ht="35" thickBot="1">
-      <c r="A5" s="122"/>
+      <c r="A5" s="138"/>
       <c r="B5" s="63" t="s">
         <v>476</v>
       </c>
@@ -12594,14 +12588,14 @@
         <v>136</v>
       </c>
       <c r="H5" s="29"/>
-      <c r="I5" s="126" t="str">
+      <c r="I5" s="123" t="str">
         <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J5" s="33"/>
     </row>
     <row r="6" spans="1:10" ht="18" thickBot="1">
-      <c r="A6" s="122"/>
+      <c r="A6" s="138"/>
       <c r="B6" s="63" t="s">
         <v>478</v>
       </c>
@@ -12619,14 +12613,14 @@
         <v>26</v>
       </c>
       <c r="H6" s="29"/>
-      <c r="I6" s="126" t="str">
+      <c r="I6" s="123" t="str">
         <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J6" s="33"/>
     </row>
     <row r="7" spans="1:10" ht="18" thickBot="1">
-      <c r="A7" s="122"/>
+      <c r="A7" s="138"/>
       <c r="B7" s="63" t="s">
         <v>480</v>
       </c>
@@ -12644,14 +12638,14 @@
         <v>26</v>
       </c>
       <c r="H7" s="29"/>
-      <c r="I7" s="126" t="str">
+      <c r="I7" s="123" t="str">
         <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J7" s="33"/>
     </row>
     <row r="8" spans="1:10" ht="32.25" customHeight="1" thickBot="1">
-      <c r="A8" s="122" t="s">
+      <c r="A8" s="138" t="s">
         <v>482</v>
       </c>
       <c r="B8" s="63" t="s">
@@ -12671,14 +12665,14 @@
         <v>26</v>
       </c>
       <c r="H8" s="29"/>
-      <c r="I8" s="126" t="str">
+      <c r="I8" s="123" t="str">
         <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J8" s="33"/>
     </row>
     <row r="9" spans="1:10" ht="35" thickBot="1">
-      <c r="A9" s="122"/>
+      <c r="A9" s="138"/>
       <c r="B9" s="63" t="s">
         <v>485</v>
       </c>
@@ -12696,14 +12690,14 @@
         <v>26</v>
       </c>
       <c r="H9" s="29"/>
-      <c r="I9" s="126" t="str">
+      <c r="I9" s="123" t="str">
         <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J9" s="33"/>
     </row>
     <row r="10" spans="1:10" ht="35" thickBot="1">
-      <c r="A10" s="122"/>
+      <c r="A10" s="138"/>
       <c r="B10" s="63" t="s">
         <v>487</v>
       </c>
@@ -12721,14 +12715,14 @@
         <v>136</v>
       </c>
       <c r="H10" s="29"/>
-      <c r="I10" s="126" t="str">
+      <c r="I10" s="123" t="str">
         <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J10" s="33"/>
     </row>
     <row r="11" spans="1:10" ht="32.25" customHeight="1" thickBot="1">
-      <c r="A11" s="122" t="s">
+      <c r="A11" s="138" t="s">
         <v>489</v>
       </c>
       <c r="B11" s="63" t="s">
@@ -12748,14 +12742,14 @@
         <v>136</v>
       </c>
       <c r="H11" s="29"/>
-      <c r="I11" s="126" t="str">
+      <c r="I11" s="123" t="str">
         <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J11" s="33"/>
     </row>
     <row r="12" spans="1:10" ht="18" thickBot="1">
-      <c r="A12" s="122"/>
+      <c r="A12" s="138"/>
       <c r="B12" s="63" t="s">
         <v>492</v>
       </c>
@@ -12773,14 +12767,14 @@
         <v>26</v>
       </c>
       <c r="H12" s="29"/>
-      <c r="I12" s="126" t="str">
+      <c r="I12" s="123" t="str">
         <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J12" s="33"/>
     </row>
     <row r="13" spans="1:10" ht="35" thickBot="1">
-      <c r="A13" s="122"/>
+      <c r="A13" s="138"/>
       <c r="B13" s="63" t="s">
         <v>494</v>
       </c>
@@ -12798,14 +12792,14 @@
         <v>136</v>
       </c>
       <c r="H13" s="29"/>
-      <c r="I13" s="126" t="str">
+      <c r="I13" s="123" t="str">
         <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J13" s="33"/>
     </row>
     <row r="14" spans="1:10" ht="52" thickBot="1">
-      <c r="A14" s="122"/>
+      <c r="A14" s="138"/>
       <c r="B14" s="63" t="s">
         <v>496</v>
       </c>
@@ -12823,14 +12817,14 @@
         <v>26</v>
       </c>
       <c r="H14" s="29"/>
-      <c r="I14" s="126" t="str">
+      <c r="I14" s="123" t="str">
         <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J14" s="33"/>
     </row>
     <row r="15" spans="1:10" ht="35" thickBot="1">
-      <c r="A15" s="122"/>
+      <c r="A15" s="138"/>
       <c r="B15" s="63" t="s">
         <v>498</v>
       </c>
@@ -12848,14 +12842,14 @@
         <v>26</v>
       </c>
       <c r="H15" s="29"/>
-      <c r="I15" s="126" t="str">
+      <c r="I15" s="123" t="str">
         <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J15" s="33"/>
     </row>
     <row r="16" spans="1:10" ht="35" thickBot="1">
-      <c r="A16" s="122"/>
+      <c r="A16" s="138"/>
       <c r="B16" s="63" t="s">
         <v>500</v>
       </c>
@@ -12873,14 +12867,14 @@
         <v>56</v>
       </c>
       <c r="H16" s="29"/>
-      <c r="I16" s="126" t="str">
+      <c r="I16" s="123" t="str">
         <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J16" s="33"/>
     </row>
     <row r="17" spans="1:10" ht="52" thickBot="1">
-      <c r="A17" s="122"/>
+      <c r="A17" s="138"/>
       <c r="B17" s="63" t="s">
         <v>502</v>
       </c>
@@ -12898,14 +12892,14 @@
         <v>26</v>
       </c>
       <c r="H17" s="29"/>
-      <c r="I17" s="126" t="str">
+      <c r="I17" s="123" t="str">
         <f t="shared" si="0"/>
         <v>Analysis done here</v>
       </c>
       <c r="J17" s="33"/>
     </row>
     <row r="18" spans="1:10" ht="35" thickBot="1">
-      <c r="A18" s="122"/>
+      <c r="A18" s="138"/>
       <c r="B18" s="63" t="s">
         <v>504</v>
       </c>
@@ -12923,7 +12917,7 @@
         <v>26</v>
       </c>
       <c r="H18" s="36"/>
-      <c r="I18" s="135" t="str">
+      <c r="I18" s="132" t="str">
         <f>HYPERLINK("https://github.com/padrinoski/desofs2024_M1C_1/blob/main/documentation/ssdlc/security-requirements/data_protection.md", "Analysis done here")</f>
         <v>Analysis done here</v>
       </c>
